--- a/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
+++ b/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
@@ -718,12 +718,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-nowave-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -737,8 +737,12 @@
           <t>low</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.3</v>
+      </c>
       <c r="H2" t="n">
         <v>40</v>
       </c>
@@ -777,41 +781,101 @@
       <c r="S2" t="n">
         <v>270.29</v>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>24.21160000000002</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>22.33745016720204</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>22.34143517832123</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>24.33499999999999</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>22.56721739862245</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>22.43232243393642</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>25.6716</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>21.72401934722936</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>21.28006303669377</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>22.95748168777432</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>22.33438694823586</v>
+      </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.9231639505830895</v>
+      </c>
       <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
+      <c r="AS2" t="n">
+        <v>0.165627475329425</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
+      <c r="AY2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1.005096730492821</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1.054925005136635</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.9933155705137195</v>
+      </c>
       <c r="BC2" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -826,18 +890,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0300-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -846,10 +910,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G3" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="H3" t="n">
         <v>40</v>
@@ -889,41 +953,103 @@
       <c r="S3" t="n">
         <v>270.29</v>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X3" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>13.84999999999999</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>13.26748681799593</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>13.24500679996164</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>14.20500000000001</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13.8859142624203</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>13.85924014610819</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>14.245</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>13.4544277494324</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13.4321200567168</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>14.20499999999998</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>13.49582109976026</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>13.47190846378457</v>
+      </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
+      <c r="AP3" t="n">
+        <v>2.048514439309262</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3.067191124753903</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>5.367107830990268</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.0290991476103881</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1.188138374799372</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.8300006129925436</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1.993674231090036</v>
+      </c>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1.02563176895307</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1.002815909890883</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.9971919971919958</v>
+      </c>
       <c r="BC3" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -938,18 +1064,18 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0100-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-nowave-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -957,12 +1083,8 @@
           <t>low</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.65</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>40</v>
       </c>
@@ -1001,29 +1123,55 @@
       <c r="S4" t="n">
         <v>270.29</v>
       </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>17499</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17499</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17499</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>17499</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7.904124999999976</v>
+      </c>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
+      <c r="AE4" t="n">
+        <v>10.95580000000005</v>
+      </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
+      <c r="AH4" t="n">
+        <v>14.732825</v>
+      </c>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
+      <c r="AK4" t="n">
+        <v>25.5878</v>
+      </c>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1032,10 +1180,18 @@
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
+      <c r="AY4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1.386086378947712</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1.344751182022302</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1.736788429917548</v>
+      </c>
       <c r="BC4" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1050,7 +1206,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1070,10 +1226,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="H5" t="n">
         <v>40</v>
@@ -1113,41 +1269,101 @@
       <c r="S5" t="n">
         <v>270.29</v>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U5" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>8.46999999999997</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.286525435987313</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.305555253072264</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>8.89520000000001</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>7.365355528114877</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7.39819555739502</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.965225000000004</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>7.438712535705606</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>7.3895737252478</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>9.650600000000033</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>7.732784251588785</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>7.683371299980567</v>
+      </c>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
+      <c r="AP5" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.9231639505830895</v>
+      </c>
       <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
+      <c r="AS5" t="n">
+        <v>0.06054199788577371</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
+      <c r="AY5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1.050200708382531</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>1.120292404892526</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.9684277073523206</v>
+      </c>
       <c r="BC5" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1162,7 +1378,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0200-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0100-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1182,10 +1398,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G6" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="H6" t="n">
         <v>40</v>
@@ -1225,41 +1441,103 @@
       <c r="S6" t="n">
         <v>270.29</v>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X6" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>4.64820000000001</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4.41184493363587</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4.404153441561117</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4.784999999999997</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4.670528733057815</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4.65867087674816</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>4.764999999999986</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>4.529900262688277</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>4.520103397867063</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>4.700000000000017</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>4.555000862938027</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>4.544047732784308</v>
+      </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
+      <c r="AP6" t="n">
+        <v>2.048514439309262</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>3.067191124753903</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>5.367107830990268</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.009802141592094813</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1.188138374799372</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.8300006129925436</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1.993674231090036</v>
+      </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>1.029430747386082</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.9958202716823386</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.9863588667366276</v>
+      </c>
       <c r="BC6" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1274,12 +1552,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0300-freq-0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1294,9 +1572,11 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>0.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.65</v>
+      </c>
       <c r="H7" t="n">
         <v>40</v>
       </c>
@@ -1335,41 +1615,101 @@
       <c r="S7" t="n">
         <v>270.29</v>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V7" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X7" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>10.22999999999999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.782763922699507</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8.780926333665223</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>10.79359999999999</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9.120675383684732</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9.099206856276044</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>12.47000000000003</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>8.846448602954444</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8.81679751140604</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>12.6882</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>9.003939971733992</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>8.98264061755815</v>
+      </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
+      <c r="AP7" t="n">
+        <v>2.048514439309262</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>3.067191124753903</v>
+      </c>
       <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
+      <c r="AS7" t="n">
+        <v>0.02211084545212843</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>1.188138374799372</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.8300006129925436</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1.993674231090036</v>
+      </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
+      <c r="AY7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>1.055092864125122</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>1.155314260302405</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>1.01749799518845</v>
+      </c>
       <c r="BC7" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1384,18 +1724,18 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0100-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0200-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1404,10 +1744,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
         <v>40</v>
@@ -1447,41 +1787,103 @@
       <c r="S8" t="n">
         <v>270.29</v>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>16.0608</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>14.77778695984243</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>14.76131639391834</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>16.85639999999999</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>14.83938548305299</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>14.89381332601531</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11.6614</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10.46117156993481</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>10.40722006967354</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>11.881</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>10.74727902920542</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>10.68411617776037</v>
+      </c>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
+      <c r="AP8" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.9231639505830895</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>17.83209309073736</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.1147270587689714</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1.049536760310818</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.6918084525758763</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1.018831358155968</v>
+      </c>
       <c r="BC8" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1496,18 +1898,18 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0300-freq-0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1516,11 +1918,9 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.3</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
         <v>40</v>
       </c>
@@ -1559,29 +1959,55 @@
       <c r="S9" t="n">
         <v>270.29</v>
       </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>22894</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>22894</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>22894</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>22894</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>18.71500000000002</v>
+      </c>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
+      <c r="AE9" t="n">
+        <v>18.92500000000003</v>
+      </c>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
+      <c r="AH9" t="n">
+        <v>23.77289999999999</v>
+      </c>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
+      <c r="AK9" t="n">
+        <v>30.9936</v>
+      </c>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -1590,10 +2016,18 @@
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
+      <c r="AY9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>1.011220945765429</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>1.256163804491411</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>1.303736607649888</v>
+      </c>
       <c r="BC9" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1608,18 +2042,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0100-freq1300-per40-depth580-mstop30-run3.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0100-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1631,7 +2065,7 @@
         <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="H10" t="n">
         <v>40</v>
@@ -1644,7 +2078,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1671,41 +2105,101 @@
       <c r="S10" t="n">
         <v>270.29</v>
       </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X10" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>5.719999999999999</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>4.442535668869724</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>4.422255168875509</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>6.234999999999985</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>4.54549913866706</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>4.523373033229161</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8.558825000000034</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>4.562884279987841</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>4.526423448546203</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>9.02882499999998</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>4.467692785103702</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>4.402206877726853</v>
+      </c>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
+      <c r="AP10" t="n">
+        <v>2.048514439309262</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>3.067191124753903</v>
+      </c>
       <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
+      <c r="AS10" t="n">
+        <v>0.01277248752909322</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1.188138374799372</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.8300006129925436</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1.993674231090036</v>
+      </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
+      <c r="AY10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>1.090034965034963</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>1.372706495589423</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>1.054914079911664</v>
+      </c>
       <c r="BC10" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1720,18 +2214,18 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0100-freq0650-per40-depth580-mstop30-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1743,7 +2237,7 @@
         <v>0.1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
         <v>40</v>
@@ -1756,7 +2250,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1783,41 +2277,103 @@
       <c r="S11" t="n">
         <v>270.29</v>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V11" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8.424999999999983</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.587453063474313</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.594394306656385</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>8.219999999999999</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7.44099152558887</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7.446393704532996</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>5.585000000000008</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>5.012820421055442</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>4.991351653873661</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>5.725000000000023</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>5.16306627301166</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>5.146734230002187</v>
+      </c>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
+      <c r="AP11" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.9231639505830895</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>17.83209309073736</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.05594649053658819</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.975667655786352</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.679440389294405</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>1.025067144136081</v>
+      </c>
       <c r="BC11" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1832,18 +2388,18 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0200-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0100-freq1300-per40-depth580-mstop30-run3.csv</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1852,7 +2408,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G12" t="n">
         <v>1.3</v>
@@ -1868,7 +2424,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1895,41 +2451,103 @@
       <c r="S12" t="n">
         <v>270.29</v>
       </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U12" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>8.509999999999962</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.909673891516461</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7.918888316238228</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>8.20999999999998</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>7.28469371965727</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>7.315811492081159</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5.589999999999975</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>5.158387321416821</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>5.052201107972207</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>5.766600000000013</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>5.337988890256712</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>5.220873123415336</v>
+      </c>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
+      <c r="AP12" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.9231639505830895</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>17.83209309073736</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.05587842911257761</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.9647473560517057</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.6808769792935431</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>1.031592128801438</v>
+      </c>
       <c r="BC12" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1944,18 +2562,18 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0100-freq0650-per40-depth580-mstop30-run2.csv</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1964,7 +2582,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G13" t="n">
         <v>0.65</v>
@@ -1980,7 +2598,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -2007,41 +2625,101 @@
       <c r="S13" t="n">
         <v>270.29</v>
       </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V13" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X13" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>5.889999999999986</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>4.44139421382661</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>4.401999878844438</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>6.194999999999993</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>4.57543177794107</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>4.555383045151713</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>9.203399999999988</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>4.611204350767772</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>4.553182452980622</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>8.600000000000023</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>4.588637280413992</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>4.533397998453662</v>
+      </c>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
+      <c r="AP13" t="n">
+        <v>2.048514439309262</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>3.067191124753903</v>
+      </c>
       <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
+      <c r="AS13" t="n">
+        <v>0.01269054695152087</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>1.188138374799372</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.8300006129925436</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>1.993674231090036</v>
+      </c>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
+      <c r="AY13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>1.051782682512735</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>1.485617433414043</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.9344372731816539</v>
+      </c>
       <c r="BC13" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2056,18 +2734,18 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0100-freq1300-per40-depth580-mstop30-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0200-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2076,7 +2754,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G14" t="n">
         <v>1.3</v>
@@ -2092,7 +2770,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -2119,41 +2797,101 @@
       <c r="S14" t="n">
         <v>270.29</v>
       </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U14" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X14" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>16.36040000000001</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>14.83131082621622</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>14.78405121221016</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17.26500000000001</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>15.10123054132932</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15.09240427255776</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>17.97520000000001</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15.51848743063506</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15.34246923745891</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>16.94500000000002</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>14.39136948475458</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>14.32228679945845</v>
+      </c>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
+      <c r="AP14" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.9231639505830895</v>
+      </c>
       <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
+      <c r="AS14" t="n">
+        <v>0.1175080485540385</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
+      <c r="AY14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>1.055292046649226</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>1.04113524471474</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.9426877030575467</v>
+      </c>
       <c r="BC14" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2168,7 +2906,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-nowave-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2179,7 +2917,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2187,8 +2925,12 @@
           <t>low</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.65</v>
+      </c>
       <c r="H15" t="n">
         <v>40</v>
       </c>
@@ -2227,41 +2969,103 @@
       <c r="S15" t="n">
         <v>270.29</v>
       </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U15" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X15" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>9.414999999999992</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.833319126047613</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>8.817784957284289</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>9.669999999999987</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>9.305788902491996</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>9.289879256458125</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9.414999999999992</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>9.015097042710794</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.999581619493508</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>9.460000000000008</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>9.01965261768445</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>9.004182640689322</v>
+      </c>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
+      <c r="AP15" t="n">
+        <v>2.048514439309262</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>3.067191124753903</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>5.367107830990268</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.01980913462812054</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>1.188138374799372</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.8300006129925436</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1.993674231090036</v>
+      </c>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>1.027084439723845</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.9736297828335061</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>1.004779607010092</v>
+      </c>
       <c r="BC15" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2276,18 +3080,18 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0300-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0100-freq1300-per40-depth580-mstop30-run2.csv</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2296,10 +3100,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
         <v>40</v>
@@ -2312,7 +3116,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -2339,41 +3143,103 @@
       <c r="S16" t="n">
         <v>270.29</v>
       </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U16" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V16" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8.470199999999998</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.902672428927043</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.910034522369999</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>8.384999999999991</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>7.397057508822425</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>7.419133498045051</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>5.719999999999999</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>4.950020905424022</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>4.92915607558604</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>5.935000000000002</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>5.123395631612182</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>5.101858928067905</v>
+      </c>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
+      <c r="AP16" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.9231639505830895</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>17.83209309073736</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.05706950403276053</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.9899412056385909</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.6821705426356596</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>1.037587412587413</v>
+      </c>
       <c r="BC16" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2388,7 +3254,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-nowave-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2399,7 +3265,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2407,12 +3273,8 @@
           <t>low</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.3</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
         <v>40</v>
       </c>
@@ -2451,29 +3313,55 @@
       <c r="S17" t="n">
         <v>270.29</v>
       </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>15001</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15001</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15001</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15001</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.2599999999999909</v>
+      </c>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
+      <c r="AE17" t="n">
+        <v>0.6000000000000227</v>
+      </c>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
+      <c r="AH17" t="n">
+        <v>0.3050000000000068</v>
+      </c>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AK17" t="n">
+        <v>0.2549999999999955</v>
+      </c>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -2482,10 +3370,18 @@
       <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>2.307692307692476</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0.5083333333333254</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.8360655737704582</v>
+      </c>
       <c r="BC17" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2500,7 +3396,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0300-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2511,7 +3407,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2523,7 +3419,7 @@
         <v>0.3</v>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="H18" t="n">
         <v>40</v>
@@ -2563,41 +3459,101 @@
       <c r="S18" t="n">
         <v>270.29</v>
       </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U18" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W18" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X18" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13.32761699733001</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>13.31397650539344</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15.22000000000001</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13.56713492552878</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13.57272408404295</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15.99499999999998</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>13.36941192195671</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>13.32548256266678</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>17.36999999999999</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>13.41754494407734</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>13.41508786355434</v>
+      </c>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
+      <c r="AP18" t="n">
+        <v>2.048514439309262</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>3.067191124753903</v>
+      </c>
       <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr"/>
+      <c r="AS18" t="n">
+        <v>0.031178389766287</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1.188138374799372</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0.8300006129925436</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1.993674231090036</v>
+      </c>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
+      <c r="AY18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>1.041039671682627</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>1.050919842312744</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>1.085964363863708</v>
+      </c>
       <c r="BC18" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2612,12 +3568,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0100-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -2632,10 +3588,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G19" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="H19" t="n">
         <v>40</v>
@@ -2675,41 +3631,103 @@
       <c r="S19" t="n">
         <v>270.29</v>
       </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U19" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V19" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>29.61419999999998</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>22.1029317134168</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>21.97186932285476</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>24.2908</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>22.67244887232253</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>22.43701125922573</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>18.91500000000001</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>16.6980781353745</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>16.74538288419962</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>19.1414</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>17.15579088838489</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>17.08271818736758</v>
+      </c>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr"/>
+      <c r="AP19" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.9231639505830895</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>17.83209309073736</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.1653266438352989</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
-      <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="inlineStr"/>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0.8202416408344654</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0.7786898743557232</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1.011969336505419</v>
+      </c>
       <c r="BC19" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2724,18 +3742,18 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0200-freq-0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2744,9 +3762,11 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>0.3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.3</v>
+      </c>
       <c r="H20" t="n">
         <v>40</v>
       </c>
@@ -2785,41 +3805,103 @@
       <c r="S20" t="n">
         <v>270.29</v>
       </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U20" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V20" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X20" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>25.59199999999998</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>22.26194568480517</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>22.40817816145249</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>24.316</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>22.24167670389305</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>22.16909371152276</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>17.16499999999998</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>15.89125138165396</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>15.81960118231424</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>17.83539999999999</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>16.43434050315091</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>16.32540619753007</v>
+      </c>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
-      <c r="AV20" t="inlineStr"/>
+      <c r="AP20" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.9231639505830895</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>17.83209309073736</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1654981586238052</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
-      <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
+      <c r="AY20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0.9501406689590501</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0.7059138016121065</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1.039056219050394</v>
+      </c>
       <c r="BC20" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2834,18 +3916,18 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0100-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2854,10 +3936,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="H21" t="n">
         <v>40</v>
@@ -2897,41 +3979,103 @@
       <c r="S21" t="n">
         <v>270.29</v>
       </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U21" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V21" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W21" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X21" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>10.93880000000003</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>4.560527173885861</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>4.507382357534402</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13.11999999999998</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>4.69360425849823</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>4.549574389642229</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>5.074999999999989</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>4.234119375317582</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>4.2256151942578</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>5.159999999999997</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>4.237224665418515</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>4.233429757400328</v>
+      </c>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
-      <c r="AT21" t="inlineStr"/>
-      <c r="AU21" t="inlineStr"/>
-      <c r="AV21" t="inlineStr"/>
+      <c r="AP21" t="n">
+        <v>2.048514439309262</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>3.067191124753903</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>5.367107830990268</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.02687650944373747</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>1.188138374799372</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.8300006129925436</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1.993674231090036</v>
+      </c>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="inlineStr"/>
-      <c r="AZ21" t="inlineStr"/>
-      <c r="BA21" t="inlineStr"/>
-      <c r="BB21" t="inlineStr"/>
+      <c r="AY21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>1.199400299850069</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0.3868140243902438</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1.016748768472908</v>
+      </c>
       <c r="BC21" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2946,7 +4090,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0200-freq-0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2966,11 +4110,9 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.3</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
         <v>40</v>
       </c>
@@ -3009,29 +4151,55 @@
       <c r="S22" t="n">
         <v>270.29</v>
       </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>22887</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>22887</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>22887</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>22887</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>14.946775</v>
+      </c>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
+      <c r="AE22" t="n">
+        <v>15.852675</v>
+      </c>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
+      <c r="AH22" t="n">
+        <v>23.37480000000001</v>
+      </c>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AK22" t="n">
+        <v>24.18350000000006</v>
+      </c>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
@@ -3040,10 +4208,18 @@
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
-      <c r="AZ22" t="inlineStr"/>
-      <c r="BA22" t="inlineStr"/>
-      <c r="BB22" t="inlineStr"/>
+      <c r="AY22" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>1.060608392111342</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>1.474501937370192</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>1.034597087461713</v>
+      </c>
       <c r="BC22" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3058,18 +4234,18 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0200-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3078,7 +4254,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G23" t="n">
         <v>1.3</v>
@@ -3121,41 +4297,101 @@
       <c r="S23" t="n">
         <v>270.29</v>
       </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U23" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V23" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X23" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>23.85680000000001</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>22.21975001956462</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>22.21838386899971</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>23.685225</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>22.46416125696934</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>22.26145451722735</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>23.85500000000002</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>21.90826749923179</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>21.84981856373758</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>30.92667499999992</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>22.15566394720484</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>20.80800188462924</v>
+      </c>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
+      <c r="AP23" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.9231639505830895</v>
+      </c>
       <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr"/>
-      <c r="AV23" t="inlineStr"/>
+      <c r="AS23" t="n">
+        <v>0.1612050141507862</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr"/>
-      <c r="BA23" t="inlineStr"/>
-      <c r="BB23" t="inlineStr"/>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0.9928081301767209</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>1.007167970749698</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>1.296444141689369</v>
+      </c>
       <c r="BC23" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3170,7 +4406,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3190,7 +4426,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G24" t="n">
         <v>1.3</v>
@@ -3233,41 +4469,101 @@
       <c r="S24" t="n">
         <v>270.29</v>
       </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U24" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V24" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W24" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X24" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>14.02120000000001</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.616084940433121</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7.685373125998514</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>14.31699999999998</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>8.102963543129421</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>8.114346316342905</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>15.43500000000002</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>7.689819512998853</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>7.553809941573304</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>23.34947499999999</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>9.120607552681181</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>9.106794267960332</v>
+      </c>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
+      <c r="AP24" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.9231639505830895</v>
+      </c>
       <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr"/>
-      <c r="AV24" t="inlineStr"/>
+      <c r="AS24" t="n">
+        <v>0.09744354075575819</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr"/>
-      <c r="BA24" t="inlineStr"/>
-      <c r="BB24" t="inlineStr"/>
+      <c r="AY24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>1.021096625110545</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1.078088985122584</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1.512761580822803</v>
+      </c>
       <c r="BC24" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3282,7 +4578,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0300-freq0650-per40-depth580-mstop30-run3.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0200-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3302,10 +4598,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G25" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>40</v>
@@ -3318,7 +4614,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -3345,41 +4641,103 @@
       <c r="S25" t="n">
         <v>270.29</v>
       </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U25" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V25" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X25" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>20.47747500000002</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>16.18091530867254</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>16.19196257746687</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>20.092</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>15.21106101468818</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>15.13029102348002</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>11.27000000000001</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>10.00006898304519</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>9.7401434432554</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>12.00499999999997</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>10.74276234751229</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>10.56326152820413</v>
+      </c>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
-      <c r="AT25" t="inlineStr"/>
-      <c r="AU25" t="inlineStr"/>
-      <c r="AV25" t="inlineStr"/>
+      <c r="AP25" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.9231639505830895</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>17.83209309073736</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.136749013121792</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="inlineStr"/>
-      <c r="AY25" t="inlineStr"/>
-      <c r="AZ25" t="inlineStr"/>
-      <c r="BA25" t="inlineStr"/>
-      <c r="BB25" t="inlineStr"/>
+      <c r="AY25" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0.9811756576433363</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0.5609197690623139</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1.065217391304344</v>
+      </c>
       <c r="BC25" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3394,18 +4752,18 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0100-freq1300-per40-depth580-mstop30-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3414,7 +4772,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G26" t="n">
         <v>1.3</v>
@@ -3430,7 +4788,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -3457,41 +4815,101 @@
       <c r="S26" t="n">
         <v>270.29</v>
       </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U26" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V26" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X26" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>26.49500000000002</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>23.32234220987949</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>23.26668201171763</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>27.355</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>23.34552361727425</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>23.31092623828379</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>29.59900000000002</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>23.17262646857796</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>22.94211061513022</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>29.89500000000002</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>24.36473954709596</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>23.75741377717485</v>
+      </c>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
+      <c r="AP26" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.9231639505830895</v>
+      </c>
       <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
-      <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="inlineStr"/>
-      <c r="AV26" t="inlineStr"/>
+      <c r="AS26" t="n">
+        <v>0.1861820253805803</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr"/>
-      <c r="BA26" t="inlineStr"/>
-      <c r="BB26" t="inlineStr"/>
+      <c r="AY26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>1.03245895451972</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>1.082032535185524</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1.010000337849252</v>
+      </c>
       <c r="BC26" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3506,18 +4924,18 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0300-freq0650-per40-depth580-mstop30-run3.csv</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3526,10 +4944,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="H27" t="n">
         <v>40</v>
@@ -3542,7 +4960,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -3569,41 +4987,103 @@
       <c r="S27" t="n">
         <v>270.29</v>
       </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U27" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V27" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W27" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X27" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>20.47555</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>13.4855051584304</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>13.47029411133823</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>20.08999999999997</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>13.45024178505835</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>13.41122957349067</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>13.94319999999999</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>12.98890850601137</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>12.97381479844015</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>13.04215452379937</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>13.0195769843148</v>
+      </c>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="inlineStr"/>
-      <c r="AV27" t="inlineStr"/>
+      <c r="AP27" t="n">
+        <v>2.048514439309262</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>3.067191124753903</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>5.367107830990268</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.04115465508572303</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>1.188138374799372</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.8300006129925436</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1.993674231090036</v>
+      </c>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="inlineStr"/>
-      <c r="BA27" t="inlineStr"/>
-      <c r="BB27" t="inlineStr"/>
+      <c r="AY27" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0.9811702249756405</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0.694036834245894</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1.017700384416777</v>
+      </c>
       <c r="BC27" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3618,7 +5098,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0100-freq1300-per40-depth580-mstop30-run2.csv</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3638,10 +5118,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
         <v>40</v>
@@ -3654,7 +5134,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -3681,41 +5161,103 @@
       <c r="S28" t="n">
         <v>270.29</v>
       </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U28" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V28" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X28" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>8.775000000000006</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.543617784717524</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>7.547553580335491</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>9.124999999999972</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>7.582506302411158</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>7.582485134634262</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>4.945199999999993</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>4.222516779179032</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>4.221680425377391</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>4.550632412467442</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>4.496843896990608</v>
+      </c>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
-      <c r="AT28" t="inlineStr"/>
-      <c r="AU28" t="inlineStr"/>
-      <c r="AV28" t="inlineStr"/>
+      <c r="AP28" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.9231639505830895</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>17.83209309073736</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.06210604940953355</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
-      <c r="AY28" t="inlineStr"/>
-      <c r="AZ28" t="inlineStr"/>
-      <c r="BA28" t="inlineStr"/>
-      <c r="BB28" t="inlineStr"/>
+      <c r="AY28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>1.039886039886036</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0.5419397260273981</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1.061635525357924</v>
+      </c>
       <c r="BC28" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3730,7 +5272,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3750,10 +5292,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G29" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
         <v>40</v>
@@ -3793,41 +5335,101 @@
       <c r="S29" t="n">
         <v>270.29</v>
       </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U29" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V29" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W29" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X29" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>8.210000000000008</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.699263284213402</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7.725417904522334</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>7.593816490660428</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>7.620964647208184</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>8.034999999999997</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>7.468702746147907</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>7.410225178747091</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>8.079999999999984</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>7.523555813506031</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>7.471031001563465</v>
+      </c>
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
+      <c r="AP29" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.9231639505830895</v>
+      </c>
       <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="inlineStr"/>
-      <c r="AV29" t="inlineStr"/>
+      <c r="AS29" t="n">
+        <v>0.05615067480861954</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr"/>
-      <c r="BA29" t="inlineStr"/>
-      <c r="BB29" t="inlineStr"/>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>1.004872107186357</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0.9739393939393935</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>1.005600497822027</v>
+      </c>
       <c r="BC29" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3842,7 +5444,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3862,10 +5464,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="H30" t="n">
         <v>40</v>
@@ -3905,41 +5507,103 @@
       <c r="S30" t="n">
         <v>270.29</v>
       </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
+      <c r="T30" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U30" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V30" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W30" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X30" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.76213236386443</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>8.744437610899308</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>11.14382499999998</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>9.109403309705513</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>9.08521034191936</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>9.253199999999996</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>8.848073173299216</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>8.834507531629313</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>9.338199999999981</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>8.826849196529944</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>8.809127403472335</v>
+      </c>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="inlineStr"/>
-      <c r="AU30" t="inlineStr"/>
-      <c r="AV30" t="inlineStr"/>
+      <c r="AP30" t="n">
+        <v>2.048514439309262</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>3.067191124753903</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>5.367107830990268</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.0228282864216355</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>1.188138374799372</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.8300006129925436</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>1.993674231090036</v>
+      </c>
       <c r="AW30" t="inlineStr"/>
       <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
-      <c r="BA30" t="inlineStr"/>
-      <c r="BB30" t="inlineStr"/>
+      <c r="AY30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>1.084029669260698</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0.8303432618512956</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>1.00918601132581</v>
+      </c>
       <c r="BC30" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3954,18 +5618,18 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0300-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3974,7 +5638,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G31" t="n">
         <v>0.65</v>
@@ -4017,41 +5681,101 @@
       <c r="S31" t="n">
         <v>270.29</v>
       </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U31" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V31" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W31" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X31" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>9.45999999999998</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8.878346286934692</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>8.861802680119906</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>9.629999999999995</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>9.215892732604468</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>9.19559093479665</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9.45999999999998</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>8.966170887472188</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>8.953447025048114</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>9.670000000000016</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>8.988508441753986</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>8.975281908347972</v>
+      </c>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
+      <c r="AP31" t="n">
+        <v>2.048514439309262</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>3.067191124753903</v>
+      </c>
       <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
-      <c r="AV31" t="inlineStr"/>
+      <c r="AS31" t="n">
+        <v>0.01972719405054819</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>1.188138374799372</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0.8300006129925436</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.993674231090036</v>
+      </c>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="inlineStr"/>
-      <c r="AY31" t="inlineStr"/>
-      <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>1.017970401691334</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0.9823468328141208</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1.022198731501061</v>
+      </c>
       <c r="BC31" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4066,18 +5790,18 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0100-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -4089,7 +5813,7 @@
         <v>0.1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>40</v>
@@ -4129,41 +5853,103 @@
       <c r="S32" t="n">
         <v>270.29</v>
       </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
+      <c r="T32" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U32" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V32" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W32" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X32" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>8.561800000000002</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.413153772489077</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>7.397283824466996</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>9.159999999999997</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>7.427684389535947</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>7.425794279954072</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>5.075000000000017</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>4.415202806604988</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>4.404183311507597</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>5.164999999999992</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>4.572491336119789</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>4.526439324525196</v>
+      </c>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
-      <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr"/>
-      <c r="AV32" t="inlineStr"/>
+      <c r="AP32" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.9231639505830895</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>17.83209309073736</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.06234426439357028</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="inlineStr"/>
-      <c r="AZ32" t="inlineStr"/>
-      <c r="BA32" t="inlineStr"/>
-      <c r="BB32" t="inlineStr"/>
+      <c r="AY32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>1.069868485598822</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0.5540393013100458</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1.017733990147778</v>
+      </c>
       <c r="BC32" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4178,12 +5964,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0200-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0300-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -4198,10 +5984,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="H33" t="n">
         <v>40</v>
@@ -4241,41 +6027,103 @@
       <c r="S33" t="n">
         <v>270.29</v>
       </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr"/>
+      <c r="T33" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U33" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V33" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W33" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X33" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>19.525475</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>13.42553738657414</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>13.37560601299554</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>19.84617499999998</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>13.44614170018462</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>13.35829470538741</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>14.19499999999999</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>12.99075119201483</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>12.98107235174357</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>14.19500000000001</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>13.05816550176028</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>13.0452838251017</v>
+      </c>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
-      <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="inlineStr"/>
-      <c r="AV33" t="inlineStr"/>
+      <c r="AP33" t="n">
+        <v>2.048514439309262</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>3.067191124753903</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>5.367107830990268</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.04065517605255847</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1.188138374799372</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.8300006129925436</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1.993674231090036</v>
+      </c>
       <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="inlineStr"/>
-      <c r="AZ33" t="inlineStr"/>
-      <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="inlineStr"/>
+      <c r="AY33" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>1.016424696454247</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0.7152511756043674</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1.000000000000001</v>
+      </c>
       <c r="BC33" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4290,7 +6138,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0200-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0100-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4310,10 +6158,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="H34" t="n">
         <v>40</v>
@@ -4353,41 +6201,101 @@
       <c r="S34" t="n">
         <v>270.29</v>
       </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U34" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V34" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W34" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X34" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>4.769999999999982</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>4.437512099049569</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>4.431048200242951</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>4.944999999999965</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>4.680270189788525</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>4.67157506214418</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>4.730399999999989</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>4.548237720180011</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>4.541348297850564</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>4.855000000000018</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>4.570305427133341</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>4.56225044983703</v>
+      </c>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
+      <c r="AP34" t="n">
+        <v>2.048514439309262</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>3.067191124753903</v>
+      </c>
       <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
+      <c r="AS34" t="n">
+        <v>0.01012990390238423</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1.188138374799372</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0.8300006129925436</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1.993674231090036</v>
+      </c>
       <c r="AW34" t="inlineStr"/>
       <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
-      <c r="AZ34" t="inlineStr"/>
-      <c r="BA34" t="inlineStr"/>
-      <c r="BB34" t="inlineStr"/>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>1.03668763102725</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0.9566026289181037</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.026340267207853</v>
+      </c>
       <c r="BC34" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4402,7 +6310,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0100-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0200-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4422,10 +6330,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G35" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
         <v>40</v>
@@ -4465,41 +6373,103 @@
       <c r="S35" t="n">
         <v>270.29</v>
       </c>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U35" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V35" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W35" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X35" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>17.37499999999999</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>15.49296381700623</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>15.42905302544865</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>16.72999999999999</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>14.85117552913291</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>14.73093775226253</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>11.39499999999998</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>10.31014793472757</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>10.16735664347217</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>11.3116</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>10.33102157266201</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>10.22633424879872</v>
+      </c>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="inlineStr"/>
-      <c r="AV35" t="inlineStr"/>
+      <c r="AP35" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.9231639505830895</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>17.83209309073736</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.1138667623694793</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
-      <c r="AZ35" t="inlineStr"/>
-      <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
+      <c r="AY35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0.9628776978417268</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0.681111775254034</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0.9926810004387907</v>
+      </c>
       <c r="BC35" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4514,18 +6484,18 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0200-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4534,7 +6504,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G36" t="n">
         <v>1.3</v>
@@ -4577,41 +6547,101 @@
       <c r="S36" t="n">
         <v>270.29</v>
       </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U36" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V36" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W36" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X36" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>16.24000000000001</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>15.30478899264122</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>15.26192653577193</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>16.33819999999999</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>15.15596191620538</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>15.14698811717915</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>15.73340000000002</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>14.84546952909458</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>14.75952526053315</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>15.815</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>14.84584078053402</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>14.75507855243591</v>
+      </c>
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
+      <c r="AP36" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.9231639505830895</v>
+      </c>
       <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
-      <c r="AT36" t="inlineStr"/>
-      <c r="AU36" t="inlineStr"/>
-      <c r="AV36" t="inlineStr"/>
+      <c r="AS36" t="n">
+        <v>0.11120011577675</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="inlineStr"/>
-      <c r="AZ36" t="inlineStr"/>
-      <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="inlineStr"/>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>1.006046798029556</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0.96298245828794</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.005186418701615</v>
+      </c>
       <c r="BC36" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4626,18 +6656,18 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0200-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0100-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4646,10 +6676,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G37" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="H37" t="n">
         <v>40</v>
@@ -4689,41 +6719,103 @@
       <c r="S37" t="n">
         <v>270.29</v>
       </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U37" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V37" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W37" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X37" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>5.335424999999975</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>4.35200331641261</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>4.335363515965156</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>6.190399999999997</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>4.691266840185253</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>4.680043062040171</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>4.685000000000002</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>4.385396078072194</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>4.384284493436056</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>4.560000000000002</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>4.403027400849912</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>4.396025503020007</v>
+      </c>
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
-      <c r="AT37" t="inlineStr"/>
-      <c r="AU37" t="inlineStr"/>
-      <c r="AV37" t="inlineStr"/>
+      <c r="AP37" t="n">
+        <v>2.048514439309262</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>3.067191124753903</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>5.367107830990268</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.01268112378510005</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>1.188138374799372</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.8300006129925436</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1.993674231090036</v>
+      </c>
       <c r="AW37" t="inlineStr"/>
       <c r="AX37" t="inlineStr"/>
-      <c r="AY37" t="inlineStr"/>
-      <c r="AZ37" t="inlineStr"/>
-      <c r="BA37" t="inlineStr"/>
-      <c r="BB37" t="inlineStr"/>
+      <c r="AY37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>1.160244966427234</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0.7568170069785481</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0.9733191035218783</v>
+      </c>
       <c r="BC37" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4738,12 +6830,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0300-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -4761,7 +6853,7 @@
         <v>0.3</v>
       </c>
       <c r="G38" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
         <v>40</v>
@@ -4801,41 +6893,103 @@
       <c r="S38" t="n">
         <v>270.29</v>
       </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
+      <c r="T38" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U38" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V38" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W38" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X38" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>27.9216</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>25.04945519297469</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>25.00393734830666</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>28.48019999999999</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>23.55049130866106</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>23.34791695442949</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>17.98500000000001</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>16.20724615963397</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>15.99891577571225</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>19.05839999999998</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>16.6745118650944</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>16.5130192554648</v>
+      </c>
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
-      <c r="AT38" t="inlineStr"/>
-      <c r="AU38" t="inlineStr"/>
-      <c r="AV38" t="inlineStr"/>
+      <c r="AP38" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.9231639505830895</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>17.83209309073736</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.1938402968102358</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW38" t="inlineStr"/>
       <c r="AX38" t="inlineStr"/>
-      <c r="AY38" t="inlineStr"/>
-      <c r="AZ38" t="inlineStr"/>
-      <c r="BA38" t="inlineStr"/>
-      <c r="BB38" t="inlineStr"/>
+      <c r="AY38" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>1.020006016847172</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0.6314913518865746</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.059683069224352</v>
+      </c>
       <c r="BC38" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4850,7 +7004,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0200-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4861,7 +7015,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4870,7 +7024,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G39" t="n">
         <v>1.3</v>
@@ -4913,41 +7067,101 @@
       <c r="S39" t="n">
         <v>270.29</v>
       </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="inlineStr"/>
+      <c r="T39" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U39" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V39" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W39" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X39" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>18.83520000000001</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>16.04592492105019</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>15.86003412790356</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>16.11352071737981</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>16.06444029037342</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>23.1082</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>16.24606776379965</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>16.09202345908683</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>23.0616</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>16.75866807928425</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>16.54226976047118</v>
+      </c>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
+      <c r="AP39" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.9231639505830895</v>
+      </c>
       <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr"/>
-      <c r="AT39" t="inlineStr"/>
-      <c r="AU39" t="inlineStr"/>
-      <c r="AV39" t="inlineStr"/>
+      <c r="AS39" t="n">
+        <v>0.1370076465330317</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="inlineStr"/>
-      <c r="AY39" t="inlineStr"/>
-      <c r="AZ39" t="inlineStr"/>
-      <c r="BA39" t="inlineStr"/>
-      <c r="BB39" t="inlineStr"/>
+      <c r="AY39" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>1.06874362895005</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.147948335817189</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0.9979833998320941</v>
+      </c>
       <c r="BC39" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4962,18 +7176,18 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0300-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0300-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -5025,41 +7239,103 @@
       <c r="S40" t="n">
         <v>270.29</v>
       </c>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
-      <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr"/>
+      <c r="T40" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U40" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W40" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X40" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>14.80000000000001</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>13.12794290770206</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>13.11360173551366</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>13.66267362164673</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>13.64037149057759</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>13.2706628488516</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>13.2358179007175</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>13.84999999999997</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>13.2664379039489</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>13.23076532579462</v>
+      </c>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
-      <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="inlineStr"/>
-      <c r="AV40" t="inlineStr"/>
+      <c r="AP40" t="n">
+        <v>2.048514439309262</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>3.067191124753903</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>5.367107830990268</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.03134227092143171</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>1.188138374799372</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.8300006129925436</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.993674231090036</v>
+      </c>
       <c r="AW40" t="inlineStr"/>
       <c r="AX40" t="inlineStr"/>
-      <c r="AY40" t="inlineStr"/>
-      <c r="AZ40" t="inlineStr"/>
-      <c r="BA40" t="inlineStr"/>
-      <c r="BB40" t="inlineStr"/>
+      <c r="AY40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>1.033783783783783</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0.9137254901960788</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0.9907010014306125</v>
+      </c>
       <c r="BC40" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -5074,7 +7350,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0100-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5085,7 +7361,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -5097,7 +7373,7 @@
         <v>0.1</v>
       </c>
       <c r="G41" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="H41" t="n">
         <v>40</v>
@@ -5137,41 +7413,103 @@
       <c r="S41" t="n">
         <v>270.29</v>
       </c>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="inlineStr"/>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr"/>
+      <c r="T41" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U41" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V41" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W41" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X41" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>13.16860000000001</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7.121365661261355</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>7.093110967791321</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>14.58020000000001</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>7.907181782361455</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>7.915181337364982</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>6.495000000000005</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>5.51831190160084</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>5.480761813531402</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>6.625</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>5.533517314707213</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>5.49558983517908</v>
+      </c>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
-      <c r="AT41" t="inlineStr"/>
-      <c r="AU41" t="inlineStr"/>
-      <c r="AV41" t="inlineStr"/>
+      <c r="AP41" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.9231639505830895</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>17.83209309073736</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.09923491743571337</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AW41" t="inlineStr"/>
       <c r="AX41" t="inlineStr"/>
-      <c r="AY41" t="inlineStr"/>
-      <c r="AZ41" t="inlineStr"/>
-      <c r="BA41" t="inlineStr"/>
-      <c r="BB41" t="inlineStr"/>
+      <c r="AY41" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>1.107194386647024</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0.4454671403684448</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.020015396458814</v>
+      </c>
       <c r="BC41" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -5186,18 +7524,18 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0300-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -5206,7 +7544,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G42" t="n">
         <v>0.65</v>
@@ -5249,41 +7587,101 @@
       <c r="S42" t="n">
         <v>270.29</v>
       </c>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr"/>
+      <c r="T42" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U42" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V42" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W42" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X42" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>14.185</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>13.35051200197309</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>13.328210867015</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>14.185</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>13.82562230450727</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>13.79524260938006</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>13.55864540046689</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>13.54358894028076</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>14.56999999999999</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>13.55399288794872</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>13.53752726696221</v>
+      </c>
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr"/>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
+      <c r="AP42" t="n">
+        <v>2.048514439309262</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>3.067191124753903</v>
+      </c>
       <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="inlineStr"/>
-      <c r="AT42" t="inlineStr"/>
-      <c r="AU42" t="inlineStr"/>
-      <c r="AV42" t="inlineStr"/>
+      <c r="AS42" t="n">
+        <v>0.02905817732160189</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>1.188138374799372</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.8300006129925436</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.993674231090036</v>
+      </c>
       <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="inlineStr"/>
-      <c r="AY42" t="inlineStr"/>
-      <c r="AZ42" t="inlineStr"/>
-      <c r="BA42" t="inlineStr"/>
-      <c r="BB42" t="inlineStr"/>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.020796616143814</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.006215469613259</v>
+      </c>
       <c r="BC42" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -5298,12 +7696,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0100-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -5318,10 +7716,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="H43" t="n">
         <v>40</v>
@@ -5362,99 +7760,99 @@
         <v>270.29</v>
       </c>
       <c r="T43" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U43" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V43" t="n">
         <v>4500</v>
       </c>
-      <c r="U43" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V43" t="n">
-        <v>6300</v>
-      </c>
       <c r="W43" t="n">
-        <v>6300</v>
+        <v>4500</v>
       </c>
       <c r="X43" t="n">
-        <v>9692.307692307691</v>
+        <v>14334.61538461538</v>
       </c>
       <c r="Y43" t="n">
-        <v>9792.307692307691</v>
+        <v>14384.61538461538</v>
       </c>
       <c r="Z43" t="n">
-        <v>11492.30769230769</v>
+        <v>14884.61538461538</v>
       </c>
       <c r="AA43" t="n">
-        <v>11492.30769230769</v>
+        <v>14884.61538461538</v>
       </c>
       <c r="AB43" t="n">
-        <v>24.21160000000002</v>
+        <v>10.28000000000003</v>
       </c>
       <c r="AC43" t="n">
-        <v>22.33745016720204</v>
+        <v>4.36495483967754</v>
       </c>
       <c r="AD43" t="n">
-        <v>22.34143517832123</v>
+        <v>4.253396664126913</v>
       </c>
       <c r="AE43" t="n">
-        <v>24.33499999999999</v>
+        <v>13.54500000000002</v>
       </c>
       <c r="AF43" t="n">
-        <v>22.56721739862245</v>
+        <v>4.654940759858054</v>
       </c>
       <c r="AG43" t="n">
-        <v>22.43232243393642</v>
+        <v>4.512986619173942</v>
       </c>
       <c r="AH43" t="n">
-        <v>25.6716</v>
+        <v>18.37839999999998</v>
       </c>
       <c r="AI43" t="n">
-        <v>21.72401934722936</v>
+        <v>4.6464971394204</v>
       </c>
       <c r="AJ43" t="n">
-        <v>21.28006303669377</v>
+        <v>4.413606119156456</v>
       </c>
       <c r="AK43" t="n">
-        <v>25.5</v>
+        <v>21.19314999999987</v>
       </c>
       <c r="AL43" t="n">
-        <v>22.95748168777432</v>
+        <v>4.228175152549277</v>
       </c>
       <c r="AM43" t="n">
-        <v>22.33438694823586</v>
+        <v>4.084071037838313</v>
       </c>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="n">
-        <v>6.806142401044793</v>
+        <v>2.048514439309262</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.9231639505830895</v>
+        <v>3.067191124753903</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="n">
-        <v>0.165627475329425</v>
+        <v>0.02774712808044399</v>
       </c>
       <c r="AT43" t="n">
-        <v>3.94756259260598</v>
+        <v>1.188138374799372</v>
       </c>
       <c r="AU43" t="n">
-        <v>0.9992551669737394</v>
+        <v>0.8300006129925436</v>
       </c>
       <c r="AV43" t="n">
-        <v>1.200113135758016</v>
+        <v>1.993674231090036</v>
       </c>
       <c r="AW43" t="inlineStr"/>
       <c r="AX43" t="inlineStr"/>
       <c r="AY43" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="AZ43" t="n">
-        <v>1.005096730492821</v>
+        <v>1.317607003891048</v>
       </c>
       <c r="BA43" t="n">
-        <v>1.054925005136635</v>
+        <v>1.356840162421555</v>
       </c>
       <c r="BB43" t="n">
-        <v>0.9933155705137195</v>
+        <v>1.15315533452313</v>
       </c>
       <c r="BC43" t="inlineStr">
         <is>
@@ -5470,12 +7868,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0300-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -5490,7 +7888,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G44" t="n">
         <v>0.65</v>
@@ -5558,40 +7956,40 @@
         <v>14884.61538461538</v>
       </c>
       <c r="AB44" t="n">
-        <v>13.84999999999999</v>
+        <v>14.93759999999998</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.09207126648007451</v>
+        <v>8.830450912745842</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.01511820273610892</v>
+        <v>8.81858949711842</v>
       </c>
       <c r="AE44" t="n">
-        <v>14.20500000000001</v>
+        <v>16.345</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.09924820717196799</v>
+        <v>8.95361579955113</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.01551127688270149</v>
+        <v>8.902703604920607</v>
       </c>
       <c r="AH44" t="n">
-        <v>14.245</v>
+        <v>9.555000000000007</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.1028460474383675</v>
+        <v>8.624923754480005</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0.01617557524117009</v>
+        <v>8.616449931581565</v>
       </c>
       <c r="AK44" t="n">
-        <v>14.20499999999998</v>
+        <v>9.643600000000013</v>
       </c>
       <c r="AL44" t="n">
-        <v>0.09362139530805755</v>
+        <v>8.644713877866439</v>
       </c>
       <c r="AM44" t="n">
-        <v>0.01810661008379657</v>
+        <v>8.625191862255386</v>
       </c>
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
@@ -5605,7 +8003,7 @@
         <v>5.367107830990268</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.0290991476103881</v>
+        <v>0.03348296851050989</v>
       </c>
       <c r="AT44" t="n">
         <v>1.188138374799372</v>
@@ -5619,16 +8017,16 @@
       <c r="AW44" t="inlineStr"/>
       <c r="AX44" t="inlineStr"/>
       <c r="AY44" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AZ44" t="n">
-        <v>1.02563176895307</v>
+        <v>1.094218616109684</v>
       </c>
       <c r="BA44" t="n">
-        <v>1.002815909890883</v>
+        <v>0.5845824411134908</v>
       </c>
       <c r="BB44" t="n">
-        <v>0.9971919971919958</v>
+        <v>1.009272632129776</v>
       </c>
       <c r="BC44" t="inlineStr">
         <is>

--- a/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
+++ b/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
@@ -781,101 +781,41 @@
       <c r="S2" t="n">
         <v>270.29</v>
       </c>
-      <c r="T2" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U2" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V2" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>24.21160000000002</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>22.33745016720204</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>22.34143517832123</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>24.33499999999999</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>22.56721739862245</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>22.43232243393642</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>25.6716</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21.72401934722936</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>21.28006303669377</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>22.95748168777432</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>22.33438694823586</v>
-      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.9231639505830895</v>
-      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="n">
-        <v>0.165627475329425</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1.005096730492821</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1.054925005136635</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.9933155705137195</v>
-      </c>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -953,103 +893,41 @@
       <c r="S3" t="n">
         <v>270.29</v>
       </c>
-      <c r="T3" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U3" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V3" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W3" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X3" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>13.84999999999999</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>13.26748681799593</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>13.24500679996164</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>14.20500000000001</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>13.8859142624203</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13.85924014610819</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>14.245</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>13.4544277494324</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13.4321200567168</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>14.20499999999998</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>13.49582109976026</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>13.47190846378457</v>
-      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>3.067191124753903</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>5.367107830990268</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0.0290991476103881</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>1.02563176895307</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>1.002815909890883</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0.9971919971919958</v>
-      </c>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1123,55 +1001,29 @@
       <c r="S4" t="n">
         <v>270.29</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>17499</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>17499</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>17499</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>17499</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>7.904124999999976</v>
-      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
-        <v>10.95580000000005</v>
-      </c>
+      <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="n">
-        <v>14.732825</v>
-      </c>
+      <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="n">
-        <v>25.5878</v>
-      </c>
+      <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1180,18 +1032,10 @@
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>1.386086378947712</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>1.344751182022302</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>1.736788429917548</v>
-      </c>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1269,101 +1113,41 @@
       <c r="S5" t="n">
         <v>270.29</v>
       </c>
-      <c r="T5" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U5" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V5" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X5" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8.46999999999997</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.286525435987313</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.305555253072264</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>8.89520000000001</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>7.365355528114877</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>7.39819555739502</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9.965225000000004</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>7.438712535705606</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>7.3895737252478</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>9.650600000000033</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>7.732784251588785</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>7.683371299980567</v>
-      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0.9231639505830895</v>
-      </c>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="n">
-        <v>0.06054199788577371</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>1.050200708382531</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>1.120292404892526</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0.9684277073523206</v>
-      </c>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1441,103 +1225,41 @@
       <c r="S6" t="n">
         <v>270.29</v>
       </c>
-      <c r="T6" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U6" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V6" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W6" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X6" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>4.64820000000001</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>4.41184493363587</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>4.404153441561117</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>4.784999999999997</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>4.670528733057815</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>4.65867087674816</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>4.764999999999986</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>4.529900262688277</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>4.520103397867063</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>4.700000000000017</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>4.555000862938027</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>4.544047732784308</v>
-      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>3.067191124753903</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>5.367107830990268</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0.009802141592094813</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>1.029430747386082</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0.9958202716823386</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0.9863588667366276</v>
-      </c>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1615,101 +1337,41 @@
       <c r="S7" t="n">
         <v>270.29</v>
       </c>
-      <c r="T7" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U7" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V7" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W7" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X7" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>10.22999999999999</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.782763922699507</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8.780926333665223</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>10.79359999999999</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.120675383684732</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>9.099206856276044</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>12.47000000000003</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>8.846448602954444</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>8.81679751140604</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>12.6882</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>9.003939971733992</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>8.98264061755815</v>
-      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>3.067191124753903</v>
-      </c>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="n">
-        <v>0.02211084545212843</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>1.055092864125122</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>1.155314260302405</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>1.01749799518845</v>
-      </c>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
       <c r="BC7" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1787,103 +1449,41 @@
       <c r="S8" t="n">
         <v>270.29</v>
       </c>
-      <c r="T8" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U8" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V8" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X8" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>16.0608</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>14.77778695984243</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>14.76131639391834</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>16.85639999999999</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>14.83938548305299</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>14.89381332601531</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11.6614</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>10.46117156993481</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>10.40722006967354</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>11.881</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>10.74727902920542</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>10.68411617776037</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0.9231639505830895</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>17.83209309073736</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0.1147270587689714</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>1.049536760310818</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0.6918084525758763</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>1.018831358155968</v>
-      </c>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
       <c r="BC8" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1959,55 +1559,29 @@
       <c r="S9" t="n">
         <v>270.29</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>22894</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>22894</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>22894</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>22894</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>18.71500000000002</v>
-      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="n">
-        <v>18.92500000000003</v>
-      </c>
+      <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="n">
-        <v>23.77289999999999</v>
-      </c>
+      <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="n">
-        <v>30.9936</v>
-      </c>
+      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -2016,18 +1590,10 @@
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>1.011220945765429</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>1.256163804491411</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>1.303736607649888</v>
-      </c>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
       <c r="BC9" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2105,101 +1671,41 @@
       <c r="S10" t="n">
         <v>270.29</v>
       </c>
-      <c r="T10" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U10" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V10" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W10" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X10" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>5.719999999999999</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>4.442535668869724</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>4.422255168875509</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>6.234999999999985</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>4.54549913866706</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>4.523373033229161</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>8.558825000000034</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>4.562884279987841</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>4.526423448546203</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>9.02882499999998</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>4.467692785103702</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>4.402206877726853</v>
-      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>3.067191124753903</v>
-      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="n">
-        <v>0.01277248752909322</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>1.090034965034963</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>1.372706495589423</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>1.054914079911664</v>
-      </c>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
       <c r="BC10" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2277,103 +1783,41 @@
       <c r="S11" t="n">
         <v>270.29</v>
       </c>
-      <c r="T11" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U11" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V11" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W11" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X11" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8.424999999999983</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.587453063474313</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7.594394306656385</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>8.219999999999999</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>7.44099152558887</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>7.446393704532996</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>5.585000000000008</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>5.012820421055442</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>4.991351653873661</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>5.725000000000023</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>5.16306627301166</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>5.146734230002187</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0.9231639505830895</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>17.83209309073736</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>0.05594649053658819</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>0.975667655786352</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>0.679440389294405</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>1.025067144136081</v>
-      </c>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
       <c r="BC11" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2451,103 +1895,41 @@
       <c r="S12" t="n">
         <v>270.29</v>
       </c>
-      <c r="T12" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U12" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V12" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W12" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X12" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8.509999999999962</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.909673891516461</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7.918888316238228</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>8.20999999999998</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>7.28469371965727</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>7.315811492081159</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>5.589999999999975</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>5.158387321416821</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>5.052201107972207</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>5.766600000000013</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>5.337988890256712</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>5.220873123415336</v>
-      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0.9231639505830895</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>17.83209309073736</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>0.05587842911257761</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>0.9647473560517057</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>0.6808769792935431</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>1.031592128801438</v>
-      </c>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
       <c r="BC12" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2625,101 +2007,41 @@
       <c r="S13" t="n">
         <v>270.29</v>
       </c>
-      <c r="T13" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U13" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V13" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W13" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X13" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>5.889999999999986</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>4.44139421382661</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>4.401999878844438</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>6.194999999999993</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>4.57543177794107</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>4.555383045151713</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>9.203399999999988</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>4.611204350767772</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>4.553182452980622</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>8.600000000000023</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>4.588637280413992</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>4.533397998453662</v>
-      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>3.067191124753903</v>
-      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="n">
-        <v>0.01269054695152087</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>1.051782682512735</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>1.485617433414043</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0.9344372731816539</v>
-      </c>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
       <c r="BC13" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2797,101 +2119,41 @@
       <c r="S14" t="n">
         <v>270.29</v>
       </c>
-      <c r="T14" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U14" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V14" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X14" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>16.36040000000001</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>14.83131082621622</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>14.78405121221016</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17.26500000000001</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>15.10123054132932</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15.09240427255776</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17.97520000000001</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>15.51848743063506</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15.34246923745891</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>16.94500000000002</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>14.39136948475458</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>14.32228679945845</v>
-      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0.9231639505830895</v>
-      </c>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="n">
-        <v>0.1175080485540385</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>1.055292046649226</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>1.04113524471474</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0.9426877030575467</v>
-      </c>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
       <c r="BC14" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2969,103 +2231,41 @@
       <c r="S15" t="n">
         <v>270.29</v>
       </c>
-      <c r="T15" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U15" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V15" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W15" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X15" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>9.414999999999992</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.833319126047613</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>8.817784957284289</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>9.669999999999987</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>9.305788902491996</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>9.289879256458125</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>9.414999999999992</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>9.015097042710794</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>8.999581619493508</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>9.460000000000008</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>9.01965261768445</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>9.004182640689322</v>
-      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>3.067191124753903</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>5.367107830990268</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0.01980913462812054</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>1.027084439723845</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>0.9736297828335061</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>1.004779607010092</v>
-      </c>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
       <c r="BC15" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3143,103 +2343,41 @@
       <c r="S16" t="n">
         <v>270.29</v>
       </c>
-      <c r="T16" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U16" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V16" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W16" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X16" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>8.470199999999998</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.902672428927043</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7.910034522369999</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>8.384999999999991</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>7.397057508822425</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>7.419133498045051</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>5.719999999999999</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>4.950020905424022</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>4.92915607558604</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>5.935000000000002</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>5.123395631612182</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>5.101858928067905</v>
-      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0.9231639505830895</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>17.83209309073736</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0.05706950403276053</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0.9899412056385909</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>0.6821705426356596</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>1.037587412587413</v>
-      </c>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
       <c r="BC16" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3313,55 +2451,29 @@
       <c r="S17" t="n">
         <v>270.29</v>
       </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>15001</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>15001</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>15001</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>15001</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0.2599999999999909</v>
-      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="n">
-        <v>0.6000000000000227</v>
-      </c>
+      <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="n">
-        <v>0.3050000000000068</v>
-      </c>
+      <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="n">
-        <v>0.2549999999999955</v>
-      </c>
+      <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="n">
-        <v>0</v>
-      </c>
+      <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3370,18 +2482,10 @@
       <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>2.307692307692476</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>0.5083333333333254</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0.8360655737704582</v>
-      </c>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
       <c r="BC17" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3459,101 +2563,41 @@
       <c r="S18" t="n">
         <v>270.29</v>
       </c>
-      <c r="T18" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U18" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V18" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W18" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X18" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>13.32761699733001</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>13.31397650539344</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15.22000000000001</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>13.56713492552878</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13.57272408404295</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>15.99499999999998</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>13.36941192195671</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>13.32548256266678</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>17.36999999999999</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>13.41754494407734</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>13.41508786355434</v>
-      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>3.067191124753903</v>
-      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="n">
-        <v>0.031178389766287</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>1.041039671682627</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>1.050919842312744</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>1.085964363863708</v>
-      </c>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
       <c r="BC18" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3631,103 +2675,41 @@
       <c r="S19" t="n">
         <v>270.29</v>
       </c>
-      <c r="T19" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U19" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V19" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X19" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>29.61419999999998</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>22.1029317134168</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>21.97186932285476</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>24.2908</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>22.67244887232253</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>22.43701125922573</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>18.91500000000001</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>16.6980781353745</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>16.74538288419962</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>19.1414</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>17.15579088838489</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>17.08271818736758</v>
-      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0.9231639505830895</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>17.83209309073736</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0.1653266438352989</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0.8202416408344654</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0.7786898743557232</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>1.011969336505419</v>
-      </c>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
       <c r="BC19" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3805,103 +2787,41 @@
       <c r="S20" t="n">
         <v>270.29</v>
       </c>
-      <c r="T20" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U20" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V20" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W20" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X20" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>25.59199999999998</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>22.26194568480517</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>22.40817816145249</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>24.316</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>22.24167670389305</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>22.16909371152276</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>17.16499999999998</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>15.89125138165396</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>15.81960118231424</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>17.83539999999999</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>16.43434050315091</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>16.32540619753007</v>
-      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0.9231639505830895</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>17.83209309073736</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0.1654981586238052</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0.9501406689590501</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0.7059138016121065</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>1.039056219050394</v>
-      </c>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
       <c r="BC20" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3979,103 +2899,41 @@
       <c r="S21" t="n">
         <v>270.29</v>
       </c>
-      <c r="T21" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U21" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V21" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W21" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X21" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>10.93880000000003</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>4.560527173885861</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>4.507382357534402</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>13.11999999999998</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>4.69360425849823</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>4.549574389642229</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>5.074999999999989</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>4.234119375317582</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>4.2256151942578</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>5.159999999999997</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>4.237224665418515</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>4.233429757400328</v>
-      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>3.067191124753903</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>5.367107830990268</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0.02687650944373747</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>1.199400299850069</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>0.3868140243902438</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>1.016748768472908</v>
-      </c>
+      <c r="AY21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr"/>
       <c r="BC21" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4151,55 +3009,29 @@
       <c r="S22" t="n">
         <v>270.29</v>
       </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>22887</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>22887</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>22887</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>22887</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>14.946775</v>
-      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="n">
-        <v>15.852675</v>
-      </c>
+      <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="n">
-        <v>23.37480000000001</v>
-      </c>
+      <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="n">
-        <v>24.18350000000006</v>
-      </c>
+      <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="n">
-        <v>0</v>
-      </c>
+      <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
@@ -4208,18 +3040,10 @@
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>1.060608392111342</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>1.474501937370192</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>1.034597087461713</v>
-      </c>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
       <c r="BC22" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4297,101 +3121,41 @@
       <c r="S23" t="n">
         <v>270.29</v>
       </c>
-      <c r="T23" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U23" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V23" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W23" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X23" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>23.85680000000001</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>22.21975001956462</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>22.21838386899971</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>23.685225</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>22.46416125696934</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>22.26145451722735</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>23.85500000000002</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>21.90826749923179</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>21.84981856373758</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>30.92667499999992</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>22.15566394720484</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>20.80800188462924</v>
-      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0.9231639505830895</v>
-      </c>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="n">
-        <v>0.1612050141507862</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0.9928081301767209</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>1.007167970749698</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>1.296444141689369</v>
-      </c>
+      <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
       <c r="BC23" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4469,101 +3233,41 @@
       <c r="S24" t="n">
         <v>270.29</v>
       </c>
-      <c r="T24" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U24" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V24" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W24" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X24" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>14.02120000000001</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.616084940433121</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>7.685373125998514</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>14.31699999999998</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>8.102963543129421</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>8.114346316342905</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>15.43500000000002</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>7.689819512998853</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>7.553809941573304</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>23.34947499999999</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>9.120607552681181</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>9.106794267960332</v>
-      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0.9231639505830895</v>
-      </c>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="n">
-        <v>0.09744354075575819</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>1.021096625110545</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>1.078088985122584</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>1.512761580822803</v>
-      </c>
+      <c r="AY24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
       <c r="BC24" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4641,103 +3345,41 @@
       <c r="S25" t="n">
         <v>270.29</v>
       </c>
-      <c r="T25" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U25" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V25" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W25" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X25" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>20.47747500000002</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>16.18091530867254</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>16.19196257746687</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>20.092</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>15.21106101468818</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>15.13029102348002</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>11.27000000000001</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>10.00006898304519</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>9.7401434432554</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>12.00499999999997</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>10.74276234751229</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>10.56326152820413</v>
-      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0.9231639505830895</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>17.83209309073736</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0.136749013121792</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="inlineStr"/>
-      <c r="AY25" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0.9811756576433363</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0.5609197690623139</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>1.065217391304344</v>
-      </c>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
       <c r="BC25" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4815,101 +3457,41 @@
       <c r="S26" t="n">
         <v>270.29</v>
       </c>
-      <c r="T26" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U26" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V26" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W26" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X26" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>26.49500000000002</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>23.32234220987949</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>23.26668201171763</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>27.355</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>23.34552361727425</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>23.31092623828379</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>29.59900000000002</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>23.17262646857796</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>22.94211061513022</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>29.89500000000002</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>24.36473954709596</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>23.75741377717485</v>
-      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0.9231639505830895</v>
-      </c>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="n">
-        <v>0.1861820253805803</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>1.03245895451972</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>1.082032535185524</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>1.010000337849252</v>
-      </c>
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr"/>
       <c r="BC26" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4987,103 +3569,41 @@
       <c r="S27" t="n">
         <v>270.29</v>
       </c>
-      <c r="T27" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U27" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V27" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W27" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X27" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>20.47555</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>13.4855051584304</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>13.47029411133823</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>20.08999999999997</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>13.45024178505835</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>13.41122957349067</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>13.94319999999999</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>12.98890850601137</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>12.97381479844015</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>14.19</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>13.04215452379937</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>13.0195769843148</v>
-      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>3.067191124753903</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>5.367107830990268</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>0.04115465508572303</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>0.9811702249756405</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>0.694036834245894</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>1.017700384416777</v>
-      </c>
+      <c r="AY27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr"/>
+      <c r="BB27" t="inlineStr"/>
       <c r="BC27" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -5161,103 +3681,41 @@
       <c r="S28" t="n">
         <v>270.29</v>
       </c>
-      <c r="T28" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U28" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V28" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W28" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X28" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>8.775000000000006</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.543617784717524</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>7.547553580335491</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>9.124999999999972</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>7.582506302411158</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>7.582485134634262</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>4.945199999999993</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>4.222516779179032</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>4.221680425377391</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>4.550632412467442</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>4.496843896990608</v>
-      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>0.9231639505830895</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>17.83209309073736</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>0.06210604940953355</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
-      <c r="AY28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>1.039886039886036</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>0.5419397260273981</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>1.061635525357924</v>
-      </c>
+      <c r="AY28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr"/>
       <c r="BC28" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -5335,101 +3793,41 @@
       <c r="S29" t="n">
         <v>270.29</v>
       </c>
-      <c r="T29" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U29" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V29" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W29" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X29" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>8.210000000000008</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.699263284213402</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>7.725417904522334</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>7.593816490660428</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>7.620964647208184</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>8.034999999999997</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>7.468702746147907</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>7.410225178747091</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>8.079999999999984</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>7.523555813506031</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>7.471031001563465</v>
-      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>0.9231639505830895</v>
-      </c>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="n">
-        <v>0.05615067480861954</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>1.004872107186357</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>0.9739393939393935</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>1.005600497822027</v>
-      </c>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr"/>
       <c r="BC29" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -5507,103 +3905,41 @@
       <c r="S30" t="n">
         <v>270.29</v>
       </c>
-      <c r="T30" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U30" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V30" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W30" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X30" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8.76213236386443</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>8.744437610899308</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>11.14382499999998</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>9.109403309705513</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>9.08521034191936</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>9.253199999999996</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>8.848073173299216</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>8.834507531629313</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>9.338199999999981</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>8.826849196529944</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>8.809127403472335</v>
-      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>3.067191124753903</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>5.367107830990268</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>0.0228282864216355</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="inlineStr"/>
       <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>1.084029669260698</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>0.8303432618512956</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>1.00918601132581</v>
-      </c>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
       <c r="BC30" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -5681,101 +4017,41 @@
       <c r="S31" t="n">
         <v>270.29</v>
       </c>
-      <c r="T31" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U31" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V31" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W31" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X31" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>9.45999999999998</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8.878346286934692</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>8.861802680119906</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>9.629999999999995</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>9.215892732604468</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>9.19559093479665</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>9.45999999999998</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>8.966170887472188</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>8.953447025048114</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>9.670000000000016</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>8.988508441753986</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>8.975281908347972</v>
-      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>3.067191124753903</v>
-      </c>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="n">
-        <v>0.01972719405054819</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="inlineStr"/>
-      <c r="AY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>1.017970401691334</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>0.9823468328141208</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>1.022198731501061</v>
-      </c>
+      <c r="AY31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr"/>
       <c r="BC31" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -5853,103 +4129,41 @@
       <c r="S32" t="n">
         <v>270.29</v>
       </c>
-      <c r="T32" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U32" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V32" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W32" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X32" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>8.561800000000002</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7.413153772489077</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>7.397283824466996</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>9.159999999999997</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>7.427684389535947</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>7.425794279954072</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>5.075000000000017</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>4.415202806604988</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>4.404183311507597</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>5.164999999999992</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>4.572491336119789</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>4.526439324525196</v>
-      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>0.9231639505830895</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>17.83209309073736</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>0.06234426439357028</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>1.069868485598822</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>0.5540393013100458</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>1.017733990147778</v>
-      </c>
+      <c r="AY32" t="inlineStr"/>
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="inlineStr"/>
+      <c r="BB32" t="inlineStr"/>
       <c r="BC32" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -6027,103 +4241,41 @@
       <c r="S33" t="n">
         <v>270.29</v>
       </c>
-      <c r="T33" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U33" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V33" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W33" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X33" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>19.525475</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>13.42553738657414</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>13.37560601299554</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>19.84617499999998</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>13.44614170018462</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>13.35829470538741</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>14.19499999999999</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>12.99075119201483</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>12.98107235174357</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>14.19500000000001</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>13.05816550176028</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>13.0452838251017</v>
-      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>3.067191124753903</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>5.367107830990268</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>0.04065517605255847</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>1.016424696454247</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>0.7152511756043674</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>1.000000000000001</v>
-      </c>
+      <c r="AY33" t="inlineStr"/>
+      <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="inlineStr"/>
+      <c r="BB33" t="inlineStr"/>
       <c r="BC33" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -6201,101 +4353,41 @@
       <c r="S34" t="n">
         <v>270.29</v>
       </c>
-      <c r="T34" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U34" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V34" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W34" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X34" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>4.769999999999982</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>4.437512099049569</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>4.431048200242951</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>4.944999999999965</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>4.680270189788525</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>4.67157506214418</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>4.730399999999989</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>4.548237720180011</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>4.541348297850564</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>4.855000000000018</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>4.570305427133341</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>4.56225044983703</v>
-      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>3.067191124753903</v>
-      </c>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="n">
-        <v>0.01012990390238423</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
       <c r="AW34" t="inlineStr"/>
       <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>1.03668763102725</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>0.9566026289181037</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>1.026340267207853</v>
-      </c>
+      <c r="AY34" t="inlineStr"/>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="inlineStr"/>
+      <c r="BB34" t="inlineStr"/>
       <c r="BC34" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -6373,103 +4465,41 @@
       <c r="S35" t="n">
         <v>270.29</v>
       </c>
-      <c r="T35" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U35" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V35" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W35" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X35" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>17.37499999999999</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>15.49296381700623</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>15.42905302544865</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>16.72999999999999</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>14.85117552913291</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>14.73093775226253</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>11.39499999999998</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>10.31014793472757</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>10.16735664347217</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>11.3116</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>10.33102157266201</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>10.22633424879872</v>
-      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>0.9231639505830895</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>17.83209309073736</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>0.1138667623694793</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
       <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>0.9628776978417268</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>0.681111775254034</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>0.9926810004387907</v>
-      </c>
+      <c r="AY35" t="inlineStr"/>
+      <c r="AZ35" t="inlineStr"/>
+      <c r="BA35" t="inlineStr"/>
+      <c r="BB35" t="inlineStr"/>
       <c r="BC35" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -6547,101 +4577,41 @@
       <c r="S36" t="n">
         <v>270.29</v>
       </c>
-      <c r="T36" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U36" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V36" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W36" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X36" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>16.24000000000001</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>15.30478899264122</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>15.26192653577193</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>16.33819999999999</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>15.15596191620538</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>15.14698811717915</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>15.73340000000002</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>14.84546952909458</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>14.75952526053315</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>15.815</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>14.84584078053402</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>14.75507855243591</v>
-      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>0.9231639505830895</v>
-      </c>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
       <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="n">
-        <v>0.11120011577675</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr"/>
       <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>1.006046798029556</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>0.96298245828794</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>1.005186418701615</v>
-      </c>
+      <c r="AY36" t="inlineStr"/>
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="inlineStr"/>
       <c r="BC36" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -6719,103 +4689,41 @@
       <c r="S37" t="n">
         <v>270.29</v>
       </c>
-      <c r="T37" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U37" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V37" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W37" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X37" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>5.335424999999975</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>4.35200331641261</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>4.335363515965156</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>6.190399999999997</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>4.691266840185253</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>4.680043062040171</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>4.685000000000002</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>4.385396078072194</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>4.384284493436056</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>4.560000000000002</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>4.403027400849912</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>4.396025503020007</v>
-      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>3.067191124753903</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>5.367107830990268</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>0.01268112378510005</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr"/>
       <c r="AW37" t="inlineStr"/>
       <c r="AX37" t="inlineStr"/>
-      <c r="AY37" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>1.160244966427234</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>0.7568170069785481</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>0.9733191035218783</v>
-      </c>
+      <c r="AY37" t="inlineStr"/>
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr"/>
+      <c r="BB37" t="inlineStr"/>
       <c r="BC37" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -6893,103 +4801,41 @@
       <c r="S38" t="n">
         <v>270.29</v>
       </c>
-      <c r="T38" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U38" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V38" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W38" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X38" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>27.9216</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>25.04945519297469</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>25.00393734830666</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>28.48019999999999</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>23.55049130866106</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>23.34791695442949</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>17.98500000000001</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>16.20724615963397</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>15.99891577571225</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>19.05839999999998</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>16.6745118650944</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>16.5130192554648</v>
-      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>0.9231639505830895</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>17.83209309073736</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>0.1938402968102358</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
       <c r="AW38" t="inlineStr"/>
       <c r="AX38" t="inlineStr"/>
-      <c r="AY38" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>1.020006016847172</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>0.6314913518865746</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>1.059683069224352</v>
-      </c>
+      <c r="AY38" t="inlineStr"/>
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="inlineStr"/>
+      <c r="BB38" t="inlineStr"/>
       <c r="BC38" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -7067,101 +4913,41 @@
       <c r="S39" t="n">
         <v>270.29</v>
       </c>
-      <c r="T39" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U39" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V39" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W39" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X39" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>18.83520000000001</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>16.04592492105019</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>15.86003412790356</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>16.11352071737981</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>16.06444029037342</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>23.1082</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>16.24606776379965</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>16.09202345908683</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>23.0616</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>16.75866807928425</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>16.54226976047118</v>
-      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>0.9231639505830895</v>
-      </c>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
       <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="n">
-        <v>0.1370076465330317</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
       <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="inlineStr"/>
-      <c r="AY39" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>1.06874362895005</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>1.147948335817189</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>0.9979833998320941</v>
-      </c>
+      <c r="AY39" t="inlineStr"/>
+      <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr"/>
+      <c r="BB39" t="inlineStr"/>
       <c r="BC39" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -7239,103 +5025,41 @@
       <c r="S40" t="n">
         <v>270.29</v>
       </c>
-      <c r="T40" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U40" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V40" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W40" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X40" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>14.80000000000001</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>13.12794290770206</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>13.11360173551366</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>13.66267362164673</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>13.64037149057759</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>13.2706628488516</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>13.2358179007175</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>13.84999999999997</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>13.2664379039489</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>13.23076532579462</v>
-      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>3.067191124753903</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>5.367107830990268</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>0.03134227092143171</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr"/>
+      <c r="AV40" t="inlineStr"/>
       <c r="AW40" t="inlineStr"/>
       <c r="AX40" t="inlineStr"/>
-      <c r="AY40" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>1.033783783783783</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>0.9137254901960788</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>0.9907010014306125</v>
-      </c>
+      <c r="AY40" t="inlineStr"/>
+      <c r="AZ40" t="inlineStr"/>
+      <c r="BA40" t="inlineStr"/>
+      <c r="BB40" t="inlineStr"/>
       <c r="BC40" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -7413,103 +5137,41 @@
       <c r="S41" t="n">
         <v>270.29</v>
       </c>
-      <c r="T41" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U41" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V41" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W41" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X41" t="n">
-        <v>9692.307692307691</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>9792.307692307691</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>11492.30769230769</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>13.16860000000001</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>7.121365661261355</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>7.093110967791321</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>14.58020000000001</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>7.907181782361455</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>7.915181337364982</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>6.495000000000005</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>5.51831190160084</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>5.480761813531402</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>6.625</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>5.533517314707213</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>5.49558983517908</v>
-      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>0.9231639505830895</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>17.83209309073736</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>0.09923491743571337</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr"/>
+      <c r="AV41" t="inlineStr"/>
       <c r="AW41" t="inlineStr"/>
       <c r="AX41" t="inlineStr"/>
-      <c r="AY41" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>1.107194386647024</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>0.4454671403684448</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>1.020015396458814</v>
-      </c>
+      <c r="AY41" t="inlineStr"/>
+      <c r="AZ41" t="inlineStr"/>
+      <c r="BA41" t="inlineStr"/>
+      <c r="BB41" t="inlineStr"/>
       <c r="BC41" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -7587,101 +5249,41 @@
       <c r="S42" t="n">
         <v>270.29</v>
       </c>
-      <c r="T42" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U42" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V42" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W42" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X42" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>14.185</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>13.35051200197309</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>13.328210867015</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>14.185</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>13.82562230450727</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>13.79524260938006</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>13.55864540046689</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>13.54358894028076</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>14.56999999999999</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>13.55399288794872</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>13.53752726696221</v>
-      </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr"/>
-      <c r="AP42" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>3.067191124753903</v>
-      </c>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="n">
-        <v>0.02905817732160189</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AU42" t="inlineStr"/>
+      <c r="AV42" t="inlineStr"/>
       <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="inlineStr"/>
-      <c r="AY42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>1.020796616143814</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>1.006215469613259</v>
-      </c>
+      <c r="AY42" t="inlineStr"/>
+      <c r="AZ42" t="inlineStr"/>
+      <c r="BA42" t="inlineStr"/>
+      <c r="BB42" t="inlineStr"/>
       <c r="BC42" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -7759,101 +5361,41 @@
       <c r="S43" t="n">
         <v>270.29</v>
       </c>
-      <c r="T43" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U43" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V43" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W43" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X43" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>10.28000000000003</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>4.36495483967754</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>4.253396664126913</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>13.54500000000002</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>4.654940759858054</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>4.512986619173942</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>18.37839999999998</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>4.6464971394204</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>4.413606119156456</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>21.19314999999987</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>4.228175152549277</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>4.084071037838313</v>
-      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
-      <c r="AP43" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>3.067191124753903</v>
-      </c>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="n">
-        <v>0.02774712808044399</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AU43" t="inlineStr"/>
+      <c r="AV43" t="inlineStr"/>
       <c r="AW43" t="inlineStr"/>
       <c r="AX43" t="inlineStr"/>
-      <c r="AY43" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>1.317607003891048</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>1.356840162421555</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>1.15315533452313</v>
-      </c>
+      <c r="AY43" t="inlineStr"/>
+      <c r="AZ43" t="inlineStr"/>
+      <c r="BA43" t="inlineStr"/>
+      <c r="BB43" t="inlineStr"/>
       <c r="BC43" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -7931,103 +5473,41 @@
       <c r="S44" t="n">
         <v>270.29</v>
       </c>
-      <c r="T44" t="n">
-        <v>3950</v>
-      </c>
-      <c r="U44" t="n">
-        <v>4000</v>
-      </c>
-      <c r="V44" t="n">
-        <v>4500</v>
-      </c>
-      <c r="W44" t="n">
-        <v>4500</v>
-      </c>
-      <c r="X44" t="n">
-        <v>14334.61538461538</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>14384.61538461538</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>14884.61538461538</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>14.93759999999998</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>8.830450912745842</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>8.81858949711842</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>16.345</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>8.95361579955113</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>8.902703604920607</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>9.555000000000007</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>8.624923754480005</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>8.616449931581565</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>9.643600000000013</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>8.644713877866439</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>8.625191862255386</v>
-      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="n">
-        <v>2.048514439309262</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>3.067191124753903</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>5.367107830990268</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>0.03348296851050989</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>1.188138374799372</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>0.8300006129925436</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>1.993674231090036</v>
-      </c>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AU44" t="inlineStr"/>
+      <c r="AV44" t="inlineStr"/>
       <c r="AW44" t="inlineStr"/>
       <c r="AX44" t="inlineStr"/>
-      <c r="AY44" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>1.094218616109684</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>0.5845824411134908</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>1.009272632129776</v>
-      </c>
+      <c r="AY44" t="inlineStr"/>
+      <c r="AZ44" t="inlineStr"/>
+      <c r="BA44" t="inlineStr"/>
+      <c r="BB44" t="inlineStr"/>
       <c r="BC44" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>

--- a/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
+++ b/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
@@ -781,41 +781,101 @@
       <c r="S2" t="n">
         <v>270.29</v>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>24.21160000000002</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>22.33745016720204</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>22.34143517832123</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>24.33499999999999</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>22.56721739862245</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>22.43232243393642</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>25.6716</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>21.72401934722936</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>21.28006303669377</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>22.95748168777432</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>22.33438694823586</v>
+      </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
+      <c r="AS2" t="n">
+        <v>0.1656837239264586</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
+      <c r="AY2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1.005096730492821</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1.054925005136635</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.9933155705137195</v>
+      </c>
       <c r="BC2" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -893,41 +953,103 @@
       <c r="S3" t="n">
         <v>270.29</v>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X3" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>13.84999999999999</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>13.26748681799593</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>13.24500679996164</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>14.20500000000001</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13.8859142624203</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>13.85924014610819</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>14.245</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>13.4544277494324</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13.4321200567168</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>14.20499999999998</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>13.49582109976026</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>13.47190846378457</v>
+      </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
+      <c r="AP3" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3.066466366335346</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>5.368376345338416</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.02910602518531766</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1.02563176895307</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1.002815909890883</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.9971919971919958</v>
+      </c>
       <c r="BC3" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1001,14 +1123,30 @@
       <c r="S4" t="n">
         <v>270.29</v>
       </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>17499</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17499</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17499</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>17499</v>
+      </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
@@ -1023,7 +1161,9 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1032,7 +1172,9 @@
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
+      <c r="AY4" t="n">
+        <v>5.8</v>
+      </c>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr"/>
@@ -1113,41 +1255,101 @@
       <c r="S5" t="n">
         <v>270.29</v>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U5" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>8.46999999999997</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.286525435987313</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.305555253072264</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>8.89520000000001</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>7.365355528114877</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7.39819555739502</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.965225000000004</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>7.438712535705606</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>7.3895737252478</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>9.650600000000033</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>7.732784251588785</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>7.683371299980567</v>
+      </c>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
+      <c r="AP5" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
+      <c r="AS5" t="n">
+        <v>0.0605625584988961</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
+      <c r="AY5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1.050200708382531</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>1.120292404892526</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.9684277073523206</v>
+      </c>
       <c r="BC5" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1225,41 +1427,103 @@
       <c r="S6" t="n">
         <v>270.29</v>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X6" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>4.64820000000001</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4.41184493363587</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4.404153441561117</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4.784999999999997</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4.670528733057815</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4.65867087674816</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>4.764999999999986</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>4.529900262688277</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>4.520103397867063</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>4.700000000000017</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>4.555000862938027</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>4.544047732784308</v>
+      </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
+      <c r="AP6" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>3.066466366335346</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>5.368376345338416</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.009804458325360419</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>1.029430747386082</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.9958202716823386</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.9863588667366276</v>
+      </c>
       <c r="BC6" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1337,41 +1601,101 @@
       <c r="S7" t="n">
         <v>270.29</v>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V7" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X7" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>10.22999999999999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.782763922699507</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8.780926333665223</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>10.79359999999999</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9.120675383684732</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9.099206856276044</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>12.47000000000003</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>8.846448602954444</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8.81679751140604</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>12.6882</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>9.003939971733992</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>8.98264061755815</v>
+      </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
+      <c r="AP7" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>3.066466366335346</v>
+      </c>
       <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
+      <c r="AS7" t="n">
+        <v>0.02211607134391018</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
+      <c r="AY7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>1.055092864125122</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>1.155314260302405</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>1.01749799518845</v>
+      </c>
       <c r="BC7" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1449,41 +1773,103 @@
       <c r="S8" t="n">
         <v>270.29</v>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>16.0608</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>14.77778695984243</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>14.76131639391834</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>16.85639999999999</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>14.83938548305299</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>14.89381332601531</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11.6614</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10.46117156993481</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>10.40722006967354</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>11.881</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>10.74727902920542</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>10.68411617776037</v>
+      </c>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
+      <c r="AP8" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.1147660211215926</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1.049536760310818</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.6918084525758763</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1.018831358155968</v>
+      </c>
       <c r="BC8" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1559,14 +1945,30 @@
       <c r="S9" t="n">
         <v>270.29</v>
       </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>22894</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>22894</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>22894</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>22894</v>
+      </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
@@ -1581,7 +1983,9 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -1590,7 +1994,9 @@
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
+      <c r="AY9" t="n">
+        <v>5.8</v>
+      </c>
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr"/>
@@ -1671,41 +2077,101 @@
       <c r="S10" t="n">
         <v>270.29</v>
       </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X10" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>5.719999999999999</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>4.442535668869724</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>4.422255168875509</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>6.234999999999985</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>4.54549913866706</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>4.523373033229161</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8.558825000000034</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>4.562884279987841</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>4.526423448546203</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>9.02882499999998</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>4.467692785103702</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>4.402206877726853</v>
+      </c>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
+      <c r="AP10" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>3.066466366335346</v>
+      </c>
       <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
+      <c r="AS10" t="n">
+        <v>0.01277550630274234</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
+      <c r="AY10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>1.090034965034963</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>1.372706495589423</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>1.054914079911664</v>
+      </c>
       <c r="BC10" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1783,41 +2249,103 @@
       <c r="S11" t="n">
         <v>270.29</v>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V11" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8.424999999999983</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.587453063474313</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.594394306656385</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>8.219999999999999</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7.44099152558887</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7.446393704532996</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>5.585000000000008</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>5.012820421055442</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>4.991351653873661</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>5.725000000000023</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>5.16306627301166</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>5.146734230002187</v>
+      </c>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
+      <c r="AP11" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.05596549047361784</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.975667655786352</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.679440389294405</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>1.025067144136081</v>
+      </c>
       <c r="BC11" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -1895,41 +2423,103 @@
       <c r="S12" t="n">
         <v>270.29</v>
       </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U12" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>8.509999999999962</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.909673891516461</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7.918888316238228</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>8.20999999999998</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>7.28469371965727</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>7.315811492081159</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5.589999999999975</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>5.158387321416821</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>5.052201107972207</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>5.766600000000013</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>5.337988890256712</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>5.220873123415336</v>
+      </c>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
+      <c r="AP12" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.05589740593532862</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.9647473560517057</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.6808769792935431</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>1.031592128801438</v>
+      </c>
       <c r="BC12" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2007,41 +2597,101 @@
       <c r="S13" t="n">
         <v>270.29</v>
       </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V13" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X13" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>5.889999999999986</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>4.44139421382661</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>4.401999878844438</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>6.194999999999993</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>4.57543177794107</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>4.555383045151713</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>9.203399999999988</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>4.611204350767772</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>4.553182452980622</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>8.600000000000023</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>4.588637280413992</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>4.533397998453662</v>
+      </c>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
+      <c r="AP13" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>3.066466366335346</v>
+      </c>
       <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
+      <c r="AS13" t="n">
+        <v>0.01269354635853872</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
+      <c r="AY13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>1.051782682512735</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>1.485617433414043</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.9344372731816539</v>
+      </c>
       <c r="BC13" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2119,41 +2769,101 @@
       <c r="S14" t="n">
         <v>270.29</v>
       </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U14" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X14" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>16.36040000000001</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>14.83131082621622</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>14.78405121221016</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17.26500000000001</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>15.10123054132932</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15.09240427255776</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>17.97520000000001</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15.51848743063506</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15.34246923745891</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>16.94500000000002</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>14.39136948475458</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>14.32228679945845</v>
+      </c>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
+      <c r="AP14" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
+      <c r="AS14" t="n">
+        <v>0.1175479553560843</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
+      <c r="AY14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>1.055292046649226</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>1.04113524471474</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.9426877030575467</v>
+      </c>
       <c r="BC14" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2231,41 +2941,103 @@
       <c r="S15" t="n">
         <v>270.29</v>
       </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U15" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X15" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>9.414999999999992</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.833319126047613</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>8.817784957284289</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>9.669999999999987</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>9.305788902491996</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>9.289879256458125</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9.414999999999992</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>9.015097042710794</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.999581619493508</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>9.460000000000008</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>9.01965261768445</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>9.004182640689322</v>
+      </c>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
+      <c r="AP15" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>3.066466366335346</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>5.368376345338416</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.01981381651122993</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>1.027084439723845</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.9736297828335061</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>1.004779607010092</v>
+      </c>
       <c r="BC15" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2343,41 +3115,103 @@
       <c r="S16" t="n">
         <v>270.29</v>
       </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U16" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V16" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8.470199999999998</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.902672428927043</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.910034522369999</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>8.384999999999991</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>7.397057508822425</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>7.419133498045051</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>5.719999999999999</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>4.950020905424022</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>4.92915607558604</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>5.935000000000002</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>5.123395631612182</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>5.101858928067905</v>
+      </c>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
+      <c r="AP16" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.05708888535538748</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.9899412056385909</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.6821705426356596</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>1.037587412587413</v>
+      </c>
       <c r="BC16" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2451,29 +3285,55 @@
       <c r="S17" t="n">
         <v>270.29</v>
       </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>15001</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15001</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15001</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15001</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.2599999999999909</v>
+      </c>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
+      <c r="AE17" t="n">
+        <v>0.6000000000000227</v>
+      </c>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
+      <c r="AH17" t="n">
+        <v>0.3050000000000068</v>
+      </c>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AK17" t="n">
+        <v>0.2549999999999955</v>
+      </c>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -2482,10 +3342,18 @@
       <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>2.307692307692476</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0.5083333333333254</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.8360655737704582</v>
+      </c>
       <c r="BC17" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2563,41 +3431,101 @@
       <c r="S18" t="n">
         <v>270.29</v>
       </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U18" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W18" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X18" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13.32761699733001</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>13.31397650539344</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15.22000000000001</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13.56713492552878</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13.57272408404295</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15.99499999999998</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>13.36941192195671</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>13.32548256266678</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>17.36999999999999</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>13.41754494407734</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>13.41508786355434</v>
+      </c>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
+      <c r="AP18" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>3.066466366335346</v>
+      </c>
       <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr"/>
+      <c r="AS18" t="n">
+        <v>0.03118575876948502</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
+      <c r="AY18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>1.041039671682627</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>1.050919842312744</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>1.085964363863708</v>
+      </c>
       <c r="BC18" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2675,41 +3603,103 @@
       <c r="S19" t="n">
         <v>270.29</v>
       </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U19" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V19" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>29.61419999999998</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>22.1029317134168</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>21.97186932285476</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>24.2908</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>22.67244887232253</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>22.43701125922573</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>18.91500000000001</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>16.6980781353745</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>16.74538288419962</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>19.1414</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>17.15579088838489</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>17.08271818736758</v>
+      </c>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr"/>
+      <c r="AP19" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.165382790267221</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
-      <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="inlineStr"/>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0.8202416408344654</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0.7786898743557232</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1.011969336505419</v>
+      </c>
       <c r="BC19" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2787,41 +3777,103 @@
       <c r="S20" t="n">
         <v>270.29</v>
       </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U20" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V20" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X20" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>25.59199999999998</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>22.26194568480517</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>22.40817816145249</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>24.316</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>22.24167670389305</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>22.16909371152276</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>17.16499999999998</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>15.89125138165396</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>15.81960118231424</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>17.83539999999999</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>16.43434050315091</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>16.32540619753007</v>
+      </c>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
-      <c r="AV20" t="inlineStr"/>
+      <c r="AP20" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1655543633037094</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
-      <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
+      <c r="AY20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0.9501406689590501</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0.7059138016121065</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1.039056219050394</v>
+      </c>
       <c r="BC20" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -2899,41 +3951,103 @@
       <c r="S21" t="n">
         <v>270.29</v>
       </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U21" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V21" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W21" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X21" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>10.93880000000003</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>4.560527173885861</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>4.507382357534402</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13.11999999999998</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>4.69360425849823</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>4.549574389642229</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>5.074999999999989</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>4.234119375317582</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>4.2256151942578</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>5.159999999999997</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>4.237224665418515</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>4.233429757400328</v>
+      </c>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
-      <c r="AT21" t="inlineStr"/>
-      <c r="AU21" t="inlineStr"/>
-      <c r="AV21" t="inlineStr"/>
+      <c r="AP21" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>3.066466366335346</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>5.368376345338416</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.02688286169879385</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="inlineStr"/>
-      <c r="AZ21" t="inlineStr"/>
-      <c r="BA21" t="inlineStr"/>
-      <c r="BB21" t="inlineStr"/>
+      <c r="AY21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>1.199400299850069</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0.3868140243902438</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1.016748768472908</v>
+      </c>
       <c r="BC21" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3009,14 +4123,30 @@
       <c r="S22" t="n">
         <v>270.29</v>
       </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>22887</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>22887</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>22887</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>22887</v>
+      </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
@@ -3031,7 +4161,9 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
@@ -3040,7 +4172,9 @@
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
+      <c r="AY22" t="n">
+        <v>5.8</v>
+      </c>
       <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr"/>
       <c r="BB22" t="inlineStr"/>
@@ -3121,41 +4255,101 @@
       <c r="S23" t="n">
         <v>270.29</v>
       </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U23" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V23" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X23" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>23.85680000000001</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>22.21975001956462</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>22.21838386899971</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>23.685225</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>22.46416125696934</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>22.26145451722735</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>23.85500000000002</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>21.90826749923179</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>21.84981856373758</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>30.92667499999992</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>22.15566394720484</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>20.80800188462924</v>
+      </c>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
+      <c r="AP23" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr"/>
-      <c r="AV23" t="inlineStr"/>
+      <c r="AS23" t="n">
+        <v>0.1612597608397804</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr"/>
-      <c r="BA23" t="inlineStr"/>
-      <c r="BB23" t="inlineStr"/>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0.9928081301767209</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>1.007167970749698</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>1.296444141689369</v>
+      </c>
       <c r="BC23" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3233,41 +4427,101 @@
       <c r="S24" t="n">
         <v>270.29</v>
       </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U24" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V24" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W24" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X24" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>14.02120000000001</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.616084940433121</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7.685373125998514</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>14.31699999999998</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>8.102963543129421</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>8.114346316342905</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>15.43500000000002</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>7.689819512998853</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>7.553809941573304</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>23.34947499999999</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>9.120607552681181</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>9.106794267960332</v>
+      </c>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
+      <c r="AP24" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr"/>
-      <c r="AV24" t="inlineStr"/>
+      <c r="AS24" t="n">
+        <v>0.09747663346846541</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr"/>
-      <c r="BA24" t="inlineStr"/>
-      <c r="BB24" t="inlineStr"/>
+      <c r="AY24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>1.021096625110545</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1.078088985122584</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1.512761580822803</v>
+      </c>
       <c r="BC24" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3345,41 +4599,103 @@
       <c r="S25" t="n">
         <v>270.29</v>
       </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U25" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V25" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X25" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>20.47747500000002</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>16.18091530867254</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>16.19196257746687</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>20.092</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>15.21106101468818</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>15.13029102348002</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>11.27000000000001</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>10.00006898304519</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>9.7401434432554</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>12.00499999999997</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>10.74276234751229</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>10.56326152820413</v>
+      </c>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
-      <c r="AT25" t="inlineStr"/>
-      <c r="AU25" t="inlineStr"/>
-      <c r="AV25" t="inlineStr"/>
+      <c r="AP25" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.136795454330405</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="inlineStr"/>
-      <c r="AY25" t="inlineStr"/>
-      <c r="AZ25" t="inlineStr"/>
-      <c r="BA25" t="inlineStr"/>
-      <c r="BB25" t="inlineStr"/>
+      <c r="AY25" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0.9811756576433363</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0.5609197690623139</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1.065217391304344</v>
+      </c>
       <c r="BC25" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3457,41 +4773,101 @@
       <c r="S26" t="n">
         <v>270.29</v>
       </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U26" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V26" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X26" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>26.49500000000002</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>23.32234220987949</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>23.26668201171763</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>27.355</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>23.34552361727425</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>23.31092623828379</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>29.59900000000002</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>23.17262646857796</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>22.94211061513022</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>29.89500000000002</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>24.36473954709596</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>23.75741377717485</v>
+      </c>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
+      <c r="AP26" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
-      <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="inlineStr"/>
-      <c r="AV26" t="inlineStr"/>
+      <c r="AS26" t="n">
+        <v>0.1862452544897587</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr"/>
-      <c r="BA26" t="inlineStr"/>
-      <c r="BB26" t="inlineStr"/>
+      <c r="AY26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>1.03245895451972</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>1.082032535185524</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1.010000337849252</v>
+      </c>
       <c r="BC26" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3569,41 +4945,103 @@
       <c r="S27" t="n">
         <v>270.29</v>
       </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U27" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V27" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W27" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X27" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>20.47555</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>13.4855051584304</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>13.47029411133823</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>20.08999999999997</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>13.45024178505835</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>13.41122957349067</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>13.94319999999999</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>12.98890850601137</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>12.97381479844015</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>13.04215452379937</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>13.0195769843148</v>
+      </c>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="inlineStr"/>
-      <c r="AV27" t="inlineStr"/>
+      <c r="AP27" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>3.066466366335346</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>5.368376345338416</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.04116438197627811</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="inlineStr"/>
-      <c r="BA27" t="inlineStr"/>
-      <c r="BB27" t="inlineStr"/>
+      <c r="AY27" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0.9811702249756405</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0.694036834245894</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1.017700384416777</v>
+      </c>
       <c r="BC27" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3681,41 +5119,103 @@
       <c r="S28" t="n">
         <v>270.29</v>
       </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U28" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V28" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X28" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>8.775000000000006</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.543617784717524</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>7.547553580335491</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>9.124999999999972</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>7.582506302411158</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>7.582485134634262</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>4.945199999999993</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>4.222516779179032</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>4.221680425377391</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>4.550632412467442</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>4.496843896990608</v>
+      </c>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
-      <c r="AT28" t="inlineStr"/>
-      <c r="AU28" t="inlineStr"/>
-      <c r="AV28" t="inlineStr"/>
+      <c r="AP28" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.06212714118877873</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
-      <c r="AY28" t="inlineStr"/>
-      <c r="AZ28" t="inlineStr"/>
-      <c r="BA28" t="inlineStr"/>
-      <c r="BB28" t="inlineStr"/>
+      <c r="AY28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>1.039886039886036</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0.5419397260273981</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1.061635525357924</v>
+      </c>
       <c r="BC28" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3793,41 +5293,101 @@
       <c r="S29" t="n">
         <v>270.29</v>
       </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U29" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V29" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W29" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X29" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>8.210000000000008</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.699263284213402</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7.725417904522334</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>7.593816490660428</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>7.620964647208184</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>8.034999999999997</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>7.468702746147907</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>7.410225178747091</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>8.079999999999984</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>7.523555813506031</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>7.471031001563465</v>
+      </c>
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
+      <c r="AP29" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="inlineStr"/>
-      <c r="AV29" t="inlineStr"/>
+      <c r="AS29" t="n">
+        <v>0.05616974408848506</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr"/>
-      <c r="BA29" t="inlineStr"/>
-      <c r="BB29" t="inlineStr"/>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>1.004872107186357</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0.9739393939393935</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>1.005600497822027</v>
+      </c>
       <c r="BC29" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -3905,41 +5465,103 @@
       <c r="S30" t="n">
         <v>270.29</v>
       </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
+      <c r="T30" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U30" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V30" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W30" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X30" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.76213236386443</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>8.744437610899308</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>11.14382499999998</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>9.109403309705513</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>9.08521034191936</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>9.253199999999996</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>8.848073173299216</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>8.834507531629313</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>9.338199999999981</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>8.826849196529944</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>8.809127403472335</v>
+      </c>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="inlineStr"/>
-      <c r="AU30" t="inlineStr"/>
-      <c r="AV30" t="inlineStr"/>
+      <c r="AP30" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>3.066466366335346</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>5.368376345338416</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.02283368188037815</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW30" t="inlineStr"/>
       <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
-      <c r="BA30" t="inlineStr"/>
-      <c r="BB30" t="inlineStr"/>
+      <c r="AY30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>1.084029669260698</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0.8303432618512956</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>1.00918601132581</v>
+      </c>
       <c r="BC30" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4017,41 +5639,101 @@
       <c r="S31" t="n">
         <v>270.29</v>
       </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U31" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V31" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W31" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X31" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>9.45999999999998</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8.878346286934692</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>8.861802680119906</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>9.629999999999995</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>9.215892732604468</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>9.19559093479665</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9.45999999999998</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>8.966170887472188</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>8.953447025048114</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>9.670000000000016</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>8.988508441753986</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>8.975281908347972</v>
+      </c>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
+      <c r="AP31" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>3.066466366335346</v>
+      </c>
       <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
-      <c r="AV31" t="inlineStr"/>
+      <c r="AS31" t="n">
+        <v>0.01973185656702631</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="inlineStr"/>
-      <c r="AY31" t="inlineStr"/>
-      <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>1.017970401691334</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0.9823468328141208</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1.022198731501061</v>
+      </c>
       <c r="BC31" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4129,41 +5811,103 @@
       <c r="S32" t="n">
         <v>270.29</v>
       </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
+      <c r="T32" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U32" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V32" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W32" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X32" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>8.561800000000002</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.413153772489077</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>7.397283824466996</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>9.159999999999997</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>7.427684389535947</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>7.425794279954072</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>5.075000000000017</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>4.415202806604988</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>4.404183311507597</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>5.164999999999992</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>4.572491336119789</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>4.526439324525196</v>
+      </c>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
-      <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr"/>
-      <c r="AV32" t="inlineStr"/>
+      <c r="AP32" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.06236543707279066</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="inlineStr"/>
-      <c r="AZ32" t="inlineStr"/>
-      <c r="BA32" t="inlineStr"/>
-      <c r="BB32" t="inlineStr"/>
+      <c r="AY32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>1.069868485598822</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0.5540393013100458</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1.017733990147778</v>
+      </c>
       <c r="BC32" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4241,41 +5985,103 @@
       <c r="S33" t="n">
         <v>270.29</v>
       </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr"/>
+      <c r="T33" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U33" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V33" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W33" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X33" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>19.525475</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>13.42553738657414</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>13.37560601299554</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>19.84617499999998</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>13.44614170018462</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>13.35829470538741</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>14.19499999999999</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>12.99075119201483</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>12.98107235174357</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>14.19500000000001</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>13.05816550176028</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>13.0452838251017</v>
+      </c>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
-      <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="inlineStr"/>
-      <c r="AV33" t="inlineStr"/>
+      <c r="AP33" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>3.066466366335346</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>5.368376345338416</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.04066478489139181</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="inlineStr"/>
-      <c r="AZ33" t="inlineStr"/>
-      <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="inlineStr"/>
+      <c r="AY33" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>1.016424696454247</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0.7152511756043674</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1.000000000000001</v>
+      </c>
       <c r="BC33" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4353,41 +6159,101 @@
       <c r="S34" t="n">
         <v>270.29</v>
       </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U34" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V34" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W34" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X34" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>4.769999999999982</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>4.437512099049569</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>4.431048200242951</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>4.944999999999965</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>4.680270189788525</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>4.67157506214418</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>4.730399999999989</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>4.548237720180011</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>4.541348297850564</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>4.855000000000018</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>4.570305427133341</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>4.56225044983703</v>
+      </c>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
+      <c r="AP34" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>3.066466366335346</v>
+      </c>
       <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
+      <c r="AS34" t="n">
+        <v>0.01013229810217492</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW34" t="inlineStr"/>
       <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
-      <c r="AZ34" t="inlineStr"/>
-      <c r="BA34" t="inlineStr"/>
-      <c r="BB34" t="inlineStr"/>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>1.03668763102725</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0.9566026289181037</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.026340267207853</v>
+      </c>
       <c r="BC34" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4465,41 +6331,103 @@
       <c r="S35" t="n">
         <v>270.29</v>
       </c>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U35" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V35" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W35" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X35" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>17.37499999999999</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>15.49296381700623</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>15.42905302544865</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>16.72999999999999</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>14.85117552913291</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>14.73093775226253</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>11.39499999999998</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>10.31014793472757</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>10.16735664347217</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>11.3116</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>10.33102157266201</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>10.22633424879872</v>
+      </c>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="inlineStr"/>
-      <c r="AV35" t="inlineStr"/>
+      <c r="AP35" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.1139054325576187</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
-      <c r="AZ35" t="inlineStr"/>
-      <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
+      <c r="AY35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0.9628776978417268</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0.681111775254034</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0.9926810004387907</v>
+      </c>
       <c r="BC35" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4577,41 +6505,101 @@
       <c r="S36" t="n">
         <v>270.29</v>
       </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U36" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V36" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W36" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X36" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>16.24000000000001</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>15.30478899264122</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>15.26192653577193</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>16.33819999999999</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>15.15596191620538</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>15.14698811717915</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>15.73340000000002</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>14.84546952909458</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>14.75952526053315</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>15.815</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>14.84584078053402</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>14.75507855243591</v>
+      </c>
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
+      <c r="AP36" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
-      <c r="AT36" t="inlineStr"/>
-      <c r="AU36" t="inlineStr"/>
-      <c r="AV36" t="inlineStr"/>
+      <c r="AS36" t="n">
+        <v>0.1112378803474529</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="inlineStr"/>
-      <c r="AZ36" t="inlineStr"/>
-      <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="inlineStr"/>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>1.006046798029556</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0.96298245828794</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.005186418701615</v>
+      </c>
       <c r="BC36" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4689,41 +6677,103 @@
       <c r="S37" t="n">
         <v>270.29</v>
       </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U37" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V37" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W37" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X37" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>5.335424999999975</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>4.35200331641261</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>4.335363515965156</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>6.190399999999997</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>4.691266840185253</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>4.680043062040171</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>4.685000000000002</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>4.385396078072194</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>4.384284493436056</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>4.560000000000002</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>4.403027400849912</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>4.396025503020007</v>
+      </c>
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
-      <c r="AT37" t="inlineStr"/>
-      <c r="AU37" t="inlineStr"/>
-      <c r="AV37" t="inlineStr"/>
+      <c r="AP37" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>3.066466366335346</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>5.368376345338416</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.01268412096495531</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW37" t="inlineStr"/>
       <c r="AX37" t="inlineStr"/>
-      <c r="AY37" t="inlineStr"/>
-      <c r="AZ37" t="inlineStr"/>
-      <c r="BA37" t="inlineStr"/>
-      <c r="BB37" t="inlineStr"/>
+      <c r="AY37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>1.160244966427234</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0.7568170069785481</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0.9733191035218783</v>
+      </c>
       <c r="BC37" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4801,41 +6851,103 @@
       <c r="S38" t="n">
         <v>270.29</v>
       </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
+      <c r="T38" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U38" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V38" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W38" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X38" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>27.9216</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>25.04945519297469</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>25.00393734830666</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>28.48019999999999</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>23.55049130866106</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>23.34791695442949</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>17.98500000000001</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>16.20724615963397</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>15.99891577571225</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>19.05839999999998</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>16.6745118650944</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>16.5130192554648</v>
+      </c>
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
-      <c r="AT38" t="inlineStr"/>
-      <c r="AU38" t="inlineStr"/>
-      <c r="AV38" t="inlineStr"/>
+      <c r="AP38" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.1939061267380451</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW38" t="inlineStr"/>
       <c r="AX38" t="inlineStr"/>
-      <c r="AY38" t="inlineStr"/>
-      <c r="AZ38" t="inlineStr"/>
-      <c r="BA38" t="inlineStr"/>
-      <c r="BB38" t="inlineStr"/>
+      <c r="AY38" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>1.020006016847172</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0.6314913518865746</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.059683069224352</v>
+      </c>
       <c r="BC38" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -4913,41 +7025,101 @@
       <c r="S39" t="n">
         <v>270.29</v>
       </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="inlineStr"/>
+      <c r="T39" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U39" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V39" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W39" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X39" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>18.83520000000001</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>16.04592492105019</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>15.86003412790356</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>16.11352071737981</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>16.06444029037342</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>23.1082</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>16.24606776379965</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>16.09202345908683</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>23.0616</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>16.75866807928425</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>16.54226976047118</v>
+      </c>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
+      <c r="AP39" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr"/>
-      <c r="AT39" t="inlineStr"/>
-      <c r="AU39" t="inlineStr"/>
-      <c r="AV39" t="inlineStr"/>
+      <c r="AS39" t="n">
+        <v>0.1370541755759035</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="inlineStr"/>
-      <c r="AY39" t="inlineStr"/>
-      <c r="AZ39" t="inlineStr"/>
-      <c r="BA39" t="inlineStr"/>
-      <c r="BB39" t="inlineStr"/>
+      <c r="AY39" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>1.06874362895005</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.147948335817189</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0.9979833998320941</v>
+      </c>
       <c r="BC39" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -5025,41 +7197,103 @@
       <c r="S40" t="n">
         <v>270.29</v>
       </c>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
-      <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr"/>
+      <c r="T40" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U40" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W40" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X40" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>14.80000000000001</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>13.12794290770206</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>13.11360173551366</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>13.66267362164673</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>13.64037149057759</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>13.2706628488516</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>13.2358179007175</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>13.84999999999997</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>13.2664379039489</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>13.23076532579462</v>
+      </c>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
-      <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="inlineStr"/>
-      <c r="AV40" t="inlineStr"/>
+      <c r="AP40" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>3.066466366335346</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>5.368376345338416</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.03134967865789227</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW40" t="inlineStr"/>
       <c r="AX40" t="inlineStr"/>
-      <c r="AY40" t="inlineStr"/>
-      <c r="AZ40" t="inlineStr"/>
-      <c r="BA40" t="inlineStr"/>
-      <c r="BB40" t="inlineStr"/>
+      <c r="AY40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>1.033783783783783</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0.9137254901960788</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0.9907010014306125</v>
+      </c>
       <c r="BC40" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -5137,41 +7371,103 @@
       <c r="S41" t="n">
         <v>270.29</v>
       </c>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="inlineStr"/>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr"/>
+      <c r="T41" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U41" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V41" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W41" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X41" t="n">
+        <v>9692.307692307691</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>9792.307692307691</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>11492.30769230769</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>13.16860000000001</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7.121365661261355</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>7.093110967791321</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>14.58020000000001</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>7.907181782361455</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>7.915181337364982</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>6.495000000000005</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>5.51831190160084</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>5.480761813531402</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>6.625</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>5.533517314707213</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>5.49558983517908</v>
+      </c>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
-      <c r="AT41" t="inlineStr"/>
-      <c r="AU41" t="inlineStr"/>
-      <c r="AV41" t="inlineStr"/>
+      <c r="AP41" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.099268618516234</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="AW41" t="inlineStr"/>
       <c r="AX41" t="inlineStr"/>
-      <c r="AY41" t="inlineStr"/>
-      <c r="AZ41" t="inlineStr"/>
-      <c r="BA41" t="inlineStr"/>
-      <c r="BB41" t="inlineStr"/>
+      <c r="AY41" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>1.107194386647024</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0.4454671403684448</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.020015396458814</v>
+      </c>
       <c r="BC41" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -5249,41 +7545,101 @@
       <c r="S42" t="n">
         <v>270.29</v>
       </c>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr"/>
+      <c r="T42" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U42" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V42" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W42" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X42" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>14.185</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>13.35051200197309</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>13.328210867015</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>14.185</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>13.82562230450727</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>13.79524260938006</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>13.55864540046689</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>13.54358894028076</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>14.56999999999999</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>13.55399288794872</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>13.53752726696221</v>
+      </c>
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr"/>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
+      <c r="AP42" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>3.066466366335346</v>
+      </c>
       <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="inlineStr"/>
-      <c r="AT42" t="inlineStr"/>
-      <c r="AU42" t="inlineStr"/>
-      <c r="AV42" t="inlineStr"/>
+      <c r="AS42" t="n">
+        <v>0.02906504521321582</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="inlineStr"/>
-      <c r="AY42" t="inlineStr"/>
-      <c r="AZ42" t="inlineStr"/>
-      <c r="BA42" t="inlineStr"/>
-      <c r="BB42" t="inlineStr"/>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.020796616143814</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.006215469613259</v>
+      </c>
       <c r="BC42" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -5361,41 +7717,101 @@
       <c r="S43" t="n">
         <v>270.29</v>
       </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="inlineStr"/>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
+      <c r="T43" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U43" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V43" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W43" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X43" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>10.28000000000003</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>4.36495483967754</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>4.253396664126913</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>13.54500000000002</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>4.654940759858054</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>4.512986619173942</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>18.37839999999998</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>4.6464971394204</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>4.413606119156456</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>21.19314999999987</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>4.228175152549277</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>4.084071037838313</v>
+      </c>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
+      <c r="AP43" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>3.066466366335346</v>
+      </c>
       <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="inlineStr"/>
-      <c r="AT43" t="inlineStr"/>
-      <c r="AU43" t="inlineStr"/>
-      <c r="AV43" t="inlineStr"/>
+      <c r="AS43" t="n">
+        <v>0.0277536861059576</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW43" t="inlineStr"/>
       <c r="AX43" t="inlineStr"/>
-      <c r="AY43" t="inlineStr"/>
-      <c r="AZ43" t="inlineStr"/>
-      <c r="BA43" t="inlineStr"/>
-      <c r="BB43" t="inlineStr"/>
+      <c r="AY43" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>1.317607003891048</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.356840162421555</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.15315533452313</v>
+      </c>
       <c r="BC43" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>
@@ -5473,41 +7889,103 @@
       <c r="S44" t="n">
         <v>270.29</v>
       </c>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="inlineStr"/>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="inlineStr"/>
-      <c r="AM44" t="inlineStr"/>
+      <c r="T44" t="n">
+        <v>3950</v>
+      </c>
+      <c r="U44" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V44" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W44" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X44" t="n">
+        <v>14334.61538461538</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>14384.61538461538</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>14884.61538461538</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>14.93759999999998</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8.830450912745842</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>8.81858949711842</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>16.345</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>8.95361579955113</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>8.902703604920607</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>9.555000000000007</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>8.624923754480005</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>8.616449931581565</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>9.643600000000013</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>8.644713877866439</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>8.625191862255386</v>
+      </c>
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="inlineStr"/>
-      <c r="AT44" t="inlineStr"/>
-      <c r="AU44" t="inlineStr"/>
-      <c r="AV44" t="inlineStr"/>
+      <c r="AP44" t="n">
+        <v>2.048998605090998</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>3.066466366335346</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>5.368376345338416</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.03349088220021237</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="AW44" t="inlineStr"/>
       <c r="AX44" t="inlineStr"/>
-      <c r="AY44" t="inlineStr"/>
-      <c r="AZ44" t="inlineStr"/>
-      <c r="BA44" t="inlineStr"/>
-      <c r="BB44" t="inlineStr"/>
+      <c r="AY44" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>1.094218616109684</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0.5845824411134908</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.009272632129776</v>
+      </c>
       <c r="BC44" t="inlineStr">
         <is>
           <t>20251112-tett6roof</t>

--- a/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
+++ b/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,487 +422,487 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>path</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>experiment_folder</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>file_date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>WindCondition</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>TunnelCondition</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>PanelCondition</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Mooring</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>WaveAmplitudeInput [Volt]</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>WaveFrequencyInput [Hz]</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>WavePeriodInput</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>WaterDepth [mm]</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Extra seconds</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Run number</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Probe 1 mm from paddle</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Stillwater Probe 1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Computed Probe 1 start</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Computed Probe 1 end</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Probe 1 Amplitude</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Probe 1 Amplitude (PSD)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Probe 1 Amplitude (FFT)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Probe 1 Swell Amplitude (FFT)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Probe 1 Wind Amplitude (FFT)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Probe 1 Total Amplitude (FFT)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>Probe 1 WavePeriod (FFT)</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>Probe 1 Wavenumber (FFT)</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>Probe 1 Wavelength (FFT)</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>Probe 1 Significant Wave Height Hm0 (FFT)</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>Probe 2 mm from paddle</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Stillwater Probe 2</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Computed Probe 2 start</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>Computed Probe 2 end</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Probe 2 Amplitude</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>Probe 2 Amplitude (PSD)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>Probe 2 Amplitude (FFT)</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>Probe 2 Swell Amplitude (FFT)</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>Probe 2 Wind Amplitude (FFT)</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>Probe 2 Total Amplitude (FFT)</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>Probe 2 WavePeriod (FFT)</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>Probe 2 Wavenumber (FFT)</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>Probe 2 Wavelength (FFT)</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>Probe 2 Significant Wave Height Hm0 (FFT)</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>Probe 3 mm from paddle</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>Stillwater Probe 3</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>Computed Probe 3 start</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>Computed Probe 3 end</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>Probe 3 Amplitude</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Probe 3 Amplitude (PSD)</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>Probe 3 Amplitude (FFT)</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>Probe 3 Swell Amplitude (FFT)</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>Probe 3 Wind Amplitude (FFT)</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>Probe 3 Total Amplitude (FFT)</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>Probe 3 WavePeriod (FFT)</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>Probe 3 Wavenumber (FFT)</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>Probe 3 Wavelength (FFT)</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>Probe 3 Significant Wave Height Hm0 (FFT)</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>Probe 4 mm from paddle</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>Stillwater Probe 4</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>Computed Probe 4 start</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>Computed Probe 4 end</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>Probe 4 Amplitude</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>Probe 4 Amplitude (PSD)</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BJ1" t="inlineStr">
         <is>
           <t>Probe 4 Amplitude (FFT)</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BK1" t="inlineStr">
         <is>
           <t>Probe 4 Swell Amplitude (FFT)</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BL1" t="inlineStr">
         <is>
           <t>Probe 4 Wind Amplitude (FFT)</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BM1" t="inlineStr">
         <is>
           <t>Probe 4 Total Amplitude (FFT)</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BN1" t="inlineStr">
         <is>
           <t>Probe 4 WavePeriod (FFT)</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BO1" t="inlineStr">
         <is>
           <t>Probe 4 Wavenumber (FFT)</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BP1" t="inlineStr">
         <is>
           <t>Probe 4 Wavelength (FFT)</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BQ1" t="inlineStr">
         <is>
           <t>Probe 4 Significant Wave Height Hm0 (FFT)</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BR1" t="inlineStr">
         <is>
           <t>Wavefrequency</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BS1" t="inlineStr">
         <is>
           <t>Waveperiod</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BT1" t="inlineStr">
         <is>
           <t>Wavenumber</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BU1" t="inlineStr">
         <is>
           <t>Wavelength</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BV1" t="inlineStr">
         <is>
           <t>kL</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BW1" t="inlineStr">
         <is>
           <t>ak</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BX1" t="inlineStr">
         <is>
           <t>kH</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BY1" t="inlineStr">
         <is>
           <t>tanh(kH)</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="BZ1" t="inlineStr">
         <is>
           <t>Celerity</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CA1" t="inlineStr">
         <is>
           <t>Significant Wave Height Hs</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CB1" t="inlineStr">
         <is>
           <t>Significant Wave Height Hm0</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CC1" t="inlineStr">
         <is>
           <t>Windspeed</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CD1" t="inlineStr">
         <is>
           <t>P2/P1</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CE1" t="inlineStr">
         <is>
           <t>P3/P2</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CF1" t="inlineStr">
         <is>
           <t>P4/P3</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CG1" t="inlineStr">
         <is>
           <t>PROCESSED_folder</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CH1" t="inlineStr">
         <is>
           <t>Probe 1 Swell amplitude</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CI1" t="inlineStr">
         <is>
           <t>Probe 1 Wind amplitude</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CJ1" t="inlineStr">
         <is>
           <t>Probe 1 Total amplitude</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CK1" t="inlineStr">
         <is>
           <t>Probe 2 Swell amplitude</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CL1" t="inlineStr">
         <is>
           <t>Probe 2 Wind amplitude</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CM1" t="inlineStr">
         <is>
           <t>Probe 2 Total amplitude</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CN1" t="inlineStr">
         <is>
           <t>Probe 3 Swell amplitude</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CO1" t="inlineStr">
         <is>
           <t>Probe 3 Wind amplitude</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CP1" t="inlineStr">
         <is>
           <t>Probe 3 Total amplitude</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CQ1" t="inlineStr">
         <is>
           <t>Probe 4 Swell amplitude</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CR1" t="inlineStr">
         <is>
           <t>Probe 4 Wind amplitude</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CS1" t="inlineStr">
         <is>
           <t>Probe 4 Total amplitude</t>
         </is>
@@ -2548,7 +2536,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0300-freq-0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0100-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2558,12 +2546,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-11-12T16:00:52</t>
+          <t>2025-11-12T15:38:32</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2578,9 +2566,11 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.65</v>
+      </c>
       <c r="J9" t="n">
         <v>40</v>
       </c>
@@ -2602,14 +2592,20 @@
         <v>268.91</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3950</v>
       </c>
       <c r="Q9" t="n">
-        <v>22894</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5.805000000000007</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.467840408626308</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4.447034070100692</v>
+      </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
@@ -2624,14 +2620,20 @@
         <v>269.34</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AE9" t="n">
-        <v>22894</v>
-      </c>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>6.189999999999969</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>4.584043024991837</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>4.534079326201507</v>
+      </c>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
@@ -2646,14 +2648,20 @@
         <v>269.73</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AS9" t="n">
-        <v>22894</v>
-      </c>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
+        <v>13730.76923076923</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>8.639999999999986</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>4.595381212169954</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>4.545460881105915</v>
+      </c>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
@@ -2668,14 +2676,20 @@
         <v>270.29</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="BG9" t="n">
-        <v>22894</v>
-      </c>
-      <c r="BH9" t="inlineStr"/>
-      <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="inlineStr"/>
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>8.639999999999986</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>4.451712595363859</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>4.449096797466282</v>
+      </c>
       <c r="BK9" t="inlineStr"/>
       <c r="BL9" t="inlineStr"/>
       <c r="BM9" t="inlineStr"/>
@@ -2686,44 +2700,84 @@
       <c r="BR9" t="inlineStr"/>
       <c r="BS9" t="inlineStr"/>
       <c r="BT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU9" t="inlineStr"/>
+        <v>2.048998605090998</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>3.066466366335346</v>
+      </c>
       <c r="BV9" t="inlineStr"/>
-      <c r="BW9" t="inlineStr"/>
-      <c r="BX9" t="inlineStr"/>
-      <c r="BY9" t="inlineStr"/>
-      <c r="BZ9" t="inlineStr"/>
+      <c r="BW9" t="n">
+        <v>0.01268330136551322</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="CA9" t="inlineStr"/>
       <c r="CB9" t="inlineStr"/>
       <c r="CC9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="CD9" t="inlineStr"/>
-      <c r="CE9" t="inlineStr"/>
-      <c r="CF9" t="inlineStr"/>
+        <v>3.8</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>1.019573777652404</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>1.002510224035701</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.9787999311488548</v>
+      </c>
       <c r="CG9" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH9" t="inlineStr"/>
-      <c r="CI9" t="inlineStr"/>
-      <c r="CJ9" t="inlineStr"/>
-      <c r="CK9" t="inlineStr"/>
-      <c r="CL9" t="inlineStr"/>
-      <c r="CM9" t="inlineStr"/>
-      <c r="CN9" t="inlineStr"/>
-      <c r="CO9" t="inlineStr"/>
-      <c r="CP9" t="inlineStr"/>
-      <c r="CQ9" t="inlineStr"/>
-      <c r="CR9" t="inlineStr"/>
-      <c r="CS9" t="inlineStr"/>
+      <c r="CH9" t="n">
+        <v>6.34796524845246</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>1.197485445933668</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>6.459925246377317</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>6.529704442361833</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>1.695185258848549</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>6.746161365281539</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>6.540243940229757</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>3.801849653051665</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>7.564975319333245</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>6.338141481644243</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>3.896266393148377</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>7.439954922425064</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0100-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2733,18 +2787,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-11-12T15:38:32</t>
+          <t>2025-11-12T16:59:10</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2756,7 +2810,7 @@
         <v>0.1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="J10" t="n">
         <v>40</v>
@@ -2779,19 +2833,19 @@
         <v>268.91</v>
       </c>
       <c r="P10" t="n">
-        <v>3950</v>
+        <v>4700</v>
       </c>
       <c r="Q10" t="n">
-        <v>13180.76923076923</v>
+        <v>9315.384615384615</v>
       </c>
       <c r="R10" t="n">
-        <v>5.805000000000007</v>
+        <v>8.424999999999983</v>
       </c>
       <c r="S10" t="n">
-        <v>4.467840408626308</v>
+        <v>7.574621618704117</v>
       </c>
       <c r="T10" t="n">
-        <v>4.447034070100692</v>
+        <v>7.577148929878852</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -2807,19 +2861,19 @@
         <v>269.34</v>
       </c>
       <c r="AD10" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="AE10" t="n">
-        <v>13230.76923076923</v>
+        <v>9415.384615384615</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.189999999999969</v>
+        <v>8.170000000000016</v>
       </c>
       <c r="AG10" t="n">
-        <v>4.584043024991837</v>
+        <v>7.419120705999788</v>
       </c>
       <c r="AH10" t="n">
-        <v>4.534079326201507</v>
+        <v>7.41551241568062</v>
       </c>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
@@ -2835,19 +2889,19 @@
         <v>269.73</v>
       </c>
       <c r="AR10" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="AS10" t="n">
-        <v>13730.76923076923</v>
+        <v>11115.38461538462</v>
       </c>
       <c r="AT10" t="n">
-        <v>8.639999999999986</v>
+        <v>5.585000000000008</v>
       </c>
       <c r="AU10" t="n">
-        <v>4.595381212169954</v>
+        <v>4.981895365107301</v>
       </c>
       <c r="AV10" t="n">
-        <v>4.545460881105915</v>
+        <v>5.01806963798105</v>
       </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="inlineStr"/>
@@ -2863,19 +2917,19 @@
         <v>270.29</v>
       </c>
       <c r="BF10" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="BG10" t="n">
-        <v>13730.76923076923</v>
+        <v>11115.38461538462</v>
       </c>
       <c r="BH10" t="n">
-        <v>8.639999999999986</v>
+        <v>5.760000000000019</v>
       </c>
       <c r="BI10" t="n">
-        <v>4.451712595363859</v>
+        <v>5.139884841761524</v>
       </c>
       <c r="BJ10" t="n">
-        <v>4.449096797466282</v>
+        <v>5.168187162707039</v>
       </c>
       <c r="BK10" t="inlineStr"/>
       <c r="BL10" t="inlineStr"/>
@@ -2887,37 +2941,39 @@
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="inlineStr"/>
       <c r="BT10" t="n">
-        <v>2.048998605090998</v>
+        <v>6.80845382890728</v>
       </c>
       <c r="BU10" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="BV10" t="inlineStr"/>
+        <v>0.922850542145485</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>17.83814903173707</v>
+      </c>
       <c r="BW10" t="n">
-        <v>0.01268330136551322</v>
+        <v>0.05562506778217258</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.188419190952779</v>
+        <v>3.948903220766222</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.8300879542525336</v>
+        <v>0.9992571606462729</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1.993203138117974</v>
+        <v>1.19970570478913</v>
       </c>
       <c r="CA10" t="inlineStr"/>
       <c r="CB10" t="inlineStr"/>
       <c r="CC10" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="CD10" t="n">
-        <v>1.019573777652404</v>
+        <v>0.9786678979529024</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.002510224035701</v>
+        <v>0.6766989732725671</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.9787999311488548</v>
+        <v>1.029915392881313</v>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
@@ -2925,46 +2981,46 @@
         </is>
       </c>
       <c r="CH10" t="n">
-        <v>6.34796524845246</v>
+        <v>10.72815171930085</v>
       </c>
       <c r="CI10" t="n">
-        <v>1.197485445933668</v>
+        <v>0.7035445869624317</v>
       </c>
       <c r="CJ10" t="n">
-        <v>6.459925246377317</v>
+        <v>10.75119594734381</v>
       </c>
       <c r="CK10" t="n">
-        <v>6.529704442361833</v>
+        <v>10.51139480708368</v>
       </c>
       <c r="CL10" t="n">
-        <v>1.695185258848549</v>
+        <v>1.007550800095588</v>
       </c>
       <c r="CM10" t="n">
-        <v>6.746161365281539</v>
+        <v>10.55957287986398</v>
       </c>
       <c r="CN10" t="n">
-        <v>6.540243940229757</v>
+        <v>7.053254211445491</v>
       </c>
       <c r="CO10" t="n">
-        <v>3.801849653051665</v>
+        <v>0.3787690370225508</v>
       </c>
       <c r="CP10" t="n">
-        <v>7.564975319333245</v>
+        <v>7.063417087690669</v>
       </c>
       <c r="CQ10" t="n">
-        <v>6.338141481644243</v>
+        <v>7.277776502562338</v>
       </c>
       <c r="CR10" t="n">
-        <v>3.896266393148377</v>
+        <v>0.4060380548239098</v>
       </c>
       <c r="CS10" t="n">
-        <v>7.439954922425064</v>
+        <v>7.289094437803209</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0100-freq1300-per40-depth580-mstop30-run3.csv</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2974,7 +3030,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-11-12T16:59:10</t>
+          <t>2025-11-12T17:25:46</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3010,7 +3066,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -3026,13 +3082,13 @@
         <v>9315.384615384615</v>
       </c>
       <c r="R11" t="n">
-        <v>8.424999999999983</v>
+        <v>8.469999999999999</v>
       </c>
       <c r="S11" t="n">
-        <v>7.574621618704117</v>
+        <v>7.859634437151133</v>
       </c>
       <c r="T11" t="n">
-        <v>7.577148929878852</v>
+        <v>7.888134321427951</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -3054,13 +3110,13 @@
         <v>9415.384615384615</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.170000000000016</v>
+        <v>7.995000000000005</v>
       </c>
       <c r="AG11" t="n">
-        <v>7.419120705999788</v>
+        <v>7.278789809368628</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.41551241568062</v>
+        <v>7.287728855968433</v>
       </c>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
@@ -3082,13 +3138,13 @@
         <v>11115.38461538462</v>
       </c>
       <c r="AT11" t="n">
-        <v>5.585000000000008</v>
+        <v>5.631624999999998</v>
       </c>
       <c r="AU11" t="n">
-        <v>4.981895365107301</v>
+        <v>5.2447951866794</v>
       </c>
       <c r="AV11" t="n">
-        <v>5.01806963798105</v>
+        <v>5.111892135537919</v>
       </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
@@ -3110,13 +3166,13 @@
         <v>11115.38461538462</v>
       </c>
       <c r="BH11" t="n">
-        <v>5.760000000000019</v>
+        <v>5.805000000000007</v>
       </c>
       <c r="BI11" t="n">
-        <v>5.139884841761524</v>
+        <v>5.384673082736279</v>
       </c>
       <c r="BJ11" t="n">
-        <v>5.168187162707039</v>
+        <v>5.29130320421138</v>
       </c>
       <c r="BK11" t="inlineStr"/>
       <c r="BL11" t="inlineStr"/>
@@ -3137,7 +3193,7 @@
         <v>17.83814903173707</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.05562506778217258</v>
+        <v>0.05443358836211374</v>
       </c>
       <c r="BX11" t="n">
         <v>3.948903220766222</v>
@@ -3154,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.9786678979529024</v>
+        <v>0.9238849845864656</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.6766989732725671</v>
+        <v>0.7014382994437879</v>
       </c>
       <c r="CF11" t="n">
-        <v>1.029915392881313</v>
+        <v>1.035096802498275</v>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
@@ -3168,46 +3224,46 @@
         </is>
       </c>
       <c r="CH11" t="n">
-        <v>10.72815171930085</v>
+        <v>11.13607030463304</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.7035445869624317</v>
+        <v>0.8976835690969229</v>
       </c>
       <c r="CJ11" t="n">
-        <v>10.75119594734381</v>
+        <v>11.17219305328888</v>
       </c>
       <c r="CK11" t="n">
-        <v>10.51139480708368</v>
+        <v>10.31709116253021</v>
       </c>
       <c r="CL11" t="n">
-        <v>1.007550800095588</v>
+        <v>1.007758932757852</v>
       </c>
       <c r="CM11" t="n">
-        <v>10.55957287986398</v>
+        <v>10.36619255669662</v>
       </c>
       <c r="CN11" t="n">
-        <v>7.053254211445491</v>
+        <v>7.425461908151575</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.3787690370225508</v>
+        <v>0.4547051238141036</v>
       </c>
       <c r="CP11" t="n">
-        <v>7.063417087690669</v>
+        <v>7.439371028456156</v>
       </c>
       <c r="CQ11" t="n">
-        <v>7.277776502562338</v>
+        <v>7.622914825342705</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.4060380548239098</v>
+        <v>0.4380848537195636</v>
       </c>
       <c r="CS11" t="n">
-        <v>7.289094437803209</v>
+        <v>7.635492700113601</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0100-freq1300-per40-depth580-mstop30-run3.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0100-freq0650-per40-depth580-mstop30-run2.csv</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3217,18 +3273,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-11-12T17:25:46</t>
+          <t>2025-11-12T15:46:46</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -3240,7 +3296,7 @@
         <v>0.1</v>
       </c>
       <c r="I12" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="J12" t="n">
         <v>40</v>
@@ -3253,7 +3309,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -3263,19 +3319,19 @@
         <v>268.91</v>
       </c>
       <c r="P12" t="n">
-        <v>4700</v>
+        <v>3950</v>
       </c>
       <c r="Q12" t="n">
-        <v>9315.384615384615</v>
+        <v>13180.76923076923</v>
       </c>
       <c r="R12" t="n">
-        <v>8.469999999999999</v>
+        <v>5.805000000000007</v>
       </c>
       <c r="S12" t="n">
-        <v>7.859634437151133</v>
+        <v>4.483331558359191</v>
       </c>
       <c r="T12" t="n">
-        <v>7.888134321427951</v>
+        <v>4.422158802810139</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -3291,19 +3347,19 @@
         <v>269.34</v>
       </c>
       <c r="AD12" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="AE12" t="n">
-        <v>9415.384615384615</v>
+        <v>13230.76923076923</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.995000000000005</v>
+        <v>6.234999999999985</v>
       </c>
       <c r="AG12" t="n">
-        <v>7.278789809368628</v>
+        <v>4.610109449832502</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.287728855968433</v>
+        <v>4.568541952191242</v>
       </c>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
@@ -3319,19 +3375,19 @@
         <v>269.73</v>
       </c>
       <c r="AR12" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="AS12" t="n">
-        <v>11115.38461538462</v>
+        <v>13730.76923076923</v>
       </c>
       <c r="AT12" t="n">
-        <v>5.631624999999998</v>
+        <v>9.330000000000013</v>
       </c>
       <c r="AU12" t="n">
-        <v>5.2447951866794</v>
+        <v>4.644170921977349</v>
       </c>
       <c r="AV12" t="n">
-        <v>5.111892135537919</v>
+        <v>4.589454493780603</v>
       </c>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="inlineStr"/>
@@ -3347,19 +3403,19 @@
         <v>270.29</v>
       </c>
       <c r="BF12" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="BG12" t="n">
-        <v>11115.38461538462</v>
+        <v>13730.76923076923</v>
       </c>
       <c r="BH12" t="n">
-        <v>5.805000000000007</v>
+        <v>8.640000000000015</v>
       </c>
       <c r="BI12" t="n">
-        <v>5.384673082736279</v>
+        <v>4.620145247832278</v>
       </c>
       <c r="BJ12" t="n">
-        <v>5.29130320421138</v>
+        <v>4.553267299642018</v>
       </c>
       <c r="BK12" t="inlineStr"/>
       <c r="BL12" t="inlineStr"/>
@@ -3371,39 +3427,37 @@
       <c r="BR12" t="inlineStr"/>
       <c r="BS12" t="inlineStr"/>
       <c r="BT12" t="n">
-        <v>6.80845382890728</v>
+        <v>2.048998605090998</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>17.83814903173707</v>
-      </c>
+        <v>3.066466366335346</v>
+      </c>
+      <c r="BV12" t="inlineStr"/>
       <c r="BW12" t="n">
-        <v>0.05443358836211374</v>
+        <v>0.01277550630274234</v>
       </c>
       <c r="BX12" t="n">
-        <v>3.948903220766222</v>
+        <v>1.188419190952779</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.9992571606462729</v>
+        <v>0.8300879542525336</v>
       </c>
       <c r="BZ12" t="n">
-        <v>1.19970570478913</v>
+        <v>1.993203138117974</v>
       </c>
       <c r="CA12" t="inlineStr"/>
       <c r="CB12" t="inlineStr"/>
       <c r="CC12" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.9238849845864656</v>
+        <v>1.033102191917685</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.7014382994437879</v>
+        <v>1.004577508931341</v>
       </c>
       <c r="CF12" t="n">
-        <v>1.035096802498275</v>
+        <v>0.9921151426193191</v>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
@@ -3411,46 +3465,46 @@
         </is>
       </c>
       <c r="CH12" t="n">
-        <v>11.13607030463304</v>
+        <v>6.379193632709486</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.8976835690969229</v>
+        <v>1.179602413786994</v>
       </c>
       <c r="CJ12" t="n">
-        <v>11.17219305328888</v>
+        <v>6.48733945914759</v>
       </c>
       <c r="CK12" t="n">
-        <v>10.31709116253021</v>
+        <v>6.552537243484712</v>
       </c>
       <c r="CL12" t="n">
-        <v>1.007758932757852</v>
+        <v>1.561503182365318</v>
       </c>
       <c r="CM12" t="n">
-        <v>10.36619255669662</v>
+        <v>6.736025275768437</v>
       </c>
       <c r="CN12" t="n">
-        <v>7.425461908151575</v>
+        <v>6.611646185629058</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.4547051238141036</v>
+        <v>4.317834871894356</v>
       </c>
       <c r="CP12" t="n">
-        <v>7.439371028456156</v>
+        <v>7.896680521895909</v>
       </c>
       <c r="CQ12" t="n">
-        <v>7.622914825342705</v>
+        <v>6.584495999731379</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.4380848537195636</v>
+        <v>4.043281490384391</v>
       </c>
       <c r="CS12" t="n">
-        <v>7.635492700113601</v>
+        <v>7.726817765481695</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0100-freq0650-per40-depth580-mstop30-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0200-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3460,7 +3514,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-11-12T15:46:46</t>
+          <t>2025-11-12T15:29:40</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3480,10 +3534,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="J13" t="n">
         <v>40</v>
@@ -3496,7 +3550,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -3506,19 +3560,19 @@
         <v>268.91</v>
       </c>
       <c r="P13" t="n">
-        <v>3950</v>
+        <v>4700</v>
       </c>
       <c r="Q13" t="n">
-        <v>13180.76923076923</v>
+        <v>9315.384615384615</v>
       </c>
       <c r="R13" t="n">
-        <v>5.805000000000007</v>
+        <v>16.36237500000001</v>
       </c>
       <c r="S13" t="n">
-        <v>4.483331558359191</v>
+        <v>14.77618578980846</v>
       </c>
       <c r="T13" t="n">
-        <v>4.422158802810139</v>
+        <v>14.83697346029754</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -3534,19 +3588,19 @@
         <v>269.34</v>
       </c>
       <c r="AD13" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="AE13" t="n">
-        <v>13230.76923076923</v>
+        <v>9415.384615384615</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.234999999999985</v>
+        <v>16.88500000000002</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.610109449832502</v>
+        <v>15.05234857269716</v>
       </c>
       <c r="AH13" t="n">
-        <v>4.568541952191242</v>
+        <v>15.03808398457271</v>
       </c>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
@@ -3562,19 +3616,19 @@
         <v>269.73</v>
       </c>
       <c r="AR13" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="AS13" t="n">
-        <v>13730.76923076923</v>
+        <v>11115.38461538462</v>
       </c>
       <c r="AT13" t="n">
-        <v>9.330000000000013</v>
+        <v>18.00775</v>
       </c>
       <c r="AU13" t="n">
-        <v>4.644170921977349</v>
+        <v>15.56449086355462</v>
       </c>
       <c r="AV13" t="n">
-        <v>4.589454493780603</v>
+        <v>15.40209235044285</v>
       </c>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="inlineStr"/>
@@ -3590,19 +3644,19 @@
         <v>270.29</v>
       </c>
       <c r="BF13" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="BG13" t="n">
-        <v>13730.76923076923</v>
+        <v>11115.38461538462</v>
       </c>
       <c r="BH13" t="n">
-        <v>8.640000000000015</v>
+        <v>17.01275000000001</v>
       </c>
       <c r="BI13" t="n">
-        <v>4.620145247832278</v>
+        <v>14.30634687110868</v>
       </c>
       <c r="BJ13" t="n">
-        <v>4.553267299642018</v>
+        <v>14.35980018392826</v>
       </c>
       <c r="BK13" t="inlineStr"/>
       <c r="BL13" t="inlineStr"/>
@@ -3614,23 +3668,23 @@
       <c r="BR13" t="inlineStr"/>
       <c r="BS13" t="inlineStr"/>
       <c r="BT13" t="n">
-        <v>2.048998605090998</v>
+        <v>6.80845382890728</v>
       </c>
       <c r="BU13" t="n">
-        <v>3.066466366335346</v>
+        <v>0.922850542145485</v>
       </c>
       <c r="BV13" t="inlineStr"/>
       <c r="BW13" t="n">
-        <v>0.01277550630274234</v>
+        <v>0.1149607429010995</v>
       </c>
       <c r="BX13" t="n">
-        <v>1.188419190952779</v>
+        <v>3.948903220766222</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.8300879542525336</v>
+        <v>0.9992571606462729</v>
       </c>
       <c r="BZ13" t="n">
-        <v>1.993203138117974</v>
+        <v>1.19970570478913</v>
       </c>
       <c r="CA13" t="inlineStr"/>
       <c r="CB13" t="inlineStr"/>
@@ -3638,13 +3692,13 @@
         <v>3.8</v>
       </c>
       <c r="CD13" t="n">
-        <v>1.033102191917685</v>
+        <v>1.01355468652777</v>
       </c>
       <c r="CE13" t="n">
-        <v>1.004577508931341</v>
+        <v>1.024205767586054</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.9921151426193191</v>
+        <v>0.9323278848873658</v>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
@@ -3652,46 +3706,46 @@
         </is>
       </c>
       <c r="CH13" t="n">
-        <v>6.379193632709486</v>
+        <v>20.92464826986691</v>
       </c>
       <c r="CI13" t="n">
-        <v>1.179602413786994</v>
+        <v>1.592529392264254</v>
       </c>
       <c r="CJ13" t="n">
-        <v>6.48733945914759</v>
+        <v>20.9851627366306</v>
       </c>
       <c r="CK13" t="n">
-        <v>6.552537243484712</v>
+        <v>21.31453749246756</v>
       </c>
       <c r="CL13" t="n">
-        <v>1.561503182365318</v>
+        <v>1.78199532921563</v>
       </c>
       <c r="CM13" t="n">
-        <v>6.736025275768437</v>
+        <v>21.38889936091036</v>
       </c>
       <c r="CN13" t="n">
-        <v>6.611646185629058</v>
+        <v>22.05478297994715</v>
       </c>
       <c r="CO13" t="n">
-        <v>4.317834871894356</v>
+        <v>3.269767163949396</v>
       </c>
       <c r="CP13" t="n">
-        <v>7.896680521895909</v>
+        <v>22.29584781072494</v>
       </c>
       <c r="CQ13" t="n">
-        <v>6.584495999731379</v>
+        <v>20.29432266629864</v>
       </c>
       <c r="CR13" t="n">
-        <v>4.043281490384391</v>
+        <v>2.890785918270305</v>
       </c>
       <c r="CS13" t="n">
-        <v>7.726817765481695</v>
+        <v>20.49917500069485</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0200-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3701,18 +3755,18 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-11-12T15:29:40</t>
+          <t>2025-11-12T17:12:36</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3724,7 +3778,7 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="J14" t="n">
         <v>40</v>
@@ -3747,19 +3801,19 @@
         <v>268.91</v>
       </c>
       <c r="P14" t="n">
-        <v>4700</v>
+        <v>3950</v>
       </c>
       <c r="Q14" t="n">
-        <v>9315.384615384615</v>
+        <v>13180.76923076923</v>
       </c>
       <c r="R14" t="n">
-        <v>16.36237500000001</v>
+        <v>9.414999999999992</v>
       </c>
       <c r="S14" t="n">
-        <v>14.77618578980846</v>
+        <v>8.878875616655314</v>
       </c>
       <c r="T14" t="n">
-        <v>14.83697346029754</v>
+        <v>8.860636159129365</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -3775,19 +3829,19 @@
         <v>269.34</v>
       </c>
       <c r="AD14" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="AE14" t="n">
-        <v>9415.384615384615</v>
+        <v>13230.76923076923</v>
       </c>
       <c r="AF14" t="n">
-        <v>16.88500000000002</v>
+        <v>9.669999999999987</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.05234857269716</v>
+        <v>9.327362573040219</v>
       </c>
       <c r="AH14" t="n">
-        <v>15.03808398457271</v>
+        <v>9.303608996729254</v>
       </c>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
@@ -3803,19 +3857,19 @@
         <v>269.73</v>
       </c>
       <c r="AR14" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="AS14" t="n">
-        <v>11115.38461538462</v>
+        <v>13730.76923076923</v>
       </c>
       <c r="AT14" t="n">
-        <v>18.00775</v>
+        <v>9.455000000000013</v>
       </c>
       <c r="AU14" t="n">
-        <v>15.56449086355462</v>
+        <v>9.039026508540113</v>
       </c>
       <c r="AV14" t="n">
-        <v>15.40209235044285</v>
+        <v>9.023349833359681</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
@@ -3831,19 +3885,19 @@
         <v>270.29</v>
       </c>
       <c r="BF14" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="BG14" t="n">
-        <v>11115.38461538462</v>
+        <v>13730.76923076923</v>
       </c>
       <c r="BH14" t="n">
-        <v>17.01275000000001</v>
+        <v>9.460000000000008</v>
       </c>
       <c r="BI14" t="n">
-        <v>14.30634687110868</v>
+        <v>9.044213595703551</v>
       </c>
       <c r="BJ14" t="n">
-        <v>14.35980018392826</v>
+        <v>9.030586291021921</v>
       </c>
       <c r="BK14" t="inlineStr"/>
       <c r="BL14" t="inlineStr"/>
@@ -3855,37 +3909,39 @@
       <c r="BR14" t="inlineStr"/>
       <c r="BS14" t="inlineStr"/>
       <c r="BT14" t="n">
-        <v>6.80845382890728</v>
+        <v>2.048998605090998</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="BV14" t="inlineStr"/>
+        <v>3.066466366335346</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>5.368376345338416</v>
+      </c>
       <c r="BW14" t="n">
-        <v>0.1149607429010995</v>
+        <v>0.01981381651122993</v>
       </c>
       <c r="BX14" t="n">
-        <v>3.948903220766222</v>
+        <v>1.188419190952779</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.9992571606462729</v>
+        <v>0.8300879542525336</v>
       </c>
       <c r="BZ14" t="n">
-        <v>1.19970570478913</v>
+        <v>1.993203138117974</v>
       </c>
       <c r="CA14" t="inlineStr"/>
       <c r="CB14" t="inlineStr"/>
       <c r="CC14" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>1.01355468652777</v>
+        <v>1.049993344681407</v>
       </c>
       <c r="CE14" t="n">
-        <v>1.024205767586054</v>
+        <v>0.9698762960193082</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.9323278848873658</v>
+        <v>1.000801970199081</v>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
@@ -3893,46 +3949,46 @@
         </is>
       </c>
       <c r="CH14" t="n">
-        <v>20.92464826986691</v>
+        <v>12.57655540193823</v>
       </c>
       <c r="CI14" t="n">
-        <v>1.592529392264254</v>
+        <v>0.2911184764838831</v>
       </c>
       <c r="CJ14" t="n">
-        <v>20.9851627366306</v>
+        <v>12.5799243139763</v>
       </c>
       <c r="CK14" t="n">
-        <v>21.31453749246756</v>
+        <v>13.20711178259471</v>
       </c>
       <c r="CL14" t="n">
-        <v>1.78199532921563</v>
+        <v>0.2830778500832468</v>
       </c>
       <c r="CM14" t="n">
-        <v>21.38889936091036</v>
+        <v>13.21014514330406</v>
       </c>
       <c r="CN14" t="n">
-        <v>22.05478297994715</v>
+        <v>12.79742356934213</v>
       </c>
       <c r="CO14" t="n">
-        <v>3.269767163949396</v>
+        <v>0.2841606298992991</v>
       </c>
       <c r="CP14" t="n">
-        <v>22.29584781072494</v>
+        <v>12.80057800557218</v>
       </c>
       <c r="CQ14" t="n">
-        <v>20.29432266629864</v>
+        <v>12.80523756642041</v>
       </c>
       <c r="CR14" t="n">
-        <v>2.890785918270305</v>
+        <v>0.2042608937289404</v>
       </c>
       <c r="CS14" t="n">
-        <v>20.49917500069485</v>
+        <v>12.80686658184473</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0100-freq1300-per40-depth580-mstop30-run2.csv</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3942,7 +3998,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-11-12T17:12:36</t>
+          <t>2025-11-12T17:22:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3962,10 +4018,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="J15" t="n">
         <v>40</v>
@@ -3978,7 +4034,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -3988,19 +4044,19 @@
         <v>268.91</v>
       </c>
       <c r="P15" t="n">
-        <v>3950</v>
+        <v>4700</v>
       </c>
       <c r="Q15" t="n">
-        <v>13180.76923076923</v>
+        <v>9315.384615384615</v>
       </c>
       <c r="R15" t="n">
-        <v>9.414999999999992</v>
+        <v>8.469999999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>8.878875616655314</v>
+        <v>7.891124353606059</v>
       </c>
       <c r="T15" t="n">
-        <v>8.860636159129365</v>
+        <v>7.887361098749039</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -4016,19 +4072,19 @@
         <v>269.34</v>
       </c>
       <c r="AD15" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="AE15" t="n">
-        <v>13230.76923076923</v>
+        <v>9415.384615384615</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.669999999999987</v>
+        <v>8.340000000000003</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.327362573040219</v>
+        <v>7.367635408964007</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.303608996729254</v>
+        <v>7.407796728861175</v>
       </c>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
@@ -4044,19 +4100,19 @@
         <v>269.73</v>
       </c>
       <c r="AR15" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="AS15" t="n">
-        <v>13730.76923076923</v>
+        <v>11115.38461538462</v>
       </c>
       <c r="AT15" t="n">
-        <v>9.455000000000013</v>
+        <v>5.719999999999999</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.039026508540113</v>
+        <v>4.888647472894726</v>
       </c>
       <c r="AV15" t="n">
-        <v>9.023349833359681</v>
+        <v>4.954004882242995</v>
       </c>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="inlineStr"/>
@@ -4072,19 +4128,19 @@
         <v>270.29</v>
       </c>
       <c r="BF15" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="BG15" t="n">
-        <v>13730.76923076923</v>
+        <v>11115.38461538462</v>
       </c>
       <c r="BH15" t="n">
-        <v>9.460000000000008</v>
+        <v>5.935000000000002</v>
       </c>
       <c r="BI15" t="n">
-        <v>9.044213595703551</v>
+        <v>5.030304998640197</v>
       </c>
       <c r="BJ15" t="n">
-        <v>9.030586291021921</v>
+        <v>5.13033176444644</v>
       </c>
       <c r="BK15" t="inlineStr"/>
       <c r="BL15" t="inlineStr"/>
@@ -4096,25 +4152,25 @@
       <c r="BR15" t="inlineStr"/>
       <c r="BS15" t="inlineStr"/>
       <c r="BT15" t="n">
-        <v>2.048998605090998</v>
+        <v>6.80845382890728</v>
       </c>
       <c r="BU15" t="n">
-        <v>3.066466366335346</v>
+        <v>0.922850542145485</v>
       </c>
       <c r="BV15" t="n">
-        <v>5.368376345338416</v>
+        <v>17.83814903173707</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.01981381651122993</v>
+        <v>0.05678250493308674</v>
       </c>
       <c r="BX15" t="n">
-        <v>1.188419190952779</v>
+        <v>3.948903220766222</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.8300879542525336</v>
+        <v>0.9992571606462729</v>
       </c>
       <c r="BZ15" t="n">
-        <v>1.993203138117974</v>
+        <v>1.19970570478913</v>
       </c>
       <c r="CA15" t="inlineStr"/>
       <c r="CB15" t="inlineStr"/>
@@ -4122,13 +4178,13 @@
         <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>1.049993344681407</v>
+        <v>0.9391983752380851</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.9698762960193082</v>
+        <v>0.6687555103856894</v>
       </c>
       <c r="CF15" t="n">
-        <v>1.000801970199081</v>
+        <v>1.035592795403869</v>
       </c>
       <c r="CG15" t="inlineStr">
         <is>
@@ -4136,46 +4192,46 @@
         </is>
       </c>
       <c r="CH15" t="n">
-        <v>12.57655540193823</v>
+        <v>11.18833772282276</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.2911184764838831</v>
+        <v>1.032615927257055</v>
       </c>
       <c r="CJ15" t="n">
-        <v>12.5799243139763</v>
+        <v>11.2358887789602</v>
       </c>
       <c r="CK15" t="n">
-        <v>13.20711178259471</v>
+        <v>10.44655687525027</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.2830778500832468</v>
+        <v>0.9470723165260768</v>
       </c>
       <c r="CM15" t="n">
-        <v>13.21014514330406</v>
+        <v>10.48939924497913</v>
       </c>
       <c r="CN15" t="n">
-        <v>12.79742356934213</v>
+        <v>6.922534360792056</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.2841606298992991</v>
+        <v>0.4200289386238647</v>
       </c>
       <c r="CP15" t="n">
-        <v>12.80057800557218</v>
+        <v>6.935265408448921</v>
       </c>
       <c r="CQ15" t="n">
-        <v>12.80523756642041</v>
+        <v>7.122749497783096</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.2042608937289404</v>
+        <v>0.391495610350765</v>
       </c>
       <c r="CS15" t="n">
-        <v>12.80686658184473</v>
+        <v>7.1335004886166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0100-freq1300-per40-depth580-mstop30-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-nowave-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4185,7 +4241,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-11-12T17:22:30</t>
+          <t>2025-11-12T14:48:28</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4196,7 +4252,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -4204,12 +4260,8 @@
           <t>low</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.3</v>
-      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>40</v>
       </c>
@@ -4221,7 +4273,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -4231,20 +4283,16 @@
         <v>268.91</v>
       </c>
       <c r="P16" t="n">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>9315.384615384615</v>
+        <v>15001</v>
       </c>
       <c r="R16" t="n">
-        <v>8.469999999999999</v>
-      </c>
-      <c r="S16" t="n">
-        <v>7.891124353606059</v>
-      </c>
-      <c r="T16" t="n">
-        <v>7.887361098749039</v>
-      </c>
+        <v>0.2599999999999909</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
@@ -4259,20 +4307,16 @@
         <v>269.34</v>
       </c>
       <c r="AD16" t="n">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>9415.384615384615</v>
+        <v>15001</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.340000000000003</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>7.367635408964007</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>7.407796728861175</v>
-      </c>
+        <v>0.6000000000000227</v>
+      </c>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
@@ -4287,20 +4331,16 @@
         <v>269.73</v>
       </c>
       <c r="AR16" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>11115.38461538462</v>
+        <v>15001</v>
       </c>
       <c r="AT16" t="n">
-        <v>5.719999999999999</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>4.888647472894726</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>4.954004882242995</v>
-      </c>
+        <v>0.3050000000000068</v>
+      </c>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="inlineStr"/>
       <c r="AY16" t="inlineStr"/>
@@ -4315,20 +4355,16 @@
         <v>270.29</v>
       </c>
       <c r="BF16" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>11115.38461538462</v>
+        <v>15001</v>
       </c>
       <c r="BH16" t="n">
-        <v>5.935000000000002</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>5.030304998640197</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>5.13033176444644</v>
-      </c>
+        <v>0.2549999999999955</v>
+      </c>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
       <c r="BK16" t="inlineStr"/>
       <c r="BL16" t="inlineStr"/>
       <c r="BM16" t="inlineStr"/>
@@ -4339,86 +4375,44 @@
       <c r="BR16" t="inlineStr"/>
       <c r="BS16" t="inlineStr"/>
       <c r="BT16" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>0.05678250493308674</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>1.19970570478913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BU16" t="inlineStr"/>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr"/>
+      <c r="BX16" t="inlineStr"/>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr"/>
       <c r="CA16" t="inlineStr"/>
       <c r="CB16" t="inlineStr"/>
       <c r="CC16" t="n">
         <v>0</v>
       </c>
-      <c r="CD16" t="n">
-        <v>0.9391983752380851</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>0.6687555103856894</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>1.035592795403869</v>
-      </c>
+      <c r="CD16" t="inlineStr"/>
+      <c r="CE16" t="inlineStr"/>
+      <c r="CF16" t="inlineStr"/>
       <c r="CG16" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH16" t="n">
-        <v>11.18833772282276</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>1.032615927257055</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>11.2358887789602</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>10.44655687525027</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>0.9470723165260768</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>10.48939924497913</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>6.922534360792056</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>0.4200289386238647</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>6.935265408448921</v>
-      </c>
-      <c r="CQ16" t="n">
-        <v>7.122749497783096</v>
-      </c>
-      <c r="CR16" t="n">
-        <v>0.391495610350765</v>
-      </c>
-      <c r="CS16" t="n">
-        <v>7.1335004886166</v>
-      </c>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr"/>
+      <c r="CJ16" t="inlineStr"/>
+      <c r="CK16" t="inlineStr"/>
+      <c r="CL16" t="inlineStr"/>
+      <c r="CM16" t="inlineStr"/>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr"/>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr"/>
+      <c r="CS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-nowave-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0300-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4428,12 +4422,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-11-12T14:48:28</t>
+          <t>2025-11-12T15:43:38</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -4447,8 +4441,12 @@
           <t>low</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.65</v>
+      </c>
       <c r="J17" t="n">
         <v>40</v>
       </c>
@@ -4470,16 +4468,20 @@
         <v>268.91</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>3950</v>
       </c>
       <c r="Q17" t="n">
-        <v>15001</v>
+        <v>13180.76923076923</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2599999999999909</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
+        <v>14.62</v>
+      </c>
+      <c r="S17" t="n">
+        <v>13.39403952039353</v>
+      </c>
+      <c r="T17" t="n">
+        <v>13.37850749157174</v>
+      </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
@@ -4494,16 +4496,20 @@
         <v>269.34</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AE17" t="n">
-        <v>15001</v>
+        <v>13230.76923076923</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.6000000000000227</v>
-      </c>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
+        <v>15.265</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13.62809604808264</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>13.6305523869368</v>
+      </c>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
@@ -4518,16 +4524,20 @@
         <v>269.73</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AS17" t="n">
-        <v>15001</v>
+        <v>13730.76923076923</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.3050000000000068</v>
-      </c>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="inlineStr"/>
+        <v>15.86499999999998</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>13.41464777904401</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>13.39964120643937</v>
+      </c>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="inlineStr"/>
       <c r="AY17" t="inlineStr"/>
@@ -4542,16 +4552,20 @@
         <v>270.29</v>
       </c>
       <c r="BF17" t="n">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="BG17" t="n">
-        <v>15001</v>
+        <v>13730.76923076923</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.2549999999999955</v>
-      </c>
-      <c r="BI17" t="inlineStr"/>
-      <c r="BJ17" t="inlineStr"/>
+        <v>17.49420000000001</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>13.48606487987799</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>13.47514907100107</v>
+      </c>
       <c r="BK17" t="inlineStr"/>
       <c r="BL17" t="inlineStr"/>
       <c r="BM17" t="inlineStr"/>
@@ -4562,44 +4576,84 @@
       <c r="BR17" t="inlineStr"/>
       <c r="BS17" t="inlineStr"/>
       <c r="BT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU17" t="inlineStr"/>
+        <v>2.048998605090998</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>3.066466366335346</v>
+      </c>
       <c r="BV17" t="inlineStr"/>
-      <c r="BW17" t="inlineStr"/>
-      <c r="BX17" t="inlineStr"/>
-      <c r="BY17" t="inlineStr"/>
-      <c r="BZ17" t="inlineStr"/>
+      <c r="BW17" t="n">
+        <v>0.03127796370671409</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>1.188419190952779</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0.8300879542525336</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>1.993203138117974</v>
+      </c>
       <c r="CA17" t="inlineStr"/>
       <c r="CB17" t="inlineStr"/>
       <c r="CC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD17" t="inlineStr"/>
-      <c r="CE17" t="inlineStr"/>
-      <c r="CF17" t="inlineStr"/>
+        <v>3.8</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>1.018839537633315</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0.9830592940078693</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>1.005635066148295</v>
+      </c>
       <c r="CG17" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH17" t="inlineStr"/>
-      <c r="CI17" t="inlineStr"/>
-      <c r="CJ17" t="inlineStr"/>
-      <c r="CK17" t="inlineStr"/>
-      <c r="CL17" t="inlineStr"/>
-      <c r="CM17" t="inlineStr"/>
-      <c r="CN17" t="inlineStr"/>
-      <c r="CO17" t="inlineStr"/>
-      <c r="CP17" t="inlineStr"/>
-      <c r="CQ17" t="inlineStr"/>
-      <c r="CR17" t="inlineStr"/>
-      <c r="CS17" t="inlineStr"/>
+      <c r="CH17" t="n">
+        <v>18.98038106152991</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>1.409565348054111</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>19.03264930878826</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>19.30316716041533</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>1.916166374091323</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>19.39804000398327</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>19.01208442445327</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>3.251799802429324</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>19.28817140419532</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>19.11707501100333</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>3.963217251238841</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>19.52356647635992</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-lowestwind-amp0300-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4609,18 +4663,18 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-11-12T15:43:38</t>
+          <t>2025-11-12T17:07:26</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -4632,7 +4686,7 @@
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="J18" t="n">
         <v>40</v>
@@ -4655,19 +4709,19 @@
         <v>268.91</v>
       </c>
       <c r="P18" t="n">
-        <v>3950</v>
+        <v>4700</v>
       </c>
       <c r="Q18" t="n">
-        <v>13180.76923076923</v>
+        <v>9315.384615384615</v>
       </c>
       <c r="R18" t="n">
-        <v>14.62</v>
+        <v>24.172375</v>
       </c>
       <c r="S18" t="n">
-        <v>13.39403952039353</v>
+        <v>22.10043134951788</v>
       </c>
       <c r="T18" t="n">
-        <v>13.37850749157174</v>
+        <v>22.12029165237653</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -4683,19 +4737,19 @@
         <v>269.34</v>
       </c>
       <c r="AD18" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="AE18" t="n">
-        <v>13230.76923076923</v>
+        <v>9415.384615384615</v>
       </c>
       <c r="AF18" t="n">
-        <v>15.265</v>
+        <v>24.36012500000001</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.62809604808264</v>
+        <v>22.74199873849183</v>
       </c>
       <c r="AH18" t="n">
-        <v>13.6305523869368</v>
+        <v>22.62183276651398</v>
       </c>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
@@ -4711,19 +4765,19 @@
         <v>269.73</v>
       </c>
       <c r="AR18" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="AS18" t="n">
-        <v>13730.76923076923</v>
+        <v>11115.38461538462</v>
       </c>
       <c r="AT18" t="n">
-        <v>15.86499999999998</v>
+        <v>18.69862500000001</v>
       </c>
       <c r="AU18" t="n">
-        <v>13.41464777904401</v>
+        <v>16.46034865893888</v>
       </c>
       <c r="AV18" t="n">
-        <v>13.39964120643937</v>
+        <v>16.72803257282205</v>
       </c>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="inlineStr"/>
@@ -4739,19 +4793,19 @@
         <v>270.29</v>
       </c>
       <c r="BF18" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="BG18" t="n">
-        <v>13730.76923076923</v>
+        <v>11115.38461538462</v>
       </c>
       <c r="BH18" t="n">
-        <v>17.49420000000001</v>
+        <v>18.92000000000002</v>
       </c>
       <c r="BI18" t="n">
-        <v>13.48606487987799</v>
+        <v>16.92345328326254</v>
       </c>
       <c r="BJ18" t="n">
-        <v>13.47514907100107</v>
+        <v>17.12825748415225</v>
       </c>
       <c r="BK18" t="inlineStr"/>
       <c r="BL18" t="inlineStr"/>
@@ -4763,37 +4817,39 @@
       <c r="BR18" t="inlineStr"/>
       <c r="BS18" t="inlineStr"/>
       <c r="BT18" t="n">
-        <v>2.048998605090998</v>
+        <v>6.80845382890728</v>
       </c>
       <c r="BU18" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="BV18" t="inlineStr"/>
+        <v>0.922850542145485</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>17.83814903173707</v>
+      </c>
       <c r="BW18" t="n">
-        <v>0.03127796370671409</v>
+        <v>0.16585478632891</v>
       </c>
       <c r="BX18" t="n">
-        <v>1.188419190952779</v>
+        <v>3.948903220766222</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.8300879542525336</v>
+        <v>0.9992571606462729</v>
       </c>
       <c r="BZ18" t="n">
-        <v>1.993203138117974</v>
+        <v>1.19970570478913</v>
       </c>
       <c r="CA18" t="inlineStr"/>
       <c r="CB18" t="inlineStr"/>
       <c r="CC18" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="CD18" t="n">
-        <v>1.018839537633315</v>
+        <v>1.022673349972923</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.9830592940078693</v>
+        <v>0.7394640719643086</v>
       </c>
       <c r="CF18" t="n">
-        <v>1.005635066148295</v>
+        <v>1.023925402439761</v>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
@@ -4801,46 +4857,46 @@
         </is>
       </c>
       <c r="CH18" t="n">
-        <v>18.98038106152991</v>
+        <v>31.3819622464962</v>
       </c>
       <c r="CI18" t="n">
-        <v>1.409565348054111</v>
+        <v>3.952564776081793</v>
       </c>
       <c r="CJ18" t="n">
-        <v>19.03264930878826</v>
+        <v>31.62989602811928</v>
       </c>
       <c r="CK18" t="n">
-        <v>19.30316716041533</v>
+        <v>32.210389185404</v>
       </c>
       <c r="CL18" t="n">
-        <v>1.916166374091323</v>
+        <v>1.812839421195843</v>
       </c>
       <c r="CM18" t="n">
-        <v>19.39804000398327</v>
+        <v>32.26136324215442</v>
       </c>
       <c r="CN18" t="n">
-        <v>19.01208442445327</v>
+        <v>23.31008755125107</v>
       </c>
       <c r="CO18" t="n">
-        <v>3.251799802429324</v>
+        <v>0.9374741134617111</v>
       </c>
       <c r="CP18" t="n">
-        <v>19.28817140419532</v>
+        <v>23.32893138059266</v>
       </c>
       <c r="CQ18" t="n">
-        <v>19.11707501100333</v>
+        <v>23.9843281745838</v>
       </c>
       <c r="CR18" t="n">
-        <v>3.963217251238841</v>
+        <v>1.983218895669438</v>
       </c>
       <c r="CS18" t="n">
-        <v>19.52356647635992</v>
+        <v>24.06618281269954</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-nowind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4850,18 +4906,18 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-11-12T17:07:26</t>
+          <t>2025-11-12T15:59:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>full</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4870,10 +4926,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="J19" t="n">
         <v>40</v>
@@ -4896,19 +4952,19 @@
         <v>268.91</v>
       </c>
       <c r="P19" t="n">
-        <v>4700</v>
+        <v>3950</v>
       </c>
       <c r="Q19" t="n">
-        <v>9315.384615384615</v>
+        <v>13180.76923076923</v>
       </c>
       <c r="R19" t="n">
-        <v>24.172375</v>
+        <v>15.04999999999998</v>
       </c>
       <c r="S19" t="n">
-        <v>22.10043134951788</v>
+        <v>8.775615409010191</v>
       </c>
       <c r="T19" t="n">
-        <v>22.12029165237653</v>
+        <v>8.769041954508788</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -4924,19 +4980,19 @@
         <v>269.34</v>
       </c>
       <c r="AD19" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="AE19" t="n">
-        <v>9415.384615384615</v>
+        <v>13230.76923076923</v>
       </c>
       <c r="AF19" t="n">
-        <v>24.36012500000001</v>
+        <v>16.51999999999997</v>
       </c>
       <c r="AG19" t="n">
-        <v>22.74199873849183</v>
+        <v>8.954510461360522</v>
       </c>
       <c r="AH19" t="n">
-        <v>22.62183276651398</v>
+        <v>8.923954467812148</v>
       </c>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
@@ -4952,19 +5008,19 @@
         <v>269.73</v>
       </c>
       <c r="AR19" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="AS19" t="n">
-        <v>11115.38461538462</v>
+        <v>13730.76923076923</v>
       </c>
       <c r="AT19" t="n">
-        <v>18.69862500000001</v>
+        <v>34.38379999999977</v>
       </c>
       <c r="AU19" t="n">
-        <v>16.46034865893888</v>
+        <v>9.685604949222769</v>
       </c>
       <c r="AV19" t="n">
-        <v>16.72803257282205</v>
+        <v>8.557940308744234</v>
       </c>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="inlineStr"/>
@@ -4980,19 +5036,19 @@
         <v>270.29</v>
       </c>
       <c r="BF19" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="BG19" t="n">
-        <v>11115.38461538462</v>
+        <v>13730.76923076923</v>
       </c>
       <c r="BH19" t="n">
-        <v>18.92000000000002</v>
+        <v>26.73162500000002</v>
       </c>
       <c r="BI19" t="n">
-        <v>16.92345328326254</v>
+        <v>9.325583537259101</v>
       </c>
       <c r="BJ19" t="n">
-        <v>17.12825748415225</v>
+        <v>8.863576210284371</v>
       </c>
       <c r="BK19" t="inlineStr"/>
       <c r="BL19" t="inlineStr"/>
@@ -5004,39 +5060,37 @@
       <c r="BR19" t="inlineStr"/>
       <c r="BS19" t="inlineStr"/>
       <c r="BT19" t="n">
-        <v>6.80845382890728</v>
+        <v>2.048998605090998</v>
       </c>
       <c r="BU19" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>17.83814903173707</v>
-      </c>
+        <v>3.066466366335346</v>
+      </c>
+      <c r="BV19" t="inlineStr"/>
       <c r="BW19" t="n">
-        <v>0.16585478632891</v>
+        <v>0.03384945695610322</v>
       </c>
       <c r="BX19" t="n">
-        <v>3.948903220766222</v>
+        <v>1.188419190952779</v>
       </c>
       <c r="BY19" t="n">
-        <v>0.9992571606462729</v>
+        <v>0.8300879542525336</v>
       </c>
       <c r="BZ19" t="n">
-        <v>1.19970570478913</v>
+        <v>1.993203138117974</v>
       </c>
       <c r="CA19" t="inlineStr"/>
       <c r="CB19" t="inlineStr"/>
       <c r="CC19" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="CD19" t="n">
-        <v>1.022673349972923</v>
+        <v>1.017665842415511</v>
       </c>
       <c r="CE19" t="n">
-        <v>0.7394640719643086</v>
+        <v>0.9589852054503312</v>
       </c>
       <c r="CF19" t="n">
-        <v>1.023925402439761</v>
+        <v>1.035713722053874</v>
       </c>
       <c r="CG19" t="inlineStr">
         <is>
@@ -5044,40 +5098,40 @@
         </is>
       </c>
       <c r="CH19" t="n">
-        <v>31.3819622464962</v>
+        <v>12.46853619857135</v>
       </c>
       <c r="CI19" t="n">
-        <v>3.952564776081793</v>
+        <v>6.393544623255687</v>
       </c>
       <c r="CJ19" t="n">
-        <v>31.62989602811928</v>
+        <v>14.01220210333286</v>
       </c>
       <c r="CK19" t="n">
-        <v>32.210389185404</v>
+        <v>12.75123885769862</v>
       </c>
       <c r="CL19" t="n">
-        <v>1.812839421195843</v>
+        <v>8.053885867926024</v>
       </c>
       <c r="CM19" t="n">
-        <v>32.26136324215442</v>
+        <v>15.08174956626922</v>
       </c>
       <c r="CN19" t="n">
-        <v>23.31008755125107</v>
+        <v>15.40515838071092</v>
       </c>
       <c r="CO19" t="n">
-        <v>0.9374741134617111</v>
+        <v>12.84030826320458</v>
       </c>
       <c r="CP19" t="n">
-        <v>23.32893138059266</v>
+        <v>20.05473562600384</v>
       </c>
       <c r="CQ19" t="n">
-        <v>23.9843281745838</v>
+        <v>13.95255435170477</v>
       </c>
       <c r="CR19" t="n">
-        <v>1.983218895669438</v>
+        <v>13.96563384750976</v>
       </c>
       <c r="CS19" t="n">
-        <v>24.06618281269954</v>
+        <v>19.74114236056227</v>
       </c>
     </row>
     <row r="20">
@@ -5569,7 +5623,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0200-freq-0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5579,12 +5633,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-11-12T15:59:00</t>
+          <t>2025-11-12T15:00:08</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -5599,9 +5653,11 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>0.3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.3</v>
+      </c>
       <c r="J22" t="n">
         <v>40</v>
       </c>
@@ -5623,14 +5679,20 @@
         <v>268.91</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="Q22" t="n">
-        <v>22887</v>
-      </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R22" t="n">
+        <v>23.58685000000002</v>
+      </c>
+      <c r="S22" t="n">
+        <v>22.17362420077505</v>
+      </c>
+      <c r="T22" t="n">
+        <v>22.26097194664286</v>
+      </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
@@ -5645,14 +5707,20 @@
         <v>269.34</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="AE22" t="n">
-        <v>22887</v>
-      </c>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>22.45618868150158</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>22.44271752875564</v>
+      </c>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
@@ -5667,14 +5735,20 @@
         <v>269.73</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="AS22" t="n">
-        <v>22887</v>
-      </c>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="inlineStr"/>
-      <c r="AV22" t="inlineStr"/>
+        <v>11115.38461538462</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>23.24999999999999</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>21.99248197137247</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>21.86186856834625</v>
+      </c>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
       <c r="AY22" t="inlineStr"/>
@@ -5689,14 +5763,20 @@
         <v>270.29</v>
       </c>
       <c r="BF22" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="BG22" t="n">
-        <v>22887</v>
-      </c>
-      <c r="BH22" t="inlineStr"/>
-      <c r="BI22" t="inlineStr"/>
-      <c r="BJ22" t="inlineStr"/>
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>23.721625</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>22.36323241666551</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>21.9155944551006</v>
+      </c>
       <c r="BK22" t="inlineStr"/>
       <c r="BL22" t="inlineStr"/>
       <c r="BM22" t="inlineStr"/>
@@ -5707,44 +5787,84 @@
       <c r="BR22" t="inlineStr"/>
       <c r="BS22" t="inlineStr"/>
       <c r="BT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU22" t="inlineStr"/>
+        <v>6.80845382890728</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="BV22" t="inlineStr"/>
-      <c r="BW22" t="inlineStr"/>
-      <c r="BX22" t="inlineStr"/>
-      <c r="BY22" t="inlineStr"/>
-      <c r="BZ22" t="inlineStr"/>
+      <c r="BW22" t="n">
+        <v>0.1612922712068134</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CA22" t="inlineStr"/>
       <c r="CB22" t="inlineStr"/>
       <c r="CC22" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="CD22" t="inlineStr"/>
-      <c r="CE22" t="inlineStr"/>
-      <c r="CF22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>1.008164314772437</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0.9741185995116167</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>1.002457515769358</v>
+      </c>
       <c r="CG22" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH22" t="inlineStr"/>
-      <c r="CI22" t="inlineStr"/>
-      <c r="CJ22" t="inlineStr"/>
-      <c r="CK22" t="inlineStr"/>
-      <c r="CL22" t="inlineStr"/>
-      <c r="CM22" t="inlineStr"/>
-      <c r="CN22" t="inlineStr"/>
-      <c r="CO22" t="inlineStr"/>
-      <c r="CP22" t="inlineStr"/>
-      <c r="CQ22" t="inlineStr"/>
-      <c r="CR22" t="inlineStr"/>
-      <c r="CS22" t="inlineStr"/>
+      <c r="CH22" t="n">
+        <v>31.44079180710299</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>3.989918174327038</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>31.69294616307263</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>31.83908847054764</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>2.640159817783069</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>31.94836456688817</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>31.16050682656836</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>2.711309849416851</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>31.27824142735902</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>31.96584179606029</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>9.876315288626568</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>33.45678773300141</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -5754,12 +5874,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-11-12T15:00:08</t>
+          <t>2025-11-12T15:52:14</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>full</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5774,7 +5894,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="n">
         <v>1.3</v>
@@ -5806,13 +5926,13 @@
         <v>9315.384615384615</v>
       </c>
       <c r="R23" t="n">
-        <v>23.58685000000002</v>
+        <v>14.14550000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>22.17362420077505</v>
+        <v>7.704903625035543</v>
       </c>
       <c r="T23" t="n">
-        <v>22.26097194664286</v>
+        <v>7.645411296875363</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -5834,13 +5954,13 @@
         <v>9415.384615384615</v>
       </c>
       <c r="AF23" t="n">
-        <v>23.69</v>
+        <v>14.36124999999998</v>
       </c>
       <c r="AG23" t="n">
-        <v>22.45618868150158</v>
+        <v>8.222693807342123</v>
       </c>
       <c r="AH23" t="n">
-        <v>22.44271752875564</v>
+        <v>8.017538983107796</v>
       </c>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
@@ -5862,13 +5982,13 @@
         <v>11115.38461538462</v>
       </c>
       <c r="AT23" t="n">
-        <v>23.24999999999999</v>
+        <v>14.70962500000001</v>
       </c>
       <c r="AU23" t="n">
-        <v>21.99248197137247</v>
+        <v>7.643041629935764</v>
       </c>
       <c r="AV23" t="n">
-        <v>21.86186856834625</v>
+        <v>7.664583571387108</v>
       </c>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="inlineStr"/>
@@ -5890,13 +6010,13 @@
         <v>11115.38461538462</v>
       </c>
       <c r="BH23" t="n">
-        <v>23.721625</v>
+        <v>24.63325000000001</v>
       </c>
       <c r="BI23" t="n">
-        <v>22.36323241666551</v>
+        <v>8.995874008952786</v>
       </c>
       <c r="BJ23" t="n">
-        <v>21.9155944551006</v>
+        <v>9.100759559667548</v>
       </c>
       <c r="BK23" t="inlineStr"/>
       <c r="BL23" t="inlineStr"/>
@@ -5915,7 +6035,7 @@
       </c>
       <c r="BV23" t="inlineStr"/>
       <c r="BW23" t="n">
-        <v>0.1612922712068134</v>
+        <v>0.09777790755039455</v>
       </c>
       <c r="BX23" t="n">
         <v>3.948903220766222</v>
@@ -5929,16 +6049,16 @@
       <c r="CA23" t="inlineStr"/>
       <c r="CB23" t="inlineStr"/>
       <c r="CC23" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="CD23" t="n">
-        <v>1.008164314772437</v>
+        <v>1.048673337742408</v>
       </c>
       <c r="CE23" t="n">
-        <v>0.9741185995116167</v>
+        <v>0.9559770881732745</v>
       </c>
       <c r="CF23" t="n">
-        <v>1.002457515769358</v>
+        <v>1.187378214994207</v>
       </c>
       <c r="CG23" t="inlineStr">
         <is>
@@ -5946,46 +6066,46 @@
         </is>
       </c>
       <c r="CH23" t="n">
-        <v>31.44079180710299</v>
+        <v>10.9404267195542</v>
       </c>
       <c r="CI23" t="n">
-        <v>3.989918174327038</v>
+        <v>5.360442957443186</v>
       </c>
       <c r="CJ23" t="n">
-        <v>31.69294616307263</v>
+        <v>12.183073729808</v>
       </c>
       <c r="CK23" t="n">
-        <v>31.83908847054764</v>
+        <v>11.72148591622803</v>
       </c>
       <c r="CL23" t="n">
-        <v>2.640159817783069</v>
+        <v>6.737649137888366</v>
       </c>
       <c r="CM23" t="n">
-        <v>31.94836456688817</v>
+        <v>13.51995369776169</v>
       </c>
       <c r="CN23" t="n">
-        <v>31.16050682656836</v>
+        <v>10.99591405534538</v>
       </c>
       <c r="CO23" t="n">
-        <v>2.711309849416851</v>
+        <v>8.237389156838374</v>
       </c>
       <c r="CP23" t="n">
-        <v>31.27824142735902</v>
+        <v>13.73916686097597</v>
       </c>
       <c r="CQ23" t="n">
-        <v>31.96584179606029</v>
+        <v>12.95335752549852</v>
       </c>
       <c r="CR23" t="n">
-        <v>9.876315288626568</v>
+        <v>8.7643703685328</v>
       </c>
       <c r="CS23" t="n">
-        <v>33.45678773300141</v>
+        <v>15.63981007366154</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0200-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5995,7 +6115,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-11-12T15:52:14</t>
+          <t>2025-11-12T16:31:48</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -6006,7 +6126,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -6015,7 +6135,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I24" t="n">
         <v>1.3</v>
@@ -6047,13 +6167,13 @@
         <v>9315.384615384615</v>
       </c>
       <c r="R24" t="n">
-        <v>14.14550000000001</v>
+        <v>20.3873</v>
       </c>
       <c r="S24" t="n">
-        <v>7.704903625035543</v>
+        <v>15.94818579682935</v>
       </c>
       <c r="T24" t="n">
-        <v>7.645411296875363</v>
+        <v>16.21959509967942</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -6075,13 +6195,13 @@
         <v>9415.384615384615</v>
       </c>
       <c r="AF24" t="n">
-        <v>14.36124999999998</v>
+        <v>20.41050000000008</v>
       </c>
       <c r="AG24" t="n">
-        <v>8.222693807342123</v>
+        <v>15.08651305150827</v>
       </c>
       <c r="AH24" t="n">
-        <v>8.017538983107796</v>
+        <v>15.13125778567915</v>
       </c>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
@@ -6103,13 +6223,13 @@
         <v>11115.38461538462</v>
       </c>
       <c r="AT24" t="n">
-        <v>14.70962500000001</v>
+        <v>11.311625</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.643041629935764</v>
+        <v>10.05991608154006</v>
       </c>
       <c r="AV24" t="n">
-        <v>7.664583571387108</v>
+        <v>9.855495204706351</v>
       </c>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
@@ -6131,13 +6251,13 @@
         <v>11115.38461538462</v>
       </c>
       <c r="BH24" t="n">
-        <v>24.63325000000001</v>
+        <v>12.00499999999997</v>
       </c>
       <c r="BI24" t="n">
-        <v>8.995874008952786</v>
+        <v>10.64120186754591</v>
       </c>
       <c r="BJ24" t="n">
-        <v>9.100759559667548</v>
+        <v>10.64143027105636</v>
       </c>
       <c r="BK24" t="inlineStr"/>
       <c r="BL24" t="inlineStr"/>
@@ -6154,9 +6274,11 @@
       <c r="BU24" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="BV24" t="inlineStr"/>
+      <c r="BV24" t="n">
+        <v>17.83814903173707</v>
+      </c>
       <c r="BW24" t="n">
-        <v>0.09777790755039455</v>
+        <v>0.1389639468749126</v>
       </c>
       <c r="BX24" t="n">
         <v>3.948903220766222</v>
@@ -6173,13 +6295,13 @@
         <v>5.8</v>
       </c>
       <c r="CD24" t="n">
-        <v>1.048673337742408</v>
+        <v>0.9328998469251686</v>
       </c>
       <c r="CE24" t="n">
-        <v>0.9559770881732745</v>
+        <v>0.6513335073858831</v>
       </c>
       <c r="CF24" t="n">
-        <v>1.187378214994207</v>
+        <v>1.079745872736531</v>
       </c>
       <c r="CG24" t="inlineStr">
         <is>
@@ -6187,46 +6309,46 @@
         </is>
       </c>
       <c r="CH24" t="n">
-        <v>10.9404267195542</v>
+        <v>22.61008586257692</v>
       </c>
       <c r="CI24" t="n">
-        <v>5.360442957443186</v>
+        <v>4.344043369741975</v>
       </c>
       <c r="CJ24" t="n">
-        <v>12.183073729808</v>
+        <v>23.02361169563325</v>
       </c>
       <c r="CK24" t="n">
-        <v>11.72148591622803</v>
+        <v>21.41192842912143</v>
       </c>
       <c r="CL24" t="n">
-        <v>6.737649137888366</v>
+        <v>3.969252830878529</v>
       </c>
       <c r="CM24" t="n">
-        <v>13.51995369776169</v>
+        <v>21.77672259751811</v>
       </c>
       <c r="CN24" t="n">
-        <v>10.99591405534538</v>
+        <v>14.25619335817006</v>
       </c>
       <c r="CO24" t="n">
-        <v>8.237389156838374</v>
+        <v>1.293875582176556</v>
       </c>
       <c r="CP24" t="n">
-        <v>13.73916686097597</v>
+        <v>14.31478826555548</v>
       </c>
       <c r="CQ24" t="n">
-        <v>12.95335752549852</v>
+        <v>15.08046024879069</v>
       </c>
       <c r="CR24" t="n">
-        <v>8.7643703685328</v>
+        <v>1.271248943027843</v>
       </c>
       <c r="CS24" t="n">
-        <v>15.63981007366154</v>
+        <v>15.13394711205591</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0200-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -6236,7 +6358,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-11-12T16:31:48</t>
+          <t>2025-11-12T15:54:50</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -6247,7 +6369,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -6256,7 +6378,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I25" t="n">
         <v>1.3</v>
@@ -6288,13 +6410,13 @@
         <v>9315.384615384615</v>
       </c>
       <c r="R25" t="n">
-        <v>20.3873</v>
+        <v>26.06162500000001</v>
       </c>
       <c r="S25" t="n">
-        <v>15.94818579682935</v>
+        <v>23.5209017892984</v>
       </c>
       <c r="T25" t="n">
-        <v>16.21959509967942</v>
+        <v>23.25115346773061</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -6316,13 +6438,13 @@
         <v>9415.384615384615</v>
       </c>
       <c r="AF25" t="n">
-        <v>20.41050000000008</v>
+        <v>27.47662500000001</v>
       </c>
       <c r="AG25" t="n">
-        <v>15.08651305150827</v>
+        <v>23.18809017542871</v>
       </c>
       <c r="AH25" t="n">
-        <v>15.13125778567915</v>
+        <v>23.36685925423714</v>
       </c>
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
@@ -6344,13 +6466,13 @@
         <v>11115.38461538462</v>
       </c>
       <c r="AT25" t="n">
-        <v>11.311625</v>
+        <v>29.24739999999999</v>
       </c>
       <c r="AU25" t="n">
-        <v>10.05991608154006</v>
+        <v>23.02386445261708</v>
       </c>
       <c r="AV25" t="n">
-        <v>9.855495204706351</v>
+        <v>22.96622776409792</v>
       </c>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="inlineStr"/>
@@ -6372,13 +6494,13 @@
         <v>11115.38461538462</v>
       </c>
       <c r="BH25" t="n">
-        <v>12.00499999999997</v>
+        <v>30.017075</v>
       </c>
       <c r="BI25" t="n">
-        <v>10.64120186754591</v>
+        <v>24.40337729587944</v>
       </c>
       <c r="BJ25" t="n">
-        <v>10.64143027105636</v>
+        <v>24.02078399348507</v>
       </c>
       <c r="BK25" t="inlineStr"/>
       <c r="BL25" t="inlineStr"/>
@@ -6395,11 +6517,9 @@
       <c r="BU25" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="BV25" t="n">
-        <v>17.83814903173707</v>
-      </c>
+      <c r="BV25" t="inlineStr"/>
       <c r="BW25" t="n">
-        <v>0.1389639468749126</v>
+        <v>0.1870733326866996</v>
       </c>
       <c r="BX25" t="n">
         <v>3.948903220766222</v>
@@ -6416,13 +6536,13 @@
         <v>5.8</v>
       </c>
       <c r="CD25" t="n">
-        <v>0.9328998469251686</v>
+        <v>1.004976346083953</v>
       </c>
       <c r="CE25" t="n">
-        <v>0.6513335073858831</v>
+        <v>0.98285471377303</v>
       </c>
       <c r="CF25" t="n">
-        <v>1.079745872736531</v>
+        <v>1.04591769446072</v>
       </c>
       <c r="CG25" t="inlineStr">
         <is>
@@ -6430,46 +6550,46 @@
         </is>
       </c>
       <c r="CH25" t="n">
-        <v>22.61008586257692</v>
+        <v>33.3474469014613</v>
       </c>
       <c r="CI25" t="n">
-        <v>4.344043369741975</v>
+        <v>4.23007394976123</v>
       </c>
       <c r="CJ25" t="n">
-        <v>23.02361169563325</v>
+        <v>33.61466555636437</v>
       </c>
       <c r="CK25" t="n">
-        <v>21.41192842912143</v>
+        <v>32.90829705821609</v>
       </c>
       <c r="CL25" t="n">
-        <v>3.969252830878529</v>
+        <v>4.800799175681316</v>
       </c>
       <c r="CM25" t="n">
-        <v>21.77672259751811</v>
+        <v>33.25663374421735</v>
       </c>
       <c r="CN25" t="n">
-        <v>14.25619335817006</v>
+        <v>32.70572761259246</v>
       </c>
       <c r="CO25" t="n">
-        <v>1.293875582176556</v>
+        <v>6.725932846923064</v>
       </c>
       <c r="CP25" t="n">
-        <v>14.31478826555548</v>
+        <v>33.39016009740612</v>
       </c>
       <c r="CQ25" t="n">
-        <v>15.08046024879069</v>
+        <v>34.73185539787448</v>
       </c>
       <c r="CR25" t="n">
-        <v>1.271248943027843</v>
+        <v>6.875544528369401</v>
       </c>
       <c r="CS25" t="n">
-        <v>15.13394711205591</v>
+        <v>35.40585957070459</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0300-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0300-freq0650-per40-depth580-mstop30-run3.csv</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -6479,7 +6599,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-11-12T15:54:50</t>
+          <t>2025-11-12T16:37:34</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -6490,7 +6610,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -6502,7 +6622,7 @@
         <v>0.3</v>
       </c>
       <c r="I26" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="J26" t="n">
         <v>40</v>
@@ -6515,7 +6635,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -6525,19 +6645,19 @@
         <v>268.91</v>
       </c>
       <c r="P26" t="n">
-        <v>4700</v>
+        <v>3950</v>
       </c>
       <c r="Q26" t="n">
-        <v>9315.384615384615</v>
+        <v>13180.76923076923</v>
       </c>
       <c r="R26" t="n">
-        <v>26.06162500000001</v>
+        <v>20.42000000000002</v>
       </c>
       <c r="S26" t="n">
-        <v>23.5209017892984</v>
+        <v>13.56505576353079</v>
       </c>
       <c r="T26" t="n">
-        <v>23.25115346773061</v>
+        <v>13.56201040375231</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -6553,19 +6673,19 @@
         <v>269.34</v>
       </c>
       <c r="AD26" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="AE26" t="n">
-        <v>9415.384615384615</v>
+        <v>13230.76923076923</v>
       </c>
       <c r="AF26" t="n">
-        <v>27.47662500000001</v>
+        <v>19.91415000000003</v>
       </c>
       <c r="AG26" t="n">
-        <v>23.18809017542871</v>
+        <v>13.51366856447097</v>
       </c>
       <c r="AH26" t="n">
-        <v>23.36685925423714</v>
+        <v>13.44914225260243</v>
       </c>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
@@ -6581,19 +6701,19 @@
         <v>269.73</v>
       </c>
       <c r="AR26" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="AS26" t="n">
-        <v>11115.38461538462</v>
+        <v>13730.76923076923</v>
       </c>
       <c r="AT26" t="n">
-        <v>29.24739999999999</v>
+        <v>14.02499999999998</v>
       </c>
       <c r="AU26" t="n">
-        <v>23.02386445261708</v>
+        <v>13.04062052879795</v>
       </c>
       <c r="AV26" t="n">
-        <v>22.96622776409792</v>
+        <v>13.02292395320358</v>
       </c>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr"/>
@@ -6609,19 +6729,19 @@
         <v>270.29</v>
       </c>
       <c r="BF26" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="BG26" t="n">
-        <v>11115.38461538462</v>
+        <v>13730.76923076923</v>
       </c>
       <c r="BH26" t="n">
-        <v>30.017075</v>
+        <v>14.23925000000001</v>
       </c>
       <c r="BI26" t="n">
-        <v>24.40337729587944</v>
+        <v>13.09740021255797</v>
       </c>
       <c r="BJ26" t="n">
-        <v>24.02078399348507</v>
+        <v>13.06660152462662</v>
       </c>
       <c r="BK26" t="inlineStr"/>
       <c r="BL26" t="inlineStr"/>
@@ -6633,23 +6753,25 @@
       <c r="BR26" t="inlineStr"/>
       <c r="BS26" t="inlineStr"/>
       <c r="BT26" t="n">
-        <v>6.80845382890728</v>
+        <v>2.048998605090998</v>
       </c>
       <c r="BU26" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="BV26" t="inlineStr"/>
+        <v>3.066466366335346</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>5.368376345338416</v>
+      </c>
       <c r="BW26" t="n">
-        <v>0.1870733326866996</v>
+        <v>0.04080406557157297</v>
       </c>
       <c r="BX26" t="n">
-        <v>3.948903220766222</v>
+        <v>1.188419190952779</v>
       </c>
       <c r="BY26" t="n">
-        <v>0.9992571606462729</v>
+        <v>0.8300879542525336</v>
       </c>
       <c r="BZ26" t="n">
-        <v>1.19970570478913</v>
+        <v>1.993203138117974</v>
       </c>
       <c r="CA26" t="inlineStr"/>
       <c r="CB26" t="inlineStr"/>
@@ -6657,13 +6779,13 @@
         <v>5.8</v>
       </c>
       <c r="CD26" t="n">
-        <v>1.004976346083953</v>
+        <v>0.9916776239075402</v>
       </c>
       <c r="CE26" t="n">
-        <v>0.98285471377303</v>
+        <v>0.9683088860691933</v>
       </c>
       <c r="CF26" t="n">
-        <v>1.04591769446072</v>
+        <v>1.00335389898459</v>
       </c>
       <c r="CG26" t="inlineStr">
         <is>
@@ -6671,46 +6793,46 @@
         </is>
       </c>
       <c r="CH26" t="n">
-        <v>33.3474469014613</v>
+        <v>19.26080677684122</v>
       </c>
       <c r="CI26" t="n">
-        <v>4.23007394976123</v>
+        <v>7.09553190319637</v>
       </c>
       <c r="CJ26" t="n">
-        <v>33.61466555636437</v>
+        <v>20.52620887266059</v>
       </c>
       <c r="CK26" t="n">
-        <v>32.90829705821609</v>
+        <v>19.2239395461952</v>
       </c>
       <c r="CL26" t="n">
-        <v>4.800799175681316</v>
+        <v>7.553887633737646</v>
       </c>
       <c r="CM26" t="n">
-        <v>33.25663374421735</v>
+        <v>20.65480743214281</v>
       </c>
       <c r="CN26" t="n">
-        <v>32.70572761259246</v>
+        <v>18.47183650077565</v>
       </c>
       <c r="CO26" t="n">
-        <v>6.725932846923064</v>
+        <v>0.6540528275786419</v>
       </c>
       <c r="CP26" t="n">
-        <v>33.39016009740612</v>
+        <v>18.48341226106941</v>
       </c>
       <c r="CQ26" t="n">
-        <v>34.73185539787448</v>
+        <v>18.54698517006868</v>
       </c>
       <c r="CR26" t="n">
-        <v>6.875544528369401</v>
+        <v>0.7342951501739929</v>
       </c>
       <c r="CS26" t="n">
-        <v>35.40585957070459</v>
+        <v>18.56151524704589</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0300-freq0650-per40-depth580-mstop30-run3.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0100-freq1300-per40-depth580-mstop30-run2.csv</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -6720,12 +6842,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-11-12T16:37:34</t>
+          <t>2025-11-12T16:47:48</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -6740,10 +6862,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="J27" t="n">
         <v>40</v>
@@ -6756,7 +6878,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -6766,19 +6888,19 @@
         <v>268.91</v>
       </c>
       <c r="P27" t="n">
-        <v>3950</v>
+        <v>4700</v>
       </c>
       <c r="Q27" t="n">
-        <v>13180.76923076923</v>
+        <v>9315.384615384615</v>
       </c>
       <c r="R27" t="n">
-        <v>20.42000000000002</v>
+        <v>8.76662500000001</v>
       </c>
       <c r="S27" t="n">
-        <v>13.56505576353079</v>
+        <v>7.488509009783497</v>
       </c>
       <c r="T27" t="n">
-        <v>13.56201040375231</v>
+        <v>7.540967005633498</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -6794,19 +6916,19 @@
         <v>269.34</v>
       </c>
       <c r="AD27" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="AE27" t="n">
-        <v>13230.76923076923</v>
+        <v>9415.384615384615</v>
       </c>
       <c r="AF27" t="n">
-        <v>19.91415000000003</v>
+        <v>9.107375000000019</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.51366856447097</v>
+        <v>7.589220243350737</v>
       </c>
       <c r="AH27" t="n">
-        <v>13.44914225260243</v>
+        <v>7.540237899795808</v>
       </c>
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
@@ -6822,19 +6944,19 @@
         <v>269.73</v>
       </c>
       <c r="AR27" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="AS27" t="n">
-        <v>13730.76923076923</v>
+        <v>11115.38461538462</v>
       </c>
       <c r="AT27" t="n">
-        <v>14.02499999999998</v>
+        <v>4.944999999999993</v>
       </c>
       <c r="AU27" t="n">
-        <v>13.04062052879795</v>
+        <v>4.164906538868615</v>
       </c>
       <c r="AV27" t="n">
-        <v>13.02292395320358</v>
+        <v>4.248700833141289</v>
       </c>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="inlineStr"/>
@@ -6850,19 +6972,19 @@
         <v>270.29</v>
       </c>
       <c r="BF27" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="BG27" t="n">
-        <v>13730.76923076923</v>
+        <v>11115.38461538462</v>
       </c>
       <c r="BH27" t="n">
-        <v>14.23925000000001</v>
+        <v>5.282375000000004</v>
       </c>
       <c r="BI27" t="n">
-        <v>13.09740021255797</v>
+        <v>4.567701039054681</v>
       </c>
       <c r="BJ27" t="n">
-        <v>13.06660152462662</v>
+        <v>4.554548485069777</v>
       </c>
       <c r="BK27" t="inlineStr"/>
       <c r="BL27" t="inlineStr"/>
@@ -6874,39 +6996,39 @@
       <c r="BR27" t="inlineStr"/>
       <c r="BS27" t="inlineStr"/>
       <c r="BT27" t="n">
-        <v>2.048998605090998</v>
+        <v>6.80845382890728</v>
       </c>
       <c r="BU27" t="n">
-        <v>3.066466366335346</v>
+        <v>0.922850542145485</v>
       </c>
       <c r="BV27" t="n">
-        <v>5.368376345338416</v>
+        <v>17.83814903173707</v>
       </c>
       <c r="BW27" t="n">
-        <v>0.04080406557157297</v>
+        <v>0.06200714219004456</v>
       </c>
       <c r="BX27" t="n">
-        <v>1.188419190952779</v>
+        <v>3.948903220766222</v>
       </c>
       <c r="BY27" t="n">
-        <v>0.8300879542525336</v>
+        <v>0.9992571606462729</v>
       </c>
       <c r="BZ27" t="n">
-        <v>1.993203138117974</v>
+        <v>1.19970570478913</v>
       </c>
       <c r="CA27" t="inlineStr"/>
       <c r="CB27" t="inlineStr"/>
       <c r="CC27" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="CD27" t="n">
-        <v>0.9916776239075402</v>
+        <v>0.9999033140130243</v>
       </c>
       <c r="CE27" t="n">
-        <v>0.9683088860691933</v>
+        <v>0.5634703957094437</v>
       </c>
       <c r="CF27" t="n">
-        <v>1.00335389898459</v>
+        <v>1.071986158578824</v>
       </c>
       <c r="CG27" t="inlineStr">
         <is>
@@ -6914,46 +7036,46 @@
         </is>
       </c>
       <c r="CH27" t="n">
-        <v>19.26080677684122</v>
+        <v>10.61296605197684</v>
       </c>
       <c r="CI27" t="n">
-        <v>7.09553190319637</v>
+        <v>1.22664863023173</v>
       </c>
       <c r="CJ27" t="n">
-        <v>20.52620887266059</v>
+        <v>10.68361901616032</v>
       </c>
       <c r="CK27" t="n">
-        <v>19.2239395461952</v>
+        <v>10.75835372866533</v>
       </c>
       <c r="CL27" t="n">
-        <v>7.553887633737646</v>
+        <v>1.423375180069278</v>
       </c>
       <c r="CM27" t="n">
-        <v>20.65480743214281</v>
+        <v>10.85210448965197</v>
       </c>
       <c r="CN27" t="n">
-        <v>18.47183650077565</v>
+        <v>5.898675951668745</v>
       </c>
       <c r="CO27" t="n">
-        <v>0.6540528275786419</v>
+        <v>0.375482977348191</v>
       </c>
       <c r="CP27" t="n">
-        <v>18.48341226106941</v>
+        <v>5.910614642240976</v>
       </c>
       <c r="CQ27" t="n">
-        <v>18.54698517006868</v>
+        <v>6.470487638735145</v>
       </c>
       <c r="CR27" t="n">
-        <v>0.7342951501739929</v>
+        <v>0.5612813138437913</v>
       </c>
       <c r="CS27" t="n">
-        <v>18.56151524704589</v>
+        <v>6.494786139380921</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0100-freq1300-per40-depth580-mstop30-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -6963,18 +7085,18 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-11-12T16:47:48</t>
+          <t>2025-11-12T14:50:44</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -6999,7 +7121,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -7015,13 +7137,13 @@
         <v>9315.384615384615</v>
       </c>
       <c r="R28" t="n">
-        <v>8.76662500000001</v>
+        <v>8.206625000000017</v>
       </c>
       <c r="S28" t="n">
-        <v>7.488509009783497</v>
+        <v>7.664924126260814</v>
       </c>
       <c r="T28" t="n">
-        <v>7.540967005633498</v>
+        <v>7.690591781000195</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -7043,13 +7165,13 @@
         <v>9415.384615384615</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.107375000000019</v>
+        <v>8.210000000000008</v>
       </c>
       <c r="AG28" t="n">
-        <v>7.589220243350737</v>
+        <v>7.594305190368836</v>
       </c>
       <c r="AH28" t="n">
-        <v>7.540237899795808</v>
+        <v>7.593955994407596</v>
       </c>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
@@ -7071,13 +7193,13 @@
         <v>11115.38461538462</v>
       </c>
       <c r="AT28" t="n">
-        <v>4.944999999999993</v>
+        <v>8.034999999999997</v>
       </c>
       <c r="AU28" t="n">
-        <v>4.164906538868615</v>
+        <v>7.468259435780531</v>
       </c>
       <c r="AV28" t="n">
-        <v>4.248700833141289</v>
+        <v>7.466071516414555</v>
       </c>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
@@ -7099,13 +7221,13 @@
         <v>11115.38461538462</v>
       </c>
       <c r="BH28" t="n">
-        <v>5.282375000000004</v>
+        <v>8.079999999999984</v>
       </c>
       <c r="BI28" t="n">
-        <v>4.567701039054681</v>
+        <v>7.499883463929208</v>
       </c>
       <c r="BJ28" t="n">
-        <v>4.554548485069777</v>
+        <v>7.528930368360067</v>
       </c>
       <c r="BK28" t="inlineStr"/>
       <c r="BL28" t="inlineStr"/>
@@ -7122,11 +7244,9 @@
       <c r="BU28" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="BV28" t="n">
-        <v>17.83814903173707</v>
-      </c>
+      <c r="BV28" t="inlineStr"/>
       <c r="BW28" t="n">
-        <v>0.06200714219004456</v>
+        <v>0.05589740593532883</v>
       </c>
       <c r="BX28" t="n">
         <v>3.948903220766222</v>
@@ -7140,16 +7260,16 @@
       <c r="CA28" t="inlineStr"/>
       <c r="CB28" t="inlineStr"/>
       <c r="CC28" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="CD28" t="n">
-        <v>0.9999033140130243</v>
+        <v>0.9874345447860932</v>
       </c>
       <c r="CE28" t="n">
-        <v>0.5634703957094437</v>
+        <v>0.9831597025203702</v>
       </c>
       <c r="CF28" t="n">
-        <v>1.071986158578824</v>
+        <v>1.008419267322489</v>
       </c>
       <c r="CG28" t="inlineStr">
         <is>
@@ -7157,46 +7277,46 @@
         </is>
       </c>
       <c r="CH28" t="n">
-        <v>10.61296605197684</v>
+        <v>10.8516935103387</v>
       </c>
       <c r="CI28" t="n">
-        <v>1.22664863023173</v>
+        <v>0.5308993750885775</v>
       </c>
       <c r="CJ28" t="n">
-        <v>10.68361901616032</v>
+        <v>10.8646723921523</v>
       </c>
       <c r="CK28" t="n">
-        <v>10.75835372866533</v>
+        <v>10.75371449508783</v>
       </c>
       <c r="CL28" t="n">
-        <v>1.423375180069278</v>
+        <v>0.59314032914563</v>
       </c>
       <c r="CM28" t="n">
-        <v>10.85210448965197</v>
+        <v>10.77005992982031</v>
       </c>
       <c r="CN28" t="n">
-        <v>5.898675951668745</v>
+        <v>10.58145985529158</v>
       </c>
       <c r="CO28" t="n">
-        <v>0.375482977348191</v>
+        <v>0.7225748400828049</v>
       </c>
       <c r="CP28" t="n">
-        <v>5.910614642240976</v>
+        <v>10.60610235047107</v>
       </c>
       <c r="CQ28" t="n">
-        <v>6.470487638735145</v>
+        <v>10.62434608401123</v>
       </c>
       <c r="CR28" t="n">
-        <v>0.5612813138437913</v>
+        <v>0.6564425912729305</v>
       </c>
       <c r="CS28" t="n">
-        <v>6.494786139380921</v>
+        <v>10.64460645531256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -7206,18 +7326,18 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-11-12T14:50:44</t>
+          <t>2025-11-12T16:53:02</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -7226,10 +7346,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I29" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="J29" t="n">
         <v>40</v>
@@ -7252,19 +7372,19 @@
         <v>268.91</v>
       </c>
       <c r="P29" t="n">
-        <v>4700</v>
+        <v>3950</v>
       </c>
       <c r="Q29" t="n">
-        <v>9315.384615384615</v>
+        <v>13180.76923076923</v>
       </c>
       <c r="R29" t="n">
-        <v>8.206625000000017</v>
+        <v>10.11000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>7.664924126260814</v>
+        <v>8.792841109601502</v>
       </c>
       <c r="T29" t="n">
-        <v>7.690591781000195</v>
+        <v>8.792347874454222</v>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
@@ -7280,19 +7400,19 @@
         <v>269.34</v>
       </c>
       <c r="AD29" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="AE29" t="n">
-        <v>9415.384615384615</v>
+        <v>13230.76923076923</v>
       </c>
       <c r="AF29" t="n">
-        <v>8.210000000000008</v>
+        <v>10.89499999999998</v>
       </c>
       <c r="AG29" t="n">
-        <v>7.594305190368836</v>
+        <v>9.108875171410133</v>
       </c>
       <c r="AH29" t="n">
-        <v>7.593955994407596</v>
+        <v>9.109897994042084</v>
       </c>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
@@ -7308,19 +7428,19 @@
         <v>269.73</v>
       </c>
       <c r="AR29" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="AS29" t="n">
-        <v>11115.38461538462</v>
+        <v>13730.76923076923</v>
       </c>
       <c r="AT29" t="n">
-        <v>8.034999999999997</v>
+        <v>9.335000000000008</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.468259435780531</v>
+        <v>8.872875814265827</v>
       </c>
       <c r="AV29" t="n">
-        <v>7.466071516414555</v>
+        <v>8.860677051331345</v>
       </c>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
@@ -7336,19 +7456,19 @@
         <v>270.29</v>
       </c>
       <c r="BF29" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="BG29" t="n">
-        <v>11115.38461538462</v>
+        <v>13730.76923076923</v>
       </c>
       <c r="BH29" t="n">
-        <v>8.079999999999984</v>
+        <v>9.420000000000016</v>
       </c>
       <c r="BI29" t="n">
-        <v>7.499883463929208</v>
+        <v>8.847886334564659</v>
       </c>
       <c r="BJ29" t="n">
-        <v>7.528930368360067</v>
+        <v>8.836987486495156</v>
       </c>
       <c r="BK29" t="inlineStr"/>
       <c r="BL29" t="inlineStr"/>
@@ -7360,37 +7480,39 @@
       <c r="BR29" t="inlineStr"/>
       <c r="BS29" t="inlineStr"/>
       <c r="BT29" t="n">
-        <v>6.80845382890728</v>
+        <v>2.048998605090998</v>
       </c>
       <c r="BU29" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="BV29" t="inlineStr"/>
+        <v>3.066466366335346</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>5.368376345338416</v>
+      </c>
       <c r="BW29" t="n">
-        <v>0.05589740593532883</v>
+        <v>0.02232383980246639</v>
       </c>
       <c r="BX29" t="n">
-        <v>3.948903220766222</v>
+        <v>1.188419190952779</v>
       </c>
       <c r="BY29" t="n">
-        <v>0.9992571606462729</v>
+        <v>0.8300879542525336</v>
       </c>
       <c r="BZ29" t="n">
-        <v>1.19970570478913</v>
+        <v>1.993203138117974</v>
       </c>
       <c r="CA29" t="inlineStr"/>
       <c r="CB29" t="inlineStr"/>
       <c r="CC29" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="CD29" t="n">
-        <v>0.9874345447860932</v>
+        <v>1.036116646443266</v>
       </c>
       <c r="CE29" t="n">
-        <v>0.9831597025203702</v>
+        <v>0.9726428393738623</v>
       </c>
       <c r="CF29" t="n">
-        <v>1.008419267322489</v>
+        <v>0.9973264385216895</v>
       </c>
       <c r="CG29" t="inlineStr">
         <is>
@@ -7398,46 +7520,46 @@
         </is>
       </c>
       <c r="CH29" t="n">
-        <v>10.8516935103387</v>
+        <v>12.46922871299998</v>
       </c>
       <c r="CI29" t="n">
-        <v>0.5308993750885775</v>
+        <v>1.330795364031901</v>
       </c>
       <c r="CJ29" t="n">
-        <v>10.8646723921523</v>
+        <v>12.54004310192082</v>
       </c>
       <c r="CK29" t="n">
-        <v>10.75371449508783</v>
+        <v>12.92493263270828</v>
       </c>
       <c r="CL29" t="n">
-        <v>0.59314032914563</v>
+        <v>1.782756732117341</v>
       </c>
       <c r="CM29" t="n">
-        <v>10.77005992982031</v>
+        <v>13.04730259961641</v>
       </c>
       <c r="CN29" t="n">
-        <v>10.58145985529158</v>
+        <v>12.56353219686549</v>
       </c>
       <c r="CO29" t="n">
-        <v>0.7225748400828049</v>
+        <v>0.328204914792837</v>
       </c>
       <c r="CP29" t="n">
-        <v>10.60610235047107</v>
+        <v>12.56781841561096</v>
       </c>
       <c r="CQ29" t="n">
-        <v>10.62434608401123</v>
+        <v>12.52799480894186</v>
       </c>
       <c r="CR29" t="n">
-        <v>0.6564425912729305</v>
+        <v>0.2542552703701081</v>
       </c>
       <c r="CS29" t="n">
-        <v>10.64460645531256</v>
+        <v>12.53057459478157</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -7447,18 +7569,18 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-11-12T16:53:02</t>
+          <t>2025-11-12T15:09:52</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -7499,13 +7621,13 @@
         <v>13180.76923076923</v>
       </c>
       <c r="R30" t="n">
-        <v>10.11000000000001</v>
+        <v>9.45999999999998</v>
       </c>
       <c r="S30" t="n">
-        <v>8.792841109601502</v>
+        <v>8.929589308228616</v>
       </c>
       <c r="T30" t="n">
-        <v>8.792347874454222</v>
+        <v>8.908867035344221</v>
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
@@ -7527,13 +7649,13 @@
         <v>13230.76923076923</v>
       </c>
       <c r="AF30" t="n">
-        <v>10.89499999999998</v>
+        <v>9.629999999999995</v>
       </c>
       <c r="AG30" t="n">
-        <v>9.108875171410133</v>
+        <v>9.248298619679321</v>
       </c>
       <c r="AH30" t="n">
-        <v>9.109897994042084</v>
+        <v>9.226775280960016</v>
       </c>
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
@@ -7555,13 +7677,13 @@
         <v>13730.76923076923</v>
       </c>
       <c r="AT30" t="n">
-        <v>9.335000000000008</v>
+        <v>9.45999999999998</v>
       </c>
       <c r="AU30" t="n">
-        <v>8.872875814265827</v>
+        <v>8.998321405849786</v>
       </c>
       <c r="AV30" t="n">
-        <v>8.860677051331345</v>
+        <v>8.98613941993084</v>
       </c>
       <c r="AW30" t="inlineStr"/>
       <c r="AX30" t="inlineStr"/>
@@ -7583,13 +7705,13 @@
         <v>13730.76923076923</v>
       </c>
       <c r="BH30" t="n">
-        <v>9.420000000000016</v>
+        <v>9.670000000000016</v>
       </c>
       <c r="BI30" t="n">
-        <v>8.847886334564659</v>
+        <v>9.020170299213451</v>
       </c>
       <c r="BJ30" t="n">
-        <v>8.836987486495156</v>
+        <v>9.006980093241857</v>
       </c>
       <c r="BK30" t="inlineStr"/>
       <c r="BL30" t="inlineStr"/>
@@ -7606,11 +7728,9 @@
       <c r="BU30" t="n">
         <v>3.066466366335346</v>
       </c>
-      <c r="BV30" t="n">
-        <v>5.368376345338416</v>
-      </c>
+      <c r="BV30" t="inlineStr"/>
       <c r="BW30" t="n">
-        <v>0.02232383980246639</v>
+        <v>0.01973185656702631</v>
       </c>
       <c r="BX30" t="n">
         <v>1.188419190952779</v>
@@ -7624,16 +7744,16 @@
       <c r="CA30" t="inlineStr"/>
       <c r="CB30" t="inlineStr"/>
       <c r="CC30" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="CD30" t="n">
-        <v>1.036116646443266</v>
+        <v>1.035684475293497</v>
       </c>
       <c r="CE30" t="n">
-        <v>0.9726428393738623</v>
+        <v>0.973919830742411</v>
       </c>
       <c r="CF30" t="n">
-        <v>0.9973264385216895</v>
+        <v>1.002319202088585</v>
       </c>
       <c r="CG30" t="inlineStr">
         <is>
@@ -7641,46 +7761,46 @@
         </is>
       </c>
       <c r="CH30" t="n">
-        <v>12.46922871299998</v>
+        <v>12.64542428680417</v>
       </c>
       <c r="CI30" t="n">
-        <v>1.330795364031901</v>
+        <v>0.2325056750588981</v>
       </c>
       <c r="CJ30" t="n">
-        <v>12.54004310192082</v>
+        <v>12.64756159432447</v>
       </c>
       <c r="CK30" t="n">
-        <v>12.92493263270828</v>
+        <v>13.0945705339437</v>
       </c>
       <c r="CL30" t="n">
-        <v>1.782756732117341</v>
+        <v>0.2635887746578323</v>
       </c>
       <c r="CM30" t="n">
-        <v>13.04730259961641</v>
+        <v>13.09722323664647</v>
       </c>
       <c r="CN30" t="n">
-        <v>12.56353219686549</v>
+        <v>12.74586864168819</v>
       </c>
       <c r="CO30" t="n">
-        <v>0.328204914792837</v>
+        <v>0.274045618139514</v>
       </c>
       <c r="CP30" t="n">
-        <v>12.56781841561096</v>
+        <v>12.74881439318935</v>
       </c>
       <c r="CQ30" t="n">
-        <v>12.52799480894186</v>
+        <v>12.77731371847325</v>
       </c>
       <c r="CR30" t="n">
-        <v>0.2542552703701081</v>
+        <v>0.2385831623298819</v>
       </c>
       <c r="CS30" t="n">
-        <v>12.53057459478157</v>
+        <v>12.77954098493494</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-nowind-amp0200-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -7690,18 +7810,18 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-11-12T15:09:52</t>
+          <t>2025-11-12T16:23:46</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>reverse</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -7710,10 +7830,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="J31" t="n">
         <v>40</v>
@@ -7736,19 +7856,19 @@
         <v>268.91</v>
       </c>
       <c r="P31" t="n">
-        <v>3950</v>
+        <v>4700</v>
       </c>
       <c r="Q31" t="n">
-        <v>13180.76923076923</v>
+        <v>9315.384615384615</v>
       </c>
       <c r="R31" t="n">
-        <v>9.45999999999998</v>
+        <v>8.515000000000015</v>
       </c>
       <c r="S31" t="n">
-        <v>8.929589308228616</v>
+        <v>7.329180332467862</v>
       </c>
       <c r="T31" t="n">
-        <v>8.908867035344221</v>
+        <v>7.383466814808639</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -7764,19 +7884,19 @@
         <v>269.34</v>
       </c>
       <c r="AD31" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="AE31" t="n">
-        <v>13230.76923076923</v>
+        <v>9415.384615384615</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.629999999999995</v>
+        <v>9.074999999999989</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.248298619679321</v>
+        <v>7.349486077195345</v>
       </c>
       <c r="AH31" t="n">
-        <v>9.226775280960016</v>
+        <v>7.378952843544293</v>
       </c>
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
@@ -7792,19 +7912,19 @@
         <v>269.73</v>
       </c>
       <c r="AR31" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="AS31" t="n">
-        <v>13730.76923076923</v>
+        <v>11115.38461538462</v>
       </c>
       <c r="AT31" t="n">
-        <v>9.45999999999998</v>
+        <v>5.075000000000017</v>
       </c>
       <c r="AU31" t="n">
-        <v>8.998321405849786</v>
+        <v>4.421614529533145</v>
       </c>
       <c r="AV31" t="n">
-        <v>8.98613941993084</v>
+        <v>4.441600203086697</v>
       </c>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="inlineStr"/>
@@ -7820,19 +7940,19 @@
         <v>270.29</v>
       </c>
       <c r="BF31" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="BG31" t="n">
-        <v>13730.76923076923</v>
+        <v>11115.38461538462</v>
       </c>
       <c r="BH31" t="n">
-        <v>9.670000000000016</v>
+        <v>5.164999999999992</v>
       </c>
       <c r="BI31" t="n">
-        <v>9.020170299213451</v>
+        <v>4.56882443447943</v>
       </c>
       <c r="BJ31" t="n">
-        <v>9.006980093241857</v>
+        <v>4.580919575453757</v>
       </c>
       <c r="BK31" t="inlineStr"/>
       <c r="BL31" t="inlineStr"/>
@@ -7844,37 +7964,39 @@
       <c r="BR31" t="inlineStr"/>
       <c r="BS31" t="inlineStr"/>
       <c r="BT31" t="n">
-        <v>2.048998605090998</v>
+        <v>6.80845382890728</v>
       </c>
       <c r="BU31" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="BV31" t="inlineStr"/>
+        <v>0.922850542145485</v>
+      </c>
+      <c r="BV31" t="n">
+        <v>17.83814903173707</v>
+      </c>
       <c r="BW31" t="n">
-        <v>0.01973185656702631</v>
+        <v>0.06178671849733349</v>
       </c>
       <c r="BX31" t="n">
-        <v>1.188419190952779</v>
+        <v>3.948903220766222</v>
       </c>
       <c r="BY31" t="n">
-        <v>0.8300879542525336</v>
+        <v>0.9992571606462729</v>
       </c>
       <c r="BZ31" t="n">
-        <v>1.993203138117974</v>
+        <v>1.19970570478913</v>
       </c>
       <c r="CA31" t="inlineStr"/>
       <c r="CB31" t="inlineStr"/>
       <c r="CC31" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="CD31" t="n">
-        <v>1.035684475293497</v>
+        <v>0.9993886379694573</v>
       </c>
       <c r="CE31" t="n">
-        <v>0.973919830742411</v>
+        <v>0.6019282542200509</v>
       </c>
       <c r="CF31" t="n">
-        <v>1.002319202088585</v>
+        <v>1.031366932185891</v>
       </c>
       <c r="CG31" t="inlineStr">
         <is>
@@ -7882,46 +8004,46 @@
         </is>
       </c>
       <c r="CH31" t="n">
-        <v>12.64542428680417</v>
+        <v>10.38617110185475</v>
       </c>
       <c r="CI31" t="n">
-        <v>0.2325056750588981</v>
+        <v>1.31350191046523</v>
       </c>
       <c r="CJ31" t="n">
-        <v>12.64756159432447</v>
+        <v>10.46889857749126</v>
       </c>
       <c r="CK31" t="n">
-        <v>13.0945705339437</v>
+        <v>10.42140381554626</v>
       </c>
       <c r="CL31" t="n">
-        <v>0.2635887746578323</v>
+        <v>1.535585464421644</v>
       </c>
       <c r="CM31" t="n">
-        <v>13.09722323664647</v>
+        <v>10.53392995065114</v>
       </c>
       <c r="CN31" t="n">
-        <v>12.74586864168819</v>
+        <v>6.261559944098552</v>
       </c>
       <c r="CO31" t="n">
-        <v>0.274045618139514</v>
+        <v>0.4852879218288415</v>
       </c>
       <c r="CP31" t="n">
-        <v>12.74881439318935</v>
+        <v>6.28033735563723</v>
       </c>
       <c r="CQ31" t="n">
-        <v>12.77731371847325</v>
+        <v>6.469208691261317</v>
       </c>
       <c r="CR31" t="n">
-        <v>0.2385831623298819</v>
+        <v>0.5210263937134095</v>
       </c>
       <c r="CS31" t="n">
-        <v>12.77954098493494</v>
+        <v>6.490156361293383</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-lowestwind-amp0100-freq1300-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0300-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -7931,12 +8053,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-11-12T16:23:46</t>
+          <t>2025-11-12T16:35:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>full</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -7951,10 +8073,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I32" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="J32" t="n">
         <v>40</v>
@@ -7977,19 +8099,19 @@
         <v>268.91</v>
       </c>
       <c r="P32" t="n">
-        <v>4700</v>
+        <v>3950</v>
       </c>
       <c r="Q32" t="n">
-        <v>9315.384615384615</v>
+        <v>13180.76923076923</v>
       </c>
       <c r="R32" t="n">
-        <v>8.515000000000015</v>
+        <v>19.52369999999999</v>
       </c>
       <c r="S32" t="n">
-        <v>7.329180332467862</v>
+        <v>13.46203122861826</v>
       </c>
       <c r="T32" t="n">
-        <v>7.383466814808639</v>
+        <v>13.42529659501297</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -8005,19 +8127,19 @@
         <v>269.34</v>
       </c>
       <c r="AD32" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="AE32" t="n">
-        <v>9415.384615384615</v>
+        <v>13230.76923076923</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.074999999999989</v>
+        <v>19.993</v>
       </c>
       <c r="AG32" t="n">
-        <v>7.349486077195345</v>
+        <v>13.54885261964741</v>
       </c>
       <c r="AH32" t="n">
-        <v>7.378952843544293</v>
+        <v>13.45143580592305</v>
       </c>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
@@ -8033,19 +8155,19 @@
         <v>269.73</v>
       </c>
       <c r="AR32" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="AS32" t="n">
-        <v>11115.38461538462</v>
+        <v>13730.76923076923</v>
       </c>
       <c r="AT32" t="n">
-        <v>5.075000000000017</v>
+        <v>14.22999999999999</v>
       </c>
       <c r="AU32" t="n">
-        <v>4.421614529533145</v>
+        <v>13.03966886303122</v>
       </c>
       <c r="AV32" t="n">
-        <v>4.441600203086697</v>
+        <v>13.04115462211826</v>
       </c>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr"/>
@@ -8061,19 +8183,19 @@
         <v>270.29</v>
       </c>
       <c r="BF32" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="BG32" t="n">
-        <v>11115.38461538462</v>
+        <v>13730.76923076923</v>
       </c>
       <c r="BH32" t="n">
-        <v>5.164999999999992</v>
+        <v>14.27500000000001</v>
       </c>
       <c r="BI32" t="n">
-        <v>4.56882443447943</v>
+        <v>13.10887147680286</v>
       </c>
       <c r="BJ32" t="n">
-        <v>4.580919575453757</v>
+        <v>13.09858908799462</v>
       </c>
       <c r="BK32" t="inlineStr"/>
       <c r="BL32" t="inlineStr"/>
@@ -8085,39 +8207,39 @@
       <c r="BR32" t="inlineStr"/>
       <c r="BS32" t="inlineStr"/>
       <c r="BT32" t="n">
-        <v>6.80845382890728</v>
+        <v>2.048998605090998</v>
       </c>
       <c r="BU32" t="n">
-        <v>0.922850542145485</v>
+        <v>3.066466366335346</v>
       </c>
       <c r="BV32" t="n">
-        <v>17.83814903173707</v>
+        <v>5.368376345338416</v>
       </c>
       <c r="BW32" t="n">
-        <v>0.06178671849733349</v>
+        <v>0.04096562911158434</v>
       </c>
       <c r="BX32" t="n">
-        <v>3.948903220766222</v>
+        <v>1.188419190952779</v>
       </c>
       <c r="BY32" t="n">
-        <v>0.9992571606462729</v>
+        <v>0.8300879542525336</v>
       </c>
       <c r="BZ32" t="n">
-        <v>1.19970570478913</v>
+        <v>1.993203138117974</v>
       </c>
       <c r="CA32" t="inlineStr"/>
       <c r="CB32" t="inlineStr"/>
       <c r="CC32" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="CD32" t="n">
-        <v>0.9993886379694573</v>
+        <v>1.001947011801571</v>
       </c>
       <c r="CE32" t="n">
-        <v>0.6019282542200509</v>
+        <v>0.9694990787805623</v>
       </c>
       <c r="CF32" t="n">
-        <v>1.031366932185891</v>
+        <v>1.004404093620587</v>
       </c>
       <c r="CG32" t="inlineStr">
         <is>
@@ -8125,46 +8247,46 @@
         </is>
       </c>
       <c r="CH32" t="n">
-        <v>10.38617110185475</v>
+        <v>19.12810293035724</v>
       </c>
       <c r="CI32" t="n">
-        <v>1.31350191046523</v>
+        <v>6.635190742057468</v>
       </c>
       <c r="CJ32" t="n">
-        <v>10.46889857749126</v>
+        <v>20.246236141511</v>
       </c>
       <c r="CK32" t="n">
-        <v>10.42140381554626</v>
+        <v>19.28789083536696</v>
       </c>
       <c r="CL32" t="n">
-        <v>1.535585464421644</v>
+        <v>7.343209044686362</v>
       </c>
       <c r="CM32" t="n">
-        <v>10.53392995065114</v>
+        <v>20.63844596744136</v>
       </c>
       <c r="CN32" t="n">
-        <v>6.261559944098552</v>
+        <v>18.46967705372995</v>
       </c>
       <c r="CO32" t="n">
-        <v>0.4852879218288415</v>
+        <v>0.6668000035604743</v>
       </c>
       <c r="CP32" t="n">
-        <v>6.28033735563723</v>
+        <v>18.48170968048754</v>
       </c>
       <c r="CQ32" t="n">
-        <v>6.469208691261317</v>
+        <v>18.56092913824942</v>
       </c>
       <c r="CR32" t="n">
-        <v>0.5210263937134095</v>
+        <v>0.7804925062526448</v>
       </c>
       <c r="CS32" t="n">
-        <v>6.490156361293383</v>
+        <v>18.57733185975406</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/reversepanel-fullwind-amp0300-freq0650-per40-depth580-mstop30-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251112-tett6roof/nopanel-fullwind-amp0300-freq0650-per40-depth580-mstop30-run1.csv</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -8174,7 +8296,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-11-12T16:35:30</t>
+          <t>2025-11-12T16:00:52</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -8185,7 +8307,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>reverse</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -8226,13 +8348,13 @@
         <v>13180.76923076923</v>
       </c>
       <c r="R33" t="n">
-        <v>19.52369999999999</v>
+        <v>19.34440000000002</v>
       </c>
       <c r="S33" t="n">
-        <v>13.46203122861826</v>
+        <v>13.4233339774978</v>
       </c>
       <c r="T33" t="n">
-        <v>13.42529659501297</v>
+        <v>13.38318516956701</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -8254,13 +8376,13 @@
         <v>13230.76923076923</v>
       </c>
       <c r="AF33" t="n">
-        <v>19.993</v>
+        <v>19.17370000000003</v>
       </c>
       <c r="AG33" t="n">
-        <v>13.54885261964741</v>
+        <v>13.24017886184207</v>
       </c>
       <c r="AH33" t="n">
-        <v>13.45143580592305</v>
+        <v>13.25047513121575</v>
       </c>
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
@@ -8282,13 +8404,13 @@
         <v>13730.76923076923</v>
       </c>
       <c r="AT33" t="n">
-        <v>14.22999999999999</v>
+        <v>25.02999999999999</v>
       </c>
       <c r="AU33" t="n">
-        <v>13.03966886303122</v>
+        <v>13.51012961597004</v>
       </c>
       <c r="AV33" t="n">
-        <v>13.04115462211826</v>
+        <v>13.31033607253601</v>
       </c>
       <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
@@ -8310,13 +8432,13 @@
         <v>13730.76923076923</v>
       </c>
       <c r="BH33" t="n">
-        <v>14.27500000000001</v>
+        <v>26.14265000000002</v>
       </c>
       <c r="BI33" t="n">
-        <v>13.10887147680286</v>
+        <v>13.77269003512813</v>
       </c>
       <c r="BJ33" t="n">
-        <v>13.09858908799462</v>
+        <v>13.48699934097751</v>
       </c>
       <c r="BK33" t="inlineStr"/>
       <c r="BL33" t="inlineStr"/>
@@ -8333,11 +8455,9 @@
       <c r="BU33" t="n">
         <v>3.066466366335346</v>
       </c>
-      <c r="BV33" t="n">
-        <v>5.368376345338416</v>
-      </c>
+      <c r="BV33" t="inlineStr"/>
       <c r="BW33" t="n">
-        <v>0.04096562911158434</v>
+        <v>0.03928688455443333</v>
       </c>
       <c r="BX33" t="n">
         <v>1.188419190952779</v>
@@ -8354,13 +8474,13 @@
         <v>5.8</v>
       </c>
       <c r="CD33" t="n">
-        <v>1.001947011801571</v>
+        <v>0.9900838225975505</v>
       </c>
       <c r="CE33" t="n">
-        <v>0.9694990787805623</v>
+        <v>1.004517644894049</v>
       </c>
       <c r="CF33" t="n">
-        <v>1.004404093620587</v>
+        <v>1.013272637706423</v>
       </c>
       <c r="CG33" t="inlineStr">
         <is>
@@ -8368,40 +8488,40 @@
         </is>
       </c>
       <c r="CH33" t="n">
-        <v>19.12810293035724</v>
+        <v>19.04602615504421</v>
       </c>
       <c r="CI33" t="n">
-        <v>6.635190742057468</v>
+        <v>6.366628815306812</v>
       </c>
       <c r="CJ33" t="n">
-        <v>20.246236141511</v>
+        <v>20.08195893757686</v>
       </c>
       <c r="CK33" t="n">
-        <v>19.28789083536696</v>
+        <v>18.79376451639407</v>
       </c>
       <c r="CL33" t="n">
-        <v>7.343209044686362</v>
+        <v>7.15762694146227</v>
       </c>
       <c r="CM33" t="n">
-        <v>20.63844596744136</v>
+        <v>20.11062426009743</v>
       </c>
       <c r="CN33" t="n">
-        <v>18.46967705372995</v>
+        <v>19.49921304768382</v>
       </c>
       <c r="CO33" t="n">
-        <v>0.6668000035604743</v>
+        <v>11.42938844019201</v>
       </c>
       <c r="CP33" t="n">
-        <v>18.48170968048754</v>
+        <v>22.60199614184016</v>
       </c>
       <c r="CQ33" t="n">
-        <v>18.56092913824942</v>
+        <v>20.0057654510957</v>
       </c>
       <c r="CR33" t="n">
-        <v>0.7804925062526448</v>
+        <v>11.3929696620031</v>
       </c>
       <c r="CS33" t="n">
-        <v>18.57733185975406</v>
+        <v>23.02238929832387</v>
       </c>
     </row>
     <row r="34">

--- a/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
+++ b/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CS44"/>
+  <dimension ref="A1:CG44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,17 +524,17 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Probe 1 Swell Amplitude (FFT)</t>
+          <t>Probe 1 Swell Amplitude (PSD)</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>Probe 1 Wind Amplitude (FFT)</t>
+          <t>Probe 1 Wind Amplitude (PSD)</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>Probe 1 Total Amplitude (FFT)</t>
+          <t>Probe 1 Total Amplitude (PSD)</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
@@ -594,17 +594,17 @@
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>Probe 2 Swell Amplitude (FFT)</t>
+          <t>Probe 2 Swell Amplitude (PSD)</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>Probe 2 Wind Amplitude (FFT)</t>
+          <t>Probe 2 Wind Amplitude (PSD)</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>Probe 2 Total Amplitude (FFT)</t>
+          <t>Probe 2 Total Amplitude (PSD)</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
@@ -664,17 +664,17 @@
       </c>
       <c r="AW1" t="inlineStr">
         <is>
-          <t>Probe 3 Swell Amplitude (FFT)</t>
+          <t>Probe 3 Swell Amplitude (PSD)</t>
         </is>
       </c>
       <c r="AX1" t="inlineStr">
         <is>
-          <t>Probe 3 Wind Amplitude (FFT)</t>
+          <t>Probe 3 Wind Amplitude (PSD)</t>
         </is>
       </c>
       <c r="AY1" t="inlineStr">
         <is>
-          <t>Probe 3 Total Amplitude (FFT)</t>
+          <t>Probe 3 Total Amplitude (PSD)</t>
         </is>
       </c>
       <c r="AZ1" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="BK1" t="inlineStr">
         <is>
-          <t>Probe 4 Swell Amplitude (FFT)</t>
+          <t>Probe 4 Swell Amplitude (PSD)</t>
         </is>
       </c>
       <c r="BL1" t="inlineStr">
         <is>
-          <t>Probe 4 Wind Amplitude (FFT)</t>
+          <t>Probe 4 Wind Amplitude (PSD)</t>
         </is>
       </c>
       <c r="BM1" t="inlineStr">
         <is>
-          <t>Probe 4 Total Amplitude (FFT)</t>
+          <t>Probe 4 Total Amplitude (PSD)</t>
         </is>
       </c>
       <c r="BN1" t="inlineStr">
@@ -845,66 +845,6 @@
       <c r="CG1" t="inlineStr">
         <is>
           <t>PROCESSED_folder</t>
-        </is>
-      </c>
-      <c r="CH1" t="inlineStr">
-        <is>
-          <t>Probe 1 Swell amplitude</t>
-        </is>
-      </c>
-      <c r="CI1" t="inlineStr">
-        <is>
-          <t>Probe 1 Wind amplitude</t>
-        </is>
-      </c>
-      <c r="CJ1" t="inlineStr">
-        <is>
-          <t>Probe 1 Total amplitude</t>
-        </is>
-      </c>
-      <c r="CK1" t="inlineStr">
-        <is>
-          <t>Probe 2 Swell amplitude</t>
-        </is>
-      </c>
-      <c r="CL1" t="inlineStr">
-        <is>
-          <t>Probe 2 Wind amplitude</t>
-        </is>
-      </c>
-      <c r="CM1" t="inlineStr">
-        <is>
-          <t>Probe 2 Total amplitude</t>
-        </is>
-      </c>
-      <c r="CN1" t="inlineStr">
-        <is>
-          <t>Probe 3 Swell amplitude</t>
-        </is>
-      </c>
-      <c r="CO1" t="inlineStr">
-        <is>
-          <t>Probe 3 Wind amplitude</t>
-        </is>
-      </c>
-      <c r="CP1" t="inlineStr">
-        <is>
-          <t>Probe 3 Total amplitude</t>
-        </is>
-      </c>
-      <c r="CQ1" t="inlineStr">
-        <is>
-          <t>Probe 4 Swell amplitude</t>
-        </is>
-      </c>
-      <c r="CR1" t="inlineStr">
-        <is>
-          <t>Probe 4 Wind amplitude</t>
-        </is>
-      </c>
-      <c r="CS1" t="inlineStr">
-        <is>
-          <t>Probe 4 Total amplitude</t>
         </is>
       </c>
     </row>
@@ -981,9 +921,15 @@
       <c r="T2" t="n">
         <v>22.33334717529972</v>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>31.5749102290627</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.165889323560937</v>
+      </c>
+      <c r="W2" t="n">
+        <v>31.64910792637422</v>
+      </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -1009,9 +955,15 @@
       <c r="AH2" t="n">
         <v>22.586527996976</v>
       </c>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AI2" t="n">
+        <v>31.86422076333484</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2.350701749745592</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>31.95081162616681</v>
+      </c>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
@@ -1037,9 +989,15 @@
       <c r="AV2" t="n">
         <v>21.46127217280442</v>
       </c>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
+      <c r="AW2" t="n">
+        <v>30.9216598548836</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>3.398206529522445</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>31.10782627890302</v>
+      </c>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
@@ -1065,9 +1023,15 @@
       <c r="BJ2" t="n">
         <v>22.50336852559031</v>
       </c>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
+      <c r="BK2" t="n">
+        <v>32.33825454258428</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>3.020836062958688</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>32.47904181745891</v>
+      </c>
       <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
@@ -1112,42 +1076,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH2" t="n">
-        <v>31.5749102290627</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>2.165889323560937</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>31.64910792637422</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>31.86422076333484</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>2.350701749745592</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>31.95081162616681</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>30.9216598548836</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>3.398206529522445</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>31.10782627890302</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>32.33825454258428</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>3.020836062958688</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>32.47904181745891</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1222,9 +1150,15 @@
       <c r="T3" t="n">
         <v>13.30490911183791</v>
       </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>18.8821567652649</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.4116187390544777</v>
+      </c>
+      <c r="W3" t="n">
+        <v>18.88664274280582</v>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
@@ -1250,9 +1184,15 @@
       <c r="AH3" t="n">
         <v>13.89249341827786</v>
       </c>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AI3" t="n">
+        <v>19.71262963342099</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.3316306332282583</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>19.71541898974817</v>
+      </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
@@ -1278,9 +1218,15 @@
       <c r="AV3" t="n">
         <v>13.47038071587824</v>
       </c>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
+      <c r="AW3" t="n">
+        <v>19.11420912468244</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.3749629906690736</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>19.11788659100333</v>
+      </c>
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
       <c r="BB3" t="inlineStr"/>
@@ -1306,9 +1252,15 @@
       <c r="BJ3" t="n">
         <v>13.51198486935261</v>
       </c>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
+      <c r="BK3" t="n">
+        <v>19.17521293691721</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.2833992403853914</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>19.17730706604992</v>
+      </c>
       <c r="BN3" t="inlineStr"/>
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
@@ -1354,42 +1306,6 @@
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="CH3" t="n">
-        <v>18.8821567652649</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0.4116187390544777</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>18.88664274280582</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>19.71262963342099</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0.3316306332282583</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>19.71541898974817</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>19.11420912468244</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0.3749629906690736</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>19.11788659100333</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>19.17521293691721</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0.2833992403853914</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>19.17730706604992</v>
       </c>
     </row>
     <row r="4">
@@ -1552,18 +1468,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH4" t="inlineStr"/>
-      <c r="CI4" t="inlineStr"/>
-      <c r="CJ4" t="inlineStr"/>
-      <c r="CK4" t="inlineStr"/>
-      <c r="CL4" t="inlineStr"/>
-      <c r="CM4" t="inlineStr"/>
-      <c r="CN4" t="inlineStr"/>
-      <c r="CO4" t="inlineStr"/>
-      <c r="CP4" t="inlineStr"/>
-      <c r="CQ4" t="inlineStr"/>
-      <c r="CR4" t="inlineStr"/>
-      <c r="CS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1638,9 +1542,15 @@
       <c r="T5" t="n">
         <v>7.263317686766193</v>
       </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>10.30297134117514</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.231739415503675</v>
+      </c>
+      <c r="W5" t="n">
+        <v>10.3763384893122</v>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -1666,9 +1576,15 @@
       <c r="AH5" t="n">
         <v>7.356812747546521</v>
       </c>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
+      <c r="AI5" t="n">
+        <v>10.42369458268262</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.312083192309073</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>10.50594931724815</v>
+      </c>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
@@ -1694,9 +1610,15 @@
       <c r="AV5" t="n">
         <v>7.462442189713257</v>
       </c>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
+      <c r="AW5" t="n">
+        <v>10.49398090196205</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>2.322397085212573</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>10.74789111370915</v>
+      </c>
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
@@ -1722,9 +1644,15 @@
       <c r="BJ5" t="n">
         <v>7.738102418968231</v>
       </c>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="inlineStr"/>
+      <c r="BK5" t="n">
+        <v>10.92353734961151</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1.932471298954006</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>11.09315615817422</v>
+      </c>
       <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
@@ -1769,42 +1697,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH5" t="n">
-        <v>10.30297134117514</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>1.231739415503675</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>10.3763384893122</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>10.42369458268262</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>1.312083192309073</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>10.50594931724815</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>10.49398090196205</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>2.322397085212573</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>10.74789111370915</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>10.92353734961151</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>1.932471298954006</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>11.09315615817422</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1879,9 +1771,15 @@
       <c r="T6" t="n">
         <v>4.426701225155747</v>
       </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>6.279853224653626</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1496677931864963</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.281636488329285</v>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
@@ -1907,9 +1805,15 @@
       <c r="AH6" t="n">
         <v>4.663549092469726</v>
       </c>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
+      <c r="AI6" t="n">
+        <v>6.620986534873425</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.2165656494973291</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>6.62452740771124</v>
+      </c>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
@@ -1935,9 +1839,15 @@
       <c r="AV6" t="n">
         <v>4.531016516705192</v>
       </c>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
+      <c r="AW6" t="n">
+        <v>6.429192359710196</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.1435126347056221</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>6.430793907013045</v>
+      </c>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="inlineStr"/>
@@ -1963,9 +1873,15 @@
       <c r="BJ6" t="n">
         <v>4.554868381473166</v>
       </c>
-      <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="inlineStr"/>
-      <c r="BM6" t="inlineStr"/>
+      <c r="BK6" t="n">
+        <v>6.463342160560645</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.1253273259303306</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>6.464557125055483</v>
+      </c>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
@@ -2012,42 +1928,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH6" t="n">
-        <v>6.279853224653626</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>0.1496677931864963</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>6.281636488329285</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>6.620986534873425</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0.2165656494973291</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>6.62452740771124</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>6.429192359710196</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>0.1435126347056221</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>6.430793907013045</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>6.463342160560645</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>0.1253273259303306</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>6.464557125055483</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2122,9 +2002,15 @@
       <c r="T7" t="n">
         <v>8.820841604675591</v>
       </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>12.53173545866514</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.403182828463338</v>
+      </c>
+      <c r="W7" t="n">
+        <v>12.61004820197209</v>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -2150,9 +2036,15 @@
       <c r="AH7" t="n">
         <v>9.14801157801171</v>
       </c>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AI7" t="n">
+        <v>13.01184761106279</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.735914716501081</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>13.12713137576087</v>
+      </c>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
@@ -2178,9 +2070,15 @@
       <c r="AV7" t="n">
         <v>8.849609062845831</v>
       </c>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
+      <c r="AW7" t="n">
+        <v>12.63035637149943</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>3.830875608424976</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>13.19854196486497</v>
+      </c>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
       <c r="BB7" t="inlineStr"/>
@@ -2206,9 +2104,15 @@
       <c r="BJ7" t="n">
         <v>9.011833287953509</v>
       </c>
-      <c r="BK7" t="inlineStr"/>
-      <c r="BL7" t="inlineStr"/>
-      <c r="BM7" t="inlineStr"/>
+      <c r="BK7" t="n">
+        <v>12.82453162515482</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>3.79838747163804</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>13.37521434554576</v>
+      </c>
       <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
@@ -2253,42 +2157,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH7" t="n">
-        <v>12.53173545866514</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>1.403182828463338</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>12.61004820197209</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>13.01184761106279</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>1.735914716501081</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>13.12713137576087</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>12.63035637149943</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>3.830875608424976</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>13.19854196486497</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>12.82453162515482</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>3.79838747163804</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>13.37521434554576</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2363,9 +2231,15 @@
       <c r="T8" t="n">
         <v>14.80286816171208</v>
       </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>20.92274333652263</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.700294275175315</v>
+      </c>
+      <c r="W8" t="n">
+        <v>20.99171716054206</v>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -2391,9 +2265,15 @@
       <c r="AH8" t="n">
         <v>14.80630604375163</v>
       </c>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AI8" t="n">
+        <v>20.93721376874187</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1.576332089285585</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>20.99646978074422</v>
+      </c>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
@@ -2419,9 +2299,15 @@
       <c r="AV8" t="n">
         <v>10.50869146083988</v>
       </c>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
+      <c r="AW8" t="n">
+        <v>14.5591937730007</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.7674082455320661</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>14.57940460838826</v>
+      </c>
       <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
       <c r="BB8" t="inlineStr"/>
@@ -2447,9 +2333,15 @@
       <c r="BJ8" t="n">
         <v>10.80006534837044</v>
       </c>
-      <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="inlineStr"/>
-      <c r="BM8" t="inlineStr"/>
+      <c r="BK8" t="n">
+        <v>15.00090231385069</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.8827956243327167</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>15.02685590348267</v>
+      </c>
       <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
@@ -2496,42 +2388,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH8" t="n">
-        <v>20.92274333652263</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>1.700294275175315</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>20.99171716054206</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>20.93721376874187</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>1.576332089285585</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>20.99646978074422</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>14.5591937730007</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>0.7674082455320661</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>14.57940460838826</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>15.00090231385069</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>0.8827956243327167</v>
-      </c>
-      <c r="CS8" t="n">
-        <v>15.02685590348267</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2606,9 +2462,15 @@
       <c r="T9" t="n">
         <v>4.447034070100692</v>
       </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>6.34796524845246</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.197485445933668</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.459925246377317</v>
+      </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -2634,9 +2496,15 @@
       <c r="AH9" t="n">
         <v>4.534079326201507</v>
       </c>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
+      <c r="AI9" t="n">
+        <v>6.529704442361833</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.695185258848549</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>6.746161365281539</v>
+      </c>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
@@ -2662,9 +2530,15 @@
       <c r="AV9" t="n">
         <v>4.545460881105915</v>
       </c>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
+      <c r="AW9" t="n">
+        <v>6.540243940229757</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>3.801849653051665</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>7.564975319333245</v>
+      </c>
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr"/>
@@ -2690,9 +2564,15 @@
       <c r="BJ9" t="n">
         <v>4.449096797466282</v>
       </c>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="inlineStr"/>
-      <c r="BM9" t="inlineStr"/>
+      <c r="BK9" t="n">
+        <v>6.338141481644243</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>3.896266393148377</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>7.439954922425064</v>
+      </c>
       <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
@@ -2737,42 +2617,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH9" t="n">
-        <v>6.34796524845246</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>1.197485445933668</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>6.459925246377317</v>
-      </c>
-      <c r="CK9" t="n">
-        <v>6.529704442361833</v>
-      </c>
-      <c r="CL9" t="n">
-        <v>1.695185258848549</v>
-      </c>
-      <c r="CM9" t="n">
-        <v>6.746161365281539</v>
-      </c>
-      <c r="CN9" t="n">
-        <v>6.540243940229757</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>3.801849653051665</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>7.564975319333245</v>
-      </c>
-      <c r="CQ9" t="n">
-        <v>6.338141481644243</v>
-      </c>
-      <c r="CR9" t="n">
-        <v>3.896266393148377</v>
-      </c>
-      <c r="CS9" t="n">
-        <v>7.439954922425064</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2847,9 +2691,15 @@
       <c r="T10" t="n">
         <v>7.577148929878852</v>
       </c>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>10.72815171930085</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.7035445869624317</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10.75119594734381</v>
+      </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -2875,9 +2725,15 @@
       <c r="AH10" t="n">
         <v>7.41551241568062</v>
       </c>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AI10" t="n">
+        <v>10.51139480708368</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.007550800095588</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>10.55957287986398</v>
+      </c>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
@@ -2903,9 +2759,15 @@
       <c r="AV10" t="n">
         <v>5.01806963798105</v>
       </c>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
+      <c r="AW10" t="n">
+        <v>7.053254211445491</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.3787690370225508</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>7.063417087690669</v>
+      </c>
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr"/>
       <c r="BB10" t="inlineStr"/>
@@ -2931,9 +2793,15 @@
       <c r="BJ10" t="n">
         <v>5.168187162707039</v>
       </c>
-      <c r="BK10" t="inlineStr"/>
-      <c r="BL10" t="inlineStr"/>
-      <c r="BM10" t="inlineStr"/>
+      <c r="BK10" t="n">
+        <v>7.277776502562338</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.4060380548239098</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>7.289094437803209</v>
+      </c>
       <c r="BN10" t="inlineStr"/>
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
@@ -2980,42 +2848,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH10" t="n">
-        <v>10.72815171930085</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>0.7035445869624317</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>10.75119594734381</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>10.51139480708368</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>1.007550800095588</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>10.55957287986398</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>7.053254211445491</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>0.3787690370225508</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>7.063417087690669</v>
-      </c>
-      <c r="CQ10" t="n">
-        <v>7.277776502562338</v>
-      </c>
-      <c r="CR10" t="n">
-        <v>0.4060380548239098</v>
-      </c>
-      <c r="CS10" t="n">
-        <v>7.289094437803209</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3090,9 +2922,15 @@
       <c r="T11" t="n">
         <v>7.888134321427951</v>
       </c>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="U11" t="n">
+        <v>11.13607030463304</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.8976835690969229</v>
+      </c>
+      <c r="W11" t="n">
+        <v>11.17219305328888</v>
+      </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
@@ -3118,9 +2956,15 @@
       <c r="AH11" t="n">
         <v>7.287728855968433</v>
       </c>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AI11" t="n">
+        <v>10.31709116253021</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1.007758932757852</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>10.36619255669662</v>
+      </c>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
@@ -3146,9 +2990,15 @@
       <c r="AV11" t="n">
         <v>5.111892135537919</v>
       </c>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
+      <c r="AW11" t="n">
+        <v>7.425461908151575</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.4547051238141036</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>7.439371028456156</v>
+      </c>
       <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr"/>
@@ -3174,9 +3024,15 @@
       <c r="BJ11" t="n">
         <v>5.29130320421138</v>
       </c>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
+      <c r="BK11" t="n">
+        <v>7.622914825342705</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.4380848537195636</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>7.635492700113601</v>
+      </c>
       <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
@@ -3223,42 +3079,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH11" t="n">
-        <v>11.13607030463304</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>0.8976835690969229</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>11.17219305328888</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>10.31709116253021</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>1.007758932757852</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>10.36619255669662</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>7.425461908151575</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>0.4547051238141036</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>7.439371028456156</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>7.622914825342705</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>0.4380848537195636</v>
-      </c>
-      <c r="CS11" t="n">
-        <v>7.635492700113601</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3333,9 +3153,15 @@
       <c r="T12" t="n">
         <v>4.422158802810139</v>
       </c>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>6.379193632709486</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.179602413786994</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.48733945914759</v>
+      </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
@@ -3361,9 +3187,15 @@
       <c r="AH12" t="n">
         <v>4.568541952191242</v>
       </c>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AI12" t="n">
+        <v>6.552537243484712</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.561503182365318</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>6.736025275768437</v>
+      </c>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
@@ -3389,9 +3221,15 @@
       <c r="AV12" t="n">
         <v>4.589454493780603</v>
       </c>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
+      <c r="AW12" t="n">
+        <v>6.611646185629058</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>4.317834871894356</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>7.896680521895909</v>
+      </c>
       <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr"/>
       <c r="BB12" t="inlineStr"/>
@@ -3417,9 +3255,15 @@
       <c r="BJ12" t="n">
         <v>4.553267299642018</v>
       </c>
-      <c r="BK12" t="inlineStr"/>
-      <c r="BL12" t="inlineStr"/>
-      <c r="BM12" t="inlineStr"/>
+      <c r="BK12" t="n">
+        <v>6.584495999731379</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>4.043281490384391</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>7.726817765481695</v>
+      </c>
       <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="inlineStr"/>
       <c r="BP12" t="inlineStr"/>
@@ -3464,42 +3308,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH12" t="n">
-        <v>6.379193632709486</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>1.179602413786994</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>6.48733945914759</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>6.552537243484712</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>1.561503182365318</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>6.736025275768437</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>6.611646185629058</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>4.317834871894356</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>7.896680521895909</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>6.584495999731379</v>
-      </c>
-      <c r="CR12" t="n">
-        <v>4.043281490384391</v>
-      </c>
-      <c r="CS12" t="n">
-        <v>7.726817765481695</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3574,9 +3382,15 @@
       <c r="T13" t="n">
         <v>14.83697346029754</v>
       </c>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>20.92464826986691</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.592529392264254</v>
+      </c>
+      <c r="W13" t="n">
+        <v>20.9851627366306</v>
+      </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
@@ -3602,9 +3416,15 @@
       <c r="AH13" t="n">
         <v>15.03808398457271</v>
       </c>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AI13" t="n">
+        <v>21.31453749246756</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.78199532921563</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>21.38889936091036</v>
+      </c>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
@@ -3630,9 +3450,15 @@
       <c r="AV13" t="n">
         <v>15.40209235044285</v>
       </c>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
+      <c r="AW13" t="n">
+        <v>22.05478297994715</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>3.269767163949396</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>22.29584781072494</v>
+      </c>
       <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="inlineStr"/>
@@ -3658,9 +3484,15 @@
       <c r="BJ13" t="n">
         <v>14.35980018392826</v>
       </c>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="inlineStr"/>
+      <c r="BK13" t="n">
+        <v>20.29432266629864</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>2.890785918270305</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>20.49917500069485</v>
+      </c>
       <c r="BN13" t="inlineStr"/>
       <c r="BO13" t="inlineStr"/>
       <c r="BP13" t="inlineStr"/>
@@ -3705,42 +3537,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH13" t="n">
-        <v>20.92464826986691</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>1.592529392264254</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>20.9851627366306</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>21.31453749246756</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>1.78199532921563</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>21.38889936091036</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>22.05478297994715</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>3.269767163949396</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>22.29584781072494</v>
-      </c>
-      <c r="CQ13" t="n">
-        <v>20.29432266629864</v>
-      </c>
-      <c r="CR13" t="n">
-        <v>2.890785918270305</v>
-      </c>
-      <c r="CS13" t="n">
-        <v>20.49917500069485</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3815,9 +3611,15 @@
       <c r="T14" t="n">
         <v>8.860636159129365</v>
       </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+      <c r="U14" t="n">
+        <v>12.57655540193823</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.2911184764838831</v>
+      </c>
+      <c r="W14" t="n">
+        <v>12.5799243139763</v>
+      </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
@@ -3843,9 +3645,15 @@
       <c r="AH14" t="n">
         <v>9.303608996729254</v>
       </c>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AI14" t="n">
+        <v>13.20711178259471</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.2830778500832468</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>13.21014514330406</v>
+      </c>
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
@@ -3871,9 +3679,15 @@
       <c r="AV14" t="n">
         <v>9.023349833359681</v>
       </c>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
+      <c r="AW14" t="n">
+        <v>12.79742356934213</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0.2841606298992991</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>12.80057800557218</v>
+      </c>
       <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="inlineStr"/>
@@ -3899,9 +3713,15 @@
       <c r="BJ14" t="n">
         <v>9.030586291021921</v>
       </c>
-      <c r="BK14" t="inlineStr"/>
-      <c r="BL14" t="inlineStr"/>
-      <c r="BM14" t="inlineStr"/>
+      <c r="BK14" t="n">
+        <v>12.80523756642041</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0.2042608937289404</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>12.80686658184473</v>
+      </c>
       <c r="BN14" t="inlineStr"/>
       <c r="BO14" t="inlineStr"/>
       <c r="BP14" t="inlineStr"/>
@@ -3948,42 +3768,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH14" t="n">
-        <v>12.57655540193823</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>0.2911184764838831</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>12.5799243139763</v>
-      </c>
-      <c r="CK14" t="n">
-        <v>13.20711178259471</v>
-      </c>
-      <c r="CL14" t="n">
-        <v>0.2830778500832468</v>
-      </c>
-      <c r="CM14" t="n">
-        <v>13.21014514330406</v>
-      </c>
-      <c r="CN14" t="n">
-        <v>12.79742356934213</v>
-      </c>
-      <c r="CO14" t="n">
-        <v>0.2841606298992991</v>
-      </c>
-      <c r="CP14" t="n">
-        <v>12.80057800557218</v>
-      </c>
-      <c r="CQ14" t="n">
-        <v>12.80523756642041</v>
-      </c>
-      <c r="CR14" t="n">
-        <v>0.2042608937289404</v>
-      </c>
-      <c r="CS14" t="n">
-        <v>12.80686658184473</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4058,9 +3842,15 @@
       <c r="T15" t="n">
         <v>7.887361098749039</v>
       </c>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>11.18833772282276</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.032615927257055</v>
+      </c>
+      <c r="W15" t="n">
+        <v>11.2358887789602</v>
+      </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
@@ -4086,9 +3876,15 @@
       <c r="AH15" t="n">
         <v>7.407796728861175</v>
       </c>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AI15" t="n">
+        <v>10.44655687525027</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.9470723165260768</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>10.48939924497913</v>
+      </c>
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
@@ -4114,9 +3910,15 @@
       <c r="AV15" t="n">
         <v>4.954004882242995</v>
       </c>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
+      <c r="AW15" t="n">
+        <v>6.922534360792056</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.4200289386238647</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>6.935265408448921</v>
+      </c>
       <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr"/>
       <c r="BB15" t="inlineStr"/>
@@ -4142,9 +3944,15 @@
       <c r="BJ15" t="n">
         <v>5.13033176444644</v>
       </c>
-      <c r="BK15" t="inlineStr"/>
-      <c r="BL15" t="inlineStr"/>
-      <c r="BM15" t="inlineStr"/>
+      <c r="BK15" t="n">
+        <v>7.122749497783096</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0.391495610350765</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>7.1335004886166</v>
+      </c>
       <c r="BN15" t="inlineStr"/>
       <c r="BO15" t="inlineStr"/>
       <c r="BP15" t="inlineStr"/>
@@ -4190,42 +3998,6 @@
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="CH15" t="n">
-        <v>11.18833772282276</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>1.032615927257055</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>11.2358887789602</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>10.44655687525027</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>0.9470723165260768</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>10.48939924497913</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>6.922534360792056</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>0.4200289386238647</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>6.935265408448921</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>7.122749497783096</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>0.391495610350765</v>
-      </c>
-      <c r="CS15" t="n">
-        <v>7.1335004886166</v>
       </c>
     </row>
     <row r="16">
@@ -4396,18 +4168,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH16" t="inlineStr"/>
-      <c r="CI16" t="inlineStr"/>
-      <c r="CJ16" t="inlineStr"/>
-      <c r="CK16" t="inlineStr"/>
-      <c r="CL16" t="inlineStr"/>
-      <c r="CM16" t="inlineStr"/>
-      <c r="CN16" t="inlineStr"/>
-      <c r="CO16" t="inlineStr"/>
-      <c r="CP16" t="inlineStr"/>
-      <c r="CQ16" t="inlineStr"/>
-      <c r="CR16" t="inlineStr"/>
-      <c r="CS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4482,9 +4242,15 @@
       <c r="T17" t="n">
         <v>13.37850749157174</v>
       </c>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+      <c r="U17" t="n">
+        <v>18.98038106152991</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.409565348054111</v>
+      </c>
+      <c r="W17" t="n">
+        <v>19.03264930878826</v>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
@@ -4510,9 +4276,15 @@
       <c r="AH17" t="n">
         <v>13.6305523869368</v>
       </c>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AI17" t="n">
+        <v>19.30316716041533</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.916166374091323</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>19.39804000398327</v>
+      </c>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
@@ -4538,9 +4310,15 @@
       <c r="AV17" t="n">
         <v>13.39964120643937</v>
       </c>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
+      <c r="AW17" t="n">
+        <v>19.01208442445327</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>3.251799802429324</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>19.28817140419532</v>
+      </c>
       <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr"/>
       <c r="BB17" t="inlineStr"/>
@@ -4566,9 +4344,15 @@
       <c r="BJ17" t="n">
         <v>13.47514907100107</v>
       </c>
-      <c r="BK17" t="inlineStr"/>
-      <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="inlineStr"/>
+      <c r="BK17" t="n">
+        <v>19.11707501100333</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>3.963217251238841</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>19.52356647635992</v>
+      </c>
       <c r="BN17" t="inlineStr"/>
       <c r="BO17" t="inlineStr"/>
       <c r="BP17" t="inlineStr"/>
@@ -4613,42 +4397,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH17" t="n">
-        <v>18.98038106152991</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>1.409565348054111</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>19.03264930878826</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>19.30316716041533</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>1.916166374091323</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>19.39804000398327</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>19.01208442445327</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>3.251799802429324</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>19.28817140419532</v>
-      </c>
-      <c r="CQ17" t="n">
-        <v>19.11707501100333</v>
-      </c>
-      <c r="CR17" t="n">
-        <v>3.963217251238841</v>
-      </c>
-      <c r="CS17" t="n">
-        <v>19.52356647635992</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4723,9 +4471,15 @@
       <c r="T18" t="n">
         <v>22.12029165237653</v>
       </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+      <c r="U18" t="n">
+        <v>31.3819622464962</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.952564776081793</v>
+      </c>
+      <c r="W18" t="n">
+        <v>31.62989602811928</v>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
@@ -4751,9 +4505,15 @@
       <c r="AH18" t="n">
         <v>22.62183276651398</v>
       </c>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AI18" t="n">
+        <v>32.210389185404</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.812839421195843</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>32.26136324215442</v>
+      </c>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
@@ -4779,9 +4539,15 @@
       <c r="AV18" t="n">
         <v>16.72803257282205</v>
       </c>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
+      <c r="AW18" t="n">
+        <v>23.31008755125107</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0.9374741134617111</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>23.32893138059266</v>
+      </c>
       <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr"/>
       <c r="BB18" t="inlineStr"/>
@@ -4807,9 +4573,15 @@
       <c r="BJ18" t="n">
         <v>17.12825748415225</v>
       </c>
-      <c r="BK18" t="inlineStr"/>
-      <c r="BL18" t="inlineStr"/>
-      <c r="BM18" t="inlineStr"/>
+      <c r="BK18" t="n">
+        <v>23.9843281745838</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1.983218895669438</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>24.06618281269954</v>
+      </c>
       <c r="BN18" t="inlineStr"/>
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
@@ -4856,42 +4628,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH18" t="n">
-        <v>31.3819622464962</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>3.952564776081793</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>31.62989602811928</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>32.210389185404</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>1.812839421195843</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>32.26136324215442</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>23.31008755125107</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>0.9374741134617111</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>23.32893138059266</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>23.9843281745838</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>1.983218895669438</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>24.06618281269954</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4966,9 +4702,15 @@
       <c r="T19" t="n">
         <v>8.769041954508788</v>
       </c>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>12.46853619857135</v>
+      </c>
+      <c r="V19" t="n">
+        <v>6.393544623255687</v>
+      </c>
+      <c r="W19" t="n">
+        <v>14.01220210333286</v>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
@@ -4994,9 +4736,15 @@
       <c r="AH19" t="n">
         <v>8.923954467812148</v>
       </c>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AI19" t="n">
+        <v>12.75123885769862</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>8.053885867926024</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>15.08174956626922</v>
+      </c>
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
@@ -5022,9 +4770,15 @@
       <c r="AV19" t="n">
         <v>8.557940308744234</v>
       </c>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
+      <c r="AW19" t="n">
+        <v>15.40515838071092</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>12.84030826320458</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>20.05473562600384</v>
+      </c>
       <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr"/>
       <c r="BB19" t="inlineStr"/>
@@ -5050,9 +4804,15 @@
       <c r="BJ19" t="n">
         <v>8.863576210284371</v>
       </c>
-      <c r="BK19" t="inlineStr"/>
-      <c r="BL19" t="inlineStr"/>
-      <c r="BM19" t="inlineStr"/>
+      <c r="BK19" t="n">
+        <v>13.95255435170477</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>13.96563384750976</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>19.74114236056227</v>
+      </c>
       <c r="BN19" t="inlineStr"/>
       <c r="BO19" t="inlineStr"/>
       <c r="BP19" t="inlineStr"/>
@@ -5097,42 +4857,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH19" t="n">
-        <v>12.46853619857135</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>6.393544623255687</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>14.01220210333286</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>12.75123885769862</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>8.053885867926024</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>15.08174956626922</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>15.40515838071092</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>12.84030826320458</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>20.05473562600384</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>13.95255435170477</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>13.96563384750976</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>19.74114236056227</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5207,9 +4931,15 @@
       <c r="T20" t="n">
         <v>22.25832046060676</v>
       </c>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>31.19122384303993</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.80840009641353</v>
+      </c>
+      <c r="W20" t="n">
+        <v>31.31740021023709</v>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
@@ -5235,9 +4965,15 @@
       <c r="AH20" t="n">
         <v>22.24806691288752</v>
       </c>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AI20" t="n">
+        <v>31.49085048532526</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2.296173518795703</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>31.57445291873684</v>
+      </c>
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
@@ -5263,9 +4999,15 @@
       <c r="AV20" t="n">
         <v>15.9093393864272</v>
       </c>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
+      <c r="AW20" t="n">
+        <v>22.59370870685247</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0.8505043387019066</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>22.60971098356305</v>
+      </c>
       <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr"/>
       <c r="BB20" t="inlineStr"/>
@@ -5291,9 +5033,15 @@
       <c r="BJ20" t="n">
         <v>16.39741117419935</v>
       </c>
-      <c r="BK20" t="inlineStr"/>
-      <c r="BL20" t="inlineStr"/>
-      <c r="BM20" t="inlineStr"/>
+      <c r="BK20" t="n">
+        <v>23.32710916709893</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>1.018693505379476</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>23.34934171559561</v>
+      </c>
       <c r="BN20" t="inlineStr"/>
       <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
@@ -5340,42 +5088,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH20" t="n">
-        <v>31.19122384303993</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>2.80840009641353</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>31.31740021023709</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>31.49085048532526</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>2.296173518795703</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>31.57445291873684</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>22.59370870685247</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0.8505043387019066</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>22.60971098356305</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>23.32710916709893</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>1.018693505379476</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>23.34934171559561</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5450,9 +5162,15 @@
       <c r="T21" t="n">
         <v>4.556403905310875</v>
       </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>6.644742354660448</v>
+      </c>
+      <c r="V21" t="n">
+        <v>7.146354764071753</v>
+      </c>
+      <c r="W21" t="n">
+        <v>9.758226651077004</v>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -5478,9 +5196,15 @@
       <c r="AH21" t="n">
         <v>4.623089110976609</v>
       </c>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AI21" t="n">
+        <v>6.871169276664973</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>8.936460744225244</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>11.2726792672223</v>
+      </c>
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
@@ -5506,9 +5230,15 @@
       <c r="AV21" t="n">
         <v>4.254206325236899</v>
       </c>
-      <c r="AW21" t="inlineStr"/>
-      <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="inlineStr"/>
+      <c r="AW21" t="n">
+        <v>6.060760723249397</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0.627553466437051</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>6.093163701864551</v>
+      </c>
       <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr"/>
       <c r="BB21" t="inlineStr"/>
@@ -5534,9 +5264,15 @@
       <c r="BJ21" t="n">
         <v>4.25061386197613</v>
       </c>
-      <c r="BK21" t="inlineStr"/>
-      <c r="BL21" t="inlineStr"/>
-      <c r="BM21" t="inlineStr"/>
+      <c r="BK21" t="n">
+        <v>6.065618187460164</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0.6711254925685159</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>6.102633318725847</v>
+      </c>
       <c r="BN21" t="inlineStr"/>
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
@@ -5583,42 +5319,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH21" t="n">
-        <v>6.644742354660448</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>7.146354764071753</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>9.758226651077004</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>6.871169276664973</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>8.936460744225244</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>11.2726792672223</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>6.060760723249397</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0.627553466437051</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>6.093163701864551</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>6.065618187460164</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>0.6711254925685159</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>6.102633318725847</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5693,9 +5393,15 @@
       <c r="T22" t="n">
         <v>22.26097194664286</v>
       </c>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
+      <c r="U22" t="n">
+        <v>31.44079180710299</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3.989918174327038</v>
+      </c>
+      <c r="W22" t="n">
+        <v>31.69294616307263</v>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -5721,9 +5427,15 @@
       <c r="AH22" t="n">
         <v>22.44271752875564</v>
       </c>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AI22" t="n">
+        <v>31.83908847054764</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>2.640159817783069</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>31.94836456688817</v>
+      </c>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
@@ -5749,9 +5461,15 @@
       <c r="AV22" t="n">
         <v>21.86186856834625</v>
       </c>
-      <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
+      <c r="AW22" t="n">
+        <v>31.16050682656836</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>2.711309849416851</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>31.27824142735902</v>
+      </c>
       <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr"/>
       <c r="BB22" t="inlineStr"/>
@@ -5777,9 +5495,15 @@
       <c r="BJ22" t="n">
         <v>21.9155944551006</v>
       </c>
-      <c r="BK22" t="inlineStr"/>
-      <c r="BL22" t="inlineStr"/>
-      <c r="BM22" t="inlineStr"/>
+      <c r="BK22" t="n">
+        <v>31.96584179606029</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>9.876315288626568</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>33.45678773300141</v>
+      </c>
       <c r="BN22" t="inlineStr"/>
       <c r="BO22" t="inlineStr"/>
       <c r="BP22" t="inlineStr"/>
@@ -5824,42 +5548,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH22" t="n">
-        <v>31.44079180710299</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>3.989918174327038</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>31.69294616307263</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>31.83908847054764</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>2.640159817783069</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>31.94836456688817</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>31.16050682656836</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>2.711309849416851</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>31.27824142735902</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>31.96584179606029</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>9.876315288626568</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>33.45678773300141</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5934,9 +5622,15 @@
       <c r="T23" t="n">
         <v>7.645411296875363</v>
       </c>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+      <c r="U23" t="n">
+        <v>10.9404267195542</v>
+      </c>
+      <c r="V23" t="n">
+        <v>5.360442957443186</v>
+      </c>
+      <c r="W23" t="n">
+        <v>12.183073729808</v>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
@@ -5962,9 +5656,15 @@
       <c r="AH23" t="n">
         <v>8.017538983107796</v>
       </c>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AI23" t="n">
+        <v>11.72148591622803</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>6.737649137888366</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>13.51995369776169</v>
+      </c>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
@@ -5990,9 +5690,15 @@
       <c r="AV23" t="n">
         <v>7.664583571387108</v>
       </c>
-      <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
+      <c r="AW23" t="n">
+        <v>10.99591405534538</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>8.237389156838374</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>13.73916686097597</v>
+      </c>
       <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="inlineStr"/>
@@ -6018,9 +5724,15 @@
       <c r="BJ23" t="n">
         <v>9.100759559667548</v>
       </c>
-      <c r="BK23" t="inlineStr"/>
-      <c r="BL23" t="inlineStr"/>
-      <c r="BM23" t="inlineStr"/>
+      <c r="BK23" t="n">
+        <v>12.95335752549852</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>8.7643703685328</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>15.63981007366154</v>
+      </c>
       <c r="BN23" t="inlineStr"/>
       <c r="BO23" t="inlineStr"/>
       <c r="BP23" t="inlineStr"/>
@@ -6065,42 +5777,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH23" t="n">
-        <v>10.9404267195542</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>5.360442957443186</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>12.183073729808</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>11.72148591622803</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>6.737649137888366</v>
-      </c>
-      <c r="CM23" t="n">
-        <v>13.51995369776169</v>
-      </c>
-      <c r="CN23" t="n">
-        <v>10.99591405534538</v>
-      </c>
-      <c r="CO23" t="n">
-        <v>8.237389156838374</v>
-      </c>
-      <c r="CP23" t="n">
-        <v>13.73916686097597</v>
-      </c>
-      <c r="CQ23" t="n">
-        <v>12.95335752549852</v>
-      </c>
-      <c r="CR23" t="n">
-        <v>8.7643703685328</v>
-      </c>
-      <c r="CS23" t="n">
-        <v>15.63981007366154</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6175,9 +5851,15 @@
       <c r="T24" t="n">
         <v>16.21959509967942</v>
       </c>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+      <c r="U24" t="n">
+        <v>22.61008586257692</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4.344043369741975</v>
+      </c>
+      <c r="W24" t="n">
+        <v>23.02361169563325</v>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
@@ -6203,9 +5885,15 @@
       <c r="AH24" t="n">
         <v>15.13125778567915</v>
       </c>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AI24" t="n">
+        <v>21.41192842912143</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>3.969252830878529</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>21.77672259751811</v>
+      </c>
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
@@ -6231,9 +5919,15 @@
       <c r="AV24" t="n">
         <v>9.855495204706351</v>
       </c>
-      <c r="AW24" t="inlineStr"/>
-      <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
+      <c r="AW24" t="n">
+        <v>14.25619335817006</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1.293875582176556</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>14.31478826555548</v>
+      </c>
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr"/>
       <c r="BB24" t="inlineStr"/>
@@ -6259,9 +5953,15 @@
       <c r="BJ24" t="n">
         <v>10.64143027105636</v>
       </c>
-      <c r="BK24" t="inlineStr"/>
-      <c r="BL24" t="inlineStr"/>
-      <c r="BM24" t="inlineStr"/>
+      <c r="BK24" t="n">
+        <v>15.08046024879069</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>1.271248943027843</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>15.13394711205591</v>
+      </c>
       <c r="BN24" t="inlineStr"/>
       <c r="BO24" t="inlineStr"/>
       <c r="BP24" t="inlineStr"/>
@@ -6308,42 +6008,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH24" t="n">
-        <v>22.61008586257692</v>
-      </c>
-      <c r="CI24" t="n">
-        <v>4.344043369741975</v>
-      </c>
-      <c r="CJ24" t="n">
-        <v>23.02361169563325</v>
-      </c>
-      <c r="CK24" t="n">
-        <v>21.41192842912143</v>
-      </c>
-      <c r="CL24" t="n">
-        <v>3.969252830878529</v>
-      </c>
-      <c r="CM24" t="n">
-        <v>21.77672259751811</v>
-      </c>
-      <c r="CN24" t="n">
-        <v>14.25619335817006</v>
-      </c>
-      <c r="CO24" t="n">
-        <v>1.293875582176556</v>
-      </c>
-      <c r="CP24" t="n">
-        <v>14.31478826555548</v>
-      </c>
-      <c r="CQ24" t="n">
-        <v>15.08046024879069</v>
-      </c>
-      <c r="CR24" t="n">
-        <v>1.271248943027843</v>
-      </c>
-      <c r="CS24" t="n">
-        <v>15.13394711205591</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6418,9 +6082,15 @@
       <c r="T25" t="n">
         <v>23.25115346773061</v>
       </c>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="U25" t="n">
+        <v>33.3474469014613</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4.23007394976123</v>
+      </c>
+      <c r="W25" t="n">
+        <v>33.61466555636437</v>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
@@ -6446,9 +6116,15 @@
       <c r="AH25" t="n">
         <v>23.36685925423714</v>
       </c>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AI25" t="n">
+        <v>32.90829705821609</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>4.800799175681316</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>33.25663374421735</v>
+      </c>
       <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
@@ -6474,9 +6150,15 @@
       <c r="AV25" t="n">
         <v>22.96622776409792</v>
       </c>
-      <c r="AW25" t="inlineStr"/>
-      <c r="AX25" t="inlineStr"/>
-      <c r="AY25" t="inlineStr"/>
+      <c r="AW25" t="n">
+        <v>32.70572761259246</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>6.725932846923064</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>33.39016009740612</v>
+      </c>
       <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="inlineStr"/>
       <c r="BB25" t="inlineStr"/>
@@ -6502,9 +6184,15 @@
       <c r="BJ25" t="n">
         <v>24.02078399348507</v>
       </c>
-      <c r="BK25" t="inlineStr"/>
-      <c r="BL25" t="inlineStr"/>
-      <c r="BM25" t="inlineStr"/>
+      <c r="BK25" t="n">
+        <v>34.73185539787448</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>6.875544528369401</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>35.40585957070459</v>
+      </c>
       <c r="BN25" t="inlineStr"/>
       <c r="BO25" t="inlineStr"/>
       <c r="BP25" t="inlineStr"/>
@@ -6549,42 +6237,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH25" t="n">
-        <v>33.3474469014613</v>
-      </c>
-      <c r="CI25" t="n">
-        <v>4.23007394976123</v>
-      </c>
-      <c r="CJ25" t="n">
-        <v>33.61466555636437</v>
-      </c>
-      <c r="CK25" t="n">
-        <v>32.90829705821609</v>
-      </c>
-      <c r="CL25" t="n">
-        <v>4.800799175681316</v>
-      </c>
-      <c r="CM25" t="n">
-        <v>33.25663374421735</v>
-      </c>
-      <c r="CN25" t="n">
-        <v>32.70572761259246</v>
-      </c>
-      <c r="CO25" t="n">
-        <v>6.725932846923064</v>
-      </c>
-      <c r="CP25" t="n">
-        <v>33.39016009740612</v>
-      </c>
-      <c r="CQ25" t="n">
-        <v>34.73185539787448</v>
-      </c>
-      <c r="CR25" t="n">
-        <v>6.875544528369401</v>
-      </c>
-      <c r="CS25" t="n">
-        <v>35.40585957070459</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6659,9 +6311,15 @@
       <c r="T26" t="n">
         <v>13.56201040375231</v>
       </c>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>19.26080677684122</v>
+      </c>
+      <c r="V26" t="n">
+        <v>7.09553190319637</v>
+      </c>
+      <c r="W26" t="n">
+        <v>20.52620887266059</v>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
@@ -6687,9 +6345,15 @@
       <c r="AH26" t="n">
         <v>13.44914225260243</v>
       </c>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
+      <c r="AI26" t="n">
+        <v>19.2239395461952</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>7.553887633737646</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>20.65480743214281</v>
+      </c>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
@@ -6715,9 +6379,15 @@
       <c r="AV26" t="n">
         <v>13.02292395320358</v>
       </c>
-      <c r="AW26" t="inlineStr"/>
-      <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="inlineStr"/>
+      <c r="AW26" t="n">
+        <v>18.47183650077565</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0.6540528275786419</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>18.48341226106941</v>
+      </c>
       <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="inlineStr"/>
       <c r="BB26" t="inlineStr"/>
@@ -6743,9 +6413,15 @@
       <c r="BJ26" t="n">
         <v>13.06660152462662</v>
       </c>
-      <c r="BK26" t="inlineStr"/>
-      <c r="BL26" t="inlineStr"/>
-      <c r="BM26" t="inlineStr"/>
+      <c r="BK26" t="n">
+        <v>18.54698517006868</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0.7342951501739929</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>18.56151524704589</v>
+      </c>
       <c r="BN26" t="inlineStr"/>
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="inlineStr"/>
@@ -6792,42 +6468,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH26" t="n">
-        <v>19.26080677684122</v>
-      </c>
-      <c r="CI26" t="n">
-        <v>7.09553190319637</v>
-      </c>
-      <c r="CJ26" t="n">
-        <v>20.52620887266059</v>
-      </c>
-      <c r="CK26" t="n">
-        <v>19.2239395461952</v>
-      </c>
-      <c r="CL26" t="n">
-        <v>7.553887633737646</v>
-      </c>
-      <c r="CM26" t="n">
-        <v>20.65480743214281</v>
-      </c>
-      <c r="CN26" t="n">
-        <v>18.47183650077565</v>
-      </c>
-      <c r="CO26" t="n">
-        <v>0.6540528275786419</v>
-      </c>
-      <c r="CP26" t="n">
-        <v>18.48341226106941</v>
-      </c>
-      <c r="CQ26" t="n">
-        <v>18.54698517006868</v>
-      </c>
-      <c r="CR26" t="n">
-        <v>0.7342951501739929</v>
-      </c>
-      <c r="CS26" t="n">
-        <v>18.56151524704589</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6902,9 +6542,15 @@
       <c r="T27" t="n">
         <v>7.540967005633498</v>
       </c>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="U27" t="n">
+        <v>10.61296605197684</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.22664863023173</v>
+      </c>
+      <c r="W27" t="n">
+        <v>10.68361901616032</v>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
@@ -6930,9 +6576,15 @@
       <c r="AH27" t="n">
         <v>7.540237899795808</v>
       </c>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
+      <c r="AI27" t="n">
+        <v>10.75835372866533</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.423375180069278</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>10.85210448965197</v>
+      </c>
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
@@ -6958,9 +6610,15 @@
       <c r="AV27" t="n">
         <v>4.248700833141289</v>
       </c>
-      <c r="AW27" t="inlineStr"/>
-      <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="inlineStr"/>
+      <c r="AW27" t="n">
+        <v>5.898675951668745</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0.375482977348191</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>5.910614642240976</v>
+      </c>
       <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr"/>
       <c r="BB27" t="inlineStr"/>
@@ -6986,9 +6644,15 @@
       <c r="BJ27" t="n">
         <v>4.554548485069777</v>
       </c>
-      <c r="BK27" t="inlineStr"/>
-      <c r="BL27" t="inlineStr"/>
-      <c r="BM27" t="inlineStr"/>
+      <c r="BK27" t="n">
+        <v>6.470487638735145</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>0.5612813138437913</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>6.494786139380921</v>
+      </c>
       <c r="BN27" t="inlineStr"/>
       <c r="BO27" t="inlineStr"/>
       <c r="BP27" t="inlineStr"/>
@@ -7035,42 +6699,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH27" t="n">
-        <v>10.61296605197684</v>
-      </c>
-      <c r="CI27" t="n">
-        <v>1.22664863023173</v>
-      </c>
-      <c r="CJ27" t="n">
-        <v>10.68361901616032</v>
-      </c>
-      <c r="CK27" t="n">
-        <v>10.75835372866533</v>
-      </c>
-      <c r="CL27" t="n">
-        <v>1.423375180069278</v>
-      </c>
-      <c r="CM27" t="n">
-        <v>10.85210448965197</v>
-      </c>
-      <c r="CN27" t="n">
-        <v>5.898675951668745</v>
-      </c>
-      <c r="CO27" t="n">
-        <v>0.375482977348191</v>
-      </c>
-      <c r="CP27" t="n">
-        <v>5.910614642240976</v>
-      </c>
-      <c r="CQ27" t="n">
-        <v>6.470487638735145</v>
-      </c>
-      <c r="CR27" t="n">
-        <v>0.5612813138437913</v>
-      </c>
-      <c r="CS27" t="n">
-        <v>6.494786139380921</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7145,9 +6773,15 @@
       <c r="T28" t="n">
         <v>7.690591781000195</v>
       </c>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="U28" t="n">
+        <v>10.8516935103387</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.5308993750885775</v>
+      </c>
+      <c r="W28" t="n">
+        <v>10.8646723921523</v>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
@@ -7173,9 +6807,15 @@
       <c r="AH28" t="n">
         <v>7.593955994407596</v>
       </c>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
+      <c r="AI28" t="n">
+        <v>10.75371449508783</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.59314032914563</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>10.77005992982031</v>
+      </c>
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
@@ -7201,9 +6841,15 @@
       <c r="AV28" t="n">
         <v>7.466071516414555</v>
       </c>
-      <c r="AW28" t="inlineStr"/>
-      <c r="AX28" t="inlineStr"/>
-      <c r="AY28" t="inlineStr"/>
+      <c r="AW28" t="n">
+        <v>10.58145985529158</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0.7225748400828049</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>10.60610235047107</v>
+      </c>
       <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr"/>
       <c r="BB28" t="inlineStr"/>
@@ -7229,9 +6875,15 @@
       <c r="BJ28" t="n">
         <v>7.528930368360067</v>
       </c>
-      <c r="BK28" t="inlineStr"/>
-      <c r="BL28" t="inlineStr"/>
-      <c r="BM28" t="inlineStr"/>
+      <c r="BK28" t="n">
+        <v>10.62434608401123</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>0.6564425912729305</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>10.64460645531256</v>
+      </c>
       <c r="BN28" t="inlineStr"/>
       <c r="BO28" t="inlineStr"/>
       <c r="BP28" t="inlineStr"/>
@@ -7276,42 +6928,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH28" t="n">
-        <v>10.8516935103387</v>
-      </c>
-      <c r="CI28" t="n">
-        <v>0.5308993750885775</v>
-      </c>
-      <c r="CJ28" t="n">
-        <v>10.8646723921523</v>
-      </c>
-      <c r="CK28" t="n">
-        <v>10.75371449508783</v>
-      </c>
-      <c r="CL28" t="n">
-        <v>0.59314032914563</v>
-      </c>
-      <c r="CM28" t="n">
-        <v>10.77005992982031</v>
-      </c>
-      <c r="CN28" t="n">
-        <v>10.58145985529158</v>
-      </c>
-      <c r="CO28" t="n">
-        <v>0.7225748400828049</v>
-      </c>
-      <c r="CP28" t="n">
-        <v>10.60610235047107</v>
-      </c>
-      <c r="CQ28" t="n">
-        <v>10.62434608401123</v>
-      </c>
-      <c r="CR28" t="n">
-        <v>0.6564425912729305</v>
-      </c>
-      <c r="CS28" t="n">
-        <v>10.64460645531256</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7386,9 +7002,15 @@
       <c r="T29" t="n">
         <v>8.792347874454222</v>
       </c>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="U29" t="n">
+        <v>12.46922871299998</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.330795364031901</v>
+      </c>
+      <c r="W29" t="n">
+        <v>12.54004310192082</v>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
@@ -7414,9 +7036,15 @@
       <c r="AH29" t="n">
         <v>9.109897994042084</v>
       </c>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
+      <c r="AI29" t="n">
+        <v>12.92493263270828</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.782756732117341</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>13.04730259961641</v>
+      </c>
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
@@ -7442,9 +7070,15 @@
       <c r="AV29" t="n">
         <v>8.860677051331345</v>
       </c>
-      <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="inlineStr"/>
+      <c r="AW29" t="n">
+        <v>12.56353219686549</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0.328204914792837</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>12.56781841561096</v>
+      </c>
       <c r="AZ29" t="inlineStr"/>
       <c r="BA29" t="inlineStr"/>
       <c r="BB29" t="inlineStr"/>
@@ -7470,9 +7104,15 @@
       <c r="BJ29" t="n">
         <v>8.836987486495156</v>
       </c>
-      <c r="BK29" t="inlineStr"/>
-      <c r="BL29" t="inlineStr"/>
-      <c r="BM29" t="inlineStr"/>
+      <c r="BK29" t="n">
+        <v>12.52799480894186</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>0.2542552703701081</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>12.53057459478157</v>
+      </c>
       <c r="BN29" t="inlineStr"/>
       <c r="BO29" t="inlineStr"/>
       <c r="BP29" t="inlineStr"/>
@@ -7519,42 +7159,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH29" t="n">
-        <v>12.46922871299998</v>
-      </c>
-      <c r="CI29" t="n">
-        <v>1.330795364031901</v>
-      </c>
-      <c r="CJ29" t="n">
-        <v>12.54004310192082</v>
-      </c>
-      <c r="CK29" t="n">
-        <v>12.92493263270828</v>
-      </c>
-      <c r="CL29" t="n">
-        <v>1.782756732117341</v>
-      </c>
-      <c r="CM29" t="n">
-        <v>13.04730259961641</v>
-      </c>
-      <c r="CN29" t="n">
-        <v>12.56353219686549</v>
-      </c>
-      <c r="CO29" t="n">
-        <v>0.328204914792837</v>
-      </c>
-      <c r="CP29" t="n">
-        <v>12.56781841561096</v>
-      </c>
-      <c r="CQ29" t="n">
-        <v>12.52799480894186</v>
-      </c>
-      <c r="CR29" t="n">
-        <v>0.2542552703701081</v>
-      </c>
-      <c r="CS29" t="n">
-        <v>12.53057459478157</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7629,9 +7233,15 @@
       <c r="T30" t="n">
         <v>8.908867035344221</v>
       </c>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="U30" t="n">
+        <v>12.64542428680417</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.2325056750588981</v>
+      </c>
+      <c r="W30" t="n">
+        <v>12.64756159432447</v>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -7657,9 +7267,15 @@
       <c r="AH30" t="n">
         <v>9.226775280960016</v>
       </c>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
+      <c r="AI30" t="n">
+        <v>13.0945705339437</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.2635887746578323</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>13.09722323664647</v>
+      </c>
       <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
@@ -7685,9 +7301,15 @@
       <c r="AV30" t="n">
         <v>8.98613941993084</v>
       </c>
-      <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
+      <c r="AW30" t="n">
+        <v>12.74586864168819</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0.274045618139514</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>12.74881439318935</v>
+      </c>
       <c r="AZ30" t="inlineStr"/>
       <c r="BA30" t="inlineStr"/>
       <c r="BB30" t="inlineStr"/>
@@ -7713,9 +7335,15 @@
       <c r="BJ30" t="n">
         <v>9.006980093241857</v>
       </c>
-      <c r="BK30" t="inlineStr"/>
-      <c r="BL30" t="inlineStr"/>
-      <c r="BM30" t="inlineStr"/>
+      <c r="BK30" t="n">
+        <v>12.77731371847325</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>0.2385831623298819</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>12.77954098493494</v>
+      </c>
       <c r="BN30" t="inlineStr"/>
       <c r="BO30" t="inlineStr"/>
       <c r="BP30" t="inlineStr"/>
@@ -7760,42 +7388,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH30" t="n">
-        <v>12.64542428680417</v>
-      </c>
-      <c r="CI30" t="n">
-        <v>0.2325056750588981</v>
-      </c>
-      <c r="CJ30" t="n">
-        <v>12.64756159432447</v>
-      </c>
-      <c r="CK30" t="n">
-        <v>13.0945705339437</v>
-      </c>
-      <c r="CL30" t="n">
-        <v>0.2635887746578323</v>
-      </c>
-      <c r="CM30" t="n">
-        <v>13.09722323664647</v>
-      </c>
-      <c r="CN30" t="n">
-        <v>12.74586864168819</v>
-      </c>
-      <c r="CO30" t="n">
-        <v>0.274045618139514</v>
-      </c>
-      <c r="CP30" t="n">
-        <v>12.74881439318935</v>
-      </c>
-      <c r="CQ30" t="n">
-        <v>12.77731371847325</v>
-      </c>
-      <c r="CR30" t="n">
-        <v>0.2385831623298819</v>
-      </c>
-      <c r="CS30" t="n">
-        <v>12.77954098493494</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7870,9 +7462,15 @@
       <c r="T31" t="n">
         <v>7.383466814808639</v>
       </c>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="U31" t="n">
+        <v>10.38617110185475</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.31350191046523</v>
+      </c>
+      <c r="W31" t="n">
+        <v>10.46889857749126</v>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
@@ -7898,9 +7496,15 @@
       <c r="AH31" t="n">
         <v>7.378952843544293</v>
       </c>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
+      <c r="AI31" t="n">
+        <v>10.42140381554626</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.535585464421644</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>10.53392995065114</v>
+      </c>
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
@@ -7926,9 +7530,15 @@
       <c r="AV31" t="n">
         <v>4.441600203086697</v>
       </c>
-      <c r="AW31" t="inlineStr"/>
-      <c r="AX31" t="inlineStr"/>
-      <c r="AY31" t="inlineStr"/>
+      <c r="AW31" t="n">
+        <v>6.261559944098552</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0.4852879218288415</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>6.28033735563723</v>
+      </c>
       <c r="AZ31" t="inlineStr"/>
       <c r="BA31" t="inlineStr"/>
       <c r="BB31" t="inlineStr"/>
@@ -7954,9 +7564,15 @@
       <c r="BJ31" t="n">
         <v>4.580919575453757</v>
       </c>
-      <c r="BK31" t="inlineStr"/>
-      <c r="BL31" t="inlineStr"/>
-      <c r="BM31" t="inlineStr"/>
+      <c r="BK31" t="n">
+        <v>6.469208691261317</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>0.5210263937134095</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>6.490156361293383</v>
+      </c>
       <c r="BN31" t="inlineStr"/>
       <c r="BO31" t="inlineStr"/>
       <c r="BP31" t="inlineStr"/>
@@ -8003,42 +7619,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH31" t="n">
-        <v>10.38617110185475</v>
-      </c>
-      <c r="CI31" t="n">
-        <v>1.31350191046523</v>
-      </c>
-      <c r="CJ31" t="n">
-        <v>10.46889857749126</v>
-      </c>
-      <c r="CK31" t="n">
-        <v>10.42140381554626</v>
-      </c>
-      <c r="CL31" t="n">
-        <v>1.535585464421644</v>
-      </c>
-      <c r="CM31" t="n">
-        <v>10.53392995065114</v>
-      </c>
-      <c r="CN31" t="n">
-        <v>6.261559944098552</v>
-      </c>
-      <c r="CO31" t="n">
-        <v>0.4852879218288415</v>
-      </c>
-      <c r="CP31" t="n">
-        <v>6.28033735563723</v>
-      </c>
-      <c r="CQ31" t="n">
-        <v>6.469208691261317</v>
-      </c>
-      <c r="CR31" t="n">
-        <v>0.5210263937134095</v>
-      </c>
-      <c r="CS31" t="n">
-        <v>6.490156361293383</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8113,9 +7693,15 @@
       <c r="T32" t="n">
         <v>13.42529659501297</v>
       </c>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="U32" t="n">
+        <v>19.12810293035724</v>
+      </c>
+      <c r="V32" t="n">
+        <v>6.635190742057468</v>
+      </c>
+      <c r="W32" t="n">
+        <v>20.246236141511</v>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
@@ -8141,9 +7727,15 @@
       <c r="AH32" t="n">
         <v>13.45143580592305</v>
       </c>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
+      <c r="AI32" t="n">
+        <v>19.28789083536696</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>7.343209044686362</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>20.63844596744136</v>
+      </c>
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
@@ -8169,9 +7761,15 @@
       <c r="AV32" t="n">
         <v>13.04115462211826</v>
       </c>
-      <c r="AW32" t="inlineStr"/>
-      <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="inlineStr"/>
+      <c r="AW32" t="n">
+        <v>18.46967705372995</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0.6668000035604743</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>18.48170968048754</v>
+      </c>
       <c r="AZ32" t="inlineStr"/>
       <c r="BA32" t="inlineStr"/>
       <c r="BB32" t="inlineStr"/>
@@ -8197,9 +7795,15 @@
       <c r="BJ32" t="n">
         <v>13.09858908799462</v>
       </c>
-      <c r="BK32" t="inlineStr"/>
-      <c r="BL32" t="inlineStr"/>
-      <c r="BM32" t="inlineStr"/>
+      <c r="BK32" t="n">
+        <v>18.56092913824942</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>0.7804925062526448</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>18.57733185975406</v>
+      </c>
       <c r="BN32" t="inlineStr"/>
       <c r="BO32" t="inlineStr"/>
       <c r="BP32" t="inlineStr"/>
@@ -8246,42 +7850,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH32" t="n">
-        <v>19.12810293035724</v>
-      </c>
-      <c r="CI32" t="n">
-        <v>6.635190742057468</v>
-      </c>
-      <c r="CJ32" t="n">
-        <v>20.246236141511</v>
-      </c>
-      <c r="CK32" t="n">
-        <v>19.28789083536696</v>
-      </c>
-      <c r="CL32" t="n">
-        <v>7.343209044686362</v>
-      </c>
-      <c r="CM32" t="n">
-        <v>20.63844596744136</v>
-      </c>
-      <c r="CN32" t="n">
-        <v>18.46967705372995</v>
-      </c>
-      <c r="CO32" t="n">
-        <v>0.6668000035604743</v>
-      </c>
-      <c r="CP32" t="n">
-        <v>18.48170968048754</v>
-      </c>
-      <c r="CQ32" t="n">
-        <v>18.56092913824942</v>
-      </c>
-      <c r="CR32" t="n">
-        <v>0.7804925062526448</v>
-      </c>
-      <c r="CS32" t="n">
-        <v>18.57733185975406</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8356,9 +7924,15 @@
       <c r="T33" t="n">
         <v>13.38318516956701</v>
       </c>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="U33" t="n">
+        <v>19.04602615504421</v>
+      </c>
+      <c r="V33" t="n">
+        <v>6.366628815306812</v>
+      </c>
+      <c r="W33" t="n">
+        <v>20.08195893757686</v>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
@@ -8384,9 +7958,15 @@
       <c r="AH33" t="n">
         <v>13.25047513121575</v>
       </c>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
+      <c r="AI33" t="n">
+        <v>18.79376451639407</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>7.15762694146227</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>20.11062426009743</v>
+      </c>
       <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
@@ -8412,9 +7992,15 @@
       <c r="AV33" t="n">
         <v>13.31033607253601</v>
       </c>
-      <c r="AW33" t="inlineStr"/>
-      <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="inlineStr"/>
+      <c r="AW33" t="n">
+        <v>19.49921304768382</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>11.42938844019201</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>22.60199614184016</v>
+      </c>
       <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="inlineStr"/>
       <c r="BB33" t="inlineStr"/>
@@ -8440,9 +8026,15 @@
       <c r="BJ33" t="n">
         <v>13.48699934097751</v>
       </c>
-      <c r="BK33" t="inlineStr"/>
-      <c r="BL33" t="inlineStr"/>
-      <c r="BM33" t="inlineStr"/>
+      <c r="BK33" t="n">
+        <v>20.0057654510957</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>11.3929696620031</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>23.02238929832387</v>
+      </c>
       <c r="BN33" t="inlineStr"/>
       <c r="BO33" t="inlineStr"/>
       <c r="BP33" t="inlineStr"/>
@@ -8487,42 +8079,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH33" t="n">
-        <v>19.04602615504421</v>
-      </c>
-      <c r="CI33" t="n">
-        <v>6.366628815306812</v>
-      </c>
-      <c r="CJ33" t="n">
-        <v>20.08195893757686</v>
-      </c>
-      <c r="CK33" t="n">
-        <v>18.79376451639407</v>
-      </c>
-      <c r="CL33" t="n">
-        <v>7.15762694146227</v>
-      </c>
-      <c r="CM33" t="n">
-        <v>20.11062426009743</v>
-      </c>
-      <c r="CN33" t="n">
-        <v>19.49921304768382</v>
-      </c>
-      <c r="CO33" t="n">
-        <v>11.42938844019201</v>
-      </c>
-      <c r="CP33" t="n">
-        <v>22.60199614184016</v>
-      </c>
-      <c r="CQ33" t="n">
-        <v>20.0057654510957</v>
-      </c>
-      <c r="CR33" t="n">
-        <v>11.3929696620031</v>
-      </c>
-      <c r="CS33" t="n">
-        <v>23.02238929832387</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8597,9 +8153,15 @@
       <c r="T34" t="n">
         <v>4.454466221289795</v>
       </c>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="U34" t="n">
+        <v>6.320431651998915</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.1348253865121371</v>
+      </c>
+      <c r="W34" t="n">
+        <v>6.321869514031262</v>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
@@ -8625,9 +8187,15 @@
       <c r="AH34" t="n">
         <v>4.680198781131049</v>
       </c>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
+      <c r="AI34" t="n">
+        <v>6.641919964232837</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0.2201757954129031</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>6.645568312203286</v>
+      </c>
       <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
@@ -8653,9 +8221,15 @@
       <c r="AV34" t="n">
         <v>4.552616062966293</v>
       </c>
-      <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
+      <c r="AW34" t="n">
+        <v>6.456151565083335</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0.1388423646828674</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>6.457644325414549</v>
+      </c>
       <c r="AZ34" t="inlineStr"/>
       <c r="BA34" t="inlineStr"/>
       <c r="BB34" t="inlineStr"/>
@@ -8681,9 +8255,15 @@
       <c r="BJ34" t="n">
         <v>4.576398884999122</v>
       </c>
-      <c r="BK34" t="inlineStr"/>
-      <c r="BL34" t="inlineStr"/>
-      <c r="BM34" t="inlineStr"/>
+      <c r="BK34" t="n">
+        <v>6.492042643738744</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>0.1324384246073921</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>6.493393382849589</v>
+      </c>
       <c r="BN34" t="inlineStr"/>
       <c r="BO34" t="inlineStr"/>
       <c r="BP34" t="inlineStr"/>
@@ -8728,42 +8308,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH34" t="n">
-        <v>6.320431651998915</v>
-      </c>
-      <c r="CI34" t="n">
-        <v>0.1348253865121371</v>
-      </c>
-      <c r="CJ34" t="n">
-        <v>6.321869514031262</v>
-      </c>
-      <c r="CK34" t="n">
-        <v>6.641919964232837</v>
-      </c>
-      <c r="CL34" t="n">
-        <v>0.2201757954129031</v>
-      </c>
-      <c r="CM34" t="n">
-        <v>6.645568312203286</v>
-      </c>
-      <c r="CN34" t="n">
-        <v>6.456151565083335</v>
-      </c>
-      <c r="CO34" t="n">
-        <v>0.1388423646828674</v>
-      </c>
-      <c r="CP34" t="n">
-        <v>6.457644325414549</v>
-      </c>
-      <c r="CQ34" t="n">
-        <v>6.492042643738744</v>
-      </c>
-      <c r="CR34" t="n">
-        <v>0.1324384246073921</v>
-      </c>
-      <c r="CS34" t="n">
-        <v>6.493393382849589</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8838,9 +8382,15 @@
       <c r="T35" t="n">
         <v>15.48367520675542</v>
       </c>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="U35" t="n">
+        <v>21.75817163934667</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.912137297091457</v>
+      </c>
+      <c r="W35" t="n">
+        <v>21.84203063202224</v>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
@@ -8866,9 +8416,15 @@
       <c r="AH35" t="n">
         <v>14.78205383361488</v>
       </c>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
+      <c r="AI35" t="n">
+        <v>21.11891246067513</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>2.210761868202598</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>21.23431024449718</v>
+      </c>
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
@@ -8894,9 +8450,15 @@
       <c r="AV35" t="n">
         <v>10.28683641381718</v>
       </c>
-      <c r="AW35" t="inlineStr"/>
-      <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
+      <c r="AW35" t="n">
+        <v>14.46274159901122</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>1.215378403524657</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>14.51371900043279</v>
+      </c>
       <c r="AZ35" t="inlineStr"/>
       <c r="BA35" t="inlineStr"/>
       <c r="BB35" t="inlineStr"/>
@@ -8922,9 +8484,15 @@
       <c r="BJ35" t="n">
         <v>10.34111586772482</v>
       </c>
-      <c r="BK35" t="inlineStr"/>
-      <c r="BL35" t="inlineStr"/>
-      <c r="BM35" t="inlineStr"/>
+      <c r="BK35" t="n">
+        <v>14.60882867128465</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>1.145096811345087</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>14.65363851929961</v>
+      </c>
       <c r="BN35" t="inlineStr"/>
       <c r="BO35" t="inlineStr"/>
       <c r="BP35" t="inlineStr"/>
@@ -8971,42 +8539,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH35" t="n">
-        <v>21.75817163934667</v>
-      </c>
-      <c r="CI35" t="n">
-        <v>1.912137297091457</v>
-      </c>
-      <c r="CJ35" t="n">
-        <v>21.84203063202224</v>
-      </c>
-      <c r="CK35" t="n">
-        <v>21.11891246067513</v>
-      </c>
-      <c r="CL35" t="n">
-        <v>2.210761868202598</v>
-      </c>
-      <c r="CM35" t="n">
-        <v>21.23431024449718</v>
-      </c>
-      <c r="CN35" t="n">
-        <v>14.46274159901122</v>
-      </c>
-      <c r="CO35" t="n">
-        <v>1.215378403524657</v>
-      </c>
-      <c r="CP35" t="n">
-        <v>14.51371900043279</v>
-      </c>
-      <c r="CQ35" t="n">
-        <v>14.60882867128465</v>
-      </c>
-      <c r="CR35" t="n">
-        <v>1.145096811345087</v>
-      </c>
-      <c r="CS35" t="n">
-        <v>14.65363851929961</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9081,9 +8613,15 @@
       <c r="T36" t="n">
         <v>15.28811701243394</v>
       </c>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="U36" t="n">
+        <v>21.61919661064841</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.174763687297187</v>
+      </c>
+      <c r="W36" t="n">
+        <v>21.65109077646813</v>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
@@ -9109,9 +8647,15 @@
       <c r="AH36" t="n">
         <v>15.09444975330617</v>
       </c>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
+      <c r="AI36" t="n">
+        <v>21.44484372008665</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.8097797774492769</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>21.46012734041683</v>
+      </c>
       <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
@@ -9137,9 +8681,15 @@
       <c r="AV36" t="n">
         <v>14.91330958746181</v>
       </c>
-      <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="inlineStr"/>
+      <c r="AW36" t="n">
+        <v>21.02525614993583</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0.839782951700883</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>21.04202061533972</v>
+      </c>
       <c r="AZ36" t="inlineStr"/>
       <c r="BA36" t="inlineStr"/>
       <c r="BB36" t="inlineStr"/>
@@ -9165,9 +8715,15 @@
       <c r="BJ36" t="n">
         <v>14.92392736518003</v>
       </c>
-      <c r="BK36" t="inlineStr"/>
-      <c r="BL36" t="inlineStr"/>
-      <c r="BM36" t="inlineStr"/>
+      <c r="BK36" t="n">
+        <v>21.02126125382789</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>1.315133200057129</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>21.06235979266279</v>
+      </c>
       <c r="BN36" t="inlineStr"/>
       <c r="BO36" t="inlineStr"/>
       <c r="BP36" t="inlineStr"/>
@@ -9212,42 +8768,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH36" t="n">
-        <v>21.61919661064841</v>
-      </c>
-      <c r="CI36" t="n">
-        <v>1.174763687297187</v>
-      </c>
-      <c r="CJ36" t="n">
-        <v>21.65109077646813</v>
-      </c>
-      <c r="CK36" t="n">
-        <v>21.44484372008665</v>
-      </c>
-      <c r="CL36" t="n">
-        <v>0.8097797774492769</v>
-      </c>
-      <c r="CM36" t="n">
-        <v>21.46012734041683</v>
-      </c>
-      <c r="CN36" t="n">
-        <v>21.02525614993583</v>
-      </c>
-      <c r="CO36" t="n">
-        <v>0.839782951700883</v>
-      </c>
-      <c r="CP36" t="n">
-        <v>21.04202061533972</v>
-      </c>
-      <c r="CQ36" t="n">
-        <v>21.02126125382789</v>
-      </c>
-      <c r="CR36" t="n">
-        <v>1.315133200057129</v>
-      </c>
-      <c r="CS36" t="n">
-        <v>21.06235979266279</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9322,9 +8842,15 @@
       <c r="T37" t="n">
         <v>4.358826818549481</v>
       </c>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="n">
+        <v>6.239769087851587</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.9710191981883275</v>
+      </c>
+      <c r="W37" t="n">
+        <v>6.314871063842755</v>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
@@ -9350,9 +8876,15 @@
       <c r="AH37" t="n">
         <v>4.694313674073984</v>
       </c>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
+      <c r="AI37" t="n">
+        <v>6.736000693219838</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.339901031498878</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>6.867972052452592</v>
+      </c>
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr"/>
@@ -9378,9 +8910,15 @@
       <c r="AV37" t="n">
         <v>4.389219333751486</v>
       </c>
-      <c r="AW37" t="inlineStr"/>
-      <c r="AX37" t="inlineStr"/>
-      <c r="AY37" t="inlineStr"/>
+      <c r="AW37" t="n">
+        <v>6.240565761448488</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0.2148414268738843</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>6.244262795692087</v>
+      </c>
       <c r="AZ37" t="inlineStr"/>
       <c r="BA37" t="inlineStr"/>
       <c r="BB37" t="inlineStr"/>
@@ -9406,9 +8944,15 @@
       <c r="BJ37" t="n">
         <v>4.405335897830579</v>
       </c>
-      <c r="BK37" t="inlineStr"/>
-      <c r="BL37" t="inlineStr"/>
-      <c r="BM37" t="inlineStr"/>
+      <c r="BK37" t="n">
+        <v>6.257473692155243</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>0.199858330166209</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>6.260664530235732</v>
+      </c>
       <c r="BN37" t="inlineStr"/>
       <c r="BO37" t="inlineStr"/>
       <c r="BP37" t="inlineStr"/>
@@ -9455,42 +8999,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH37" t="n">
-        <v>6.239769087851587</v>
-      </c>
-      <c r="CI37" t="n">
-        <v>0.9710191981883275</v>
-      </c>
-      <c r="CJ37" t="n">
-        <v>6.314871063842755</v>
-      </c>
-      <c r="CK37" t="n">
-        <v>6.736000693219838</v>
-      </c>
-      <c r="CL37" t="n">
-        <v>1.339901031498878</v>
-      </c>
-      <c r="CM37" t="n">
-        <v>6.867972052452592</v>
-      </c>
-      <c r="CN37" t="n">
-        <v>6.240565761448488</v>
-      </c>
-      <c r="CO37" t="n">
-        <v>0.2148414268738843</v>
-      </c>
-      <c r="CP37" t="n">
-        <v>6.244262795692087</v>
-      </c>
-      <c r="CQ37" t="n">
-        <v>6.257473692155243</v>
-      </c>
-      <c r="CR37" t="n">
-        <v>0.199858330166209</v>
-      </c>
-      <c r="CS37" t="n">
-        <v>6.260664530235732</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9565,9 +9073,15 @@
       <c r="T38" t="n">
         <v>24.92537442015514</v>
       </c>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+      <c r="U38" t="n">
+        <v>35.64233215852654</v>
+      </c>
+      <c r="V38" t="n">
+        <v>4.296138242833823</v>
+      </c>
+      <c r="W38" t="n">
+        <v>35.90031539555432</v>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
@@ -9593,9 +9107,15 @@
       <c r="AH38" t="n">
         <v>23.52736289917449</v>
       </c>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
+      <c r="AI38" t="n">
+        <v>33.67519402769934</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>4.685193482305975</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>33.99955486134839</v>
+      </c>
       <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr"/>
@@ -9621,9 +9141,15 @@
       <c r="AV38" t="n">
         <v>16.11697083514185</v>
       </c>
-      <c r="AW38" t="inlineStr"/>
-      <c r="AX38" t="inlineStr"/>
-      <c r="AY38" t="inlineStr"/>
+      <c r="AW38" t="n">
+        <v>22.86849188107042</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>1.542513568253386</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>22.92045525339384</v>
+      </c>
       <c r="AZ38" t="inlineStr"/>
       <c r="BA38" t="inlineStr"/>
       <c r="BB38" t="inlineStr"/>
@@ -9649,9 +9175,15 @@
       <c r="BJ38" t="n">
         <v>16.64823230668189</v>
       </c>
-      <c r="BK38" t="inlineStr"/>
-      <c r="BL38" t="inlineStr"/>
-      <c r="BM38" t="inlineStr"/>
+      <c r="BK38" t="n">
+        <v>23.4594452305294</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>1.384870051572866</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>23.50028586174968</v>
+      </c>
       <c r="BN38" t="inlineStr"/>
       <c r="BO38" t="inlineStr"/>
       <c r="BP38" t="inlineStr"/>
@@ -9698,42 +9230,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH38" t="n">
-        <v>35.64233215852654</v>
-      </c>
-      <c r="CI38" t="n">
-        <v>4.296138242833823</v>
-      </c>
-      <c r="CJ38" t="n">
-        <v>35.90031539555432</v>
-      </c>
-      <c r="CK38" t="n">
-        <v>33.67519402769934</v>
-      </c>
-      <c r="CL38" t="n">
-        <v>4.685193482305975</v>
-      </c>
-      <c r="CM38" t="n">
-        <v>33.99955486134839</v>
-      </c>
-      <c r="CN38" t="n">
-        <v>22.86849188107042</v>
-      </c>
-      <c r="CO38" t="n">
-        <v>1.542513568253386</v>
-      </c>
-      <c r="CP38" t="n">
-        <v>22.92045525339384</v>
-      </c>
-      <c r="CQ38" t="n">
-        <v>23.4594452305294</v>
-      </c>
-      <c r="CR38" t="n">
-        <v>1.384870051572866</v>
-      </c>
-      <c r="CS38" t="n">
-        <v>23.50028586174968</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9808,9 +9304,15 @@
       <c r="T39" t="n">
         <v>15.96331727989866</v>
       </c>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="U39" t="n">
+        <v>22.77256802947467</v>
+      </c>
+      <c r="V39" t="n">
+        <v>4.454265078142773</v>
+      </c>
+      <c r="W39" t="n">
+        <v>23.20410162112325</v>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
@@ -9836,9 +9338,15 @@
       <c r="AH39" t="n">
         <v>16.07736408751504</v>
       </c>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
+      <c r="AI39" t="n">
+        <v>22.9600324592481</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>5.044979637087578</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>23.50776276186985</v>
+      </c>
       <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
@@ -9864,9 +9372,15 @@
       <c r="AV39" t="n">
         <v>16.10062391823344</v>
       </c>
-      <c r="AW39" t="inlineStr"/>
-      <c r="AX39" t="inlineStr"/>
-      <c r="AY39" t="inlineStr"/>
+      <c r="AW39" t="n">
+        <v>23.04202248702225</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>5.984791316137853</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>23.80656479608426</v>
+      </c>
       <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr"/>
       <c r="BB39" t="inlineStr"/>
@@ -9892,9 +9406,15 @@
       <c r="BJ39" t="n">
         <v>16.52932744069228</v>
       </c>
-      <c r="BK39" t="inlineStr"/>
-      <c r="BL39" t="inlineStr"/>
-      <c r="BM39" t="inlineStr"/>
+      <c r="BK39" t="n">
+        <v>23.83780326100988</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>6.469689917037136</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>24.70015692122675</v>
+      </c>
       <c r="BN39" t="inlineStr"/>
       <c r="BO39" t="inlineStr"/>
       <c r="BP39" t="inlineStr"/>
@@ -9939,42 +9459,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH39" t="n">
-        <v>22.77256802947467</v>
-      </c>
-      <c r="CI39" t="n">
-        <v>4.454265078142773</v>
-      </c>
-      <c r="CJ39" t="n">
-        <v>23.20410162112325</v>
-      </c>
-      <c r="CK39" t="n">
-        <v>22.9600324592481</v>
-      </c>
-      <c r="CL39" t="n">
-        <v>5.044979637087578</v>
-      </c>
-      <c r="CM39" t="n">
-        <v>23.50776276186985</v>
-      </c>
-      <c r="CN39" t="n">
-        <v>23.04202248702225</v>
-      </c>
-      <c r="CO39" t="n">
-        <v>5.984791316137853</v>
-      </c>
-      <c r="CP39" t="n">
-        <v>23.80656479608426</v>
-      </c>
-      <c r="CQ39" t="n">
-        <v>23.83780326100988</v>
-      </c>
-      <c r="CR39" t="n">
-        <v>6.469689917037136</v>
-      </c>
-      <c r="CS39" t="n">
-        <v>24.70015692122675</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10049,9 +9533,15 @@
       <c r="T40" t="n">
         <v>13.19721520349957</v>
       </c>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="U40" t="n">
+        <v>18.74247884772349</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.503234839904662</v>
+      </c>
+      <c r="W40" t="n">
+        <v>18.80266545842013</v>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
@@ -10077,9 +9567,15 @@
       <c r="AH40" t="n">
         <v>13.71000336232425</v>
       </c>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
+      <c r="AI40" t="n">
+        <v>19.45024998833113</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.577378375609547</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>19.51410636304967</v>
+      </c>
       <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
@@ -10105,9 +9601,15 @@
       <c r="AV40" t="n">
         <v>13.28863116752071</v>
       </c>
-      <c r="AW40" t="inlineStr"/>
-      <c r="AX40" t="inlineStr"/>
-      <c r="AY40" t="inlineStr"/>
+      <c r="AW40" t="n">
+        <v>18.85638890138816</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0.3632498076221276</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>18.85988740218594</v>
+      </c>
       <c r="AZ40" t="inlineStr"/>
       <c r="BA40" t="inlineStr"/>
       <c r="BB40" t="inlineStr"/>
@@ -10133,9 +9635,15 @@
       <c r="BJ40" t="n">
         <v>13.28180690477019</v>
       </c>
-      <c r="BK40" t="inlineStr"/>
-      <c r="BL40" t="inlineStr"/>
-      <c r="BM40" t="inlineStr"/>
+      <c r="BK40" t="n">
+        <v>18.85134616544854</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>0.3348778098684934</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>18.85432033771342</v>
+      </c>
       <c r="BN40" t="inlineStr"/>
       <c r="BO40" t="inlineStr"/>
       <c r="BP40" t="inlineStr"/>
@@ -10182,42 +9690,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH40" t="n">
-        <v>18.74247884772349</v>
-      </c>
-      <c r="CI40" t="n">
-        <v>1.503234839904662</v>
-      </c>
-      <c r="CJ40" t="n">
-        <v>18.80266545842013</v>
-      </c>
-      <c r="CK40" t="n">
-        <v>19.45024998833113</v>
-      </c>
-      <c r="CL40" t="n">
-        <v>1.577378375609547</v>
-      </c>
-      <c r="CM40" t="n">
-        <v>19.51410636304967</v>
-      </c>
-      <c r="CN40" t="n">
-        <v>18.85638890138816</v>
-      </c>
-      <c r="CO40" t="n">
-        <v>0.3632498076221276</v>
-      </c>
-      <c r="CP40" t="n">
-        <v>18.85988740218594</v>
-      </c>
-      <c r="CQ40" t="n">
-        <v>18.85134616544854</v>
-      </c>
-      <c r="CR40" t="n">
-        <v>0.3348778098684934</v>
-      </c>
-      <c r="CS40" t="n">
-        <v>18.85432033771342</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10292,9 +9764,15 @@
       <c r="T41" t="n">
         <v>7.058858935098313</v>
       </c>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="U41" t="n">
+        <v>10.17808179257656</v>
+      </c>
+      <c r="V41" t="n">
+        <v>4.399990381710611</v>
+      </c>
+      <c r="W41" t="n">
+        <v>11.08842929974865</v>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
@@ -10320,9 +9798,15 @@
       <c r="AH41" t="n">
         <v>7.850897937829725</v>
       </c>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
+      <c r="AI41" t="n">
+        <v>11.46078358188049</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>6.15946558106184</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>13.01109436423343</v>
+      </c>
       <c r="AL41" t="inlineStr"/>
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
@@ -10348,9 +9832,15 @@
       <c r="AV41" t="n">
         <v>5.514552322961101</v>
       </c>
-      <c r="AW41" t="inlineStr"/>
-      <c r="AX41" t="inlineStr"/>
-      <c r="AY41" t="inlineStr"/>
+      <c r="AW41" t="n">
+        <v>7.783419585947873</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0.8495520164165172</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>7.829646165665107</v>
+      </c>
       <c r="AZ41" t="inlineStr"/>
       <c r="BA41" t="inlineStr"/>
       <c r="BB41" t="inlineStr"/>
@@ -10376,9 +9866,15 @@
       <c r="BJ41" t="n">
         <v>5.529353619012136</v>
       </c>
-      <c r="BK41" t="inlineStr"/>
-      <c r="BL41" t="inlineStr"/>
-      <c r="BM41" t="inlineStr"/>
+      <c r="BK41" t="n">
+        <v>7.854952624199609</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>0.8409701190906622</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>7.899842496507364</v>
+      </c>
       <c r="BN41" t="inlineStr"/>
       <c r="BO41" t="inlineStr"/>
       <c r="BP41" t="inlineStr"/>
@@ -10425,42 +9921,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH41" t="n">
-        <v>10.17808179257656</v>
-      </c>
-      <c r="CI41" t="n">
-        <v>4.399990381710611</v>
-      </c>
-      <c r="CJ41" t="n">
-        <v>11.08842929974865</v>
-      </c>
-      <c r="CK41" t="n">
-        <v>11.46078358188049</v>
-      </c>
-      <c r="CL41" t="n">
-        <v>6.15946558106184</v>
-      </c>
-      <c r="CM41" t="n">
-        <v>13.01109436423343</v>
-      </c>
-      <c r="CN41" t="n">
-        <v>7.783419585947873</v>
-      </c>
-      <c r="CO41" t="n">
-        <v>0.8495520164165172</v>
-      </c>
-      <c r="CP41" t="n">
-        <v>7.829646165665107</v>
-      </c>
-      <c r="CQ41" t="n">
-        <v>7.854952624199609</v>
-      </c>
-      <c r="CR41" t="n">
-        <v>0.8409701190906622</v>
-      </c>
-      <c r="CS41" t="n">
-        <v>7.899842496507364</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10535,9 +9995,15 @@
       <c r="T42" t="n">
         <v>13.39727899906288</v>
       </c>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+      <c r="U42" t="n">
+        <v>19.00620289485104</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.2909931780955392</v>
+      </c>
+      <c r="W42" t="n">
+        <v>19.0084303799641</v>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
@@ -10563,9 +10029,15 @@
       <c r="AH42" t="n">
         <v>13.83843406621354</v>
       </c>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
+      <c r="AI42" t="n">
+        <v>19.64087490081616</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.2897115949233935</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>19.64301147171033</v>
+      </c>
       <c r="AL42" t="inlineStr"/>
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr"/>
@@ -10591,9 +10063,15 @@
       <c r="AV42" t="n">
         <v>13.59206541655621</v>
       </c>
-      <c r="AW42" t="inlineStr"/>
-      <c r="AX42" t="inlineStr"/>
-      <c r="AY42" t="inlineStr"/>
+      <c r="AW42" t="n">
+        <v>19.28367670486812</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0.3389876936649855</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>19.28665600653285</v>
+      </c>
       <c r="AZ42" t="inlineStr"/>
       <c r="BA42" t="inlineStr"/>
       <c r="BB42" t="inlineStr"/>
@@ -10619,9 +10097,15 @@
       <c r="BJ42" t="n">
         <v>13.58162985680418</v>
       </c>
-      <c r="BK42" t="inlineStr"/>
-      <c r="BL42" t="inlineStr"/>
-      <c r="BM42" t="inlineStr"/>
+      <c r="BK42" t="n">
+        <v>19.27320112662493</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>0.3141606066903892</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>19.27576142605352</v>
+      </c>
       <c r="BN42" t="inlineStr"/>
       <c r="BO42" t="inlineStr"/>
       <c r="BP42" t="inlineStr"/>
@@ -10666,42 +10150,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH42" t="n">
-        <v>19.00620289485104</v>
-      </c>
-      <c r="CI42" t="n">
-        <v>0.2909931780955392</v>
-      </c>
-      <c r="CJ42" t="n">
-        <v>19.0084303799641</v>
-      </c>
-      <c r="CK42" t="n">
-        <v>19.64087490081616</v>
-      </c>
-      <c r="CL42" t="n">
-        <v>0.2897115949233935</v>
-      </c>
-      <c r="CM42" t="n">
-        <v>19.64301147171033</v>
-      </c>
-      <c r="CN42" t="n">
-        <v>19.28367670486812</v>
-      </c>
-      <c r="CO42" t="n">
-        <v>0.3389876936649855</v>
-      </c>
-      <c r="CP42" t="n">
-        <v>19.28665600653285</v>
-      </c>
-      <c r="CQ42" t="n">
-        <v>19.27320112662493</v>
-      </c>
-      <c r="CR42" t="n">
-        <v>0.3141606066903892</v>
-      </c>
-      <c r="CS42" t="n">
-        <v>19.27576142605352</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10776,9 +10224,15 @@
       <c r="T43" t="n">
         <v>4.281881627209044</v>
       </c>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+      <c r="U43" t="n">
+        <v>6.291286048484499</v>
+      </c>
+      <c r="V43" t="n">
+        <v>6.249438988397257</v>
+      </c>
+      <c r="W43" t="n">
+        <v>8.867681084339662</v>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
@@ -10804,9 +10258,15 @@
       <c r="AH43" t="n">
         <v>4.558043224275926</v>
       </c>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
+      <c r="AI43" t="n">
+        <v>6.837436448686042</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>8.328695668393456</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>10.77579271917089</v>
+      </c>
       <c r="AL43" t="inlineStr"/>
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr"/>
@@ -10832,9 +10292,15 @@
       <c r="AV43" t="n">
         <v>4.472087168347905</v>
       </c>
-      <c r="AW43" t="inlineStr"/>
-      <c r="AX43" t="inlineStr"/>
-      <c r="AY43" t="inlineStr"/>
+      <c r="AW43" t="n">
+        <v>7.348093392675044</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>11.59291280924994</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>13.72552745472268</v>
+      </c>
       <c r="AZ43" t="inlineStr"/>
       <c r="BA43" t="inlineStr"/>
       <c r="BB43" t="inlineStr"/>
@@ -10860,9 +10326,15 @@
       <c r="BJ43" t="n">
         <v>3.982345863960177</v>
       </c>
-      <c r="BK43" t="inlineStr"/>
-      <c r="BL43" t="inlineStr"/>
-      <c r="BM43" t="inlineStr"/>
+      <c r="BK43" t="n">
+        <v>7.221421545072832</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>14.26368714630179</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>15.9875482841872</v>
+      </c>
       <c r="BN43" t="inlineStr"/>
       <c r="BO43" t="inlineStr"/>
       <c r="BP43" t="inlineStr"/>
@@ -10907,42 +10379,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH43" t="n">
-        <v>6.291286048484499</v>
-      </c>
-      <c r="CI43" t="n">
-        <v>6.249438988397257</v>
-      </c>
-      <c r="CJ43" t="n">
-        <v>8.867681084339662</v>
-      </c>
-      <c r="CK43" t="n">
-        <v>6.837436448686042</v>
-      </c>
-      <c r="CL43" t="n">
-        <v>8.328695668393456</v>
-      </c>
-      <c r="CM43" t="n">
-        <v>10.77579271917089</v>
-      </c>
-      <c r="CN43" t="n">
-        <v>7.348093392675044</v>
-      </c>
-      <c r="CO43" t="n">
-        <v>11.59291280924994</v>
-      </c>
-      <c r="CP43" t="n">
-        <v>13.72552745472268</v>
-      </c>
-      <c r="CQ43" t="n">
-        <v>7.221421545072832</v>
-      </c>
-      <c r="CR43" t="n">
-        <v>14.26368714630179</v>
-      </c>
-      <c r="CS43" t="n">
-        <v>15.9875482841872</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11017,9 +10453,15 @@
       <c r="T44" t="n">
         <v>8.869884909886459</v>
       </c>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="U44" t="n">
+        <v>12.62322122891813</v>
+      </c>
+      <c r="V44" t="n">
+        <v>6.801407426826058</v>
+      </c>
+      <c r="W44" t="n">
+        <v>14.33892803454617</v>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
@@ -11045,9 +10487,15 @@
       <c r="AH44" t="n">
         <v>8.952608492266558</v>
       </c>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr"/>
+      <c r="AI44" t="n">
+        <v>12.83454150472009</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>8.097236815148516</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>15.17533194618751</v>
+      </c>
       <c r="AL44" t="inlineStr"/>
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr"/>
@@ -11073,9 +10521,15 @@
       <c r="AV44" t="n">
         <v>8.651077282197946</v>
       </c>
-      <c r="AW44" t="inlineStr"/>
-      <c r="AX44" t="inlineStr"/>
-      <c r="AY44" t="inlineStr"/>
+      <c r="AW44" t="n">
+        <v>12.29163819022871</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0.6204918010209992</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>12.30728968841731</v>
+      </c>
       <c r="AZ44" t="inlineStr"/>
       <c r="BA44" t="inlineStr"/>
       <c r="BB44" t="inlineStr"/>
@@ -11101,9 +10555,15 @@
       <c r="BJ44" t="n">
         <v>8.658321476792</v>
       </c>
-      <c r="BK44" t="inlineStr"/>
-      <c r="BL44" t="inlineStr"/>
-      <c r="BM44" t="inlineStr"/>
+      <c r="BK44" t="n">
+        <v>12.33087458204132</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>0.6914653873928602</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>12.35024665097807</v>
+      </c>
       <c r="BN44" t="inlineStr"/>
       <c r="BO44" t="inlineStr"/>
       <c r="BP44" t="inlineStr"/>
@@ -11150,42 +10610,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="CH44" t="n">
-        <v>12.62322122891813</v>
-      </c>
-      <c r="CI44" t="n">
-        <v>6.801407426826058</v>
-      </c>
-      <c r="CJ44" t="n">
-        <v>14.33892803454617</v>
-      </c>
-      <c r="CK44" t="n">
-        <v>12.83454150472009</v>
-      </c>
-      <c r="CL44" t="n">
-        <v>8.097236815148516</v>
-      </c>
-      <c r="CM44" t="n">
-        <v>15.17533194618751</v>
-      </c>
-      <c r="CN44" t="n">
-        <v>12.29163819022871</v>
-      </c>
-      <c r="CO44" t="n">
-        <v>0.6204918010209992</v>
-      </c>
-      <c r="CP44" t="n">
-        <v>12.30728968841731</v>
-      </c>
-      <c r="CQ44" t="n">
-        <v>12.33087458204132</v>
-      </c>
-      <c r="CR44" t="n">
-        <v>0.6914653873928602</v>
-      </c>
-      <c r="CS44" t="n">
-        <v>12.35024665097807</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
+++ b/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DK44"/>
+  <dimension ref="A1:DA44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,56 +947,6 @@
           <t>PROCESSED_folder</t>
         </is>
       </c>
-      <c r="DB1" t="inlineStr">
-        <is>
-          <t>Wavenumber</t>
-        </is>
-      </c>
-      <c r="DC1" t="inlineStr">
-        <is>
-          <t>Wavelength</t>
-        </is>
-      </c>
-      <c r="DD1" t="inlineStr">
-        <is>
-          <t>kL</t>
-        </is>
-      </c>
-      <c r="DE1" t="inlineStr">
-        <is>
-          <t>ak</t>
-        </is>
-      </c>
-      <c r="DF1" t="inlineStr">
-        <is>
-          <t>kH</t>
-        </is>
-      </c>
-      <c r="DG1" t="inlineStr">
-        <is>
-          <t>tanh(kH)</t>
-        </is>
-      </c>
-      <c r="DH1" t="inlineStr">
-        <is>
-          <t>Celerity</t>
-        </is>
-      </c>
-      <c r="DI1" t="inlineStr">
-        <is>
-          <t>P2/P1</t>
-        </is>
-      </c>
-      <c r="DJ1" t="inlineStr">
-        <is>
-          <t>P3/P2</t>
-        </is>
-      </c>
-      <c r="DK1" t="inlineStr">
-        <is>
-          <t>P4/P3</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1056,30 +1006,14 @@
       <c r="O2" t="n">
         <v>268.91</v>
       </c>
-      <c r="P2" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R2" t="n">
-        <v>23.95</v>
-      </c>
-      <c r="S2" t="n">
-        <v>22.33334717529972</v>
-      </c>
-      <c r="T2" t="n">
-        <v>22.29814616572832</v>
-      </c>
-      <c r="U2" t="n">
-        <v>31.5749102290627</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.165889323560937</v>
-      </c>
-      <c r="W2" t="n">
-        <v>31.64910792637422</v>
-      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -1095,30 +1029,14 @@
       <c r="AH2" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI2" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>24.41699999999999</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>22.586527996976</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>22.4985348989687</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>31.86422076333484</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>2.350701749745592</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>31.95081162616681</v>
-      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
@@ -1134,30 +1052,14 @@
       <c r="BA2" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB2" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>23.902</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>21.46127217280442</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>21.82350009309689</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>30.9216598548836</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>3.398206529522445</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>31.10782627890302</v>
-      </c>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="inlineStr"/>
       <c r="BL2" t="inlineStr"/>
@@ -1173,30 +1075,14 @@
       <c r="BT2" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU2" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>25.45499999999998</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>22.50336852559031</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>22.82884087878812</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>32.33825454258428</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>3.020836062958688</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>32.47904181745891</v>
-      </c>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
       <c r="CC2" t="inlineStr"/>
       <c r="CD2" t="inlineStr"/>
       <c r="CE2" t="inlineStr"/>
@@ -1217,9 +1103,7 @@
       <c r="CT2" t="inlineStr"/>
       <c r="CU2" t="inlineStr"/>
       <c r="CV2" t="inlineStr"/>
-      <c r="CW2" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="CW2" t="inlineStr"/>
       <c r="CX2" t="inlineStr"/>
       <c r="CY2" t="inlineStr"/>
       <c r="CZ2" t="inlineStr"/>
@@ -1228,34 +1112,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB2" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD2" t="inlineStr"/>
-      <c r="DE2" t="n">
-        <v>0.166242017140429</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1.011336447675711</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.9501802213991354</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1.048557063364884</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1315,30 +1171,14 @@
       <c r="O3" t="n">
         <v>268.91</v>
       </c>
-      <c r="P3" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R3" t="n">
-        <v>13.88499999999999</v>
-      </c>
-      <c r="S3" t="n">
-        <v>13.30490911183791</v>
-      </c>
-      <c r="T3" t="n">
-        <v>13.33143402922339</v>
-      </c>
-      <c r="U3" t="n">
-        <v>18.8821567652649</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.4116187390544777</v>
-      </c>
-      <c r="W3" t="n">
-        <v>18.88664274280582</v>
-      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
@@ -1354,30 +1194,14 @@
       <c r="AH3" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI3" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>14.20500000000001</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>13.89249341827786</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>13.92192598797444</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>19.71262963342099</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.3316306332282583</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>19.71541898974817</v>
-      </c>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -1393,30 +1217,14 @@
       <c r="BA3" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB3" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>14.245</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>13.47038071587824</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>13.49636058402182</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>19.11420912468244</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0.3749629906690736</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>19.11788659100333</v>
-      </c>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="inlineStr"/>
       <c r="BL3" t="inlineStr"/>
@@ -1432,30 +1240,14 @@
       <c r="BT3" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU3" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>14.20499999999998</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>13.51198486935261</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>13.53893111549311</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>19.17521293691721</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0.2833992403853914</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>19.17730706604992</v>
-      </c>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
       <c r="CC3" t="inlineStr"/>
       <c r="CD3" t="inlineStr"/>
       <c r="CE3" t="inlineStr"/>
@@ -1476,9 +1268,7 @@
       <c r="CT3" t="inlineStr"/>
       <c r="CU3" t="inlineStr"/>
       <c r="CV3" t="inlineStr"/>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
+      <c r="CW3" t="inlineStr"/>
       <c r="CX3" t="inlineStr"/>
       <c r="CY3" t="inlineStr"/>
       <c r="CZ3" t="inlineStr"/>
@@ -1487,36 +1277,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB3" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>5.368376345338416</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>0.02910602518531766</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>1.044162970336802</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>0.9696157709281857</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>1.003088565524012</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1572,12 +1332,8 @@
       <c r="O4" t="n">
         <v>268.91</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>17499</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1599,12 +1355,8 @@
       <c r="AH4" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17499</v>
-      </c>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
@@ -1626,12 +1378,8 @@
       <c r="BA4" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>17499</v>
-      </c>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="inlineStr"/>
@@ -1653,12 +1401,8 @@
       <c r="BT4" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>17499</v>
-      </c>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
       <c r="BW4" t="inlineStr"/>
       <c r="BX4" t="inlineStr"/>
       <c r="BY4" t="inlineStr"/>
@@ -1685,9 +1429,7 @@
       <c r="CT4" t="inlineStr"/>
       <c r="CU4" t="inlineStr"/>
       <c r="CV4" t="inlineStr"/>
-      <c r="CW4" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="CW4" t="inlineStr"/>
       <c r="CX4" t="inlineStr"/>
       <c r="CY4" t="inlineStr"/>
       <c r="CZ4" t="inlineStr"/>
@@ -1696,18 +1438,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC4" t="inlineStr"/>
-      <c r="DD4" t="inlineStr"/>
-      <c r="DE4" t="inlineStr"/>
-      <c r="DF4" t="inlineStr"/>
-      <c r="DG4" t="inlineStr"/>
-      <c r="DH4" t="inlineStr"/>
-      <c r="DI4" t="inlineStr"/>
-      <c r="DJ4" t="inlineStr"/>
-      <c r="DK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1767,30 +1497,14 @@
       <c r="O5" t="n">
         <v>268.91</v>
       </c>
-      <c r="P5" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R5" t="n">
-        <v>8.384999999999991</v>
-      </c>
-      <c r="S5" t="n">
-        <v>7.263317686766193</v>
-      </c>
-      <c r="T5" t="n">
-        <v>7.273289465886097</v>
-      </c>
-      <c r="U5" t="n">
-        <v>10.30297134117514</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.231739415503675</v>
-      </c>
-      <c r="W5" t="n">
-        <v>10.3763384893122</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -1806,30 +1520,14 @@
       <c r="AH5" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI5" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>8.881625000000025</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>7.356812747546521</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>7.351764603054208</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>10.42369458268262</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1.312083192309073</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>10.50594931724815</v>
-      </c>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1845,30 +1543,14 @@
       <c r="BA5" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB5" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>9.719999999999999</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>7.462442189713257</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>7.394356342484373</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>10.49398090196205</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>2.322397085212573</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>10.74789111370915</v>
-      </c>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="inlineStr"/>
       <c r="BL5" t="inlineStr"/>
@@ -1884,30 +1566,14 @@
       <c r="BT5" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU5" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>9.58350000000001</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>7.738102418968231</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>7.706740956101606</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>10.92353734961151</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>1.932471298954006</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>11.09315615817422</v>
-      </c>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
       <c r="CC5" t="inlineStr"/>
       <c r="CD5" t="inlineStr"/>
       <c r="CE5" t="inlineStr"/>
@@ -1928,9 +1594,7 @@
       <c r="CT5" t="inlineStr"/>
       <c r="CU5" t="inlineStr"/>
       <c r="CV5" t="inlineStr"/>
-      <c r="CW5" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="CW5" t="inlineStr"/>
       <c r="CX5" t="inlineStr"/>
       <c r="CY5" t="inlineStr"/>
       <c r="CZ5" t="inlineStr"/>
@@ -1939,34 +1603,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB5" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD5" t="inlineStr"/>
-      <c r="DE5" t="n">
-        <v>0.06047013373816879</v>
-      </c>
-      <c r="DF5" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG5" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH5" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI5" t="n">
-        <v>1.012872225174823</v>
-      </c>
-      <c r="DJ5" t="n">
-        <v>1.014358044141053</v>
-      </c>
-      <c r="DK5" t="n">
-        <v>1.036939680368307</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2026,30 +1662,14 @@
       <c r="O6" t="n">
         <v>268.91</v>
       </c>
-      <c r="P6" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4.72999999999999</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.426701225155747</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4.435025242291767</v>
-      </c>
-      <c r="U6" t="n">
-        <v>6.279853224653626</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.1496677931864963</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.281636488329285</v>
-      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
@@ -2065,30 +1685,14 @@
       <c r="AH6" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI6" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>4.789999999999964</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>4.663549092469726</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>4.675313602869866</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6.620986534873425</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.2165656494973291</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>6.62452740771124</v>
-      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -2104,30 +1708,14 @@
       <c r="BA6" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB6" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>4.764999999999986</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>4.531016516705192</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>4.541748512041679</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>6.429192359710196</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>0.1435126347056221</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>6.430793907013045</v>
-      </c>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
@@ -2143,30 +1731,14 @@
       <c r="BT6" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU6" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>4.700000000000017</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>4.554868381473166</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>4.565556352975403</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>6.463342160560645</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>0.1253273259303306</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>6.464557125055483</v>
-      </c>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
       <c r="CC6" t="inlineStr"/>
       <c r="CD6" t="inlineStr"/>
       <c r="CE6" t="inlineStr"/>
@@ -2187,9 +1759,7 @@
       <c r="CT6" t="inlineStr"/>
       <c r="CU6" t="inlineStr"/>
       <c r="CV6" t="inlineStr"/>
-      <c r="CW6" t="n">
-        <v>0</v>
-      </c>
+      <c r="CW6" t="inlineStr"/>
       <c r="CX6" t="inlineStr"/>
       <c r="CY6" t="inlineStr"/>
       <c r="CZ6" t="inlineStr"/>
@@ -2198,36 +1768,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB6" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC6" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD6" t="n">
-        <v>5.368376345338416</v>
-      </c>
-      <c r="DE6" t="n">
-        <v>0.009814703318385807</v>
-      </c>
-      <c r="DF6" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG6" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH6" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI6" t="n">
-        <v>1.053504371600242</v>
-      </c>
-      <c r="DJ6" t="n">
-        <v>0.9715811770956726</v>
-      </c>
-      <c r="DK6" t="n">
-        <v>1.005264131057575</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2287,30 +1827,14 @@
       <c r="O7" t="n">
         <v>268.91</v>
       </c>
-      <c r="P7" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R7" t="n">
-        <v>10.22999999999999</v>
-      </c>
-      <c r="S7" t="n">
-        <v>8.820841604675591</v>
-      </c>
-      <c r="T7" t="n">
-        <v>8.837722369684386</v>
-      </c>
-      <c r="U7" t="n">
-        <v>12.53173545866514</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.403182828463338</v>
-      </c>
-      <c r="W7" t="n">
-        <v>12.61004820197209</v>
-      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -2326,30 +1850,14 @@
       <c r="AH7" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI7" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>10.83500000000001</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>9.14801157801171</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>9.179460294854394</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>13.01184761106279</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1.735914716501081</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>13.12713137576087</v>
-      </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
@@ -2365,30 +1873,14 @@
       <c r="BA7" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB7" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>12.42500000000001</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>8.849609062845831</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>8.908871649635664</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>12.63035637149943</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>3.830875608424976</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>13.19854196486497</v>
-      </c>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr"/>
@@ -2404,30 +1896,14 @@
       <c r="BT7" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU7" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>12.80825</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>9.011833287953509</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>9.044280742882972</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>12.82453162515482</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>3.79838747163804</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>13.37521434554576</v>
-      </c>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr"/>
       <c r="CC7" t="inlineStr"/>
       <c r="CD7" t="inlineStr"/>
       <c r="CE7" t="inlineStr"/>
@@ -2448,9 +1924,7 @@
       <c r="CT7" t="inlineStr"/>
       <c r="CU7" t="inlineStr"/>
       <c r="CV7" t="inlineStr"/>
-      <c r="CW7" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="CW7" t="inlineStr"/>
       <c r="CX7" t="inlineStr"/>
       <c r="CY7" t="inlineStr"/>
       <c r="CZ7" t="inlineStr"/>
@@ -2459,34 +1933,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB7" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC7" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD7" t="inlineStr"/>
-      <c r="DE7" t="n">
-        <v>0.02220089988616098</v>
-      </c>
-      <c r="DF7" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG7" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH7" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI7" t="n">
-        <v>1.03709056210268</v>
-      </c>
-      <c r="DJ7" t="n">
-        <v>0.9673806146154074</v>
-      </c>
-      <c r="DK7" t="n">
-        <v>1.018331230674218</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2546,30 +1992,14 @@
       <c r="O8" t="n">
         <v>268.91</v>
       </c>
-      <c r="P8" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R8" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="S8" t="n">
-        <v>14.80286816171208</v>
-      </c>
-      <c r="T8" t="n">
-        <v>14.77570855677073</v>
-      </c>
-      <c r="U8" t="n">
-        <v>20.92274333652263</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.700294275175315</v>
-      </c>
-      <c r="W8" t="n">
-        <v>20.99171716054206</v>
-      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -2585,30 +2015,14 @@
       <c r="AH8" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI8" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>16.63325000000002</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>14.80630604375163</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>14.77281409902235</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>20.93721376874187</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1.576332089285585</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>20.99646978074422</v>
-      </c>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -2624,30 +2038,14 @@
       <c r="BA8" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB8" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>11.69499999999999</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>10.50869146083988</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>10.27557697081952</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>14.5591937730007</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>0.7674082455320661</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>14.57940460838826</v>
-      </c>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr"/>
       <c r="BL8" t="inlineStr"/>
@@ -2663,30 +2061,14 @@
       <c r="BT8" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU8" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>11.95662500000001</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>10.80006534837044</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>10.58892155006444</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>15.00090231385069</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>0.8827956243327167</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>15.02685590348267</v>
-      </c>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr"/>
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="inlineStr"/>
+      <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr"/>
+      <c r="CB8" t="inlineStr"/>
       <c r="CC8" t="inlineStr"/>
       <c r="CD8" t="inlineStr"/>
       <c r="CE8" t="inlineStr"/>
@@ -2707,9 +2089,7 @@
       <c r="CT8" t="inlineStr"/>
       <c r="CU8" t="inlineStr"/>
       <c r="CV8" t="inlineStr"/>
-      <c r="CW8" t="n">
-        <v>0</v>
-      </c>
+      <c r="CW8" t="inlineStr"/>
       <c r="CX8" t="inlineStr"/>
       <c r="CY8" t="inlineStr"/>
       <c r="CZ8" t="inlineStr"/>
@@ -2718,36 +2098,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB8" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC8" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD8" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DE8" t="n">
-        <v>0.1132467146496721</v>
-      </c>
-      <c r="DF8" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG8" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH8" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI8" t="n">
-        <v>1.000232244319276</v>
-      </c>
-      <c r="DJ8" t="n">
-        <v>0.7097443096061512</v>
-      </c>
-      <c r="DK8" t="n">
-        <v>1.027726942846914</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2807,30 +2157,14 @@
       <c r="O9" t="n">
         <v>268.91</v>
       </c>
-      <c r="P9" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5.805000000000007</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.447034070100692</v>
-      </c>
-      <c r="T9" t="n">
-        <v>4.467840408626308</v>
-      </c>
-      <c r="U9" t="n">
-        <v>6.34796524845246</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.197485445933668</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6.459925246377317</v>
-      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -2846,30 +2180,14 @@
       <c r="AH9" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI9" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>6.189999999999969</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>4.534079326201507</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>4.584043024991837</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6.529704442361833</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1.695185258848549</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>6.746161365281539</v>
-      </c>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -2885,30 +2203,14 @@
       <c r="BA9" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB9" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>8.639999999999986</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>4.545460881105915</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>4.595381212169954</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>6.540243940229757</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>3.801849653051665</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>7.564975319333245</v>
-      </c>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="inlineStr"/>
       <c r="BL9" t="inlineStr"/>
@@ -2924,30 +2226,14 @@
       <c r="BT9" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU9" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>8.639999999999986</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>4.449096797466282</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>4.451712595363859</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>6.338141481644243</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>3.896266393148377</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>7.439954922425064</v>
-      </c>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr"/>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr"/>
+      <c r="CB9" t="inlineStr"/>
       <c r="CC9" t="inlineStr"/>
       <c r="CD9" t="inlineStr"/>
       <c r="CE9" t="inlineStr"/>
@@ -2968,9 +2254,7 @@
       <c r="CT9" t="inlineStr"/>
       <c r="CU9" t="inlineStr"/>
       <c r="CV9" t="inlineStr"/>
-      <c r="CW9" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="CW9" t="inlineStr"/>
       <c r="CX9" t="inlineStr"/>
       <c r="CY9" t="inlineStr"/>
       <c r="CZ9" t="inlineStr"/>
@@ -2979,34 +2263,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB9" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC9" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD9" t="inlineStr"/>
-      <c r="DE9" t="n">
-        <v>0.01268330136551322</v>
-      </c>
-      <c r="DF9" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG9" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH9" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI9" t="n">
-        <v>1.019573777652404</v>
-      </c>
-      <c r="DJ9" t="n">
-        <v>1.002510224035701</v>
-      </c>
-      <c r="DK9" t="n">
-        <v>0.9787999311488548</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3066,30 +2322,14 @@
       <c r="O10" t="n">
         <v>268.91</v>
       </c>
-      <c r="P10" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R10" t="n">
-        <v>8.424999999999983</v>
-      </c>
-      <c r="S10" t="n">
-        <v>7.577148929878852</v>
-      </c>
-      <c r="T10" t="n">
-        <v>7.574621618704117</v>
-      </c>
-      <c r="U10" t="n">
-        <v>10.72815171930085</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.7035445869624317</v>
-      </c>
-      <c r="W10" t="n">
-        <v>10.75119594734381</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -3105,30 +2345,14 @@
       <c r="AH10" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI10" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>8.170000000000016</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>7.41551241568062</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>7.419120705999788</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>10.51139480708368</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1.007550800095588</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>10.55957287986398</v>
-      </c>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -3144,30 +2368,14 @@
       <c r="BA10" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB10" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>5.585000000000008</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>5.01806963798105</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>4.981895365107301</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>7.053254211445491</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>0.3787690370225508</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>7.063417087690669</v>
-      </c>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="inlineStr"/>
       <c r="BL10" t="inlineStr"/>
@@ -3183,30 +2391,14 @@
       <c r="BT10" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU10" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>5.760000000000019</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>5.168187162707039</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>5.139884841761524</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>7.277776502562338</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>0.4060380548239098</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>7.289094437803209</v>
-      </c>
+      <c r="BU10" t="inlineStr"/>
+      <c r="BV10" t="inlineStr"/>
+      <c r="BW10" t="inlineStr"/>
+      <c r="BX10" t="inlineStr"/>
+      <c r="BY10" t="inlineStr"/>
+      <c r="BZ10" t="inlineStr"/>
+      <c r="CA10" t="inlineStr"/>
+      <c r="CB10" t="inlineStr"/>
       <c r="CC10" t="inlineStr"/>
       <c r="CD10" t="inlineStr"/>
       <c r="CE10" t="inlineStr"/>
@@ -3227,9 +2419,7 @@
       <c r="CT10" t="inlineStr"/>
       <c r="CU10" t="inlineStr"/>
       <c r="CV10" t="inlineStr"/>
-      <c r="CW10" t="n">
-        <v>0</v>
-      </c>
+      <c r="CW10" t="inlineStr"/>
       <c r="CX10" t="inlineStr"/>
       <c r="CY10" t="inlineStr"/>
       <c r="CZ10" t="inlineStr"/>
@@ -3238,36 +2428,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB10" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC10" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD10" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DE10" t="n">
-        <v>0.05562506778217258</v>
-      </c>
-      <c r="DF10" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG10" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH10" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI10" t="n">
-        <v>0.9786678979529024</v>
-      </c>
-      <c r="DJ10" t="n">
-        <v>0.6766989732725671</v>
-      </c>
-      <c r="DK10" t="n">
-        <v>1.029915392881313</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3327,30 +2487,14 @@
       <c r="O11" t="n">
         <v>268.91</v>
       </c>
-      <c r="P11" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R11" t="n">
-        <v>8.469999999999999</v>
-      </c>
-      <c r="S11" t="n">
-        <v>7.888134321427951</v>
-      </c>
-      <c r="T11" t="n">
-        <v>7.859634437151133</v>
-      </c>
-      <c r="U11" t="n">
-        <v>11.13607030463304</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.8976835690969229</v>
-      </c>
-      <c r="W11" t="n">
-        <v>11.17219305328888</v>
-      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
@@ -3366,30 +2510,14 @@
       <c r="AH11" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI11" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>7.995000000000005</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>7.287728855968433</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>7.278789809368628</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>10.31709116253021</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1.007758932757852</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>10.36619255669662</v>
-      </c>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -3405,30 +2533,14 @@
       <c r="BA11" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB11" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>5.631624999999998</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>5.111892135537919</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>5.2447951866794</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>7.425461908151575</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>0.4547051238141036</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>7.439371028456156</v>
-      </c>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="inlineStr"/>
       <c r="BL11" t="inlineStr"/>
@@ -3444,30 +2556,14 @@
       <c r="BT11" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU11" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>5.805000000000007</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>5.29130320421138</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>5.384673082736279</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>7.622914825342705</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>0.4380848537195636</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>7.635492700113601</v>
-      </c>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr"/>
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" t="inlineStr"/>
       <c r="CC11" t="inlineStr"/>
       <c r="CD11" t="inlineStr"/>
       <c r="CE11" t="inlineStr"/>
@@ -3488,9 +2584,7 @@
       <c r="CT11" t="inlineStr"/>
       <c r="CU11" t="inlineStr"/>
       <c r="CV11" t="inlineStr"/>
-      <c r="CW11" t="n">
-        <v>0</v>
-      </c>
+      <c r="CW11" t="inlineStr"/>
       <c r="CX11" t="inlineStr"/>
       <c r="CY11" t="inlineStr"/>
       <c r="CZ11" t="inlineStr"/>
@@ -3499,36 +2593,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB11" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC11" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD11" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DE11" t="n">
-        <v>0.05443358836211374</v>
-      </c>
-      <c r="DF11" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG11" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH11" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI11" t="n">
-        <v>0.9238849845864656</v>
-      </c>
-      <c r="DJ11" t="n">
-        <v>0.7014382994437879</v>
-      </c>
-      <c r="DK11" t="n">
-        <v>1.035096802498275</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3588,30 +2652,14 @@
       <c r="O12" t="n">
         <v>268.91</v>
       </c>
-      <c r="P12" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5.805000000000007</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.422158802810139</v>
-      </c>
-      <c r="T12" t="n">
-        <v>4.483331558359191</v>
-      </c>
-      <c r="U12" t="n">
-        <v>6.379193632709486</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.179602413786994</v>
-      </c>
-      <c r="W12" t="n">
-        <v>6.48733945914759</v>
-      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
@@ -3627,30 +2675,14 @@
       <c r="AH12" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI12" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>6.234999999999985</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>4.568541952191242</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>4.610109449832502</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>6.552537243484712</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1.561503182365318</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>6.736025275768437</v>
-      </c>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -3666,30 +2698,14 @@
       <c r="BA12" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB12" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>9.330000000000013</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>4.589454493780603</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>4.644170921977349</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>6.611646185629058</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>4.317834871894356</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>7.896680521895909</v>
-      </c>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="inlineStr"/>
       <c r="BL12" t="inlineStr"/>
@@ -3705,30 +2721,14 @@
       <c r="BT12" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU12" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>8.640000000000015</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>4.553267299642018</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>4.620145247832278</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>6.584495999731379</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>4.043281490384391</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>7.726817765481695</v>
-      </c>
+      <c r="BU12" t="inlineStr"/>
+      <c r="BV12" t="inlineStr"/>
+      <c r="BW12" t="inlineStr"/>
+      <c r="BX12" t="inlineStr"/>
+      <c r="BY12" t="inlineStr"/>
+      <c r="BZ12" t="inlineStr"/>
+      <c r="CA12" t="inlineStr"/>
+      <c r="CB12" t="inlineStr"/>
       <c r="CC12" t="inlineStr"/>
       <c r="CD12" t="inlineStr"/>
       <c r="CE12" t="inlineStr"/>
@@ -3749,9 +2749,7 @@
       <c r="CT12" t="inlineStr"/>
       <c r="CU12" t="inlineStr"/>
       <c r="CV12" t="inlineStr"/>
-      <c r="CW12" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="CW12" t="inlineStr"/>
       <c r="CX12" t="inlineStr"/>
       <c r="CY12" t="inlineStr"/>
       <c r="CZ12" t="inlineStr"/>
@@ -3760,34 +2758,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB12" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC12" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD12" t="inlineStr"/>
-      <c r="DE12" t="n">
-        <v>0.01277550630274234</v>
-      </c>
-      <c r="DF12" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG12" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH12" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI12" t="n">
-        <v>1.033102191917685</v>
-      </c>
-      <c r="DJ12" t="n">
-        <v>1.004577508931341</v>
-      </c>
-      <c r="DK12" t="n">
-        <v>0.9921151426193191</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3847,30 +2817,14 @@
       <c r="O13" t="n">
         <v>268.91</v>
       </c>
-      <c r="P13" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R13" t="n">
-        <v>16.36237500000001</v>
-      </c>
-      <c r="S13" t="n">
-        <v>14.83697346029754</v>
-      </c>
-      <c r="T13" t="n">
-        <v>14.77618578980846</v>
-      </c>
-      <c r="U13" t="n">
-        <v>20.92464826986691</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.592529392264254</v>
-      </c>
-      <c r="W13" t="n">
-        <v>20.9851627366306</v>
-      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
@@ -3886,30 +2840,14 @@
       <c r="AH13" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI13" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>16.88500000000002</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>15.03808398457271</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>15.05234857269716</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>21.31453749246756</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1.78199532921563</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21.38889936091036</v>
-      </c>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -3925,30 +2863,14 @@
       <c r="BA13" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB13" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>18.00775</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>15.40209235044285</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>15.56449086355462</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>22.05478297994715</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>3.269767163949396</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>22.29584781072494</v>
-      </c>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="inlineStr"/>
       <c r="BL13" t="inlineStr"/>
@@ -3964,30 +2886,14 @@
       <c r="BT13" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU13" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>17.01275000000001</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>14.35980018392826</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>14.30634687110868</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>20.29432266629864</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>2.890785918270305</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>20.49917500069485</v>
-      </c>
+      <c r="BU13" t="inlineStr"/>
+      <c r="BV13" t="inlineStr"/>
+      <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr"/>
+      <c r="BY13" t="inlineStr"/>
+      <c r="BZ13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr"/>
+      <c r="CB13" t="inlineStr"/>
       <c r="CC13" t="inlineStr"/>
       <c r="CD13" t="inlineStr"/>
       <c r="CE13" t="inlineStr"/>
@@ -4008,9 +2914,7 @@
       <c r="CT13" t="inlineStr"/>
       <c r="CU13" t="inlineStr"/>
       <c r="CV13" t="inlineStr"/>
-      <c r="CW13" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="CW13" t="inlineStr"/>
       <c r="CX13" t="inlineStr"/>
       <c r="CY13" t="inlineStr"/>
       <c r="CZ13" t="inlineStr"/>
@@ -4019,34 +2923,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB13" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC13" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD13" t="inlineStr"/>
-      <c r="DE13" t="n">
-        <v>0.1149607429010995</v>
-      </c>
-      <c r="DF13" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG13" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH13" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI13" t="n">
-        <v>1.01355468652777</v>
-      </c>
-      <c r="DJ13" t="n">
-        <v>1.024205767586054</v>
-      </c>
-      <c r="DK13" t="n">
-        <v>0.9323278848873658</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4106,30 +2982,14 @@
       <c r="O14" t="n">
         <v>268.91</v>
       </c>
-      <c r="P14" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R14" t="n">
-        <v>9.414999999999992</v>
-      </c>
-      <c r="S14" t="n">
-        <v>8.860636159129365</v>
-      </c>
-      <c r="T14" t="n">
-        <v>8.878875616655314</v>
-      </c>
-      <c r="U14" t="n">
-        <v>12.57655540193823</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.2911184764838831</v>
-      </c>
-      <c r="W14" t="n">
-        <v>12.5799243139763</v>
-      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
@@ -4145,30 +3005,14 @@
       <c r="AH14" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI14" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>9.669999999999987</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>9.303608996729254</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>9.327362573040219</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>13.20711178259471</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0.2830778500832468</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>13.21014514330406</v>
-      </c>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -4184,30 +3028,14 @@
       <c r="BA14" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB14" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>9.455000000000013</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>9.023349833359681</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>9.039026508540113</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>12.79742356934213</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>0.2841606298992991</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>12.80057800557218</v>
-      </c>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="inlineStr"/>
       <c r="BL14" t="inlineStr"/>
@@ -4223,30 +3051,14 @@
       <c r="BT14" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU14" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>9.460000000000008</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>9.030586291021921</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>9.044213595703551</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>12.80523756642041</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>0.2042608937289404</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>12.80686658184473</v>
-      </c>
+      <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="inlineStr"/>
+      <c r="BY14" t="inlineStr"/>
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
       <c r="CC14" t="inlineStr"/>
       <c r="CD14" t="inlineStr"/>
       <c r="CE14" t="inlineStr"/>
@@ -4267,9 +3079,7 @@
       <c r="CT14" t="inlineStr"/>
       <c r="CU14" t="inlineStr"/>
       <c r="CV14" t="inlineStr"/>
-      <c r="CW14" t="n">
-        <v>0</v>
-      </c>
+      <c r="CW14" t="inlineStr"/>
       <c r="CX14" t="inlineStr"/>
       <c r="CY14" t="inlineStr"/>
       <c r="CZ14" t="inlineStr"/>
@@ -4278,36 +3088,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB14" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC14" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD14" t="n">
-        <v>5.368376345338416</v>
-      </c>
-      <c r="DE14" t="n">
-        <v>0.01981381651122993</v>
-      </c>
-      <c r="DF14" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG14" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH14" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI14" t="n">
-        <v>1.049993344681407</v>
-      </c>
-      <c r="DJ14" t="n">
-        <v>0.9698762960193082</v>
-      </c>
-      <c r="DK14" t="n">
-        <v>1.000801970199081</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4367,30 +3147,14 @@
       <c r="O15" t="n">
         <v>268.91</v>
       </c>
-      <c r="P15" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R15" t="n">
-        <v>8.469999999999999</v>
-      </c>
-      <c r="S15" t="n">
-        <v>7.887361098749039</v>
-      </c>
-      <c r="T15" t="n">
-        <v>7.891124353606059</v>
-      </c>
-      <c r="U15" t="n">
-        <v>11.18833772282276</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.032615927257055</v>
-      </c>
-      <c r="W15" t="n">
-        <v>11.2358887789602</v>
-      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
@@ -4406,30 +3170,14 @@
       <c r="AH15" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI15" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>8.340000000000003</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>7.407796728861175</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>7.367635408964007</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>10.44655687525027</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0.9470723165260768</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>10.48939924497913</v>
-      </c>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -4445,30 +3193,14 @@
       <c r="BA15" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB15" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>5.719999999999999</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>4.954004882242995</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>4.888647472894726</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>6.922534360792056</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>0.4200289386238647</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>6.935265408448921</v>
-      </c>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
       <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="inlineStr"/>
       <c r="BL15" t="inlineStr"/>
@@ -4484,30 +3216,14 @@
       <c r="BT15" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU15" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>5.935000000000002</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>5.13033176444644</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>5.030304998640197</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>7.122749497783096</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>0.391495610350765</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>7.1335004886166</v>
-      </c>
+      <c r="BU15" t="inlineStr"/>
+      <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr"/>
+      <c r="BX15" t="inlineStr"/>
+      <c r="BY15" t="inlineStr"/>
+      <c r="BZ15" t="inlineStr"/>
+      <c r="CA15" t="inlineStr"/>
+      <c r="CB15" t="inlineStr"/>
       <c r="CC15" t="inlineStr"/>
       <c r="CD15" t="inlineStr"/>
       <c r="CE15" t="inlineStr"/>
@@ -4528,9 +3244,7 @@
       <c r="CT15" t="inlineStr"/>
       <c r="CU15" t="inlineStr"/>
       <c r="CV15" t="inlineStr"/>
-      <c r="CW15" t="n">
-        <v>0</v>
-      </c>
+      <c r="CW15" t="inlineStr"/>
       <c r="CX15" t="inlineStr"/>
       <c r="CY15" t="inlineStr"/>
       <c r="CZ15" t="inlineStr"/>
@@ -4539,36 +3253,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB15" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC15" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD15" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DE15" t="n">
-        <v>0.05678250493308674</v>
-      </c>
-      <c r="DF15" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG15" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH15" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI15" t="n">
-        <v>0.9391983752380851</v>
-      </c>
-      <c r="DJ15" t="n">
-        <v>0.6687555103856894</v>
-      </c>
-      <c r="DK15" t="n">
-        <v>1.035592795403869</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4624,15 +3308,9 @@
       <c r="O16" t="n">
         <v>268.91</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>15001</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.2599999999999909</v>
-      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
@@ -4653,15 +3331,9 @@
       <c r="AH16" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>15001</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0.6000000000000227</v>
-      </c>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
@@ -4682,15 +3354,9 @@
       <c r="BA16" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>15001</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>0.3050000000000068</v>
-      </c>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
       <c r="BE16" t="inlineStr"/>
       <c r="BF16" t="inlineStr"/>
       <c r="BG16" t="inlineStr"/>
@@ -4711,15 +3377,9 @@
       <c r="BT16" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>15001</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>0.2549999999999955</v>
-      </c>
+      <c r="BU16" t="inlineStr"/>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr"/>
       <c r="BX16" t="inlineStr"/>
       <c r="BY16" t="inlineStr"/>
       <c r="BZ16" t="inlineStr"/>
@@ -4745,9 +3405,7 @@
       <c r="CT16" t="inlineStr"/>
       <c r="CU16" t="inlineStr"/>
       <c r="CV16" t="inlineStr"/>
-      <c r="CW16" t="n">
-        <v>0</v>
-      </c>
+      <c r="CW16" t="inlineStr"/>
       <c r="CX16" t="inlineStr"/>
       <c r="CY16" t="inlineStr"/>
       <c r="CZ16" t="inlineStr"/>
@@ -4756,18 +3414,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC16" t="inlineStr"/>
-      <c r="DD16" t="inlineStr"/>
-      <c r="DE16" t="inlineStr"/>
-      <c r="DF16" t="inlineStr"/>
-      <c r="DG16" t="inlineStr"/>
-      <c r="DH16" t="inlineStr"/>
-      <c r="DI16" t="inlineStr"/>
-      <c r="DJ16" t="inlineStr"/>
-      <c r="DK16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4827,30 +3473,14 @@
       <c r="O17" t="n">
         <v>268.91</v>
       </c>
-      <c r="P17" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R17" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="S17" t="n">
-        <v>13.37850749157174</v>
-      </c>
-      <c r="T17" t="n">
-        <v>13.39403952039353</v>
-      </c>
-      <c r="U17" t="n">
-        <v>18.98038106152991</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.409565348054111</v>
-      </c>
-      <c r="W17" t="n">
-        <v>19.03264930878826</v>
-      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
@@ -4866,30 +3496,14 @@
       <c r="AH17" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI17" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>15.265</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>13.6305523869368</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>13.62809604808264</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>19.30316716041533</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1.916166374091323</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>19.39804000398327</v>
-      </c>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -4905,30 +3519,14 @@
       <c r="BA17" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB17" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>15.86499999999998</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>13.39964120643937</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>13.41464777904401</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>19.01208442445327</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>3.251799802429324</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>19.28817140419532</v>
-      </c>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr"/>
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="inlineStr"/>
       <c r="BL17" t="inlineStr"/>
@@ -4944,30 +3542,14 @@
       <c r="BT17" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU17" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>17.49420000000001</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>13.47514907100107</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>13.48606487987799</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>19.11707501100333</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>3.963217251238841</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>19.52356647635992</v>
-      </c>
+      <c r="BU17" t="inlineStr"/>
+      <c r="BV17" t="inlineStr"/>
+      <c r="BW17" t="inlineStr"/>
+      <c r="BX17" t="inlineStr"/>
+      <c r="BY17" t="inlineStr"/>
+      <c r="BZ17" t="inlineStr"/>
+      <c r="CA17" t="inlineStr"/>
+      <c r="CB17" t="inlineStr"/>
       <c r="CC17" t="inlineStr"/>
       <c r="CD17" t="inlineStr"/>
       <c r="CE17" t="inlineStr"/>
@@ -4988,9 +3570,7 @@
       <c r="CT17" t="inlineStr"/>
       <c r="CU17" t="inlineStr"/>
       <c r="CV17" t="inlineStr"/>
-      <c r="CW17" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="CW17" t="inlineStr"/>
       <c r="CX17" t="inlineStr"/>
       <c r="CY17" t="inlineStr"/>
       <c r="CZ17" t="inlineStr"/>
@@ -4999,34 +3579,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB17" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC17" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD17" t="inlineStr"/>
-      <c r="DE17" t="n">
-        <v>0.03127796370671409</v>
-      </c>
-      <c r="DF17" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG17" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH17" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI17" t="n">
-        <v>1.018839537633315</v>
-      </c>
-      <c r="DJ17" t="n">
-        <v>0.9830592940078693</v>
-      </c>
-      <c r="DK17" t="n">
-        <v>1.005635066148295</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5086,30 +3638,14 @@
       <c r="O18" t="n">
         <v>268.91</v>
       </c>
-      <c r="P18" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R18" t="n">
-        <v>24.172375</v>
-      </c>
-      <c r="S18" t="n">
-        <v>22.12029165237653</v>
-      </c>
-      <c r="T18" t="n">
-        <v>22.10043134951788</v>
-      </c>
-      <c r="U18" t="n">
-        <v>31.3819622464962</v>
-      </c>
-      <c r="V18" t="n">
-        <v>3.952564776081793</v>
-      </c>
-      <c r="W18" t="n">
-        <v>31.62989602811928</v>
-      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
@@ -5125,30 +3661,14 @@
       <c r="AH18" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI18" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>24.36012500000001</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>22.62183276651398</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>22.74199873849183</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>32.210389185404</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1.812839421195843</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>32.26136324215442</v>
-      </c>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -5164,30 +3684,14 @@
       <c r="BA18" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB18" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>18.69862500000001</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>16.72803257282205</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>16.46034865893888</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>23.31008755125107</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>0.9374741134617111</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>23.32893138059266</v>
-      </c>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
       <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="inlineStr"/>
       <c r="BL18" t="inlineStr"/>
@@ -5203,30 +3707,14 @@
       <c r="BT18" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU18" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>18.92000000000002</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>17.12825748415225</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>16.92345328326254</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>23.9843281745838</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>1.983218895669438</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>24.06618281269954</v>
-      </c>
+      <c r="BU18" t="inlineStr"/>
+      <c r="BV18" t="inlineStr"/>
+      <c r="BW18" t="inlineStr"/>
+      <c r="BX18" t="inlineStr"/>
+      <c r="BY18" t="inlineStr"/>
+      <c r="BZ18" t="inlineStr"/>
+      <c r="CA18" t="inlineStr"/>
+      <c r="CB18" t="inlineStr"/>
       <c r="CC18" t="inlineStr"/>
       <c r="CD18" t="inlineStr"/>
       <c r="CE18" t="inlineStr"/>
@@ -5247,9 +3735,7 @@
       <c r="CT18" t="inlineStr"/>
       <c r="CU18" t="inlineStr"/>
       <c r="CV18" t="inlineStr"/>
-      <c r="CW18" t="n">
-        <v>0</v>
-      </c>
+      <c r="CW18" t="inlineStr"/>
       <c r="CX18" t="inlineStr"/>
       <c r="CY18" t="inlineStr"/>
       <c r="CZ18" t="inlineStr"/>
@@ -5258,36 +3744,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB18" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC18" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD18" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DE18" t="n">
-        <v>0.16585478632891</v>
-      </c>
-      <c r="DF18" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG18" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH18" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI18" t="n">
-        <v>1.022673349972923</v>
-      </c>
-      <c r="DJ18" t="n">
-        <v>0.7394640719643086</v>
-      </c>
-      <c r="DK18" t="n">
-        <v>1.023925402439761</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5347,30 +3803,14 @@
       <c r="O19" t="n">
         <v>268.91</v>
       </c>
-      <c r="P19" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R19" t="n">
-        <v>15.04999999999998</v>
-      </c>
-      <c r="S19" t="n">
-        <v>8.769041954508788</v>
-      </c>
-      <c r="T19" t="n">
-        <v>8.775615409010191</v>
-      </c>
-      <c r="U19" t="n">
-        <v>12.46853619857135</v>
-      </c>
-      <c r="V19" t="n">
-        <v>6.393544623255687</v>
-      </c>
-      <c r="W19" t="n">
-        <v>14.01220210333286</v>
-      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
@@ -5386,30 +3826,14 @@
       <c r="AH19" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI19" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>16.51999999999997</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>8.923954467812148</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>8.954510461360522</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>12.75123885769862</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>8.053885867926024</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>15.08174956626922</v>
-      </c>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -5425,30 +3849,14 @@
       <c r="BA19" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB19" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>34.38379999999977</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>8.557940308744234</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>9.685604949222769</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>15.40515838071092</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>12.84030826320458</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>20.05473562600384</v>
-      </c>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
       <c r="BJ19" t="inlineStr"/>
       <c r="BK19" t="inlineStr"/>
       <c r="BL19" t="inlineStr"/>
@@ -5464,30 +3872,14 @@
       <c r="BT19" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU19" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>26.73162500000002</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>8.863576210284371</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>9.325583537259101</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>13.95255435170477</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>13.96563384750976</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>19.74114236056227</v>
-      </c>
+      <c r="BU19" t="inlineStr"/>
+      <c r="BV19" t="inlineStr"/>
+      <c r="BW19" t="inlineStr"/>
+      <c r="BX19" t="inlineStr"/>
+      <c r="BY19" t="inlineStr"/>
+      <c r="BZ19" t="inlineStr"/>
+      <c r="CA19" t="inlineStr"/>
+      <c r="CB19" t="inlineStr"/>
       <c r="CC19" t="inlineStr"/>
       <c r="CD19" t="inlineStr"/>
       <c r="CE19" t="inlineStr"/>
@@ -5508,9 +3900,7 @@
       <c r="CT19" t="inlineStr"/>
       <c r="CU19" t="inlineStr"/>
       <c r="CV19" t="inlineStr"/>
-      <c r="CW19" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="CW19" t="inlineStr"/>
       <c r="CX19" t="inlineStr"/>
       <c r="CY19" t="inlineStr"/>
       <c r="CZ19" t="inlineStr"/>
@@ -5519,34 +3909,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB19" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC19" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD19" t="inlineStr"/>
-      <c r="DE19" t="n">
-        <v>0.03384945695610322</v>
-      </c>
-      <c r="DF19" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH19" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI19" t="n">
-        <v>1.017665842415511</v>
-      </c>
-      <c r="DJ19" t="n">
-        <v>0.9589852054503312</v>
-      </c>
-      <c r="DK19" t="n">
-        <v>1.035713722053874</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5606,30 +3968,14 @@
       <c r="O20" t="n">
         <v>268.91</v>
       </c>
-      <c r="P20" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R20" t="n">
-        <v>24.84774999999998</v>
-      </c>
-      <c r="S20" t="n">
-        <v>22.25832046060676</v>
-      </c>
-      <c r="T20" t="n">
-        <v>22.01654070654181</v>
-      </c>
-      <c r="U20" t="n">
-        <v>31.19122384303993</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.80840009641353</v>
-      </c>
-      <c r="W20" t="n">
-        <v>31.31740021023709</v>
-      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
@@ -5645,30 +3991,14 @@
       <c r="AH20" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI20" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>24.33924999999998</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>22.24806691288752</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>22.23050349068017</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>31.49085048532526</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>2.296173518795703</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>31.57445291873684</v>
-      </c>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -5684,30 +4014,14 @@
       <c r="BA20" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB20" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>17.20662500000001</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>15.9093393864272</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>15.95830387358885</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>22.59370870685247</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>0.8505043387019066</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>22.60971098356305</v>
-      </c>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
       <c r="BJ20" t="inlineStr"/>
       <c r="BK20" t="inlineStr"/>
       <c r="BL20" t="inlineStr"/>
@@ -5723,30 +4037,14 @@
       <c r="BT20" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU20" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>17.83499999999999</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>16.39741117419935</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>16.47540218711634</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>23.32710916709893</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>1.018693505379476</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>23.34934171559561</v>
-      </c>
+      <c r="BU20" t="inlineStr"/>
+      <c r="BV20" t="inlineStr"/>
+      <c r="BW20" t="inlineStr"/>
+      <c r="BX20" t="inlineStr"/>
+      <c r="BY20" t="inlineStr"/>
+      <c r="BZ20" t="inlineStr"/>
+      <c r="CA20" t="inlineStr"/>
+      <c r="CB20" t="inlineStr"/>
       <c r="CC20" t="inlineStr"/>
       <c r="CD20" t="inlineStr"/>
       <c r="CE20" t="inlineStr"/>
@@ -5767,9 +4065,7 @@
       <c r="CT20" t="inlineStr"/>
       <c r="CU20" t="inlineStr"/>
       <c r="CV20" t="inlineStr"/>
-      <c r="CW20" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="CW20" t="inlineStr"/>
       <c r="CX20" t="inlineStr"/>
       <c r="CY20" t="inlineStr"/>
       <c r="CZ20" t="inlineStr"/>
@@ -5778,36 +4074,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB20" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC20" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD20" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DE20" t="n">
-        <v>0.1657126598552314</v>
-      </c>
-      <c r="DF20" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG20" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH20" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI20" t="n">
-        <v>0.9995393386604625</v>
-      </c>
-      <c r="DJ20" t="n">
-        <v>0.7150886164052068</v>
-      </c>
-      <c r="DK20" t="n">
-        <v>1.030678318936897</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5867,30 +4133,14 @@
       <c r="O21" t="n">
         <v>268.91</v>
       </c>
-      <c r="P21" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R21" t="n">
-        <v>11.17999999999998</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.556403905310875</v>
-      </c>
-      <c r="T21" t="n">
-        <v>4.638893952797555</v>
-      </c>
-      <c r="U21" t="n">
-        <v>6.644742354660448</v>
-      </c>
-      <c r="V21" t="n">
-        <v>7.146354764071753</v>
-      </c>
-      <c r="W21" t="n">
-        <v>9.758226651077004</v>
-      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -5906,30 +4156,14 @@
       <c r="AH21" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI21" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>13.2452</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>4.623089110976609</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>4.699817231807266</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>6.871169276664973</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>8.936460744225244</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>11.2726792672223</v>
-      </c>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -5945,30 +4179,14 @@
       <c r="BA21" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB21" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>5.074999999999989</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>4.254206325236899</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>4.255337511664758</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>6.060760723249397</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>0.627553466437051</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>6.093163701864551</v>
-      </c>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="inlineStr"/>
       <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="inlineStr"/>
       <c r="BL21" t="inlineStr"/>
@@ -5984,30 +4202,14 @@
       <c r="BT21" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU21" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>5.159999999999997</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>4.25061386197613</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>4.264233672603522</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>6.065618187460164</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0.6711254925685159</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>6.102633318725847</v>
-      </c>
+      <c r="BU21" t="inlineStr"/>
+      <c r="BV21" t="inlineStr"/>
+      <c r="BW21" t="inlineStr"/>
+      <c r="BX21" t="inlineStr"/>
+      <c r="BY21" t="inlineStr"/>
+      <c r="BZ21" t="inlineStr"/>
+      <c r="CA21" t="inlineStr"/>
+      <c r="CB21" t="inlineStr"/>
       <c r="CC21" t="inlineStr"/>
       <c r="CD21" t="inlineStr"/>
       <c r="CE21" t="inlineStr"/>
@@ -6028,9 +4230,7 @@
       <c r="CT21" t="inlineStr"/>
       <c r="CU21" t="inlineStr"/>
       <c r="CV21" t="inlineStr"/>
-      <c r="CW21" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="CW21" t="inlineStr"/>
       <c r="CX21" t="inlineStr"/>
       <c r="CY21" t="inlineStr"/>
       <c r="CZ21" t="inlineStr"/>
@@ -6039,36 +4239,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB21" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC21" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD21" t="n">
-        <v>5.368376345338416</v>
-      </c>
-      <c r="DE21" t="n">
-        <v>0.02713939632415129</v>
-      </c>
-      <c r="DF21" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG21" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH21" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI21" t="n">
-        <v>1.014635490411201</v>
-      </c>
-      <c r="DJ21" t="n">
-        <v>0.9202085928078108</v>
-      </c>
-      <c r="DK21" t="n">
-        <v>0.9991555502986639</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6128,30 +4298,14 @@
       <c r="O22" t="n">
         <v>268.91</v>
       </c>
-      <c r="P22" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R22" t="n">
-        <v>23.58685000000002</v>
-      </c>
-      <c r="S22" t="n">
-        <v>22.26097194664286</v>
-      </c>
-      <c r="T22" t="n">
-        <v>22.17362420077505</v>
-      </c>
-      <c r="U22" t="n">
-        <v>31.44079180710299</v>
-      </c>
-      <c r="V22" t="n">
-        <v>3.989918174327038</v>
-      </c>
-      <c r="W22" t="n">
-        <v>31.69294616307263</v>
-      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -6167,30 +4321,14 @@
       <c r="AH22" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI22" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>23.69</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>22.44271752875564</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>22.45618868150158</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>31.83908847054764</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>2.640159817783069</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>31.94836456688817</v>
-      </c>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
@@ -6206,30 +4344,14 @@
       <c r="BA22" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB22" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>23.24999999999999</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>21.86186856834625</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>21.99248197137247</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>31.16050682656836</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>2.711309849416851</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>31.27824142735902</v>
-      </c>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr"/>
       <c r="BJ22" t="inlineStr"/>
       <c r="BK22" t="inlineStr"/>
       <c r="BL22" t="inlineStr"/>
@@ -6245,30 +4367,14 @@
       <c r="BT22" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU22" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>23.721625</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>21.9155944551006</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>22.36323241666551</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>31.96584179606029</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>9.876315288626568</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>33.45678773300141</v>
-      </c>
+      <c r="BU22" t="inlineStr"/>
+      <c r="BV22" t="inlineStr"/>
+      <c r="BW22" t="inlineStr"/>
+      <c r="BX22" t="inlineStr"/>
+      <c r="BY22" t="inlineStr"/>
+      <c r="BZ22" t="inlineStr"/>
+      <c r="CA22" t="inlineStr"/>
+      <c r="CB22" t="inlineStr"/>
       <c r="CC22" t="inlineStr"/>
       <c r="CD22" t="inlineStr"/>
       <c r="CE22" t="inlineStr"/>
@@ -6289,9 +4395,7 @@
       <c r="CT22" t="inlineStr"/>
       <c r="CU22" t="inlineStr"/>
       <c r="CV22" t="inlineStr"/>
-      <c r="CW22" t="n">
-        <v>0</v>
-      </c>
+      <c r="CW22" t="inlineStr"/>
       <c r="CX22" t="inlineStr"/>
       <c r="CY22" t="inlineStr"/>
       <c r="CZ22" t="inlineStr"/>
@@ -6300,34 +4404,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB22" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC22" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD22" t="inlineStr"/>
-      <c r="DE22" t="n">
-        <v>0.1612922712068134</v>
-      </c>
-      <c r="DF22" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG22" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH22" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI22" t="n">
-        <v>1.008164314772437</v>
-      </c>
-      <c r="DJ22" t="n">
-        <v>0.9741185995116167</v>
-      </c>
-      <c r="DK22" t="n">
-        <v>1.002457515769358</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6387,30 +4463,14 @@
       <c r="O23" t="n">
         <v>268.91</v>
       </c>
-      <c r="P23" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R23" t="n">
-        <v>14.14550000000001</v>
-      </c>
-      <c r="S23" t="n">
-        <v>7.645411296875363</v>
-      </c>
-      <c r="T23" t="n">
-        <v>7.704903625035543</v>
-      </c>
-      <c r="U23" t="n">
-        <v>10.9404267195542</v>
-      </c>
-      <c r="V23" t="n">
-        <v>5.360442957443186</v>
-      </c>
-      <c r="W23" t="n">
-        <v>12.183073729808</v>
-      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
@@ -6426,30 +4486,14 @@
       <c r="AH23" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI23" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>14.36124999999998</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>8.017538983107796</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>8.222693807342123</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>11.72148591622803</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>6.737649137888366</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>13.51995369776169</v>
-      </c>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
@@ -6465,30 +4509,14 @@
       <c r="BA23" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB23" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>14.70962500000001</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>7.664583571387108</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>7.643041629935764</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>10.99591405534538</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>8.237389156838374</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>13.73916686097597</v>
-      </c>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="inlineStr"/>
       <c r="BJ23" t="inlineStr"/>
       <c r="BK23" t="inlineStr"/>
       <c r="BL23" t="inlineStr"/>
@@ -6504,30 +4532,14 @@
       <c r="BT23" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU23" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>24.63325000000001</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>9.100759559667548</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>8.995874008952786</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>12.95335752549852</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>8.7643703685328</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>15.63981007366154</v>
-      </c>
+      <c r="BU23" t="inlineStr"/>
+      <c r="BV23" t="inlineStr"/>
+      <c r="BW23" t="inlineStr"/>
+      <c r="BX23" t="inlineStr"/>
+      <c r="BY23" t="inlineStr"/>
+      <c r="BZ23" t="inlineStr"/>
+      <c r="CA23" t="inlineStr"/>
+      <c r="CB23" t="inlineStr"/>
       <c r="CC23" t="inlineStr"/>
       <c r="CD23" t="inlineStr"/>
       <c r="CE23" t="inlineStr"/>
@@ -6548,9 +4560,7 @@
       <c r="CT23" t="inlineStr"/>
       <c r="CU23" t="inlineStr"/>
       <c r="CV23" t="inlineStr"/>
-      <c r="CW23" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="CW23" t="inlineStr"/>
       <c r="CX23" t="inlineStr"/>
       <c r="CY23" t="inlineStr"/>
       <c r="CZ23" t="inlineStr"/>
@@ -6559,34 +4569,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB23" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC23" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD23" t="inlineStr"/>
-      <c r="DE23" t="n">
-        <v>0.09777790755039455</v>
-      </c>
-      <c r="DF23" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG23" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH23" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI23" t="n">
-        <v>1.048673337742408</v>
-      </c>
-      <c r="DJ23" t="n">
-        <v>0.9559770881732745</v>
-      </c>
-      <c r="DK23" t="n">
-        <v>1.187378214994207</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6646,30 +4628,14 @@
       <c r="O24" t="n">
         <v>268.91</v>
       </c>
-      <c r="P24" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R24" t="n">
-        <v>20.3873</v>
-      </c>
-      <c r="S24" t="n">
-        <v>16.21959509967942</v>
-      </c>
-      <c r="T24" t="n">
-        <v>15.94818579682935</v>
-      </c>
-      <c r="U24" t="n">
-        <v>22.61008586257692</v>
-      </c>
-      <c r="V24" t="n">
-        <v>4.344043369741975</v>
-      </c>
-      <c r="W24" t="n">
-        <v>23.02361169563325</v>
-      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
@@ -6685,30 +4651,14 @@
       <c r="AH24" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI24" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>20.41050000000008</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>15.13125778567915</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>15.08651305150827</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>21.41192842912143</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>3.969252830878529</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>21.77672259751811</v>
-      </c>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -6724,30 +4674,14 @@
       <c r="BA24" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB24" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>11.311625</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>9.855495204706351</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>10.05991608154006</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>14.25619335817006</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>1.293875582176556</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>14.31478826555548</v>
-      </c>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="inlineStr"/>
       <c r="BJ24" t="inlineStr"/>
       <c r="BK24" t="inlineStr"/>
       <c r="BL24" t="inlineStr"/>
@@ -6763,30 +4697,14 @@
       <c r="BT24" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU24" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>12.00499999999997</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>10.64143027105636</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>10.64120186754591</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>15.08046024879069</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>1.271248943027843</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>15.13394711205591</v>
-      </c>
+      <c r="BU24" t="inlineStr"/>
+      <c r="BV24" t="inlineStr"/>
+      <c r="BW24" t="inlineStr"/>
+      <c r="BX24" t="inlineStr"/>
+      <c r="BY24" t="inlineStr"/>
+      <c r="BZ24" t="inlineStr"/>
+      <c r="CA24" t="inlineStr"/>
+      <c r="CB24" t="inlineStr"/>
       <c r="CC24" t="inlineStr"/>
       <c r="CD24" t="inlineStr"/>
       <c r="CE24" t="inlineStr"/>
@@ -6807,9 +4725,7 @@
       <c r="CT24" t="inlineStr"/>
       <c r="CU24" t="inlineStr"/>
       <c r="CV24" t="inlineStr"/>
-      <c r="CW24" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="CW24" t="inlineStr"/>
       <c r="CX24" t="inlineStr"/>
       <c r="CY24" t="inlineStr"/>
       <c r="CZ24" t="inlineStr"/>
@@ -6818,36 +4734,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB24" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC24" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD24" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DE24" t="n">
-        <v>0.1389639468749126</v>
-      </c>
-      <c r="DF24" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG24" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH24" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI24" t="n">
-        <v>0.9328998469251686</v>
-      </c>
-      <c r="DJ24" t="n">
-        <v>0.6513335073858831</v>
-      </c>
-      <c r="DK24" t="n">
-        <v>1.079745872736531</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6907,30 +4793,14 @@
       <c r="O25" t="n">
         <v>268.91</v>
       </c>
-      <c r="P25" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R25" t="n">
-        <v>26.06162500000001</v>
-      </c>
-      <c r="S25" t="n">
-        <v>23.25115346773061</v>
-      </c>
-      <c r="T25" t="n">
-        <v>23.5209017892984</v>
-      </c>
-      <c r="U25" t="n">
-        <v>33.3474469014613</v>
-      </c>
-      <c r="V25" t="n">
-        <v>4.23007394976123</v>
-      </c>
-      <c r="W25" t="n">
-        <v>33.61466555636437</v>
-      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
@@ -6946,30 +4816,14 @@
       <c r="AH25" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI25" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>27.47662500000001</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>23.36685925423714</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>23.18809017542871</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>32.90829705821609</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>4.800799175681316</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>33.25663374421735</v>
-      </c>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
@@ -6985,30 +4839,14 @@
       <c r="BA25" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB25" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>29.24739999999999</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>22.96622776409792</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>23.02386445261708</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>32.70572761259246</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>6.725932846923064</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>33.39016009740612</v>
-      </c>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr"/>
       <c r="BJ25" t="inlineStr"/>
       <c r="BK25" t="inlineStr"/>
       <c r="BL25" t="inlineStr"/>
@@ -7024,30 +4862,14 @@
       <c r="BT25" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU25" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>30.017075</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>24.02078399348507</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>24.40337729587944</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>34.73185539787448</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>6.875544528369401</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>35.40585957070459</v>
-      </c>
+      <c r="BU25" t="inlineStr"/>
+      <c r="BV25" t="inlineStr"/>
+      <c r="BW25" t="inlineStr"/>
+      <c r="BX25" t="inlineStr"/>
+      <c r="BY25" t="inlineStr"/>
+      <c r="BZ25" t="inlineStr"/>
+      <c r="CA25" t="inlineStr"/>
+      <c r="CB25" t="inlineStr"/>
       <c r="CC25" t="inlineStr"/>
       <c r="CD25" t="inlineStr"/>
       <c r="CE25" t="inlineStr"/>
@@ -7068,9 +4890,7 @@
       <c r="CT25" t="inlineStr"/>
       <c r="CU25" t="inlineStr"/>
       <c r="CV25" t="inlineStr"/>
-      <c r="CW25" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="CW25" t="inlineStr"/>
       <c r="CX25" t="inlineStr"/>
       <c r="CY25" t="inlineStr"/>
       <c r="CZ25" t="inlineStr"/>
@@ -7079,34 +4899,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB25" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC25" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD25" t="inlineStr"/>
-      <c r="DE25" t="n">
-        <v>0.1870733326866996</v>
-      </c>
-      <c r="DF25" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG25" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH25" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI25" t="n">
-        <v>1.004976346083953</v>
-      </c>
-      <c r="DJ25" t="n">
-        <v>0.98285471377303</v>
-      </c>
-      <c r="DK25" t="n">
-        <v>1.04591769446072</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7166,30 +4958,14 @@
       <c r="O26" t="n">
         <v>268.91</v>
       </c>
-      <c r="P26" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R26" t="n">
-        <v>20.42000000000002</v>
-      </c>
-      <c r="S26" t="n">
-        <v>13.56201040375231</v>
-      </c>
-      <c r="T26" t="n">
-        <v>13.56505576353079</v>
-      </c>
-      <c r="U26" t="n">
-        <v>19.26080677684122</v>
-      </c>
-      <c r="V26" t="n">
-        <v>7.09553190319637</v>
-      </c>
-      <c r="W26" t="n">
-        <v>20.52620887266059</v>
-      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
@@ -7205,30 +4981,14 @@
       <c r="AH26" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI26" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>19.91415000000003</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>13.44914225260243</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>13.51366856447097</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>19.2239395461952</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>7.553887633737646</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>20.65480743214281</v>
-      </c>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
@@ -7244,30 +5004,14 @@
       <c r="BA26" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB26" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>14.02499999999998</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>13.02292395320358</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>13.04062052879795</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>18.47183650077565</v>
-      </c>
-      <c r="BH26" t="n">
-        <v>0.6540528275786419</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>18.48341226106941</v>
-      </c>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="inlineStr"/>
       <c r="BJ26" t="inlineStr"/>
       <c r="BK26" t="inlineStr"/>
       <c r="BL26" t="inlineStr"/>
@@ -7283,30 +5027,14 @@
       <c r="BT26" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU26" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW26" t="n">
-        <v>14.23925000000001</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>13.06660152462662</v>
-      </c>
-      <c r="BY26" t="n">
-        <v>13.09740021255797</v>
-      </c>
-      <c r="BZ26" t="n">
-        <v>18.54698517006868</v>
-      </c>
-      <c r="CA26" t="n">
-        <v>0.7342951501739929</v>
-      </c>
-      <c r="CB26" t="n">
-        <v>18.56151524704589</v>
-      </c>
+      <c r="BU26" t="inlineStr"/>
+      <c r="BV26" t="inlineStr"/>
+      <c r="BW26" t="inlineStr"/>
+      <c r="BX26" t="inlineStr"/>
+      <c r="BY26" t="inlineStr"/>
+      <c r="BZ26" t="inlineStr"/>
+      <c r="CA26" t="inlineStr"/>
+      <c r="CB26" t="inlineStr"/>
       <c r="CC26" t="inlineStr"/>
       <c r="CD26" t="inlineStr"/>
       <c r="CE26" t="inlineStr"/>
@@ -7327,9 +5055,7 @@
       <c r="CT26" t="inlineStr"/>
       <c r="CU26" t="inlineStr"/>
       <c r="CV26" t="inlineStr"/>
-      <c r="CW26" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="CW26" t="inlineStr"/>
       <c r="CX26" t="inlineStr"/>
       <c r="CY26" t="inlineStr"/>
       <c r="CZ26" t="inlineStr"/>
@@ -7338,36 +5064,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB26" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC26" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD26" t="n">
-        <v>5.368376345338416</v>
-      </c>
-      <c r="DE26" t="n">
-        <v>0.04080406557157297</v>
-      </c>
-      <c r="DF26" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG26" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH26" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI26" t="n">
-        <v>0.9916776239075402</v>
-      </c>
-      <c r="DJ26" t="n">
-        <v>0.9683088860691933</v>
-      </c>
-      <c r="DK26" t="n">
-        <v>1.00335389898459</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7427,30 +5123,14 @@
       <c r="O27" t="n">
         <v>268.91</v>
       </c>
-      <c r="P27" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R27" t="n">
-        <v>8.76662500000001</v>
-      </c>
-      <c r="S27" t="n">
-        <v>7.540967005633498</v>
-      </c>
-      <c r="T27" t="n">
-        <v>7.488509009783497</v>
-      </c>
-      <c r="U27" t="n">
-        <v>10.61296605197684</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.22664863023173</v>
-      </c>
-      <c r="W27" t="n">
-        <v>10.68361901616032</v>
-      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
@@ -7466,30 +5146,14 @@
       <c r="AH27" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI27" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>9.107375000000019</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>7.540237899795808</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>7.589220243350737</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>10.75835372866533</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1.423375180069278</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>10.85210448965197</v>
-      </c>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -7505,30 +5169,14 @@
       <c r="BA27" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB27" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>4.944999999999993</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>4.248700833141289</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>4.164906538868615</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>5.898675951668745</v>
-      </c>
-      <c r="BH27" t="n">
-        <v>0.375482977348191</v>
-      </c>
-      <c r="BI27" t="n">
-        <v>5.910614642240976</v>
-      </c>
+      <c r="BB27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="inlineStr"/>
       <c r="BJ27" t="inlineStr"/>
       <c r="BK27" t="inlineStr"/>
       <c r="BL27" t="inlineStr"/>
@@ -7544,30 +5192,14 @@
       <c r="BT27" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU27" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV27" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW27" t="n">
-        <v>5.282375000000004</v>
-      </c>
-      <c r="BX27" t="n">
-        <v>4.554548485069777</v>
-      </c>
-      <c r="BY27" t="n">
-        <v>4.567701039054681</v>
-      </c>
-      <c r="BZ27" t="n">
-        <v>6.470487638735145</v>
-      </c>
-      <c r="CA27" t="n">
-        <v>0.5612813138437913</v>
-      </c>
-      <c r="CB27" t="n">
-        <v>6.494786139380921</v>
-      </c>
+      <c r="BU27" t="inlineStr"/>
+      <c r="BV27" t="inlineStr"/>
+      <c r="BW27" t="inlineStr"/>
+      <c r="BX27" t="inlineStr"/>
+      <c r="BY27" t="inlineStr"/>
+      <c r="BZ27" t="inlineStr"/>
+      <c r="CA27" t="inlineStr"/>
+      <c r="CB27" t="inlineStr"/>
       <c r="CC27" t="inlineStr"/>
       <c r="CD27" t="inlineStr"/>
       <c r="CE27" t="inlineStr"/>
@@ -7588,9 +5220,7 @@
       <c r="CT27" t="inlineStr"/>
       <c r="CU27" t="inlineStr"/>
       <c r="CV27" t="inlineStr"/>
-      <c r="CW27" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="CW27" t="inlineStr"/>
       <c r="CX27" t="inlineStr"/>
       <c r="CY27" t="inlineStr"/>
       <c r="CZ27" t="inlineStr"/>
@@ -7599,36 +5229,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB27" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC27" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD27" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DE27" t="n">
-        <v>0.06200714219004456</v>
-      </c>
-      <c r="DF27" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG27" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH27" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI27" t="n">
-        <v>0.9999033140130243</v>
-      </c>
-      <c r="DJ27" t="n">
-        <v>0.5634703957094437</v>
-      </c>
-      <c r="DK27" t="n">
-        <v>1.071986158578824</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7688,30 +5288,14 @@
       <c r="O28" t="n">
         <v>268.91</v>
       </c>
-      <c r="P28" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R28" t="n">
-        <v>8.206625000000017</v>
-      </c>
-      <c r="S28" t="n">
-        <v>7.690591781000195</v>
-      </c>
-      <c r="T28" t="n">
-        <v>7.664924126260814</v>
-      </c>
-      <c r="U28" t="n">
-        <v>10.8516935103387</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0.5308993750885775</v>
-      </c>
-      <c r="W28" t="n">
-        <v>10.8646723921523</v>
-      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
@@ -7727,30 +5311,14 @@
       <c r="AH28" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI28" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>8.210000000000008</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>7.593955994407596</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>7.594305190368836</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>10.75371449508783</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0.59314032914563</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>10.77005992982031</v>
-      </c>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
@@ -7766,30 +5334,14 @@
       <c r="BA28" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB28" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>8.034999999999997</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>7.466071516414555</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>7.468259435780531</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>10.58145985529158</v>
-      </c>
-      <c r="BH28" t="n">
-        <v>0.7225748400828049</v>
-      </c>
-      <c r="BI28" t="n">
-        <v>10.60610235047107</v>
-      </c>
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="inlineStr"/>
       <c r="BJ28" t="inlineStr"/>
       <c r="BK28" t="inlineStr"/>
       <c r="BL28" t="inlineStr"/>
@@ -7805,30 +5357,14 @@
       <c r="BT28" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU28" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV28" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW28" t="n">
-        <v>8.079999999999984</v>
-      </c>
-      <c r="BX28" t="n">
-        <v>7.528930368360067</v>
-      </c>
-      <c r="BY28" t="n">
-        <v>7.499883463929208</v>
-      </c>
-      <c r="BZ28" t="n">
-        <v>10.62434608401123</v>
-      </c>
-      <c r="CA28" t="n">
-        <v>0.6564425912729305</v>
-      </c>
-      <c r="CB28" t="n">
-        <v>10.64460645531256</v>
-      </c>
+      <c r="BU28" t="inlineStr"/>
+      <c r="BV28" t="inlineStr"/>
+      <c r="BW28" t="inlineStr"/>
+      <c r="BX28" t="inlineStr"/>
+      <c r="BY28" t="inlineStr"/>
+      <c r="BZ28" t="inlineStr"/>
+      <c r="CA28" t="inlineStr"/>
+      <c r="CB28" t="inlineStr"/>
       <c r="CC28" t="inlineStr"/>
       <c r="CD28" t="inlineStr"/>
       <c r="CE28" t="inlineStr"/>
@@ -7849,9 +5385,7 @@
       <c r="CT28" t="inlineStr"/>
       <c r="CU28" t="inlineStr"/>
       <c r="CV28" t="inlineStr"/>
-      <c r="CW28" t="n">
-        <v>0</v>
-      </c>
+      <c r="CW28" t="inlineStr"/>
       <c r="CX28" t="inlineStr"/>
       <c r="CY28" t="inlineStr"/>
       <c r="CZ28" t="inlineStr"/>
@@ -7860,34 +5394,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB28" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC28" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD28" t="inlineStr"/>
-      <c r="DE28" t="n">
-        <v>0.05589740593532883</v>
-      </c>
-      <c r="DF28" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG28" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH28" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI28" t="n">
-        <v>0.9874345447860932</v>
-      </c>
-      <c r="DJ28" t="n">
-        <v>0.9831597025203702</v>
-      </c>
-      <c r="DK28" t="n">
-        <v>1.008419267322489</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7947,30 +5453,14 @@
       <c r="O29" t="n">
         <v>268.91</v>
       </c>
-      <c r="P29" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R29" t="n">
-        <v>10.11000000000001</v>
-      </c>
-      <c r="S29" t="n">
-        <v>8.792347874454222</v>
-      </c>
-      <c r="T29" t="n">
-        <v>8.792841109601502</v>
-      </c>
-      <c r="U29" t="n">
-        <v>12.46922871299998</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.330795364031901</v>
-      </c>
-      <c r="W29" t="n">
-        <v>12.54004310192082</v>
-      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
@@ -7986,30 +5476,14 @@
       <c r="AH29" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI29" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>10.89499999999998</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>9.109897994042084</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>9.108875171410133</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>12.92493263270828</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>1.782756732117341</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>13.04730259961641</v>
-      </c>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
@@ -8025,30 +5499,14 @@
       <c r="BA29" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB29" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>9.335000000000008</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>8.860677051331345</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>8.872875814265827</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>12.56353219686549</v>
-      </c>
-      <c r="BH29" t="n">
-        <v>0.328204914792837</v>
-      </c>
-      <c r="BI29" t="n">
-        <v>12.56781841561096</v>
-      </c>
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" t="inlineStr"/>
+      <c r="BG29" t="inlineStr"/>
+      <c r="BH29" t="inlineStr"/>
+      <c r="BI29" t="inlineStr"/>
       <c r="BJ29" t="inlineStr"/>
       <c r="BK29" t="inlineStr"/>
       <c r="BL29" t="inlineStr"/>
@@ -8064,30 +5522,14 @@
       <c r="BT29" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU29" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV29" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW29" t="n">
-        <v>9.420000000000016</v>
-      </c>
-      <c r="BX29" t="n">
-        <v>8.836987486495156</v>
-      </c>
-      <c r="BY29" t="n">
-        <v>8.847886334564659</v>
-      </c>
-      <c r="BZ29" t="n">
-        <v>12.52799480894186</v>
-      </c>
-      <c r="CA29" t="n">
-        <v>0.2542552703701081</v>
-      </c>
-      <c r="CB29" t="n">
-        <v>12.53057459478157</v>
-      </c>
+      <c r="BU29" t="inlineStr"/>
+      <c r="BV29" t="inlineStr"/>
+      <c r="BW29" t="inlineStr"/>
+      <c r="BX29" t="inlineStr"/>
+      <c r="BY29" t="inlineStr"/>
+      <c r="BZ29" t="inlineStr"/>
+      <c r="CA29" t="inlineStr"/>
+      <c r="CB29" t="inlineStr"/>
       <c r="CC29" t="inlineStr"/>
       <c r="CD29" t="inlineStr"/>
       <c r="CE29" t="inlineStr"/>
@@ -8108,9 +5550,7 @@
       <c r="CT29" t="inlineStr"/>
       <c r="CU29" t="inlineStr"/>
       <c r="CV29" t="inlineStr"/>
-      <c r="CW29" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="CW29" t="inlineStr"/>
       <c r="CX29" t="inlineStr"/>
       <c r="CY29" t="inlineStr"/>
       <c r="CZ29" t="inlineStr"/>
@@ -8119,36 +5559,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB29" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC29" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD29" t="n">
-        <v>5.368376345338416</v>
-      </c>
-      <c r="DE29" t="n">
-        <v>0.02232383980246639</v>
-      </c>
-      <c r="DF29" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG29" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH29" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI29" t="n">
-        <v>1.036116646443266</v>
-      </c>
-      <c r="DJ29" t="n">
-        <v>0.9726428393738623</v>
-      </c>
-      <c r="DK29" t="n">
-        <v>0.9973264385216895</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8208,30 +5618,14 @@
       <c r="O30" t="n">
         <v>268.91</v>
       </c>
-      <c r="P30" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R30" t="n">
-        <v>9.45999999999998</v>
-      </c>
-      <c r="S30" t="n">
-        <v>8.908867035344221</v>
-      </c>
-      <c r="T30" t="n">
-        <v>8.929589308228616</v>
-      </c>
-      <c r="U30" t="n">
-        <v>12.64542428680417</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0.2325056750588981</v>
-      </c>
-      <c r="W30" t="n">
-        <v>12.64756159432447</v>
-      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -8247,30 +5641,14 @@
       <c r="AH30" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI30" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>9.629999999999995</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>9.226775280960016</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>9.248298619679321</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>13.0945705339437</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>0.2635887746578323</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>13.09722323664647</v>
-      </c>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -8286,30 +5664,14 @@
       <c r="BA30" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB30" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>9.45999999999998</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>8.98613941993084</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>8.998321405849786</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>12.74586864168819</v>
-      </c>
-      <c r="BH30" t="n">
-        <v>0.274045618139514</v>
-      </c>
-      <c r="BI30" t="n">
-        <v>12.74881439318935</v>
-      </c>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="inlineStr"/>
       <c r="BJ30" t="inlineStr"/>
       <c r="BK30" t="inlineStr"/>
       <c r="BL30" t="inlineStr"/>
@@ -8325,30 +5687,14 @@
       <c r="BT30" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU30" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV30" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW30" t="n">
-        <v>9.670000000000016</v>
-      </c>
-      <c r="BX30" t="n">
-        <v>9.006980093241857</v>
-      </c>
-      <c r="BY30" t="n">
-        <v>9.020170299213451</v>
-      </c>
-      <c r="BZ30" t="n">
-        <v>12.77731371847325</v>
-      </c>
-      <c r="CA30" t="n">
-        <v>0.2385831623298819</v>
-      </c>
-      <c r="CB30" t="n">
-        <v>12.77954098493494</v>
-      </c>
+      <c r="BU30" t="inlineStr"/>
+      <c r="BV30" t="inlineStr"/>
+      <c r="BW30" t="inlineStr"/>
+      <c r="BX30" t="inlineStr"/>
+      <c r="BY30" t="inlineStr"/>
+      <c r="BZ30" t="inlineStr"/>
+      <c r="CA30" t="inlineStr"/>
+      <c r="CB30" t="inlineStr"/>
       <c r="CC30" t="inlineStr"/>
       <c r="CD30" t="inlineStr"/>
       <c r="CE30" t="inlineStr"/>
@@ -8369,9 +5715,7 @@
       <c r="CT30" t="inlineStr"/>
       <c r="CU30" t="inlineStr"/>
       <c r="CV30" t="inlineStr"/>
-      <c r="CW30" t="n">
-        <v>0</v>
-      </c>
+      <c r="CW30" t="inlineStr"/>
       <c r="CX30" t="inlineStr"/>
       <c r="CY30" t="inlineStr"/>
       <c r="CZ30" t="inlineStr"/>
@@ -8380,34 +5724,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB30" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC30" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD30" t="inlineStr"/>
-      <c r="DE30" t="n">
-        <v>0.01973185656702631</v>
-      </c>
-      <c r="DF30" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG30" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH30" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI30" t="n">
-        <v>1.035684475293497</v>
-      </c>
-      <c r="DJ30" t="n">
-        <v>0.973919830742411</v>
-      </c>
-      <c r="DK30" t="n">
-        <v>1.002319202088585</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8467,30 +5783,14 @@
       <c r="O31" t="n">
         <v>268.91</v>
       </c>
-      <c r="P31" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R31" t="n">
-        <v>8.515000000000015</v>
-      </c>
-      <c r="S31" t="n">
-        <v>7.383466814808639</v>
-      </c>
-      <c r="T31" t="n">
-        <v>7.329180332467862</v>
-      </c>
-      <c r="U31" t="n">
-        <v>10.38617110185475</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.31350191046523</v>
-      </c>
-      <c r="W31" t="n">
-        <v>10.46889857749126</v>
-      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
@@ -8506,30 +5806,14 @@
       <c r="AH31" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI31" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>9.074999999999989</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>7.378952843544293</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>7.349486077195345</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>10.42140381554626</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>1.535585464421644</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>10.53392995065114</v>
-      </c>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -8545,30 +5829,14 @@
       <c r="BA31" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB31" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>5.075000000000017</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>4.441600203086697</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>4.421614529533145</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>6.261559944098552</v>
-      </c>
-      <c r="BH31" t="n">
-        <v>0.4852879218288415</v>
-      </c>
-      <c r="BI31" t="n">
-        <v>6.28033735563723</v>
-      </c>
+      <c r="BB31" t="inlineStr"/>
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="inlineStr"/>
+      <c r="BG31" t="inlineStr"/>
+      <c r="BH31" t="inlineStr"/>
+      <c r="BI31" t="inlineStr"/>
       <c r="BJ31" t="inlineStr"/>
       <c r="BK31" t="inlineStr"/>
       <c r="BL31" t="inlineStr"/>
@@ -8584,30 +5852,14 @@
       <c r="BT31" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU31" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV31" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW31" t="n">
-        <v>5.164999999999992</v>
-      </c>
-      <c r="BX31" t="n">
-        <v>4.580919575453757</v>
-      </c>
-      <c r="BY31" t="n">
-        <v>4.56882443447943</v>
-      </c>
-      <c r="BZ31" t="n">
-        <v>6.469208691261317</v>
-      </c>
-      <c r="CA31" t="n">
-        <v>0.5210263937134095</v>
-      </c>
-      <c r="CB31" t="n">
-        <v>6.490156361293383</v>
-      </c>
+      <c r="BU31" t="inlineStr"/>
+      <c r="BV31" t="inlineStr"/>
+      <c r="BW31" t="inlineStr"/>
+      <c r="BX31" t="inlineStr"/>
+      <c r="BY31" t="inlineStr"/>
+      <c r="BZ31" t="inlineStr"/>
+      <c r="CA31" t="inlineStr"/>
+      <c r="CB31" t="inlineStr"/>
       <c r="CC31" t="inlineStr"/>
       <c r="CD31" t="inlineStr"/>
       <c r="CE31" t="inlineStr"/>
@@ -8628,9 +5880,7 @@
       <c r="CT31" t="inlineStr"/>
       <c r="CU31" t="inlineStr"/>
       <c r="CV31" t="inlineStr"/>
-      <c r="CW31" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="CW31" t="inlineStr"/>
       <c r="CX31" t="inlineStr"/>
       <c r="CY31" t="inlineStr"/>
       <c r="CZ31" t="inlineStr"/>
@@ -8639,36 +5889,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB31" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC31" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD31" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DE31" t="n">
-        <v>0.06178671849733349</v>
-      </c>
-      <c r="DF31" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG31" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH31" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI31" t="n">
-        <v>0.9993886379694573</v>
-      </c>
-      <c r="DJ31" t="n">
-        <v>0.6019282542200509</v>
-      </c>
-      <c r="DK31" t="n">
-        <v>1.031366932185891</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8728,30 +5948,14 @@
       <c r="O32" t="n">
         <v>268.91</v>
       </c>
-      <c r="P32" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R32" t="n">
-        <v>19.52369999999999</v>
-      </c>
-      <c r="S32" t="n">
-        <v>13.42529659501297</v>
-      </c>
-      <c r="T32" t="n">
-        <v>13.46203122861826</v>
-      </c>
-      <c r="U32" t="n">
-        <v>19.12810293035724</v>
-      </c>
-      <c r="V32" t="n">
-        <v>6.635190742057468</v>
-      </c>
-      <c r="W32" t="n">
-        <v>20.246236141511</v>
-      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
@@ -8767,30 +5971,14 @@
       <c r="AH32" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI32" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>19.993</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>13.45143580592305</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>13.54885261964741</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>19.28789083536696</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>7.343209044686362</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>20.63844596744136</v>
-      </c>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -8806,30 +5994,14 @@
       <c r="BA32" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB32" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>14.22999999999999</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>13.04115462211826</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>13.03966886303122</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>18.46967705372995</v>
-      </c>
-      <c r="BH32" t="n">
-        <v>0.6668000035604743</v>
-      </c>
-      <c r="BI32" t="n">
-        <v>18.48170968048754</v>
-      </c>
+      <c r="BB32" t="inlineStr"/>
+      <c r="BC32" t="inlineStr"/>
+      <c r="BD32" t="inlineStr"/>
+      <c r="BE32" t="inlineStr"/>
+      <c r="BF32" t="inlineStr"/>
+      <c r="BG32" t="inlineStr"/>
+      <c r="BH32" t="inlineStr"/>
+      <c r="BI32" t="inlineStr"/>
       <c r="BJ32" t="inlineStr"/>
       <c r="BK32" t="inlineStr"/>
       <c r="BL32" t="inlineStr"/>
@@ -8845,30 +6017,14 @@
       <c r="BT32" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU32" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV32" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW32" t="n">
-        <v>14.27500000000001</v>
-      </c>
-      <c r="BX32" t="n">
-        <v>13.09858908799462</v>
-      </c>
-      <c r="BY32" t="n">
-        <v>13.10887147680286</v>
-      </c>
-      <c r="BZ32" t="n">
-        <v>18.56092913824942</v>
-      </c>
-      <c r="CA32" t="n">
-        <v>0.7804925062526448</v>
-      </c>
-      <c r="CB32" t="n">
-        <v>18.57733185975406</v>
-      </c>
+      <c r="BU32" t="inlineStr"/>
+      <c r="BV32" t="inlineStr"/>
+      <c r="BW32" t="inlineStr"/>
+      <c r="BX32" t="inlineStr"/>
+      <c r="BY32" t="inlineStr"/>
+      <c r="BZ32" t="inlineStr"/>
+      <c r="CA32" t="inlineStr"/>
+      <c r="CB32" t="inlineStr"/>
       <c r="CC32" t="inlineStr"/>
       <c r="CD32" t="inlineStr"/>
       <c r="CE32" t="inlineStr"/>
@@ -8889,9 +6045,7 @@
       <c r="CT32" t="inlineStr"/>
       <c r="CU32" t="inlineStr"/>
       <c r="CV32" t="inlineStr"/>
-      <c r="CW32" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="CW32" t="inlineStr"/>
       <c r="CX32" t="inlineStr"/>
       <c r="CY32" t="inlineStr"/>
       <c r="CZ32" t="inlineStr"/>
@@ -8900,36 +6054,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB32" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC32" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD32" t="n">
-        <v>5.368376345338416</v>
-      </c>
-      <c r="DE32" t="n">
-        <v>0.04096562911158434</v>
-      </c>
-      <c r="DF32" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG32" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH32" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI32" t="n">
-        <v>1.001947011801571</v>
-      </c>
-      <c r="DJ32" t="n">
-        <v>0.9694990787805623</v>
-      </c>
-      <c r="DK32" t="n">
-        <v>1.004404093620587</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8989,30 +6113,14 @@
       <c r="O33" t="n">
         <v>268.91</v>
       </c>
-      <c r="P33" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R33" t="n">
-        <v>19.34440000000002</v>
-      </c>
-      <c r="S33" t="n">
-        <v>13.38318516956701</v>
-      </c>
-      <c r="T33" t="n">
-        <v>13.4233339774978</v>
-      </c>
-      <c r="U33" t="n">
-        <v>19.04602615504421</v>
-      </c>
-      <c r="V33" t="n">
-        <v>6.366628815306812</v>
-      </c>
-      <c r="W33" t="n">
-        <v>20.08195893757686</v>
-      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
@@ -9028,30 +6136,14 @@
       <c r="AH33" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI33" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>19.17370000000003</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>13.25047513121575</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>13.24017886184207</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>18.79376451639407</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>7.15762694146227</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>20.11062426009743</v>
-      </c>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -9067,30 +6159,14 @@
       <c r="BA33" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB33" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>25.02999999999999</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>13.31033607253601</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>13.51012961597004</v>
-      </c>
-      <c r="BG33" t="n">
-        <v>19.49921304768382</v>
-      </c>
-      <c r="BH33" t="n">
-        <v>11.42938844019201</v>
-      </c>
-      <c r="BI33" t="n">
-        <v>22.60199614184016</v>
-      </c>
+      <c r="BB33" t="inlineStr"/>
+      <c r="BC33" t="inlineStr"/>
+      <c r="BD33" t="inlineStr"/>
+      <c r="BE33" t="inlineStr"/>
+      <c r="BF33" t="inlineStr"/>
+      <c r="BG33" t="inlineStr"/>
+      <c r="BH33" t="inlineStr"/>
+      <c r="BI33" t="inlineStr"/>
       <c r="BJ33" t="inlineStr"/>
       <c r="BK33" t="inlineStr"/>
       <c r="BL33" t="inlineStr"/>
@@ -9106,30 +6182,14 @@
       <c r="BT33" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU33" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV33" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW33" t="n">
-        <v>26.14265000000002</v>
-      </c>
-      <c r="BX33" t="n">
-        <v>13.48699934097751</v>
-      </c>
-      <c r="BY33" t="n">
-        <v>13.77269003512813</v>
-      </c>
-      <c r="BZ33" t="n">
-        <v>20.0057654510957</v>
-      </c>
-      <c r="CA33" t="n">
-        <v>11.3929696620031</v>
-      </c>
-      <c r="CB33" t="n">
-        <v>23.02238929832387</v>
-      </c>
+      <c r="BU33" t="inlineStr"/>
+      <c r="BV33" t="inlineStr"/>
+      <c r="BW33" t="inlineStr"/>
+      <c r="BX33" t="inlineStr"/>
+      <c r="BY33" t="inlineStr"/>
+      <c r="BZ33" t="inlineStr"/>
+      <c r="CA33" t="inlineStr"/>
+      <c r="CB33" t="inlineStr"/>
       <c r="CC33" t="inlineStr"/>
       <c r="CD33" t="inlineStr"/>
       <c r="CE33" t="inlineStr"/>
@@ -9150,9 +6210,7 @@
       <c r="CT33" t="inlineStr"/>
       <c r="CU33" t="inlineStr"/>
       <c r="CV33" t="inlineStr"/>
-      <c r="CW33" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="CW33" t="inlineStr"/>
       <c r="CX33" t="inlineStr"/>
       <c r="CY33" t="inlineStr"/>
       <c r="CZ33" t="inlineStr"/>
@@ -9161,34 +6219,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB33" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC33" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD33" t="inlineStr"/>
-      <c r="DE33" t="n">
-        <v>0.03928688455443333</v>
-      </c>
-      <c r="DF33" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG33" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH33" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI33" t="n">
-        <v>0.9900838225975505</v>
-      </c>
-      <c r="DJ33" t="n">
-        <v>1.004517644894049</v>
-      </c>
-      <c r="DK33" t="n">
-        <v>1.013272637706423</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9248,30 +6278,14 @@
       <c r="O34" t="n">
         <v>268.91</v>
       </c>
-      <c r="P34" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4.769999999999982</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4.454466221289795</v>
-      </c>
-      <c r="T34" t="n">
-        <v>4.464389818956206</v>
-      </c>
-      <c r="U34" t="n">
-        <v>6.320431651998915</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0.1348253865121371</v>
-      </c>
-      <c r="W34" t="n">
-        <v>6.321869514031262</v>
-      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
@@ -9287,30 +6301,14 @@
       <c r="AH34" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI34" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>4.944999999999965</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>4.680198781131049</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>4.690887401888886</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>6.641919964232837</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>0.2201757954129031</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>6.645568312203286</v>
-      </c>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -9326,30 +6324,14 @@
       <c r="BA34" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB34" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>4.734999999999985</v>
-      </c>
-      <c r="BE34" t="n">
-        <v>4.552616062966293</v>
-      </c>
-      <c r="BF34" t="n">
-        <v>4.560105683179122</v>
-      </c>
-      <c r="BG34" t="n">
-        <v>6.456151565083335</v>
-      </c>
-      <c r="BH34" t="n">
-        <v>0.1388423646828674</v>
-      </c>
-      <c r="BI34" t="n">
-        <v>6.457644325414549</v>
-      </c>
+      <c r="BB34" t="inlineStr"/>
+      <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="inlineStr"/>
+      <c r="BE34" t="inlineStr"/>
+      <c r="BF34" t="inlineStr"/>
+      <c r="BG34" t="inlineStr"/>
+      <c r="BH34" t="inlineStr"/>
+      <c r="BI34" t="inlineStr"/>
       <c r="BJ34" t="inlineStr"/>
       <c r="BK34" t="inlineStr"/>
       <c r="BL34" t="inlineStr"/>
@@ -9365,30 +6347,14 @@
       <c r="BT34" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU34" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV34" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW34" t="n">
-        <v>4.900000000000006</v>
-      </c>
-      <c r="BX34" t="n">
-        <v>4.576398884999122</v>
-      </c>
-      <c r="BY34" t="n">
-        <v>4.585062373667363</v>
-      </c>
-      <c r="BZ34" t="n">
-        <v>6.492042643738744</v>
-      </c>
-      <c r="CA34" t="n">
-        <v>0.1324384246073921</v>
-      </c>
-      <c r="CB34" t="n">
-        <v>6.493393382849589</v>
-      </c>
+      <c r="BU34" t="inlineStr"/>
+      <c r="BV34" t="inlineStr"/>
+      <c r="BW34" t="inlineStr"/>
+      <c r="BX34" t="inlineStr"/>
+      <c r="BY34" t="inlineStr"/>
+      <c r="BZ34" t="inlineStr"/>
+      <c r="CA34" t="inlineStr"/>
+      <c r="CB34" t="inlineStr"/>
       <c r="CC34" t="inlineStr"/>
       <c r="CD34" t="inlineStr"/>
       <c r="CE34" t="inlineStr"/>
@@ -9409,9 +6375,7 @@
       <c r="CT34" t="inlineStr"/>
       <c r="CU34" t="inlineStr"/>
       <c r="CV34" t="inlineStr"/>
-      <c r="CW34" t="n">
-        <v>0</v>
-      </c>
+      <c r="CW34" t="inlineStr"/>
       <c r="CX34" t="inlineStr"/>
       <c r="CY34" t="inlineStr"/>
       <c r="CZ34" t="inlineStr"/>
@@ -9420,34 +6384,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB34" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC34" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD34" t="inlineStr"/>
-      <c r="DE34" t="n">
-        <v>0.01013229810217492</v>
-      </c>
-      <c r="DF34" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG34" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH34" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI34" t="n">
-        <v>1.050675557659946</v>
-      </c>
-      <c r="DJ34" t="n">
-        <v>0.9727398932970273</v>
-      </c>
-      <c r="DK34" t="n">
-        <v>1.005223990273701</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9507,30 +6443,14 @@
       <c r="O35" t="n">
         <v>268.91</v>
       </c>
-      <c r="P35" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R35" t="n">
-        <v>17.45999999999999</v>
-      </c>
-      <c r="S35" t="n">
-        <v>15.48367520675542</v>
-      </c>
-      <c r="T35" t="n">
-        <v>15.36119807454691</v>
-      </c>
-      <c r="U35" t="n">
-        <v>21.75817163934667</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.912137297091457</v>
-      </c>
-      <c r="W35" t="n">
-        <v>21.84203063202224</v>
-      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
@@ -9546,30 +6466,14 @@
       <c r="AH35" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI35" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>16.64162500000002</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>14.78205383361488</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>14.90056334488608</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>21.11891246067513</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>2.210761868202598</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>21.23431024449718</v>
-      </c>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -9585,30 +6489,14 @@
       <c r="BA35" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB35" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>11.52662499999997</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>10.28683641381718</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>10.20720434742455</v>
-      </c>
-      <c r="BG35" t="n">
-        <v>14.46274159901122</v>
-      </c>
-      <c r="BH35" t="n">
-        <v>1.215378403524657</v>
-      </c>
-      <c r="BI35" t="n">
-        <v>14.51371900043279</v>
-      </c>
+      <c r="BB35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr"/>
+      <c r="BD35" t="inlineStr"/>
+      <c r="BE35" t="inlineStr"/>
+      <c r="BF35" t="inlineStr"/>
+      <c r="BG35" t="inlineStr"/>
+      <c r="BH35" t="inlineStr"/>
+      <c r="BI35" t="inlineStr"/>
       <c r="BJ35" t="inlineStr"/>
       <c r="BK35" t="inlineStr"/>
       <c r="BL35" t="inlineStr"/>
@@ -9624,30 +6512,14 @@
       <c r="BT35" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU35" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV35" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW35" t="n">
-        <v>11.34999999999999</v>
-      </c>
-      <c r="BX35" t="n">
-        <v>10.34111586772482</v>
-      </c>
-      <c r="BY35" t="n">
-        <v>10.31202425649983</v>
-      </c>
-      <c r="BZ35" t="n">
-        <v>14.60882867128465</v>
-      </c>
-      <c r="CA35" t="n">
-        <v>1.145096811345087</v>
-      </c>
-      <c r="CB35" t="n">
-        <v>14.65363851929961</v>
-      </c>
+      <c r="BU35" t="inlineStr"/>
+      <c r="BV35" t="inlineStr"/>
+      <c r="BW35" t="inlineStr"/>
+      <c r="BX35" t="inlineStr"/>
+      <c r="BY35" t="inlineStr"/>
+      <c r="BZ35" t="inlineStr"/>
+      <c r="CA35" t="inlineStr"/>
+      <c r="CB35" t="inlineStr"/>
       <c r="CC35" t="inlineStr"/>
       <c r="CD35" t="inlineStr"/>
       <c r="CE35" t="inlineStr"/>
@@ -9668,9 +6540,7 @@
       <c r="CT35" t="inlineStr"/>
       <c r="CU35" t="inlineStr"/>
       <c r="CV35" t="inlineStr"/>
-      <c r="CW35" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="CW35" t="inlineStr"/>
       <c r="CX35" t="inlineStr"/>
       <c r="CY35" t="inlineStr"/>
       <c r="CZ35" t="inlineStr"/>
@@ -9679,36 +6549,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB35" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC35" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD35" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DE35" t="n">
-        <v>0.1133037354504893</v>
-      </c>
-      <c r="DF35" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG35" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH35" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI35" t="n">
-        <v>0.9546863800892419</v>
-      </c>
-      <c r="DJ35" t="n">
-        <v>0.6959003484633897</v>
-      </c>
-      <c r="DK35" t="n">
-        <v>1.005276593475788</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9768,30 +6608,14 @@
       <c r="O36" t="n">
         <v>268.91</v>
       </c>
-      <c r="P36" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R36" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="S36" t="n">
-        <v>15.28811701243394</v>
-      </c>
-      <c r="T36" t="n">
-        <v>15.26986468791411</v>
-      </c>
-      <c r="U36" t="n">
-        <v>21.61919661064841</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.174763687297187</v>
-      </c>
-      <c r="W36" t="n">
-        <v>21.65109077646813</v>
-      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
@@ -9807,30 +6631,14 @@
       <c r="AH36" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI36" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>15.98500000000004</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>15.09444975330617</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>15.14495515916331</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>21.44484372008665</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>0.8097797774492769</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>21.46012734041683</v>
-      </c>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -9846,30 +6654,14 @@
       <c r="BA36" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB36" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>15.81500000000003</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>14.91330958746181</v>
-      </c>
-      <c r="BF36" t="n">
-        <v>14.84654207872012</v>
-      </c>
-      <c r="BG36" t="n">
-        <v>21.02525614993583</v>
-      </c>
-      <c r="BH36" t="n">
-        <v>0.839782951700883</v>
-      </c>
-      <c r="BI36" t="n">
-        <v>21.04202061533972</v>
-      </c>
+      <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="inlineStr"/>
+      <c r="BE36" t="inlineStr"/>
+      <c r="BF36" t="inlineStr"/>
+      <c r="BG36" t="inlineStr"/>
+      <c r="BH36" t="inlineStr"/>
+      <c r="BI36" t="inlineStr"/>
       <c r="BJ36" t="inlineStr"/>
       <c r="BK36" t="inlineStr"/>
       <c r="BL36" t="inlineStr"/>
@@ -9885,30 +6677,14 @@
       <c r="BT36" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU36" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV36" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW36" t="n">
-        <v>15.855</v>
-      </c>
-      <c r="BX36" t="n">
-        <v>14.92392736518003</v>
-      </c>
-      <c r="BY36" t="n">
-        <v>14.84052801457027</v>
-      </c>
-      <c r="BZ36" t="n">
-        <v>21.02126125382789</v>
-      </c>
-      <c r="CA36" t="n">
-        <v>1.315133200057129</v>
-      </c>
-      <c r="CB36" t="n">
-        <v>21.06235979266279</v>
-      </c>
+      <c r="BU36" t="inlineStr"/>
+      <c r="BV36" t="inlineStr"/>
+      <c r="BW36" t="inlineStr"/>
+      <c r="BX36" t="inlineStr"/>
+      <c r="BY36" t="inlineStr"/>
+      <c r="BZ36" t="inlineStr"/>
+      <c r="CA36" t="inlineStr"/>
+      <c r="CB36" t="inlineStr"/>
       <c r="CC36" t="inlineStr"/>
       <c r="CD36" t="inlineStr"/>
       <c r="CE36" t="inlineStr"/>
@@ -9929,9 +6705,7 @@
       <c r="CT36" t="inlineStr"/>
       <c r="CU36" t="inlineStr"/>
       <c r="CV36" t="inlineStr"/>
-      <c r="CW36" t="n">
-        <v>0</v>
-      </c>
+      <c r="CW36" t="inlineStr"/>
       <c r="CX36" t="inlineStr"/>
       <c r="CY36" t="inlineStr"/>
       <c r="CZ36" t="inlineStr"/>
@@ -9940,34 +6714,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB36" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC36" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD36" t="inlineStr"/>
-      <c r="DE36" t="n">
-        <v>0.1088331344550831</v>
-      </c>
-      <c r="DF36" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG36" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH36" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI36" t="n">
-        <v>0.9873321705367474</v>
-      </c>
-      <c r="DJ36" t="n">
-        <v>0.9879995515699611</v>
-      </c>
-      <c r="DK36" t="n">
-        <v>1.000711966559532</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10027,30 +6773,14 @@
       <c r="O37" t="n">
         <v>268.91</v>
       </c>
-      <c r="P37" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5.339999999999975</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4.358826818549481</v>
-      </c>
-      <c r="T37" t="n">
-        <v>4.394376742562309</v>
-      </c>
-      <c r="U37" t="n">
-        <v>6.239769087851587</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0.9710191981883275</v>
-      </c>
-      <c r="W37" t="n">
-        <v>6.314871063842755</v>
-      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
@@ -10066,30 +6796,14 @@
       <c r="AH37" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI37" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>6.114249999999988</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>4.694313674073984</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>4.737793021313028</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>6.736000693219838</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>1.339901031498878</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>6.867972052452592</v>
-      </c>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
@@ -10105,30 +6819,14 @@
       <c r="BA37" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB37" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>4.685000000000002</v>
-      </c>
-      <c r="BE37" t="n">
-        <v>4.389219333751486</v>
-      </c>
-      <c r="BF37" t="n">
-        <v>4.402348370384373</v>
-      </c>
-      <c r="BG37" t="n">
-        <v>6.240565761448488</v>
-      </c>
-      <c r="BH37" t="n">
-        <v>0.2148414268738843</v>
-      </c>
-      <c r="BI37" t="n">
-        <v>6.244262795692087</v>
-      </c>
+      <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="inlineStr"/>
+      <c r="BE37" t="inlineStr"/>
+      <c r="BF37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr"/>
+      <c r="BH37" t="inlineStr"/>
+      <c r="BI37" t="inlineStr"/>
       <c r="BJ37" t="inlineStr"/>
       <c r="BK37" t="inlineStr"/>
       <c r="BL37" t="inlineStr"/>
@@ -10144,30 +6842,14 @@
       <c r="BT37" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU37" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV37" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW37" t="n">
-        <v>4.560000000000002</v>
-      </c>
-      <c r="BX37" t="n">
-        <v>4.405335897830579</v>
-      </c>
-      <c r="BY37" t="n">
-        <v>4.41740779625891</v>
-      </c>
-      <c r="BZ37" t="n">
-        <v>6.257473692155243</v>
-      </c>
-      <c r="CA37" t="n">
-        <v>0.199858330166209</v>
-      </c>
-      <c r="CB37" t="n">
-        <v>6.260664530235732</v>
-      </c>
+      <c r="BU37" t="inlineStr"/>
+      <c r="BV37" t="inlineStr"/>
+      <c r="BW37" t="inlineStr"/>
+      <c r="BX37" t="inlineStr"/>
+      <c r="BY37" t="inlineStr"/>
+      <c r="BZ37" t="inlineStr"/>
+      <c r="CA37" t="inlineStr"/>
+      <c r="CB37" t="inlineStr"/>
       <c r="CC37" t="inlineStr"/>
       <c r="CD37" t="inlineStr"/>
       <c r="CE37" t="inlineStr"/>
@@ -10188,9 +6870,7 @@
       <c r="CT37" t="inlineStr"/>
       <c r="CU37" t="inlineStr"/>
       <c r="CV37" t="inlineStr"/>
-      <c r="CW37" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="CW37" t="inlineStr"/>
       <c r="CX37" t="inlineStr"/>
       <c r="CY37" t="inlineStr"/>
       <c r="CZ37" t="inlineStr"/>
@@ -10199,36 +6879,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB37" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC37" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD37" t="n">
-        <v>5.368376345338416</v>
-      </c>
-      <c r="DE37" t="n">
-        <v>0.01252808972117761</v>
-      </c>
-      <c r="DF37" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG37" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH37" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI37" t="n">
-        <v>1.076967236710759</v>
-      </c>
-      <c r="DJ37" t="n">
-        <v>0.9350076791826907</v>
-      </c>
-      <c r="DK37" t="n">
-        <v>1.003671852066075</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10288,30 +6938,14 @@
       <c r="O38" t="n">
         <v>268.91</v>
       </c>
-      <c r="P38" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R38" t="n">
-        <v>27.485</v>
-      </c>
-      <c r="S38" t="n">
-        <v>24.92537442015514</v>
-      </c>
-      <c r="T38" t="n">
-        <v>25.14092958304566</v>
-      </c>
-      <c r="U38" t="n">
-        <v>35.64233215852654</v>
-      </c>
-      <c r="V38" t="n">
-        <v>4.296138242833823</v>
-      </c>
-      <c r="W38" t="n">
-        <v>35.90031539555432</v>
-      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
@@ -10327,30 +6961,14 @@
       <c r="AH38" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI38" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>28.605</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>23.52736289917449</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>23.7289998939207</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>33.67519402769934</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>4.685193482305975</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>33.99955486134839</v>
-      </c>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
@@ -10366,30 +6984,14 @@
       <c r="BA38" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB38" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>17.80999999999997</v>
-      </c>
-      <c r="BE38" t="n">
-        <v>16.11697083514185</v>
-      </c>
-      <c r="BF38" t="n">
-        <v>16.13919018654516</v>
-      </c>
-      <c r="BG38" t="n">
-        <v>22.86849188107042</v>
-      </c>
-      <c r="BH38" t="n">
-        <v>1.542513568253386</v>
-      </c>
-      <c r="BI38" t="n">
-        <v>22.92045525339384</v>
-      </c>
+      <c r="BB38" t="inlineStr"/>
+      <c r="BC38" t="inlineStr"/>
+      <c r="BD38" t="inlineStr"/>
+      <c r="BE38" t="inlineStr"/>
+      <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr"/>
+      <c r="BH38" t="inlineStr"/>
+      <c r="BI38" t="inlineStr"/>
       <c r="BJ38" t="inlineStr"/>
       <c r="BK38" t="inlineStr"/>
       <c r="BL38" t="inlineStr"/>
@@ -10405,30 +7007,14 @@
       <c r="BT38" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU38" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV38" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW38" t="n">
-        <v>19.181625</v>
-      </c>
-      <c r="BX38" t="n">
-        <v>16.64823230668189</v>
-      </c>
-      <c r="BY38" t="n">
-        <v>16.56308315825168</v>
-      </c>
-      <c r="BZ38" t="n">
-        <v>23.4594452305294</v>
-      </c>
-      <c r="CA38" t="n">
-        <v>1.384870051572866</v>
-      </c>
-      <c r="CB38" t="n">
-        <v>23.50028586174968</v>
-      </c>
+      <c r="BU38" t="inlineStr"/>
+      <c r="BV38" t="inlineStr"/>
+      <c r="BW38" t="inlineStr"/>
+      <c r="BX38" t="inlineStr"/>
+      <c r="BY38" t="inlineStr"/>
+      <c r="BZ38" t="inlineStr"/>
+      <c r="CA38" t="inlineStr"/>
+      <c r="CB38" t="inlineStr"/>
       <c r="CC38" t="inlineStr"/>
       <c r="CD38" t="inlineStr"/>
       <c r="CE38" t="inlineStr"/>
@@ -10449,9 +7035,7 @@
       <c r="CT38" t="inlineStr"/>
       <c r="CU38" t="inlineStr"/>
       <c r="CV38" t="inlineStr"/>
-      <c r="CW38" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="CW38" t="inlineStr"/>
       <c r="CX38" t="inlineStr"/>
       <c r="CY38" t="inlineStr"/>
       <c r="CZ38" t="inlineStr"/>
@@ -10460,36 +7044,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB38" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC38" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD38" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DE38" t="n">
-        <v>0.1947558217758928</v>
-      </c>
-      <c r="DF38" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG38" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH38" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI38" t="n">
-        <v>0.9439121155247246</v>
-      </c>
-      <c r="DJ38" t="n">
-        <v>0.6850309107829227</v>
-      </c>
-      <c r="DK38" t="n">
-        <v>1.032962861134033</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10549,30 +7103,14 @@
       <c r="O39" t="n">
         <v>268.91</v>
       </c>
-      <c r="P39" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R39" t="n">
-        <v>18.949375</v>
-      </c>
-      <c r="S39" t="n">
-        <v>15.96331727989866</v>
-      </c>
-      <c r="T39" t="n">
-        <v>16.06215723582486</v>
-      </c>
-      <c r="U39" t="n">
-        <v>22.77256802947467</v>
-      </c>
-      <c r="V39" t="n">
-        <v>4.454265078142773</v>
-      </c>
-      <c r="W39" t="n">
-        <v>23.20410162112325</v>
-      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
@@ -10588,30 +7126,14 @@
       <c r="AH39" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI39" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>20.29787500000002</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>16.07736408751504</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>16.16876576284148</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>22.9600324592481</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>5.044979637087578</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>23.50776276186985</v>
-      </c>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -10627,30 +7149,14 @@
       <c r="BA39" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB39" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>21.89199999999999</v>
-      </c>
-      <c r="BE39" t="n">
-        <v>16.10062391823344</v>
-      </c>
-      <c r="BF39" t="n">
-        <v>16.21299225846682</v>
-      </c>
-      <c r="BG39" t="n">
-        <v>23.04202248702225</v>
-      </c>
-      <c r="BH39" t="n">
-        <v>5.984791316137853</v>
-      </c>
-      <c r="BI39" t="n">
-        <v>23.80656479608426</v>
-      </c>
+      <c r="BB39" t="inlineStr"/>
+      <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="inlineStr"/>
+      <c r="BE39" t="inlineStr"/>
+      <c r="BF39" t="inlineStr"/>
+      <c r="BG39" t="inlineStr"/>
+      <c r="BH39" t="inlineStr"/>
+      <c r="BI39" t="inlineStr"/>
       <c r="BJ39" t="inlineStr"/>
       <c r="BK39" t="inlineStr"/>
       <c r="BL39" t="inlineStr"/>
@@ -10666,30 +7172,14 @@
       <c r="BT39" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU39" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV39" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW39" t="n">
-        <v>23.18662500000003</v>
-      </c>
-      <c r="BX39" t="n">
-        <v>16.52932744069228</v>
-      </c>
-      <c r="BY39" t="n">
-        <v>16.67033431788975</v>
-      </c>
-      <c r="BZ39" t="n">
-        <v>23.83780326100988</v>
-      </c>
-      <c r="CA39" t="n">
-        <v>6.469689917037136</v>
-      </c>
-      <c r="CB39" t="n">
-        <v>24.70015692122675</v>
-      </c>
+      <c r="BU39" t="inlineStr"/>
+      <c r="BV39" t="inlineStr"/>
+      <c r="BW39" t="inlineStr"/>
+      <c r="BX39" t="inlineStr"/>
+      <c r="BY39" t="inlineStr"/>
+      <c r="BZ39" t="inlineStr"/>
+      <c r="CA39" t="inlineStr"/>
+      <c r="CB39" t="inlineStr"/>
       <c r="CC39" t="inlineStr"/>
       <c r="CD39" t="inlineStr"/>
       <c r="CE39" t="inlineStr"/>
@@ -10710,9 +7200,7 @@
       <c r="CT39" t="inlineStr"/>
       <c r="CU39" t="inlineStr"/>
       <c r="CV39" t="inlineStr"/>
-      <c r="CW39" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="CW39" t="inlineStr"/>
       <c r="CX39" t="inlineStr"/>
       <c r="CY39" t="inlineStr"/>
       <c r="CZ39" t="inlineStr"/>
@@ -10721,34 +7209,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB39" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC39" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD39" t="inlineStr"/>
-      <c r="DE39" t="n">
-        <v>0.1381971447624315</v>
-      </c>
-      <c r="DF39" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG39" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH39" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI39" t="n">
-        <v>1.007144305009835</v>
-      </c>
-      <c r="DJ39" t="n">
-        <v>1.001446744042854</v>
-      </c>
-      <c r="DK39" t="n">
-        <v>1.02662651612981</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10808,30 +7268,14 @@
       <c r="O40" t="n">
         <v>268.91</v>
       </c>
-      <c r="P40" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R40" t="n">
-        <v>14.82975000000002</v>
-      </c>
-      <c r="S40" t="n">
-        <v>13.19721520349957</v>
-      </c>
-      <c r="T40" t="n">
-        <v>13.21677400229876</v>
-      </c>
-      <c r="U40" t="n">
-        <v>18.74247884772349</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.503234839904662</v>
-      </c>
-      <c r="W40" t="n">
-        <v>18.80266545842013</v>
-      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
@@ -10847,30 +7291,14 @@
       <c r="AH40" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI40" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>13.71000336232425</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>13.72469928353256</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>19.45024998833113</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>1.577378375609547</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>19.51410636304967</v>
-      </c>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
@@ -10886,30 +7314,14 @@
       <c r="BA40" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB40" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>13.28863116752071</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>13.31752097812435</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>18.85638890138816</v>
-      </c>
-      <c r="BH40" t="n">
-        <v>0.3632498076221276</v>
-      </c>
-      <c r="BI40" t="n">
-        <v>18.85988740218594</v>
-      </c>
+      <c r="BB40" t="inlineStr"/>
+      <c r="BC40" t="inlineStr"/>
+      <c r="BD40" t="inlineStr"/>
+      <c r="BE40" t="inlineStr"/>
+      <c r="BF40" t="inlineStr"/>
+      <c r="BG40" t="inlineStr"/>
+      <c r="BH40" t="inlineStr"/>
+      <c r="BI40" t="inlineStr"/>
       <c r="BJ40" t="inlineStr"/>
       <c r="BK40" t="inlineStr"/>
       <c r="BL40" t="inlineStr"/>
@@ -10925,30 +7337,14 @@
       <c r="BT40" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU40" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV40" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW40" t="n">
-        <v>13.85999999999997</v>
-      </c>
-      <c r="BX40" t="n">
-        <v>13.28180690477019</v>
-      </c>
-      <c r="BY40" t="n">
-        <v>13.31247581166181</v>
-      </c>
-      <c r="BZ40" t="n">
-        <v>18.85134616544854</v>
-      </c>
-      <c r="CA40" t="n">
-        <v>0.3348778098684934</v>
-      </c>
-      <c r="CB40" t="n">
-        <v>18.85432033771342</v>
-      </c>
+      <c r="BU40" t="inlineStr"/>
+      <c r="BV40" t="inlineStr"/>
+      <c r="BW40" t="inlineStr"/>
+      <c r="BX40" t="inlineStr"/>
+      <c r="BY40" t="inlineStr"/>
+      <c r="BZ40" t="inlineStr"/>
+      <c r="CA40" t="inlineStr"/>
+      <c r="CB40" t="inlineStr"/>
       <c r="CC40" t="inlineStr"/>
       <c r="CD40" t="inlineStr"/>
       <c r="CE40" t="inlineStr"/>
@@ -10969,9 +7365,7 @@
       <c r="CT40" t="inlineStr"/>
       <c r="CU40" t="inlineStr"/>
       <c r="CV40" t="inlineStr"/>
-      <c r="CW40" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="CW40" t="inlineStr"/>
       <c r="CX40" t="inlineStr"/>
       <c r="CY40" t="inlineStr"/>
       <c r="CZ40" t="inlineStr"/>
@@ -10980,36 +7374,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB40" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC40" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD40" t="n">
-        <v>5.368376345338416</v>
-      </c>
-      <c r="DE40" t="n">
-        <v>0.03128820869973954</v>
-      </c>
-      <c r="DF40" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG40" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH40" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI40" t="n">
-        <v>1.038855785172671</v>
-      </c>
-      <c r="DJ40" t="n">
-        <v>0.9692653470850712</v>
-      </c>
-      <c r="DK40" t="n">
-        <v>0.9994864585626243</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11069,30 +7433,14 @@
       <c r="O41" t="n">
         <v>268.91</v>
       </c>
-      <c r="P41" t="n">
-        <v>4700</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9315.384615384615</v>
-      </c>
-      <c r="R41" t="n">
-        <v>12.18000000000001</v>
-      </c>
-      <c r="S41" t="n">
-        <v>7.058858935098313</v>
-      </c>
-      <c r="T41" t="n">
-        <v>7.140381563911336</v>
-      </c>
-      <c r="U41" t="n">
-        <v>10.17808179257656</v>
-      </c>
-      <c r="V41" t="n">
-        <v>4.399990381710611</v>
-      </c>
-      <c r="W41" t="n">
-        <v>11.08842929974865</v>
-      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
@@ -11108,30 +7456,14 @@
       <c r="AH41" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI41" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>9415.384615384615</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>14.74825000000004</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>7.850897937829725</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>8.037866278183877</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>11.46078358188049</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>6.15946558106184</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>13.01109436423343</v>
-      </c>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -11147,30 +7479,14 @@
       <c r="BA41" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB41" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>6.535000000000025</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>5.514552322961101</v>
-      </c>
-      <c r="BF41" t="n">
-        <v>5.488227180498509</v>
-      </c>
-      <c r="BG41" t="n">
-        <v>7.783419585947873</v>
-      </c>
-      <c r="BH41" t="n">
-        <v>0.8495520164165172</v>
-      </c>
-      <c r="BI41" t="n">
-        <v>7.829646165665107</v>
-      </c>
+      <c r="BB41" t="inlineStr"/>
+      <c r="BC41" t="inlineStr"/>
+      <c r="BD41" t="inlineStr"/>
+      <c r="BE41" t="inlineStr"/>
+      <c r="BF41" t="inlineStr"/>
+      <c r="BG41" t="inlineStr"/>
+      <c r="BH41" t="inlineStr"/>
+      <c r="BI41" t="inlineStr"/>
       <c r="BJ41" t="inlineStr"/>
       <c r="BK41" t="inlineStr"/>
       <c r="BL41" t="inlineStr"/>
@@ -11186,30 +7502,14 @@
       <c r="BT41" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU41" t="n">
-        <v>6500</v>
-      </c>
-      <c r="BV41" t="n">
-        <v>11115.38461538462</v>
-      </c>
-      <c r="BW41" t="n">
-        <v>6.582000000000009</v>
-      </c>
-      <c r="BX41" t="n">
-        <v>5.529353619012136</v>
-      </c>
-      <c r="BY41" t="n">
-        <v>5.53468615502238</v>
-      </c>
-      <c r="BZ41" t="n">
-        <v>7.854952624199609</v>
-      </c>
-      <c r="CA41" t="n">
-        <v>0.8409701190906622</v>
-      </c>
-      <c r="CB41" t="n">
-        <v>7.899842496507364</v>
-      </c>
+      <c r="BU41" t="inlineStr"/>
+      <c r="BV41" t="inlineStr"/>
+      <c r="BW41" t="inlineStr"/>
+      <c r="BX41" t="inlineStr"/>
+      <c r="BY41" t="inlineStr"/>
+      <c r="BZ41" t="inlineStr"/>
+      <c r="CA41" t="inlineStr"/>
+      <c r="CB41" t="inlineStr"/>
       <c r="CC41" t="inlineStr"/>
       <c r="CD41" t="inlineStr"/>
       <c r="CE41" t="inlineStr"/>
@@ -11230,9 +7530,7 @@
       <c r="CT41" t="inlineStr"/>
       <c r="CU41" t="inlineStr"/>
       <c r="CV41" t="inlineStr"/>
-      <c r="CW41" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="CW41" t="inlineStr"/>
       <c r="CX41" t="inlineStr"/>
       <c r="CY41" t="inlineStr"/>
       <c r="CZ41" t="inlineStr"/>
@@ -11241,36 +7539,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB41" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DC41" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DD41" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DE41" t="n">
-        <v>0.1004127791821821</v>
-      </c>
-      <c r="DF41" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DG41" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DH41" t="n">
-        <v>1.19970570478913</v>
-      </c>
-      <c r="DI41" t="n">
-        <v>1.112204962588671</v>
-      </c>
-      <c r="DJ41" t="n">
-        <v>0.7024103951713738</v>
-      </c>
-      <c r="DK41" t="n">
-        <v>1.002684043088939</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11330,30 +7598,14 @@
       <c r="O42" t="n">
         <v>268.91</v>
       </c>
-      <c r="P42" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R42" t="n">
-        <v>14.21475</v>
-      </c>
-      <c r="S42" t="n">
-        <v>13.39727899906288</v>
-      </c>
-      <c r="T42" t="n">
-        <v>13.42035241774436</v>
-      </c>
-      <c r="U42" t="n">
-        <v>19.00620289485104</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0.2909931780955392</v>
-      </c>
-      <c r="W42" t="n">
-        <v>19.0084303799641</v>
-      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
@@ -11369,30 +7621,14 @@
       <c r="AH42" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI42" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>14.185</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>13.83843406621354</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>13.86970084190515</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>19.64087490081616</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>0.2897115949233935</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>19.64301147171033</v>
-      </c>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
@@ -11408,30 +7644,14 @@
       <c r="BA42" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB42" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>14.57000000000001</v>
-      </c>
-      <c r="BE42" t="n">
-        <v>13.59206541655621</v>
-      </c>
-      <c r="BF42" t="n">
-        <v>13.60913781618921</v>
-      </c>
-      <c r="BG42" t="n">
-        <v>19.28367670486812</v>
-      </c>
-      <c r="BH42" t="n">
-        <v>0.3389876936649855</v>
-      </c>
-      <c r="BI42" t="n">
-        <v>19.28665600653285</v>
-      </c>
+      <c r="BB42" t="inlineStr"/>
+      <c r="BC42" t="inlineStr"/>
+      <c r="BD42" t="inlineStr"/>
+      <c r="BE42" t="inlineStr"/>
+      <c r="BF42" t="inlineStr"/>
+      <c r="BG42" t="inlineStr"/>
+      <c r="BH42" t="inlineStr"/>
+      <c r="BI42" t="inlineStr"/>
       <c r="BJ42" t="inlineStr"/>
       <c r="BK42" t="inlineStr"/>
       <c r="BL42" t="inlineStr"/>
@@ -11447,30 +7667,14 @@
       <c r="BT42" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU42" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV42" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW42" t="n">
-        <v>14.56999999999999</v>
-      </c>
-      <c r="BX42" t="n">
-        <v>13.58162985680418</v>
-      </c>
-      <c r="BY42" t="n">
-        <v>13.60023579250978</v>
-      </c>
-      <c r="BZ42" t="n">
-        <v>19.27320112662493</v>
-      </c>
-      <c r="CA42" t="n">
-        <v>0.3141606066903892</v>
-      </c>
-      <c r="CB42" t="n">
-        <v>19.27576142605352</v>
-      </c>
+      <c r="BU42" t="inlineStr"/>
+      <c r="BV42" t="inlineStr"/>
+      <c r="BW42" t="inlineStr"/>
+      <c r="BX42" t="inlineStr"/>
+      <c r="BY42" t="inlineStr"/>
+      <c r="BZ42" t="inlineStr"/>
+      <c r="CA42" t="inlineStr"/>
+      <c r="CB42" t="inlineStr"/>
       <c r="CC42" t="inlineStr"/>
       <c r="CD42" t="inlineStr"/>
       <c r="CE42" t="inlineStr"/>
@@ -11491,9 +7695,7 @@
       <c r="CT42" t="inlineStr"/>
       <c r="CU42" t="inlineStr"/>
       <c r="CV42" t="inlineStr"/>
-      <c r="CW42" t="n">
-        <v>0</v>
-      </c>
+      <c r="CW42" t="inlineStr"/>
       <c r="CX42" t="inlineStr"/>
       <c r="CY42" t="inlineStr"/>
       <c r="CZ42" t="inlineStr"/>
@@ -11502,34 +7704,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB42" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC42" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD42" t="inlineStr"/>
-      <c r="DE42" t="n">
-        <v>0.02906504521321582</v>
-      </c>
-      <c r="DF42" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG42" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH42" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI42" t="n">
-        <v>1.032928706432218</v>
-      </c>
-      <c r="DJ42" t="n">
-        <v>0.9821967826360616</v>
-      </c>
-      <c r="DK42" t="n">
-        <v>0.9992322314944626</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11589,30 +7763,14 @@
       <c r="O43" t="n">
         <v>268.91</v>
       </c>
-      <c r="P43" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R43" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4.281881627209044</v>
-      </c>
-      <c r="T43" t="n">
-        <v>4.359676611768778</v>
-      </c>
-      <c r="U43" t="n">
-        <v>6.291286048484499</v>
-      </c>
-      <c r="V43" t="n">
-        <v>6.249438988397257</v>
-      </c>
-      <c r="W43" t="n">
-        <v>8.867681084339662</v>
-      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
@@ -11628,30 +7786,14 @@
       <c r="AH43" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI43" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>13.675</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>4.558043224275926</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>4.70284905886141</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>6.837436448686042</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>8.328695668393456</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>10.77579271917089</v>
-      </c>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -11667,30 +7809,14 @@
       <c r="BA43" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB43" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>18.13895000000007</v>
-      </c>
-      <c r="BE43" t="n">
-        <v>4.472087168347905</v>
-      </c>
-      <c r="BF43" t="n">
-        <v>4.698135737647096</v>
-      </c>
-      <c r="BG43" t="n">
-        <v>7.348093392675044</v>
-      </c>
-      <c r="BH43" t="n">
-        <v>11.59291280924994</v>
-      </c>
-      <c r="BI43" t="n">
-        <v>13.72552745472268</v>
-      </c>
+      <c r="BB43" t="inlineStr"/>
+      <c r="BC43" t="inlineStr"/>
+      <c r="BD43" t="inlineStr"/>
+      <c r="BE43" t="inlineStr"/>
+      <c r="BF43" t="inlineStr"/>
+      <c r="BG43" t="inlineStr"/>
+      <c r="BH43" t="inlineStr"/>
+      <c r="BI43" t="inlineStr"/>
       <c r="BJ43" t="inlineStr"/>
       <c r="BK43" t="inlineStr"/>
       <c r="BL43" t="inlineStr"/>
@@ -11706,30 +7832,14 @@
       <c r="BT43" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU43" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV43" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW43" t="n">
-        <v>21.10410000000032</v>
-      </c>
-      <c r="BX43" t="n">
-        <v>3.982345863960177</v>
-      </c>
-      <c r="BY43" t="n">
-        <v>4.212914007321219</v>
-      </c>
-      <c r="BZ43" t="n">
-        <v>7.221421545072832</v>
-      </c>
-      <c r="CA43" t="n">
-        <v>14.26368714630179</v>
-      </c>
-      <c r="CB43" t="n">
-        <v>15.9875482841872</v>
-      </c>
+      <c r="BU43" t="inlineStr"/>
+      <c r="BV43" t="inlineStr"/>
+      <c r="BW43" t="inlineStr"/>
+      <c r="BX43" t="inlineStr"/>
+      <c r="BY43" t="inlineStr"/>
+      <c r="BZ43" t="inlineStr"/>
+      <c r="CA43" t="inlineStr"/>
+      <c r="CB43" t="inlineStr"/>
       <c r="CC43" t="inlineStr"/>
       <c r="CD43" t="inlineStr"/>
       <c r="CE43" t="inlineStr"/>
@@ -11750,9 +7860,7 @@
       <c r="CT43" t="inlineStr"/>
       <c r="CU43" t="inlineStr"/>
       <c r="CV43" t="inlineStr"/>
-      <c r="CW43" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="CW43" t="inlineStr"/>
       <c r="CX43" t="inlineStr"/>
       <c r="CY43" t="inlineStr"/>
       <c r="CZ43" t="inlineStr"/>
@@ -11761,34 +7869,6 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB43" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC43" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD43" t="inlineStr"/>
-      <c r="DE43" t="n">
-        <v>0.0280200559246194</v>
-      </c>
-      <c r="DF43" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG43" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH43" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI43" t="n">
-        <v>1.064495383364179</v>
-      </c>
-      <c r="DJ43" t="n">
-        <v>0.9811418953926931</v>
-      </c>
-      <c r="DK43" t="n">
-        <v>0.8904893205450086</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11848,30 +7928,14 @@
       <c r="O44" t="n">
         <v>268.91</v>
       </c>
-      <c r="P44" t="n">
-        <v>3950</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>13180.76923076923</v>
-      </c>
-      <c r="R44" t="n">
-        <v>15.01932499999998</v>
-      </c>
-      <c r="S44" t="n">
-        <v>8.869884909886459</v>
-      </c>
-      <c r="T44" t="n">
-        <v>8.877707096535326</v>
-      </c>
-      <c r="U44" t="n">
-        <v>12.62322122891813</v>
-      </c>
-      <c r="V44" t="n">
-        <v>6.801407426826058</v>
-      </c>
-      <c r="W44" t="n">
-        <v>14.33892803454617</v>
-      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
@@ -11887,30 +7951,14 @@
       <c r="AH44" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI44" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>13230.76923076923</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>16.46940000000001</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>8.952608492266558</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>8.982606893739227</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>12.83454150472009</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>8.097236815148516</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>15.17533194618751</v>
-      </c>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -11926,30 +7974,14 @@
       <c r="BA44" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB44" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>9.55425000000001</v>
-      </c>
-      <c r="BE44" t="n">
-        <v>8.651077282197946</v>
-      </c>
-      <c r="BF44" t="n">
-        <v>8.660350908304096</v>
-      </c>
-      <c r="BG44" t="n">
-        <v>12.29163819022871</v>
-      </c>
-      <c r="BH44" t="n">
-        <v>0.6204918010209992</v>
-      </c>
-      <c r="BI44" t="n">
-        <v>12.30728968841731</v>
-      </c>
+      <c r="BB44" t="inlineStr"/>
+      <c r="BC44" t="inlineStr"/>
+      <c r="BD44" t="inlineStr"/>
+      <c r="BE44" t="inlineStr"/>
+      <c r="BF44" t="inlineStr"/>
+      <c r="BG44" t="inlineStr"/>
+      <c r="BH44" t="inlineStr"/>
+      <c r="BI44" t="inlineStr"/>
       <c r="BJ44" t="inlineStr"/>
       <c r="BK44" t="inlineStr"/>
       <c r="BL44" t="inlineStr"/>
@@ -11965,30 +7997,14 @@
       <c r="BT44" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU44" t="n">
-        <v>4500</v>
-      </c>
-      <c r="BV44" t="n">
-        <v>13730.76923076923</v>
-      </c>
-      <c r="BW44" t="n">
-        <v>9.724999999999994</v>
-      </c>
-      <c r="BX44" t="n">
-        <v>8.658321476792</v>
-      </c>
-      <c r="BY44" t="n">
-        <v>8.69279915227564</v>
-      </c>
-      <c r="BZ44" t="n">
-        <v>12.33087458204132</v>
-      </c>
-      <c r="CA44" t="n">
-        <v>0.6914653873928602</v>
-      </c>
-      <c r="CB44" t="n">
-        <v>12.35024665097807</v>
-      </c>
+      <c r="BU44" t="inlineStr"/>
+      <c r="BV44" t="inlineStr"/>
+      <c r="BW44" t="inlineStr"/>
+      <c r="BX44" t="inlineStr"/>
+      <c r="BY44" t="inlineStr"/>
+      <c r="BZ44" t="inlineStr"/>
+      <c r="CA44" t="inlineStr"/>
+      <c r="CB44" t="inlineStr"/>
       <c r="CC44" t="inlineStr"/>
       <c r="CD44" t="inlineStr"/>
       <c r="CE44" t="inlineStr"/>
@@ -12009,9 +8025,7 @@
       <c r="CT44" t="inlineStr"/>
       <c r="CU44" t="inlineStr"/>
       <c r="CV44" t="inlineStr"/>
-      <c r="CW44" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="CW44" t="inlineStr"/>
       <c r="CX44" t="inlineStr"/>
       <c r="CY44" t="inlineStr"/>
       <c r="CZ44" t="inlineStr"/>
@@ -12019,36 +8033,6 @@
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB44" t="n">
-        <v>2.048998605090998</v>
-      </c>
-      <c r="DC44" t="n">
-        <v>3.066466366335346</v>
-      </c>
-      <c r="DD44" t="n">
-        <v>5.368376345338416</v>
-      </c>
-      <c r="DE44" t="n">
-        <v>0.03374577762668571</v>
-      </c>
-      <c r="DF44" t="n">
-        <v>1.188419190952779</v>
-      </c>
-      <c r="DG44" t="n">
-        <v>0.8300879542525336</v>
-      </c>
-      <c r="DH44" t="n">
-        <v>1.993203138117974</v>
-      </c>
-      <c r="DI44" t="n">
-        <v>1.009326342249142</v>
-      </c>
-      <c r="DJ44" t="n">
-        <v>0.9663191783345513</v>
-      </c>
-      <c r="DK44" t="n">
-        <v>1.000837374856073</v>
       </c>
     </row>
   </sheetData>

--- a/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
+++ b/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DA44"/>
+  <dimension ref="A1:DH44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,6 +947,41 @@
           <t>PROCESSED_folder</t>
         </is>
       </c>
+      <c r="DB1" t="inlineStr">
+        <is>
+          <t>Wavenumber</t>
+        </is>
+      </c>
+      <c r="DC1" t="inlineStr">
+        <is>
+          <t>Wavelength</t>
+        </is>
+      </c>
+      <c r="DD1" t="inlineStr">
+        <is>
+          <t>kL</t>
+        </is>
+      </c>
+      <c r="DE1" t="inlineStr">
+        <is>
+          <t>ak</t>
+        </is>
+      </c>
+      <c r="DF1" t="inlineStr">
+        <is>
+          <t>kH</t>
+        </is>
+      </c>
+      <c r="DG1" t="inlineStr">
+        <is>
+          <t>tanh(kH)</t>
+        </is>
+      </c>
+      <c r="DH1" t="inlineStr">
+        <is>
+          <t>Celerity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1006,14 +1041,30 @@
       <c r="O2" t="n">
         <v>268.91</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="P2" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R2" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="S2" t="n">
+        <v>22.33334717529972</v>
+      </c>
+      <c r="T2" t="n">
+        <v>22.29814616572832</v>
+      </c>
+      <c r="U2" t="n">
+        <v>31.5749102290627</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.165889323560937</v>
+      </c>
+      <c r="W2" t="n">
+        <v>31.64910792637422</v>
+      </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -1029,14 +1080,30 @@
       <c r="AH2" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
+      <c r="AI2" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>24.41699999999999</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>22.586527996976</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>22.4985348989687</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>31.86422076333484</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>2.350701749745592</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>31.95081162616681</v>
+      </c>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
@@ -1052,14 +1119,30 @@
       <c r="BA2" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
+      <c r="BB2" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>23.902</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>21.46127217280442</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>21.82350009309689</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>30.9216598548836</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>3.398206529522445</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>31.10782627890302</v>
+      </c>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="inlineStr"/>
       <c r="BL2" t="inlineStr"/>
@@ -1075,14 +1158,30 @@
       <c r="BT2" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU2" t="inlineStr"/>
-      <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="inlineStr"/>
-      <c r="BY2" t="inlineStr"/>
-      <c r="BZ2" t="inlineStr"/>
-      <c r="CA2" t="inlineStr"/>
-      <c r="CB2" t="inlineStr"/>
+      <c r="BU2" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>25.45499999999998</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>22.50336852559031</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>22.82884087878812</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>32.33825454258428</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>3.020836062958688</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>32.47904181745891</v>
+      </c>
       <c r="CC2" t="inlineStr"/>
       <c r="CD2" t="inlineStr"/>
       <c r="CE2" t="inlineStr"/>
@@ -1103,14 +1202,41 @@
       <c r="CT2" t="inlineStr"/>
       <c r="CU2" t="inlineStr"/>
       <c r="CV2" t="inlineStr"/>
-      <c r="CW2" t="inlineStr"/>
-      <c r="CX2" t="inlineStr"/>
-      <c r="CY2" t="inlineStr"/>
-      <c r="CZ2" t="inlineStr"/>
+      <c r="CW2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1.011336447675711</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.9501802213991354</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1.048557063364884</v>
+      </c>
       <c r="DA2" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB2" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="n">
+        <v>0.166242017140429</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="3">
@@ -1171,14 +1297,30 @@
       <c r="O3" t="n">
         <v>268.91</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="P3" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R3" t="n">
+        <v>13.88499999999999</v>
+      </c>
+      <c r="S3" t="n">
+        <v>13.30490911183791</v>
+      </c>
+      <c r="T3" t="n">
+        <v>13.33143402922339</v>
+      </c>
+      <c r="U3" t="n">
+        <v>18.8821567652649</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.4116187390544777</v>
+      </c>
+      <c r="W3" t="n">
+        <v>18.88664274280582</v>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
@@ -1194,14 +1336,30 @@
       <c r="AH3" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
+      <c r="AI3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>14.20500000000001</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>13.89249341827786</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>13.92192598797444</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>19.71262963342099</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.3316306332282583</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>19.71541898974817</v>
+      </c>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -1217,14 +1375,30 @@
       <c r="BA3" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
+      <c r="BB3" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>14.245</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>13.47038071587824</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>13.49636058402182</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>19.11420912468244</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.3749629906690736</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>19.11788659100333</v>
+      </c>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="inlineStr"/>
       <c r="BL3" t="inlineStr"/>
@@ -1240,14 +1414,30 @@
       <c r="BT3" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU3" t="inlineStr"/>
-      <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="inlineStr"/>
-      <c r="BX3" t="inlineStr"/>
-      <c r="BY3" t="inlineStr"/>
-      <c r="BZ3" t="inlineStr"/>
-      <c r="CA3" t="inlineStr"/>
-      <c r="CB3" t="inlineStr"/>
+      <c r="BU3" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>14.20499999999998</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>13.51198486935261</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>13.53893111549311</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>19.17521293691721</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.2833992403853914</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>19.17730706604992</v>
+      </c>
       <c r="CC3" t="inlineStr"/>
       <c r="CD3" t="inlineStr"/>
       <c r="CE3" t="inlineStr"/>
@@ -1268,14 +1458,43 @@
       <c r="CT3" t="inlineStr"/>
       <c r="CU3" t="inlineStr"/>
       <c r="CV3" t="inlineStr"/>
-      <c r="CW3" t="inlineStr"/>
-      <c r="CX3" t="inlineStr"/>
-      <c r="CY3" t="inlineStr"/>
-      <c r="CZ3" t="inlineStr"/>
+      <c r="CW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>1.044162970336802</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0.9696157709281857</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>1.003088565524012</v>
+      </c>
       <c r="DA3" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB3" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0.02910602518531768</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="4">
@@ -1332,8 +1551,12 @@
       <c r="O4" t="n">
         <v>268.91</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>17499</v>
+      </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1355,8 +1578,12 @@
       <c r="AH4" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>17499</v>
+      </c>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
@@ -1378,8 +1605,12 @@
       <c r="BA4" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>17499</v>
+      </c>
       <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="inlineStr"/>
@@ -1401,8 +1632,12 @@
       <c r="BT4" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU4" t="inlineStr"/>
-      <c r="BV4" t="inlineStr"/>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>17499</v>
+      </c>
       <c r="BW4" t="inlineStr"/>
       <c r="BX4" t="inlineStr"/>
       <c r="BY4" t="inlineStr"/>
@@ -1429,7 +1664,9 @@
       <c r="CT4" t="inlineStr"/>
       <c r="CU4" t="inlineStr"/>
       <c r="CV4" t="inlineStr"/>
-      <c r="CW4" t="inlineStr"/>
+      <c r="CW4" t="n">
+        <v>5.8</v>
+      </c>
       <c r="CX4" t="inlineStr"/>
       <c r="CY4" t="inlineStr"/>
       <c r="CZ4" t="inlineStr"/>
@@ -1438,6 +1675,13 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr"/>
+      <c r="DE4" t="inlineStr"/>
+      <c r="DF4" t="inlineStr"/>
+      <c r="DG4" t="inlineStr"/>
+      <c r="DH4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1497,14 +1741,30 @@
       <c r="O5" t="n">
         <v>268.91</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="P5" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R5" t="n">
+        <v>8.384999999999991</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7.263317686766193</v>
+      </c>
+      <c r="T5" t="n">
+        <v>7.273289465886097</v>
+      </c>
+      <c r="U5" t="n">
+        <v>10.30297134117514</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.231739415503675</v>
+      </c>
+      <c r="W5" t="n">
+        <v>10.3763384893122</v>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -1520,14 +1780,30 @@
       <c r="AH5" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
+      <c r="AI5" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>8.881625000000025</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>7.356812747546521</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>7.351764603054208</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>10.42369458268262</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.312083192309073</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>10.50594931724815</v>
+      </c>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1543,14 +1819,30 @@
       <c r="BA5" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
-      <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="inlineStr"/>
-      <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr"/>
+      <c r="BB5" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>9.719999999999999</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>7.462442189713257</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>7.394356342484373</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>10.49398090196205</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>2.322397085212573</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>10.74789111370915</v>
+      </c>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="inlineStr"/>
       <c r="BL5" t="inlineStr"/>
@@ -1566,14 +1858,30 @@
       <c r="BT5" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU5" t="inlineStr"/>
-      <c r="BV5" t="inlineStr"/>
-      <c r="BW5" t="inlineStr"/>
-      <c r="BX5" t="inlineStr"/>
-      <c r="BY5" t="inlineStr"/>
-      <c r="BZ5" t="inlineStr"/>
-      <c r="CA5" t="inlineStr"/>
-      <c r="CB5" t="inlineStr"/>
+      <c r="BU5" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>9.58350000000001</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>7.738102418968231</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>7.706740956101606</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>10.92353734961151</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>1.932471298954006</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>11.09315615817422</v>
+      </c>
       <c r="CC5" t="inlineStr"/>
       <c r="CD5" t="inlineStr"/>
       <c r="CE5" t="inlineStr"/>
@@ -1594,14 +1902,41 @@
       <c r="CT5" t="inlineStr"/>
       <c r="CU5" t="inlineStr"/>
       <c r="CV5" t="inlineStr"/>
-      <c r="CW5" t="inlineStr"/>
-      <c r="CX5" t="inlineStr"/>
-      <c r="CY5" t="inlineStr"/>
-      <c r="CZ5" t="inlineStr"/>
+      <c r="CW5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>1.012872225174823</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>1.014358044141053</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>1.036939680368307</v>
+      </c>
       <c r="DA5" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB5" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD5" t="inlineStr"/>
+      <c r="DE5" t="n">
+        <v>0.06047013373816879</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="6">
@@ -1662,14 +1997,30 @@
       <c r="O6" t="n">
         <v>268.91</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4.72999999999999</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.426701225155747</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4.435025242291767</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6.279853224653626</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1496677931864963</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.281636488329285</v>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
@@ -1685,14 +2036,30 @@
       <c r="AH6" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
+      <c r="AI6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>4.789999999999964</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>4.663549092469726</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>4.675313602869866</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>6.620986534873425</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.2165656494973291</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>6.62452740771124</v>
+      </c>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1708,14 +2075,30 @@
       <c r="BA6" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
-      <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="inlineStr"/>
-      <c r="BG6" t="inlineStr"/>
-      <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr"/>
+      <c r="BB6" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>4.764999999999986</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>4.531016516705192</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>4.541748512041679</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>6.429192359710196</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.1435126347056221</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>6.430793907013045</v>
+      </c>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
@@ -1731,14 +2114,30 @@
       <c r="BT6" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU6" t="inlineStr"/>
-      <c r="BV6" t="inlineStr"/>
-      <c r="BW6" t="inlineStr"/>
-      <c r="BX6" t="inlineStr"/>
-      <c r="BY6" t="inlineStr"/>
-      <c r="BZ6" t="inlineStr"/>
-      <c r="CA6" t="inlineStr"/>
-      <c r="CB6" t="inlineStr"/>
+      <c r="BU6" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>4.700000000000017</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>4.554868381473166</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>4.565556352975403</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>6.463342160560645</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0.1253273259303306</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>6.464557125055483</v>
+      </c>
       <c r="CC6" t="inlineStr"/>
       <c r="CD6" t="inlineStr"/>
       <c r="CE6" t="inlineStr"/>
@@ -1759,14 +2158,43 @@
       <c r="CT6" t="inlineStr"/>
       <c r="CU6" t="inlineStr"/>
       <c r="CV6" t="inlineStr"/>
-      <c r="CW6" t="inlineStr"/>
-      <c r="CX6" t="inlineStr"/>
-      <c r="CY6" t="inlineStr"/>
-      <c r="CZ6" t="inlineStr"/>
+      <c r="CW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>1.053504371600242</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0.9715811770956726</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>1.005264131057575</v>
+      </c>
       <c r="DA6" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB6" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>0.009814703318385815</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="7">
@@ -1827,14 +2255,30 @@
       <c r="O7" t="n">
         <v>268.91</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="P7" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R7" t="n">
+        <v>10.22999999999999</v>
+      </c>
+      <c r="S7" t="n">
+        <v>8.820841604675591</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8.837722369684386</v>
+      </c>
+      <c r="U7" t="n">
+        <v>12.53173545866514</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.403182828463338</v>
+      </c>
+      <c r="W7" t="n">
+        <v>12.61004820197209</v>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -1850,14 +2294,30 @@
       <c r="AH7" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
+      <c r="AI7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>10.83500000000001</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>9.14801157801171</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>9.179460294854394</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>13.01184761106279</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.735914716501081</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>13.12713137576087</v>
+      </c>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
@@ -1873,14 +2333,30 @@
       <c r="BA7" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
-      <c r="BE7" t="inlineStr"/>
-      <c r="BF7" t="inlineStr"/>
-      <c r="BG7" t="inlineStr"/>
-      <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr"/>
+      <c r="BB7" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>12.42500000000001</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>8.849609062845831</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>8.908871649635664</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>12.63035637149943</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>3.830875608424976</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>13.19854196486497</v>
+      </c>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr"/>
@@ -1896,14 +2372,30 @@
       <c r="BT7" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU7" t="inlineStr"/>
-      <c r="BV7" t="inlineStr"/>
-      <c r="BW7" t="inlineStr"/>
-      <c r="BX7" t="inlineStr"/>
-      <c r="BY7" t="inlineStr"/>
-      <c r="BZ7" t="inlineStr"/>
-      <c r="CA7" t="inlineStr"/>
-      <c r="CB7" t="inlineStr"/>
+      <c r="BU7" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>12.80825</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>9.011833287953509</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>9.044280742882972</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>12.82453162515482</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>3.79838747163804</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>13.37521434554576</v>
+      </c>
       <c r="CC7" t="inlineStr"/>
       <c r="CD7" t="inlineStr"/>
       <c r="CE7" t="inlineStr"/>
@@ -1924,14 +2416,41 @@
       <c r="CT7" t="inlineStr"/>
       <c r="CU7" t="inlineStr"/>
       <c r="CV7" t="inlineStr"/>
-      <c r="CW7" t="inlineStr"/>
-      <c r="CX7" t="inlineStr"/>
-      <c r="CY7" t="inlineStr"/>
-      <c r="CZ7" t="inlineStr"/>
+      <c r="CW7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>1.03709056210268</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0.9673806146154074</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>1.018331230674218</v>
+      </c>
       <c r="DA7" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB7" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD7" t="inlineStr"/>
+      <c r="DE7" t="n">
+        <v>0.022200899886161</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="8">
@@ -1992,14 +2511,30 @@
       <c r="O8" t="n">
         <v>268.91</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="P8" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R8" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="S8" t="n">
+        <v>14.80286816171208</v>
+      </c>
+      <c r="T8" t="n">
+        <v>14.77570855677073</v>
+      </c>
+      <c r="U8" t="n">
+        <v>20.92274333652263</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.700294275175315</v>
+      </c>
+      <c r="W8" t="n">
+        <v>20.99171716054206</v>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -2015,14 +2550,30 @@
       <c r="AH8" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
+      <c r="AI8" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>16.63325000000002</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>14.80630604375163</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>14.77281409902235</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>20.93721376874187</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1.576332089285585</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>20.99646978074422</v>
+      </c>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -2038,14 +2589,30 @@
       <c r="BA8" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
-      <c r="BE8" t="inlineStr"/>
-      <c r="BF8" t="inlineStr"/>
-      <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="inlineStr"/>
+      <c r="BB8" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>11.69499999999999</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>10.50869146083988</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>10.27557697081952</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>14.5591937730007</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.7674082455320661</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>14.57940460838826</v>
+      </c>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr"/>
       <c r="BL8" t="inlineStr"/>
@@ -2061,14 +2628,30 @@
       <c r="BT8" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU8" t="inlineStr"/>
-      <c r="BV8" t="inlineStr"/>
-      <c r="BW8" t="inlineStr"/>
-      <c r="BX8" t="inlineStr"/>
-      <c r="BY8" t="inlineStr"/>
-      <c r="BZ8" t="inlineStr"/>
-      <c r="CA8" t="inlineStr"/>
-      <c r="CB8" t="inlineStr"/>
+      <c r="BU8" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>11.95662500000001</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>10.80006534837044</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>10.58892155006444</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>15.00090231385069</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0.8827956243327167</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>15.02685590348267</v>
+      </c>
       <c r="CC8" t="inlineStr"/>
       <c r="CD8" t="inlineStr"/>
       <c r="CE8" t="inlineStr"/>
@@ -2089,14 +2672,43 @@
       <c r="CT8" t="inlineStr"/>
       <c r="CU8" t="inlineStr"/>
       <c r="CV8" t="inlineStr"/>
-      <c r="CW8" t="inlineStr"/>
-      <c r="CX8" t="inlineStr"/>
-      <c r="CY8" t="inlineStr"/>
-      <c r="CZ8" t="inlineStr"/>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>1.000232244319276</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0.7097443096061512</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>1.027726942846914</v>
+      </c>
       <c r="DA8" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB8" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0.1132467146496721</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="9">
@@ -2157,14 +2769,30 @@
       <c r="O9" t="n">
         <v>268.91</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5.805000000000007</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.447034070100692</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4.467840408626308</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6.34796524845246</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.197485445933668</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.459925246377317</v>
+      </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -2180,14 +2808,30 @@
       <c r="AH9" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
+      <c r="AI9" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>6.189999999999969</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>4.534079326201507</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>4.584043024991837</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>6.529704442361833</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.695185258848549</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>6.746161365281539</v>
+      </c>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -2203,14 +2847,30 @@
       <c r="BA9" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
-      <c r="BE9" t="inlineStr"/>
-      <c r="BF9" t="inlineStr"/>
-      <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr"/>
-      <c r="BI9" t="inlineStr"/>
+      <c r="BB9" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>8.639999999999986</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>4.545460881105915</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>4.595381212169954</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>6.540243940229757</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>3.801849653051665</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>7.564975319333245</v>
+      </c>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="inlineStr"/>
       <c r="BL9" t="inlineStr"/>
@@ -2226,14 +2886,30 @@
       <c r="BT9" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU9" t="inlineStr"/>
-      <c r="BV9" t="inlineStr"/>
-      <c r="BW9" t="inlineStr"/>
-      <c r="BX9" t="inlineStr"/>
-      <c r="BY9" t="inlineStr"/>
-      <c r="BZ9" t="inlineStr"/>
-      <c r="CA9" t="inlineStr"/>
-      <c r="CB9" t="inlineStr"/>
+      <c r="BU9" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>8.639999999999986</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>4.449096797466282</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>4.451712595363859</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>6.338141481644243</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>3.896266393148377</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>7.439954922425064</v>
+      </c>
       <c r="CC9" t="inlineStr"/>
       <c r="CD9" t="inlineStr"/>
       <c r="CE9" t="inlineStr"/>
@@ -2254,14 +2930,41 @@
       <c r="CT9" t="inlineStr"/>
       <c r="CU9" t="inlineStr"/>
       <c r="CV9" t="inlineStr"/>
-      <c r="CW9" t="inlineStr"/>
-      <c r="CX9" t="inlineStr"/>
-      <c r="CY9" t="inlineStr"/>
-      <c r="CZ9" t="inlineStr"/>
+      <c r="CW9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>1.019573777652404</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>1.002510224035701</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0.9787999311488548</v>
+      </c>
       <c r="DA9" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB9" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD9" t="inlineStr"/>
+      <c r="DE9" t="n">
+        <v>0.01268330136551323</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="10">
@@ -2322,14 +3025,30 @@
       <c r="O10" t="n">
         <v>268.91</v>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8.424999999999983</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7.577148929878852</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7.574621618704117</v>
+      </c>
+      <c r="U10" t="n">
+        <v>10.72815171930085</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.7035445869624317</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10.75119594734381</v>
+      </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -2345,14 +3064,30 @@
       <c r="AH10" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
+      <c r="AI10" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>8.170000000000016</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>7.41551241568062</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>7.419120705999788</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>10.51139480708368</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1.007550800095588</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>10.55957287986398</v>
+      </c>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -2368,14 +3103,30 @@
       <c r="BA10" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
-      <c r="BE10" t="inlineStr"/>
-      <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="inlineStr"/>
-      <c r="BH10" t="inlineStr"/>
-      <c r="BI10" t="inlineStr"/>
+      <c r="BB10" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>5.585000000000008</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>5.01806963798105</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>4.981895365107301</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>7.053254211445491</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.3787690370225508</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>7.063417087690669</v>
+      </c>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="inlineStr"/>
       <c r="BL10" t="inlineStr"/>
@@ -2391,14 +3142,30 @@
       <c r="BT10" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU10" t="inlineStr"/>
-      <c r="BV10" t="inlineStr"/>
-      <c r="BW10" t="inlineStr"/>
-      <c r="BX10" t="inlineStr"/>
-      <c r="BY10" t="inlineStr"/>
-      <c r="BZ10" t="inlineStr"/>
-      <c r="CA10" t="inlineStr"/>
-      <c r="CB10" t="inlineStr"/>
+      <c r="BU10" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>5.760000000000019</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>5.168187162707039</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>5.139884841761524</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>7.277776502562338</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0.4060380548239098</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>7.289094437803209</v>
+      </c>
       <c r="CC10" t="inlineStr"/>
       <c r="CD10" t="inlineStr"/>
       <c r="CE10" t="inlineStr"/>
@@ -2419,14 +3186,43 @@
       <c r="CT10" t="inlineStr"/>
       <c r="CU10" t="inlineStr"/>
       <c r="CV10" t="inlineStr"/>
-      <c r="CW10" t="inlineStr"/>
-      <c r="CX10" t="inlineStr"/>
-      <c r="CY10" t="inlineStr"/>
-      <c r="CZ10" t="inlineStr"/>
+      <c r="CW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0.9786678979529024</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0.6766989732725671</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>1.029915392881313</v>
+      </c>
       <c r="DA10" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB10" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0.05562506778217258</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="11">
@@ -2487,14 +3283,30 @@
       <c r="O11" t="n">
         <v>268.91</v>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="P11" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R11" t="n">
+        <v>8.469999999999999</v>
+      </c>
+      <c r="S11" t="n">
+        <v>7.888134321427951</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7.859634437151133</v>
+      </c>
+      <c r="U11" t="n">
+        <v>11.13607030463304</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.8976835690969229</v>
+      </c>
+      <c r="W11" t="n">
+        <v>11.17219305328888</v>
+      </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
@@ -2510,14 +3322,30 @@
       <c r="AH11" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
+      <c r="AI11" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>7.995000000000005</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>7.287728855968433</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>7.278789809368628</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>10.31709116253021</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1.007758932757852</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>10.36619255669662</v>
+      </c>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2533,14 +3361,30 @@
       <c r="BA11" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="inlineStr"/>
-      <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="inlineStr"/>
+      <c r="BB11" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>5.631624999999998</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>5.111892135537919</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>5.2447951866794</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>7.425461908151575</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.4547051238141036</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>7.439371028456156</v>
+      </c>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="inlineStr"/>
       <c r="BL11" t="inlineStr"/>
@@ -2556,14 +3400,30 @@
       <c r="BT11" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU11" t="inlineStr"/>
-      <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr"/>
-      <c r="BX11" t="inlineStr"/>
-      <c r="BY11" t="inlineStr"/>
-      <c r="BZ11" t="inlineStr"/>
-      <c r="CA11" t="inlineStr"/>
-      <c r="CB11" t="inlineStr"/>
+      <c r="BU11" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>5.805000000000007</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>5.29130320421138</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>5.384673082736279</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>7.622914825342705</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0.4380848537195636</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>7.635492700113601</v>
+      </c>
       <c r="CC11" t="inlineStr"/>
       <c r="CD11" t="inlineStr"/>
       <c r="CE11" t="inlineStr"/>
@@ -2584,14 +3444,43 @@
       <c r="CT11" t="inlineStr"/>
       <c r="CU11" t="inlineStr"/>
       <c r="CV11" t="inlineStr"/>
-      <c r="CW11" t="inlineStr"/>
-      <c r="CX11" t="inlineStr"/>
-      <c r="CY11" t="inlineStr"/>
-      <c r="CZ11" t="inlineStr"/>
+      <c r="CW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>0.9238849845864656</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0.7014382994437879</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>1.035096802498275</v>
+      </c>
       <c r="DA11" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB11" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>0.05443358836211374</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="12">
@@ -2652,14 +3541,30 @@
       <c r="O12" t="n">
         <v>268.91</v>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5.805000000000007</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.422158802810139</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4.483331558359191</v>
+      </c>
+      <c r="U12" t="n">
+        <v>6.379193632709486</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.179602413786994</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.48733945914759</v>
+      </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
@@ -2675,14 +3580,30 @@
       <c r="AH12" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
+      <c r="AI12" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>6.234999999999985</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>4.568541952191242</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>4.610109449832502</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>6.552537243484712</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1.561503182365318</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>6.736025275768437</v>
+      </c>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2698,14 +3619,30 @@
       <c r="BA12" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
-      <c r="BE12" t="inlineStr"/>
-      <c r="BF12" t="inlineStr"/>
-      <c r="BG12" t="inlineStr"/>
-      <c r="BH12" t="inlineStr"/>
-      <c r="BI12" t="inlineStr"/>
+      <c r="BB12" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>9.330000000000013</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>4.589454493780603</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>4.644170921977349</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>6.611646185629058</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>4.317834871894356</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>7.896680521895909</v>
+      </c>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="inlineStr"/>
       <c r="BL12" t="inlineStr"/>
@@ -2721,14 +3658,30 @@
       <c r="BT12" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU12" t="inlineStr"/>
-      <c r="BV12" t="inlineStr"/>
-      <c r="BW12" t="inlineStr"/>
-      <c r="BX12" t="inlineStr"/>
-      <c r="BY12" t="inlineStr"/>
-      <c r="BZ12" t="inlineStr"/>
-      <c r="CA12" t="inlineStr"/>
-      <c r="CB12" t="inlineStr"/>
+      <c r="BU12" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>8.640000000000015</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>4.553267299642018</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>4.620145247832278</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>6.584495999731379</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>4.043281490384391</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>7.726817765481695</v>
+      </c>
       <c r="CC12" t="inlineStr"/>
       <c r="CD12" t="inlineStr"/>
       <c r="CE12" t="inlineStr"/>
@@ -2749,14 +3702,41 @@
       <c r="CT12" t="inlineStr"/>
       <c r="CU12" t="inlineStr"/>
       <c r="CV12" t="inlineStr"/>
-      <c r="CW12" t="inlineStr"/>
-      <c r="CX12" t="inlineStr"/>
-      <c r="CY12" t="inlineStr"/>
-      <c r="CZ12" t="inlineStr"/>
+      <c r="CW12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>1.033102191917685</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>1.004577508931341</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>0.9921151426193191</v>
+      </c>
       <c r="DA12" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB12" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD12" t="inlineStr"/>
+      <c r="DE12" t="n">
+        <v>0.01277550630274236</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="13">
@@ -2817,14 +3797,30 @@
       <c r="O13" t="n">
         <v>268.91</v>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
+      <c r="P13" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R13" t="n">
+        <v>16.36237500000001</v>
+      </c>
+      <c r="S13" t="n">
+        <v>14.83697346029754</v>
+      </c>
+      <c r="T13" t="n">
+        <v>14.77618578980846</v>
+      </c>
+      <c r="U13" t="n">
+        <v>20.92464826986691</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.592529392264254</v>
+      </c>
+      <c r="W13" t="n">
+        <v>20.9851627366306</v>
+      </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
@@ -2840,14 +3836,30 @@
       <c r="AH13" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
+      <c r="AI13" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>16.88500000000002</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>15.03808398457271</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>15.05234857269716</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>21.31453749246756</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.78199532921563</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21.38889936091036</v>
+      </c>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2863,14 +3875,30 @@
       <c r="BA13" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
-      <c r="BE13" t="inlineStr"/>
-      <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="inlineStr"/>
-      <c r="BI13" t="inlineStr"/>
+      <c r="BB13" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>18.00775</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>15.40209235044285</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>15.56449086355462</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>22.05478297994715</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>3.269767163949396</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>22.29584781072494</v>
+      </c>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="inlineStr"/>
       <c r="BL13" t="inlineStr"/>
@@ -2886,14 +3914,30 @@
       <c r="BT13" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU13" t="inlineStr"/>
-      <c r="BV13" t="inlineStr"/>
-      <c r="BW13" t="inlineStr"/>
-      <c r="BX13" t="inlineStr"/>
-      <c r="BY13" t="inlineStr"/>
-      <c r="BZ13" t="inlineStr"/>
-      <c r="CA13" t="inlineStr"/>
-      <c r="CB13" t="inlineStr"/>
+      <c r="BU13" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>17.01275000000001</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>14.35980018392826</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>14.30634687110868</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>20.29432266629864</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>2.890785918270305</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>20.49917500069485</v>
+      </c>
       <c r="CC13" t="inlineStr"/>
       <c r="CD13" t="inlineStr"/>
       <c r="CE13" t="inlineStr"/>
@@ -2914,14 +3958,41 @@
       <c r="CT13" t="inlineStr"/>
       <c r="CU13" t="inlineStr"/>
       <c r="CV13" t="inlineStr"/>
-      <c r="CW13" t="inlineStr"/>
-      <c r="CX13" t="inlineStr"/>
-      <c r="CY13" t="inlineStr"/>
-      <c r="CZ13" t="inlineStr"/>
+      <c r="CW13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>1.01355468652777</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>1.024205767586054</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>0.9323278848873658</v>
+      </c>
       <c r="DA13" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB13" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD13" t="inlineStr"/>
+      <c r="DE13" t="n">
+        <v>0.1149607429010995</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="14">
@@ -2982,14 +4053,30 @@
       <c r="O14" t="n">
         <v>268.91</v>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+      <c r="P14" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R14" t="n">
+        <v>9.414999999999992</v>
+      </c>
+      <c r="S14" t="n">
+        <v>8.860636159129365</v>
+      </c>
+      <c r="T14" t="n">
+        <v>8.878875616655314</v>
+      </c>
+      <c r="U14" t="n">
+        <v>12.57655540193823</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.2911184764838831</v>
+      </c>
+      <c r="W14" t="n">
+        <v>12.5799243139763</v>
+      </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
@@ -3005,14 +4092,30 @@
       <c r="AH14" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
+      <c r="AI14" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>9.669999999999987</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>9.303608996729254</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>9.327362573040219</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>13.20711178259471</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.2830778500832468</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>13.21014514330406</v>
+      </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -3028,14 +4131,30 @@
       <c r="BA14" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
-      <c r="BE14" t="inlineStr"/>
-      <c r="BF14" t="inlineStr"/>
-      <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="inlineStr"/>
-      <c r="BI14" t="inlineStr"/>
+      <c r="BB14" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>9.455000000000013</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>9.023349833359681</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>9.039026508540113</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>12.79742356934213</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0.2841606298992991</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>12.80057800557218</v>
+      </c>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="inlineStr"/>
       <c r="BL14" t="inlineStr"/>
@@ -3051,14 +4170,30 @@
       <c r="BT14" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU14" t="inlineStr"/>
-      <c r="BV14" t="inlineStr"/>
-      <c r="BW14" t="inlineStr"/>
-      <c r="BX14" t="inlineStr"/>
-      <c r="BY14" t="inlineStr"/>
-      <c r="BZ14" t="inlineStr"/>
-      <c r="CA14" t="inlineStr"/>
-      <c r="CB14" t="inlineStr"/>
+      <c r="BU14" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>9.460000000000008</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>9.030586291021921</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>9.044213595703551</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>12.80523756642041</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0.2042608937289404</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>12.80686658184473</v>
+      </c>
       <c r="CC14" t="inlineStr"/>
       <c r="CD14" t="inlineStr"/>
       <c r="CE14" t="inlineStr"/>
@@ -3079,14 +4214,43 @@
       <c r="CT14" t="inlineStr"/>
       <c r="CU14" t="inlineStr"/>
       <c r="CV14" t="inlineStr"/>
-      <c r="CW14" t="inlineStr"/>
-      <c r="CX14" t="inlineStr"/>
-      <c r="CY14" t="inlineStr"/>
-      <c r="CZ14" t="inlineStr"/>
+      <c r="CW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>1.049993344681407</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>0.9698762960193082</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>1.000801970199081</v>
+      </c>
       <c r="DA14" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB14" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>0.01981381651122995</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="15">
@@ -3147,14 +4311,30 @@
       <c r="O15" t="n">
         <v>268.91</v>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="P15" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R15" t="n">
+        <v>8.469999999999999</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7.887361098749039</v>
+      </c>
+      <c r="T15" t="n">
+        <v>7.891124353606059</v>
+      </c>
+      <c r="U15" t="n">
+        <v>11.18833772282276</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.032615927257055</v>
+      </c>
+      <c r="W15" t="n">
+        <v>11.2358887789602</v>
+      </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
@@ -3170,14 +4350,30 @@
       <c r="AH15" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
+      <c r="AI15" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>8.340000000000003</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>7.407796728861175</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>7.367635408964007</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>10.44655687525027</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.9470723165260768</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>10.48939924497913</v>
+      </c>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -3193,14 +4389,30 @@
       <c r="BA15" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
-      <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="inlineStr"/>
-      <c r="BG15" t="inlineStr"/>
-      <c r="BH15" t="inlineStr"/>
-      <c r="BI15" t="inlineStr"/>
+      <c r="BB15" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>5.719999999999999</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>4.954004882242995</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>4.888647472894726</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>6.922534360792056</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.4200289386238647</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>6.935265408448921</v>
+      </c>
       <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="inlineStr"/>
       <c r="BL15" t="inlineStr"/>
@@ -3216,14 +4428,30 @@
       <c r="BT15" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU15" t="inlineStr"/>
-      <c r="BV15" t="inlineStr"/>
-      <c r="BW15" t="inlineStr"/>
-      <c r="BX15" t="inlineStr"/>
-      <c r="BY15" t="inlineStr"/>
-      <c r="BZ15" t="inlineStr"/>
-      <c r="CA15" t="inlineStr"/>
-      <c r="CB15" t="inlineStr"/>
+      <c r="BU15" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>5.935000000000002</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>5.13033176444644</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>5.030304998640197</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>7.122749497783096</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0.391495610350765</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>7.1335004886166</v>
+      </c>
       <c r="CC15" t="inlineStr"/>
       <c r="CD15" t="inlineStr"/>
       <c r="CE15" t="inlineStr"/>
@@ -3244,14 +4472,43 @@
       <c r="CT15" t="inlineStr"/>
       <c r="CU15" t="inlineStr"/>
       <c r="CV15" t="inlineStr"/>
-      <c r="CW15" t="inlineStr"/>
-      <c r="CX15" t="inlineStr"/>
-      <c r="CY15" t="inlineStr"/>
-      <c r="CZ15" t="inlineStr"/>
+      <c r="CW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0.9391983752380851</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0.6687555103856894</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>1.035592795403869</v>
+      </c>
       <c r="DA15" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB15" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>0.05678250493308674</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="16">
@@ -3308,9 +4565,15 @@
       <c r="O16" t="n">
         <v>268.91</v>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>15001</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.2599999999999909</v>
+      </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
@@ -3331,9 +4594,15 @@
       <c r="AH16" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>15001</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.6000000000000227</v>
+      </c>
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
@@ -3354,9 +4623,15 @@
       <c r="BA16" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>15001</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0.3050000000000068</v>
+      </c>
       <c r="BE16" t="inlineStr"/>
       <c r="BF16" t="inlineStr"/>
       <c r="BG16" t="inlineStr"/>
@@ -3377,9 +4652,15 @@
       <c r="BT16" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU16" t="inlineStr"/>
-      <c r="BV16" t="inlineStr"/>
-      <c r="BW16" t="inlineStr"/>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>15001</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0.2549999999999955</v>
+      </c>
       <c r="BX16" t="inlineStr"/>
       <c r="BY16" t="inlineStr"/>
       <c r="BZ16" t="inlineStr"/>
@@ -3405,7 +4686,9 @@
       <c r="CT16" t="inlineStr"/>
       <c r="CU16" t="inlineStr"/>
       <c r="CV16" t="inlineStr"/>
-      <c r="CW16" t="inlineStr"/>
+      <c r="CW16" t="n">
+        <v>0</v>
+      </c>
       <c r="CX16" t="inlineStr"/>
       <c r="CY16" t="inlineStr"/>
       <c r="CZ16" t="inlineStr"/>
@@ -3414,6 +4697,13 @@
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
+      <c r="DB16" t="inlineStr"/>
+      <c r="DC16" t="inlineStr"/>
+      <c r="DD16" t="inlineStr"/>
+      <c r="DE16" t="inlineStr"/>
+      <c r="DF16" t="inlineStr"/>
+      <c r="DG16" t="inlineStr"/>
+      <c r="DH16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3473,14 +4763,30 @@
       <c r="O17" t="n">
         <v>268.91</v>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+      <c r="P17" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R17" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="S17" t="n">
+        <v>13.37850749157174</v>
+      </c>
+      <c r="T17" t="n">
+        <v>13.39403952039353</v>
+      </c>
+      <c r="U17" t="n">
+        <v>18.98038106152991</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.409565348054111</v>
+      </c>
+      <c r="W17" t="n">
+        <v>19.03264930878826</v>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
@@ -3496,14 +4802,30 @@
       <c r="AH17" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
+      <c r="AI17" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>15.265</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>13.6305523869368</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>13.62809604808264</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>19.30316716041533</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.916166374091323</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>19.39804000398327</v>
+      </c>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3519,14 +4841,30 @@
       <c r="BA17" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
-      <c r="BE17" t="inlineStr"/>
-      <c r="BF17" t="inlineStr"/>
-      <c r="BG17" t="inlineStr"/>
-      <c r="BH17" t="inlineStr"/>
-      <c r="BI17" t="inlineStr"/>
+      <c r="BB17" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>15.86499999999998</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>13.39964120643937</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>13.41464777904401</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>19.01208442445327</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>3.251799802429324</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>19.28817140419532</v>
+      </c>
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="inlineStr"/>
       <c r="BL17" t="inlineStr"/>
@@ -3542,14 +4880,30 @@
       <c r="BT17" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU17" t="inlineStr"/>
-      <c r="BV17" t="inlineStr"/>
-      <c r="BW17" t="inlineStr"/>
-      <c r="BX17" t="inlineStr"/>
-      <c r="BY17" t="inlineStr"/>
-      <c r="BZ17" t="inlineStr"/>
-      <c r="CA17" t="inlineStr"/>
-      <c r="CB17" t="inlineStr"/>
+      <c r="BU17" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>17.49420000000001</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>13.47514907100107</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>13.48606487987799</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>19.11707501100333</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>3.963217251238841</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>19.52356647635992</v>
+      </c>
       <c r="CC17" t="inlineStr"/>
       <c r="CD17" t="inlineStr"/>
       <c r="CE17" t="inlineStr"/>
@@ -3570,14 +4924,41 @@
       <c r="CT17" t="inlineStr"/>
       <c r="CU17" t="inlineStr"/>
       <c r="CV17" t="inlineStr"/>
-      <c r="CW17" t="inlineStr"/>
-      <c r="CX17" t="inlineStr"/>
-      <c r="CY17" t="inlineStr"/>
-      <c r="CZ17" t="inlineStr"/>
+      <c r="CW17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>1.018839537633315</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>0.9830592940078693</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>1.005635066148295</v>
+      </c>
       <c r="DA17" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB17" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD17" t="inlineStr"/>
+      <c r="DE17" t="n">
+        <v>0.03127796370671412</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="18">
@@ -3638,14 +5019,30 @@
       <c r="O18" t="n">
         <v>268.91</v>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+      <c r="P18" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R18" t="n">
+        <v>24.172375</v>
+      </c>
+      <c r="S18" t="n">
+        <v>22.12029165237653</v>
+      </c>
+      <c r="T18" t="n">
+        <v>22.10043134951788</v>
+      </c>
+      <c r="U18" t="n">
+        <v>31.3819622464962</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.952564776081793</v>
+      </c>
+      <c r="W18" t="n">
+        <v>31.62989602811928</v>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
@@ -3661,14 +5058,30 @@
       <c r="AH18" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
+      <c r="AI18" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>24.36012500000001</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>22.62183276651398</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>22.74199873849183</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>32.210389185404</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.812839421195843</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>32.26136324215442</v>
+      </c>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -3684,14 +5097,30 @@
       <c r="BA18" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr"/>
-      <c r="BE18" t="inlineStr"/>
-      <c r="BF18" t="inlineStr"/>
-      <c r="BG18" t="inlineStr"/>
-      <c r="BH18" t="inlineStr"/>
-      <c r="BI18" t="inlineStr"/>
+      <c r="BB18" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>18.69862500000001</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>16.72803257282205</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>16.46034865893888</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>23.31008755125107</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0.9374741134617111</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>23.32893138059266</v>
+      </c>
       <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="inlineStr"/>
       <c r="BL18" t="inlineStr"/>
@@ -3707,14 +5136,30 @@
       <c r="BT18" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU18" t="inlineStr"/>
-      <c r="BV18" t="inlineStr"/>
-      <c r="BW18" t="inlineStr"/>
-      <c r="BX18" t="inlineStr"/>
-      <c r="BY18" t="inlineStr"/>
-      <c r="BZ18" t="inlineStr"/>
-      <c r="CA18" t="inlineStr"/>
-      <c r="CB18" t="inlineStr"/>
+      <c r="BU18" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>18.92000000000002</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>17.12825748415225</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>16.92345328326254</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>23.9843281745838</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>1.983218895669438</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>24.06618281269954</v>
+      </c>
       <c r="CC18" t="inlineStr"/>
       <c r="CD18" t="inlineStr"/>
       <c r="CE18" t="inlineStr"/>
@@ -3735,14 +5180,43 @@
       <c r="CT18" t="inlineStr"/>
       <c r="CU18" t="inlineStr"/>
       <c r="CV18" t="inlineStr"/>
-      <c r="CW18" t="inlineStr"/>
-      <c r="CX18" t="inlineStr"/>
-      <c r="CY18" t="inlineStr"/>
-      <c r="CZ18" t="inlineStr"/>
+      <c r="CW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>1.022673349972923</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0.7394640719643086</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>1.023925402439761</v>
+      </c>
       <c r="DA18" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB18" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>0.16585478632891</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="19">
@@ -3803,14 +5277,30 @@
       <c r="O19" t="n">
         <v>268.91</v>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+      <c r="P19" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R19" t="n">
+        <v>15.04999999999998</v>
+      </c>
+      <c r="S19" t="n">
+        <v>8.769041954508788</v>
+      </c>
+      <c r="T19" t="n">
+        <v>8.775615409010191</v>
+      </c>
+      <c r="U19" t="n">
+        <v>12.46853619857135</v>
+      </c>
+      <c r="V19" t="n">
+        <v>6.393544623255687</v>
+      </c>
+      <c r="W19" t="n">
+        <v>14.01220210333286</v>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
@@ -3826,14 +5316,30 @@
       <c r="AH19" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
+      <c r="AI19" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>16.51999999999997</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>8.923954467812148</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>8.954510461360522</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>12.75123885769862</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>8.053885867926024</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>15.08174956626922</v>
+      </c>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3849,14 +5355,30 @@
       <c r="BA19" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr"/>
-      <c r="BE19" t="inlineStr"/>
-      <c r="BF19" t="inlineStr"/>
-      <c r="BG19" t="inlineStr"/>
-      <c r="BH19" t="inlineStr"/>
-      <c r="BI19" t="inlineStr"/>
+      <c r="BB19" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>34.38379999999977</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>8.557940308744234</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>9.685604949222769</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>15.40515838071092</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>12.84030826320458</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>20.05473562600384</v>
+      </c>
       <c r="BJ19" t="inlineStr"/>
       <c r="BK19" t="inlineStr"/>
       <c r="BL19" t="inlineStr"/>
@@ -3872,14 +5394,30 @@
       <c r="BT19" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU19" t="inlineStr"/>
-      <c r="BV19" t="inlineStr"/>
-      <c r="BW19" t="inlineStr"/>
-      <c r="BX19" t="inlineStr"/>
-      <c r="BY19" t="inlineStr"/>
-      <c r="BZ19" t="inlineStr"/>
-      <c r="CA19" t="inlineStr"/>
-      <c r="CB19" t="inlineStr"/>
+      <c r="BU19" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>26.73162500000002</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>8.863576210284371</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>9.325583537259101</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>13.95255435170477</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>13.96563384750976</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>19.74114236056227</v>
+      </c>
       <c r="CC19" t="inlineStr"/>
       <c r="CD19" t="inlineStr"/>
       <c r="CE19" t="inlineStr"/>
@@ -3900,14 +5438,41 @@
       <c r="CT19" t="inlineStr"/>
       <c r="CU19" t="inlineStr"/>
       <c r="CV19" t="inlineStr"/>
-      <c r="CW19" t="inlineStr"/>
-      <c r="CX19" t="inlineStr"/>
-      <c r="CY19" t="inlineStr"/>
-      <c r="CZ19" t="inlineStr"/>
+      <c r="CW19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>1.017665842415511</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0.9589852054503312</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>1.035713722053874</v>
+      </c>
       <c r="DA19" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB19" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD19" t="inlineStr"/>
+      <c r="DE19" t="n">
+        <v>0.03384945695610326</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="20">
@@ -3968,14 +5533,30 @@
       <c r="O20" t="n">
         <v>268.91</v>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
+      <c r="P20" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R20" t="n">
+        <v>24.84774999999998</v>
+      </c>
+      <c r="S20" t="n">
+        <v>22.25832046060676</v>
+      </c>
+      <c r="T20" t="n">
+        <v>22.01654070654181</v>
+      </c>
+      <c r="U20" t="n">
+        <v>31.19122384303993</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.80840009641353</v>
+      </c>
+      <c r="W20" t="n">
+        <v>31.31740021023709</v>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
@@ -3991,14 +5572,30 @@
       <c r="AH20" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
+      <c r="AI20" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>24.33924999999998</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>22.24806691288752</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>22.23050349068017</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>31.49085048532526</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>2.296173518795703</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>31.57445291873684</v>
+      </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -4014,14 +5611,30 @@
       <c r="BA20" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="inlineStr"/>
-      <c r="BE20" t="inlineStr"/>
-      <c r="BF20" t="inlineStr"/>
-      <c r="BG20" t="inlineStr"/>
-      <c r="BH20" t="inlineStr"/>
-      <c r="BI20" t="inlineStr"/>
+      <c r="BB20" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>17.20662500000001</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>15.9093393864272</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>15.95830387358885</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>22.59370870685247</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0.8505043387019066</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>22.60971098356305</v>
+      </c>
       <c r="BJ20" t="inlineStr"/>
       <c r="BK20" t="inlineStr"/>
       <c r="BL20" t="inlineStr"/>
@@ -4037,14 +5650,30 @@
       <c r="BT20" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU20" t="inlineStr"/>
-      <c r="BV20" t="inlineStr"/>
-      <c r="BW20" t="inlineStr"/>
-      <c r="BX20" t="inlineStr"/>
-      <c r="BY20" t="inlineStr"/>
-      <c r="BZ20" t="inlineStr"/>
-      <c r="CA20" t="inlineStr"/>
-      <c r="CB20" t="inlineStr"/>
+      <c r="BU20" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>17.83499999999999</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>16.39741117419935</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>16.47540218711634</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>23.32710916709893</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>1.018693505379476</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>23.34934171559561</v>
+      </c>
       <c r="CC20" t="inlineStr"/>
       <c r="CD20" t="inlineStr"/>
       <c r="CE20" t="inlineStr"/>
@@ -4065,14 +5694,43 @@
       <c r="CT20" t="inlineStr"/>
       <c r="CU20" t="inlineStr"/>
       <c r="CV20" t="inlineStr"/>
-      <c r="CW20" t="inlineStr"/>
-      <c r="CX20" t="inlineStr"/>
-      <c r="CY20" t="inlineStr"/>
-      <c r="CZ20" t="inlineStr"/>
+      <c r="CW20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0.9995393386604625</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0.7150886164052068</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>1.030678318936897</v>
+      </c>
       <c r="DA20" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB20" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>0.1657126598552314</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="21">
@@ -4133,14 +5791,30 @@
       <c r="O21" t="n">
         <v>268.91</v>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
+      <c r="P21" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R21" t="n">
+        <v>11.17999999999998</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4.556403905310875</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4.638893952797555</v>
+      </c>
+      <c r="U21" t="n">
+        <v>6.644742354660448</v>
+      </c>
+      <c r="V21" t="n">
+        <v>7.146354764071753</v>
+      </c>
+      <c r="W21" t="n">
+        <v>9.758226651077004</v>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -4156,14 +5830,30 @@
       <c r="AH21" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
+      <c r="AI21" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>13.2452</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>4.623089110976609</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>4.699817231807266</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>6.871169276664973</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>8.936460744225244</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>11.2726792672223</v>
+      </c>
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -4179,14 +5869,30 @@
       <c r="BA21" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB21" t="inlineStr"/>
-      <c r="BC21" t="inlineStr"/>
-      <c r="BD21" t="inlineStr"/>
-      <c r="BE21" t="inlineStr"/>
-      <c r="BF21" t="inlineStr"/>
-      <c r="BG21" t="inlineStr"/>
-      <c r="BH21" t="inlineStr"/>
-      <c r="BI21" t="inlineStr"/>
+      <c r="BB21" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>5.074999999999989</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>4.254206325236899</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>4.255337511664758</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>6.060760723249397</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0.627553466437051</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>6.093163701864551</v>
+      </c>
       <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="inlineStr"/>
       <c r="BL21" t="inlineStr"/>
@@ -4202,14 +5908,30 @@
       <c r="BT21" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU21" t="inlineStr"/>
-      <c r="BV21" t="inlineStr"/>
-      <c r="BW21" t="inlineStr"/>
-      <c r="BX21" t="inlineStr"/>
-      <c r="BY21" t="inlineStr"/>
-      <c r="BZ21" t="inlineStr"/>
-      <c r="CA21" t="inlineStr"/>
-      <c r="CB21" t="inlineStr"/>
+      <c r="BU21" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>5.159999999999997</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>4.25061386197613</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>4.264233672603522</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>6.065618187460164</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0.6711254925685159</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>6.102633318725847</v>
+      </c>
       <c r="CC21" t="inlineStr"/>
       <c r="CD21" t="inlineStr"/>
       <c r="CE21" t="inlineStr"/>
@@ -4230,14 +5952,43 @@
       <c r="CT21" t="inlineStr"/>
       <c r="CU21" t="inlineStr"/>
       <c r="CV21" t="inlineStr"/>
-      <c r="CW21" t="inlineStr"/>
-      <c r="CX21" t="inlineStr"/>
-      <c r="CY21" t="inlineStr"/>
-      <c r="CZ21" t="inlineStr"/>
+      <c r="CW21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>1.014635490411201</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>0.9202085928078108</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>0.9991555502986639</v>
+      </c>
       <c r="DA21" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB21" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>0.02713939632415132</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="22">
@@ -4298,14 +6049,30 @@
       <c r="O22" t="n">
         <v>268.91</v>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
+      <c r="P22" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R22" t="n">
+        <v>23.58685000000002</v>
+      </c>
+      <c r="S22" t="n">
+        <v>22.26097194664286</v>
+      </c>
+      <c r="T22" t="n">
+        <v>22.17362420077505</v>
+      </c>
+      <c r="U22" t="n">
+        <v>31.44079180710299</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3.989918174327038</v>
+      </c>
+      <c r="W22" t="n">
+        <v>31.69294616307263</v>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -4321,14 +6088,30 @@
       <c r="AH22" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
+      <c r="AI22" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>22.44271752875564</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>22.45618868150158</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>31.83908847054764</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>2.640159817783069</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>31.94836456688817</v>
+      </c>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
@@ -4344,14 +6127,30 @@
       <c r="BA22" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr"/>
-      <c r="BD22" t="inlineStr"/>
-      <c r="BE22" t="inlineStr"/>
-      <c r="BF22" t="inlineStr"/>
-      <c r="BG22" t="inlineStr"/>
-      <c r="BH22" t="inlineStr"/>
-      <c r="BI22" t="inlineStr"/>
+      <c r="BB22" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>23.24999999999999</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>21.86186856834625</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>21.99248197137247</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>31.16050682656836</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>2.711309849416851</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>31.27824142735902</v>
+      </c>
       <c r="BJ22" t="inlineStr"/>
       <c r="BK22" t="inlineStr"/>
       <c r="BL22" t="inlineStr"/>
@@ -4367,14 +6166,30 @@
       <c r="BT22" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU22" t="inlineStr"/>
-      <c r="BV22" t="inlineStr"/>
-      <c r="BW22" t="inlineStr"/>
-      <c r="BX22" t="inlineStr"/>
-      <c r="BY22" t="inlineStr"/>
-      <c r="BZ22" t="inlineStr"/>
-      <c r="CA22" t="inlineStr"/>
-      <c r="CB22" t="inlineStr"/>
+      <c r="BU22" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>23.721625</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>21.9155944551006</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>22.36323241666551</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>31.96584179606029</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>9.876315288626568</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>33.45678773300141</v>
+      </c>
       <c r="CC22" t="inlineStr"/>
       <c r="CD22" t="inlineStr"/>
       <c r="CE22" t="inlineStr"/>
@@ -4395,14 +6210,41 @@
       <c r="CT22" t="inlineStr"/>
       <c r="CU22" t="inlineStr"/>
       <c r="CV22" t="inlineStr"/>
-      <c r="CW22" t="inlineStr"/>
-      <c r="CX22" t="inlineStr"/>
-      <c r="CY22" t="inlineStr"/>
-      <c r="CZ22" t="inlineStr"/>
+      <c r="CW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>1.008164314772437</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0.9741185995116167</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>1.002457515769358</v>
+      </c>
       <c r="DA22" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB22" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD22" t="inlineStr"/>
+      <c r="DE22" t="n">
+        <v>0.1612922712068134</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="23">
@@ -4463,14 +6305,30 @@
       <c r="O23" t="n">
         <v>268.91</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+      <c r="P23" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R23" t="n">
+        <v>14.14550000000001</v>
+      </c>
+      <c r="S23" t="n">
+        <v>7.645411296875363</v>
+      </c>
+      <c r="T23" t="n">
+        <v>7.704903625035543</v>
+      </c>
+      <c r="U23" t="n">
+        <v>10.9404267195542</v>
+      </c>
+      <c r="V23" t="n">
+        <v>5.360442957443186</v>
+      </c>
+      <c r="W23" t="n">
+        <v>12.183073729808</v>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
@@ -4486,14 +6344,30 @@
       <c r="AH23" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
+      <c r="AI23" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>14.36124999999998</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>8.017538983107796</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>8.222693807342123</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>11.72148591622803</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>6.737649137888366</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>13.51995369776169</v>
+      </c>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
@@ -4509,14 +6383,30 @@
       <c r="BA23" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB23" t="inlineStr"/>
-      <c r="BC23" t="inlineStr"/>
-      <c r="BD23" t="inlineStr"/>
-      <c r="BE23" t="inlineStr"/>
-      <c r="BF23" t="inlineStr"/>
-      <c r="BG23" t="inlineStr"/>
-      <c r="BH23" t="inlineStr"/>
-      <c r="BI23" t="inlineStr"/>
+      <c r="BB23" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>14.70962500000001</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>7.664583571387108</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>7.643041629935764</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>10.99591405534538</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>8.237389156838374</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>13.73916686097597</v>
+      </c>
       <c r="BJ23" t="inlineStr"/>
       <c r="BK23" t="inlineStr"/>
       <c r="BL23" t="inlineStr"/>
@@ -4532,14 +6422,30 @@
       <c r="BT23" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU23" t="inlineStr"/>
-      <c r="BV23" t="inlineStr"/>
-      <c r="BW23" t="inlineStr"/>
-      <c r="BX23" t="inlineStr"/>
-      <c r="BY23" t="inlineStr"/>
-      <c r="BZ23" t="inlineStr"/>
-      <c r="CA23" t="inlineStr"/>
-      <c r="CB23" t="inlineStr"/>
+      <c r="BU23" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>24.63325000000001</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>9.100759559667548</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>8.995874008952786</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>12.95335752549852</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>8.7643703685328</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>15.63981007366154</v>
+      </c>
       <c r="CC23" t="inlineStr"/>
       <c r="CD23" t="inlineStr"/>
       <c r="CE23" t="inlineStr"/>
@@ -4560,14 +6466,41 @@
       <c r="CT23" t="inlineStr"/>
       <c r="CU23" t="inlineStr"/>
       <c r="CV23" t="inlineStr"/>
-      <c r="CW23" t="inlineStr"/>
-      <c r="CX23" t="inlineStr"/>
-      <c r="CY23" t="inlineStr"/>
-      <c r="CZ23" t="inlineStr"/>
+      <c r="CW23" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>1.048673337742408</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0.9559770881732745</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>1.187378214994207</v>
+      </c>
       <c r="DA23" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB23" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD23" t="inlineStr"/>
+      <c r="DE23" t="n">
+        <v>0.09777790755039455</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="24">
@@ -4628,14 +6561,30 @@
       <c r="O24" t="n">
         <v>268.91</v>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+      <c r="P24" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R24" t="n">
+        <v>20.3873</v>
+      </c>
+      <c r="S24" t="n">
+        <v>16.21959509967942</v>
+      </c>
+      <c r="T24" t="n">
+        <v>15.94818579682935</v>
+      </c>
+      <c r="U24" t="n">
+        <v>22.61008586257692</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4.344043369741975</v>
+      </c>
+      <c r="W24" t="n">
+        <v>23.02361169563325</v>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
@@ -4651,14 +6600,30 @@
       <c r="AH24" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
+      <c r="AI24" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>20.41050000000008</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>15.13125778567915</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>15.08651305150827</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>21.41192842912143</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>3.969252830878529</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>21.77672259751811</v>
+      </c>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -4674,14 +6639,30 @@
       <c r="BA24" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB24" t="inlineStr"/>
-      <c r="BC24" t="inlineStr"/>
-      <c r="BD24" t="inlineStr"/>
-      <c r="BE24" t="inlineStr"/>
-      <c r="BF24" t="inlineStr"/>
-      <c r="BG24" t="inlineStr"/>
-      <c r="BH24" t="inlineStr"/>
-      <c r="BI24" t="inlineStr"/>
+      <c r="BB24" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>11.311625</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>9.855495204706351</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>10.05991608154006</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>14.25619335817006</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>1.293875582176556</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>14.31478826555548</v>
+      </c>
       <c r="BJ24" t="inlineStr"/>
       <c r="BK24" t="inlineStr"/>
       <c r="BL24" t="inlineStr"/>
@@ -4697,14 +6678,30 @@
       <c r="BT24" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU24" t="inlineStr"/>
-      <c r="BV24" t="inlineStr"/>
-      <c r="BW24" t="inlineStr"/>
-      <c r="BX24" t="inlineStr"/>
-      <c r="BY24" t="inlineStr"/>
-      <c r="BZ24" t="inlineStr"/>
-      <c r="CA24" t="inlineStr"/>
-      <c r="CB24" t="inlineStr"/>
+      <c r="BU24" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>12.00499999999997</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>10.64143027105636</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>10.64120186754591</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>15.08046024879069</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>1.271248943027843</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>15.13394711205591</v>
+      </c>
       <c r="CC24" t="inlineStr"/>
       <c r="CD24" t="inlineStr"/>
       <c r="CE24" t="inlineStr"/>
@@ -4725,14 +6722,43 @@
       <c r="CT24" t="inlineStr"/>
       <c r="CU24" t="inlineStr"/>
       <c r="CV24" t="inlineStr"/>
-      <c r="CW24" t="inlineStr"/>
-      <c r="CX24" t="inlineStr"/>
-      <c r="CY24" t="inlineStr"/>
-      <c r="CZ24" t="inlineStr"/>
+      <c r="CW24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>0.9328998469251686</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>0.6513335073858831</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>1.079745872736531</v>
+      </c>
       <c r="DA24" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB24" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>0.1389639468749126</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="25">
@@ -4793,14 +6819,30 @@
       <c r="O25" t="n">
         <v>268.91</v>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="P25" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R25" t="n">
+        <v>26.06162500000001</v>
+      </c>
+      <c r="S25" t="n">
+        <v>23.25115346773061</v>
+      </c>
+      <c r="T25" t="n">
+        <v>23.5209017892984</v>
+      </c>
+      <c r="U25" t="n">
+        <v>33.3474469014613</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4.23007394976123</v>
+      </c>
+      <c r="W25" t="n">
+        <v>33.61466555636437</v>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
@@ -4816,14 +6858,30 @@
       <c r="AH25" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
+      <c r="AI25" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>27.47662500000001</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>23.36685925423714</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>23.18809017542871</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>32.90829705821609</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>4.800799175681316</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>33.25663374421735</v>
+      </c>
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
@@ -4839,14 +6897,30 @@
       <c r="BA25" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB25" t="inlineStr"/>
-      <c r="BC25" t="inlineStr"/>
-      <c r="BD25" t="inlineStr"/>
-      <c r="BE25" t="inlineStr"/>
-      <c r="BF25" t="inlineStr"/>
-      <c r="BG25" t="inlineStr"/>
-      <c r="BH25" t="inlineStr"/>
-      <c r="BI25" t="inlineStr"/>
+      <c r="BB25" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>29.24739999999999</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>22.96622776409792</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>23.02386445261708</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>32.70572761259246</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>6.725932846923064</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>33.39016009740612</v>
+      </c>
       <c r="BJ25" t="inlineStr"/>
       <c r="BK25" t="inlineStr"/>
       <c r="BL25" t="inlineStr"/>
@@ -4862,14 +6936,30 @@
       <c r="BT25" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU25" t="inlineStr"/>
-      <c r="BV25" t="inlineStr"/>
-      <c r="BW25" t="inlineStr"/>
-      <c r="BX25" t="inlineStr"/>
-      <c r="BY25" t="inlineStr"/>
-      <c r="BZ25" t="inlineStr"/>
-      <c r="CA25" t="inlineStr"/>
-      <c r="CB25" t="inlineStr"/>
+      <c r="BU25" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>30.017075</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>24.02078399348507</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>24.40337729587944</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>34.73185539787448</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>6.875544528369401</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>35.40585957070459</v>
+      </c>
       <c r="CC25" t="inlineStr"/>
       <c r="CD25" t="inlineStr"/>
       <c r="CE25" t="inlineStr"/>
@@ -4890,14 +6980,41 @@
       <c r="CT25" t="inlineStr"/>
       <c r="CU25" t="inlineStr"/>
       <c r="CV25" t="inlineStr"/>
-      <c r="CW25" t="inlineStr"/>
-      <c r="CX25" t="inlineStr"/>
-      <c r="CY25" t="inlineStr"/>
-      <c r="CZ25" t="inlineStr"/>
+      <c r="CW25" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>1.004976346083953</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>0.98285471377303</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>1.04591769446072</v>
+      </c>
       <c r="DA25" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB25" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD25" t="inlineStr"/>
+      <c r="DE25" t="n">
+        <v>0.1870733326866996</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="26">
@@ -4958,14 +7075,30 @@
       <c r="O26" t="n">
         <v>268.91</v>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="P26" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R26" t="n">
+        <v>20.42000000000002</v>
+      </c>
+      <c r="S26" t="n">
+        <v>13.56201040375231</v>
+      </c>
+      <c r="T26" t="n">
+        <v>13.56505576353079</v>
+      </c>
+      <c r="U26" t="n">
+        <v>19.26080677684122</v>
+      </c>
+      <c r="V26" t="n">
+        <v>7.09553190319637</v>
+      </c>
+      <c r="W26" t="n">
+        <v>20.52620887266059</v>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
@@ -4981,14 +7114,30 @@
       <c r="AH26" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
+      <c r="AI26" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>19.91415000000003</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>13.44914225260243</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>13.51366856447097</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>19.2239395461952</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>7.553887633737646</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>20.65480743214281</v>
+      </c>
       <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
@@ -5004,14 +7153,30 @@
       <c r="BA26" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB26" t="inlineStr"/>
-      <c r="BC26" t="inlineStr"/>
-      <c r="BD26" t="inlineStr"/>
-      <c r="BE26" t="inlineStr"/>
-      <c r="BF26" t="inlineStr"/>
-      <c r="BG26" t="inlineStr"/>
-      <c r="BH26" t="inlineStr"/>
-      <c r="BI26" t="inlineStr"/>
+      <c r="BB26" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>14.02499999999998</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>13.02292395320358</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>13.04062052879795</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>18.47183650077565</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0.6540528275786419</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>18.48341226106941</v>
+      </c>
       <c r="BJ26" t="inlineStr"/>
       <c r="BK26" t="inlineStr"/>
       <c r="BL26" t="inlineStr"/>
@@ -5027,14 +7192,30 @@
       <c r="BT26" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU26" t="inlineStr"/>
-      <c r="BV26" t="inlineStr"/>
-      <c r="BW26" t="inlineStr"/>
-      <c r="BX26" t="inlineStr"/>
-      <c r="BY26" t="inlineStr"/>
-      <c r="BZ26" t="inlineStr"/>
-      <c r="CA26" t="inlineStr"/>
-      <c r="CB26" t="inlineStr"/>
+      <c r="BU26" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>14.23925000000001</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>13.06660152462662</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>13.09740021255797</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>18.54698517006868</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>0.7342951501739929</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>18.56151524704589</v>
+      </c>
       <c r="CC26" t="inlineStr"/>
       <c r="CD26" t="inlineStr"/>
       <c r="CE26" t="inlineStr"/>
@@ -5055,14 +7236,43 @@
       <c r="CT26" t="inlineStr"/>
       <c r="CU26" t="inlineStr"/>
       <c r="CV26" t="inlineStr"/>
-      <c r="CW26" t="inlineStr"/>
-      <c r="CX26" t="inlineStr"/>
-      <c r="CY26" t="inlineStr"/>
-      <c r="CZ26" t="inlineStr"/>
+      <c r="CW26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>0.9916776239075402</v>
+      </c>
+      <c r="CY26" t="n">
+        <v>0.9683088860691933</v>
+      </c>
+      <c r="CZ26" t="n">
+        <v>1.00335389898459</v>
+      </c>
       <c r="DA26" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB26" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>0.040804065571573</v>
+      </c>
+      <c r="DF26" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG26" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="27">
@@ -5123,14 +7333,30 @@
       <c r="O27" t="n">
         <v>268.91</v>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="P27" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R27" t="n">
+        <v>8.76662500000001</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7.540967005633498</v>
+      </c>
+      <c r="T27" t="n">
+        <v>7.488509009783497</v>
+      </c>
+      <c r="U27" t="n">
+        <v>10.61296605197684</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.22664863023173</v>
+      </c>
+      <c r="W27" t="n">
+        <v>10.68361901616032</v>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
@@ -5146,14 +7372,30 @@
       <c r="AH27" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
-      <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="inlineStr"/>
+      <c r="AI27" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>9.107375000000019</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>7.540237899795808</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>7.589220243350737</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>10.75835372866533</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.423375180069278</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>10.85210448965197</v>
+      </c>
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -5169,14 +7411,30 @@
       <c r="BA27" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB27" t="inlineStr"/>
-      <c r="BC27" t="inlineStr"/>
-      <c r="BD27" t="inlineStr"/>
-      <c r="BE27" t="inlineStr"/>
-      <c r="BF27" t="inlineStr"/>
-      <c r="BG27" t="inlineStr"/>
-      <c r="BH27" t="inlineStr"/>
-      <c r="BI27" t="inlineStr"/>
+      <c r="BB27" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>4.944999999999993</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>4.248700833141289</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>4.164906538868615</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>5.898675951668745</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>0.375482977348191</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>5.910614642240976</v>
+      </c>
       <c r="BJ27" t="inlineStr"/>
       <c r="BK27" t="inlineStr"/>
       <c r="BL27" t="inlineStr"/>
@@ -5192,14 +7450,30 @@
       <c r="BT27" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU27" t="inlineStr"/>
-      <c r="BV27" t="inlineStr"/>
-      <c r="BW27" t="inlineStr"/>
-      <c r="BX27" t="inlineStr"/>
-      <c r="BY27" t="inlineStr"/>
-      <c r="BZ27" t="inlineStr"/>
-      <c r="CA27" t="inlineStr"/>
-      <c r="CB27" t="inlineStr"/>
+      <c r="BU27" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>5.282375000000004</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>4.554548485069777</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>4.567701039054681</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>6.470487638735145</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>0.5612813138437913</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>6.494786139380921</v>
+      </c>
       <c r="CC27" t="inlineStr"/>
       <c r="CD27" t="inlineStr"/>
       <c r="CE27" t="inlineStr"/>
@@ -5220,14 +7494,43 @@
       <c r="CT27" t="inlineStr"/>
       <c r="CU27" t="inlineStr"/>
       <c r="CV27" t="inlineStr"/>
-      <c r="CW27" t="inlineStr"/>
-      <c r="CX27" t="inlineStr"/>
-      <c r="CY27" t="inlineStr"/>
-      <c r="CZ27" t="inlineStr"/>
+      <c r="CW27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CX27" t="n">
+        <v>0.9999033140130243</v>
+      </c>
+      <c r="CY27" t="n">
+        <v>0.5634703957094437</v>
+      </c>
+      <c r="CZ27" t="n">
+        <v>1.071986158578824</v>
+      </c>
       <c r="DA27" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB27" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>0.06200714219004456</v>
+      </c>
+      <c r="DF27" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG27" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH27" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="28">
@@ -5288,14 +7591,30 @@
       <c r="O28" t="n">
         <v>268.91</v>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="P28" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R28" t="n">
+        <v>8.206625000000017</v>
+      </c>
+      <c r="S28" t="n">
+        <v>7.690591781000195</v>
+      </c>
+      <c r="T28" t="n">
+        <v>7.664924126260814</v>
+      </c>
+      <c r="U28" t="n">
+        <v>10.8516935103387</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.5308993750885775</v>
+      </c>
+      <c r="W28" t="n">
+        <v>10.8646723921523</v>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
@@ -5311,14 +7630,30 @@
       <c r="AH28" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
+      <c r="AI28" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>8.210000000000008</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>7.593955994407596</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>7.594305190368836</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>10.75371449508783</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.59314032914563</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>10.77005992982031</v>
+      </c>
       <c r="AQ28" t="inlineStr"/>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
@@ -5334,14 +7669,30 @@
       <c r="BA28" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="inlineStr"/>
-      <c r="BD28" t="inlineStr"/>
-      <c r="BE28" t="inlineStr"/>
-      <c r="BF28" t="inlineStr"/>
-      <c r="BG28" t="inlineStr"/>
-      <c r="BH28" t="inlineStr"/>
-      <c r="BI28" t="inlineStr"/>
+      <c r="BB28" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>8.034999999999997</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>7.466071516414555</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>7.468259435780531</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>10.58145985529158</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>0.7225748400828049</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>10.60610235047107</v>
+      </c>
       <c r="BJ28" t="inlineStr"/>
       <c r="BK28" t="inlineStr"/>
       <c r="BL28" t="inlineStr"/>
@@ -5357,14 +7708,30 @@
       <c r="BT28" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU28" t="inlineStr"/>
-      <c r="BV28" t="inlineStr"/>
-      <c r="BW28" t="inlineStr"/>
-      <c r="BX28" t="inlineStr"/>
-      <c r="BY28" t="inlineStr"/>
-      <c r="BZ28" t="inlineStr"/>
-      <c r="CA28" t="inlineStr"/>
-      <c r="CB28" t="inlineStr"/>
+      <c r="BU28" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV28" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>8.079999999999984</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>7.528930368360067</v>
+      </c>
+      <c r="BY28" t="n">
+        <v>7.499883463929208</v>
+      </c>
+      <c r="BZ28" t="n">
+        <v>10.62434608401123</v>
+      </c>
+      <c r="CA28" t="n">
+        <v>0.6564425912729305</v>
+      </c>
+      <c r="CB28" t="n">
+        <v>10.64460645531256</v>
+      </c>
       <c r="CC28" t="inlineStr"/>
       <c r="CD28" t="inlineStr"/>
       <c r="CE28" t="inlineStr"/>
@@ -5385,14 +7752,41 @@
       <c r="CT28" t="inlineStr"/>
       <c r="CU28" t="inlineStr"/>
       <c r="CV28" t="inlineStr"/>
-      <c r="CW28" t="inlineStr"/>
-      <c r="CX28" t="inlineStr"/>
-      <c r="CY28" t="inlineStr"/>
-      <c r="CZ28" t="inlineStr"/>
+      <c r="CW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX28" t="n">
+        <v>0.9874345447860932</v>
+      </c>
+      <c r="CY28" t="n">
+        <v>0.9831597025203702</v>
+      </c>
+      <c r="CZ28" t="n">
+        <v>1.008419267322489</v>
+      </c>
       <c r="DA28" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB28" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC28" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD28" t="inlineStr"/>
+      <c r="DE28" t="n">
+        <v>0.05589740593532883</v>
+      </c>
+      <c r="DF28" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG28" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH28" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="29">
@@ -5453,14 +7847,30 @@
       <c r="O29" t="n">
         <v>268.91</v>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="P29" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R29" t="n">
+        <v>10.11000000000001</v>
+      </c>
+      <c r="S29" t="n">
+        <v>8.792347874454222</v>
+      </c>
+      <c r="T29" t="n">
+        <v>8.792841109601502</v>
+      </c>
+      <c r="U29" t="n">
+        <v>12.46922871299998</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.330795364031901</v>
+      </c>
+      <c r="W29" t="n">
+        <v>12.54004310192082</v>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
@@ -5476,14 +7886,30 @@
       <c r="AH29" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
+      <c r="AI29" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>10.89499999999998</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>9.109897994042084</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>9.108875171410133</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>12.92493263270828</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.782756732117341</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>13.04730259961641</v>
+      </c>
       <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
@@ -5499,14 +7925,30 @@
       <c r="BA29" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB29" t="inlineStr"/>
-      <c r="BC29" t="inlineStr"/>
-      <c r="BD29" t="inlineStr"/>
-      <c r="BE29" t="inlineStr"/>
-      <c r="BF29" t="inlineStr"/>
-      <c r="BG29" t="inlineStr"/>
-      <c r="BH29" t="inlineStr"/>
-      <c r="BI29" t="inlineStr"/>
+      <c r="BB29" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>9.335000000000008</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>8.860677051331345</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>8.872875814265827</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>12.56353219686549</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>0.328204914792837</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>12.56781841561096</v>
+      </c>
       <c r="BJ29" t="inlineStr"/>
       <c r="BK29" t="inlineStr"/>
       <c r="BL29" t="inlineStr"/>
@@ -5522,14 +7964,30 @@
       <c r="BT29" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU29" t="inlineStr"/>
-      <c r="BV29" t="inlineStr"/>
-      <c r="BW29" t="inlineStr"/>
-      <c r="BX29" t="inlineStr"/>
-      <c r="BY29" t="inlineStr"/>
-      <c r="BZ29" t="inlineStr"/>
-      <c r="CA29" t="inlineStr"/>
-      <c r="CB29" t="inlineStr"/>
+      <c r="BU29" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>9.420000000000016</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>8.836987486495156</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>8.847886334564659</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>12.52799480894186</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>0.2542552703701081</v>
+      </c>
+      <c r="CB29" t="n">
+        <v>12.53057459478157</v>
+      </c>
       <c r="CC29" t="inlineStr"/>
       <c r="CD29" t="inlineStr"/>
       <c r="CE29" t="inlineStr"/>
@@ -5550,14 +8008,43 @@
       <c r="CT29" t="inlineStr"/>
       <c r="CU29" t="inlineStr"/>
       <c r="CV29" t="inlineStr"/>
-      <c r="CW29" t="inlineStr"/>
-      <c r="CX29" t="inlineStr"/>
-      <c r="CY29" t="inlineStr"/>
-      <c r="CZ29" t="inlineStr"/>
+      <c r="CW29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CX29" t="n">
+        <v>1.036116646443266</v>
+      </c>
+      <c r="CY29" t="n">
+        <v>0.9726428393738623</v>
+      </c>
+      <c r="CZ29" t="n">
+        <v>0.9973264385216895</v>
+      </c>
       <c r="DA29" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB29" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC29" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD29" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="DE29" t="n">
+        <v>0.02232383980246641</v>
+      </c>
+      <c r="DF29" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG29" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH29" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="30">
@@ -5618,14 +8105,30 @@
       <c r="O30" t="n">
         <v>268.91</v>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="P30" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R30" t="n">
+        <v>9.45999999999998</v>
+      </c>
+      <c r="S30" t="n">
+        <v>8.908867035344221</v>
+      </c>
+      <c r="T30" t="n">
+        <v>8.929589308228616</v>
+      </c>
+      <c r="U30" t="n">
+        <v>12.64542428680417</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.2325056750588981</v>
+      </c>
+      <c r="W30" t="n">
+        <v>12.64756159432447</v>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -5641,14 +8144,30 @@
       <c r="AH30" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
+      <c r="AI30" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>9.629999999999995</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>9.226775280960016</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>9.248298619679321</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>13.0945705339437</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.2635887746578323</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>13.09722323664647</v>
+      </c>
       <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -5664,14 +8183,30 @@
       <c r="BA30" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB30" t="inlineStr"/>
-      <c r="BC30" t="inlineStr"/>
-      <c r="BD30" t="inlineStr"/>
-      <c r="BE30" t="inlineStr"/>
-      <c r="BF30" t="inlineStr"/>
-      <c r="BG30" t="inlineStr"/>
-      <c r="BH30" t="inlineStr"/>
-      <c r="BI30" t="inlineStr"/>
+      <c r="BB30" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>9.45999999999998</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>8.98613941993084</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>8.998321405849786</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>12.74586864168819</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>0.274045618139514</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>12.74881439318935</v>
+      </c>
       <c r="BJ30" t="inlineStr"/>
       <c r="BK30" t="inlineStr"/>
       <c r="BL30" t="inlineStr"/>
@@ -5687,14 +8222,30 @@
       <c r="BT30" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU30" t="inlineStr"/>
-      <c r="BV30" t="inlineStr"/>
-      <c r="BW30" t="inlineStr"/>
-      <c r="BX30" t="inlineStr"/>
-      <c r="BY30" t="inlineStr"/>
-      <c r="BZ30" t="inlineStr"/>
-      <c r="CA30" t="inlineStr"/>
-      <c r="CB30" t="inlineStr"/>
+      <c r="BU30" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV30" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>9.670000000000016</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>9.006980093241857</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>9.020170299213451</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>12.77731371847325</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>0.2385831623298819</v>
+      </c>
+      <c r="CB30" t="n">
+        <v>12.77954098493494</v>
+      </c>
       <c r="CC30" t="inlineStr"/>
       <c r="CD30" t="inlineStr"/>
       <c r="CE30" t="inlineStr"/>
@@ -5715,14 +8266,41 @@
       <c r="CT30" t="inlineStr"/>
       <c r="CU30" t="inlineStr"/>
       <c r="CV30" t="inlineStr"/>
-      <c r="CW30" t="inlineStr"/>
-      <c r="CX30" t="inlineStr"/>
-      <c r="CY30" t="inlineStr"/>
-      <c r="CZ30" t="inlineStr"/>
+      <c r="CW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX30" t="n">
+        <v>1.035684475293497</v>
+      </c>
+      <c r="CY30" t="n">
+        <v>0.973919830742411</v>
+      </c>
+      <c r="CZ30" t="n">
+        <v>1.002319202088585</v>
+      </c>
       <c r="DA30" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB30" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC30" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD30" t="inlineStr"/>
+      <c r="DE30" t="n">
+        <v>0.01973185656702632</v>
+      </c>
+      <c r="DF30" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG30" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH30" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="31">
@@ -5783,14 +8361,30 @@
       <c r="O31" t="n">
         <v>268.91</v>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="P31" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R31" t="n">
+        <v>8.515000000000015</v>
+      </c>
+      <c r="S31" t="n">
+        <v>7.383466814808639</v>
+      </c>
+      <c r="T31" t="n">
+        <v>7.329180332467862</v>
+      </c>
+      <c r="U31" t="n">
+        <v>10.38617110185475</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.31350191046523</v>
+      </c>
+      <c r="W31" t="n">
+        <v>10.46889857749126</v>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
@@ -5806,14 +8400,30 @@
       <c r="AH31" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
+      <c r="AI31" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>9.074999999999989</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>7.378952843544293</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>7.349486077195345</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>10.42140381554626</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.535585464421644</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>10.53392995065114</v>
+      </c>
       <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -5829,14 +8439,30 @@
       <c r="BA31" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB31" t="inlineStr"/>
-      <c r="BC31" t="inlineStr"/>
-      <c r="BD31" t="inlineStr"/>
-      <c r="BE31" t="inlineStr"/>
-      <c r="BF31" t="inlineStr"/>
-      <c r="BG31" t="inlineStr"/>
-      <c r="BH31" t="inlineStr"/>
-      <c r="BI31" t="inlineStr"/>
+      <c r="BB31" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>5.075000000000017</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>4.441600203086697</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>4.421614529533145</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>6.261559944098552</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>0.4852879218288415</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>6.28033735563723</v>
+      </c>
       <c r="BJ31" t="inlineStr"/>
       <c r="BK31" t="inlineStr"/>
       <c r="BL31" t="inlineStr"/>
@@ -5852,14 +8478,30 @@
       <c r="BT31" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU31" t="inlineStr"/>
-      <c r="BV31" t="inlineStr"/>
-      <c r="BW31" t="inlineStr"/>
-      <c r="BX31" t="inlineStr"/>
-      <c r="BY31" t="inlineStr"/>
-      <c r="BZ31" t="inlineStr"/>
-      <c r="CA31" t="inlineStr"/>
-      <c r="CB31" t="inlineStr"/>
+      <c r="BU31" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV31" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW31" t="n">
+        <v>5.164999999999992</v>
+      </c>
+      <c r="BX31" t="n">
+        <v>4.580919575453757</v>
+      </c>
+      <c r="BY31" t="n">
+        <v>4.56882443447943</v>
+      </c>
+      <c r="BZ31" t="n">
+        <v>6.469208691261317</v>
+      </c>
+      <c r="CA31" t="n">
+        <v>0.5210263937134095</v>
+      </c>
+      <c r="CB31" t="n">
+        <v>6.490156361293383</v>
+      </c>
       <c r="CC31" t="inlineStr"/>
       <c r="CD31" t="inlineStr"/>
       <c r="CE31" t="inlineStr"/>
@@ -5880,14 +8522,43 @@
       <c r="CT31" t="inlineStr"/>
       <c r="CU31" t="inlineStr"/>
       <c r="CV31" t="inlineStr"/>
-      <c r="CW31" t="inlineStr"/>
-      <c r="CX31" t="inlineStr"/>
-      <c r="CY31" t="inlineStr"/>
-      <c r="CZ31" t="inlineStr"/>
+      <c r="CW31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CX31" t="n">
+        <v>0.9993886379694573</v>
+      </c>
+      <c r="CY31" t="n">
+        <v>0.6019282542200509</v>
+      </c>
+      <c r="CZ31" t="n">
+        <v>1.031366932185891</v>
+      </c>
       <c r="DA31" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB31" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC31" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD31" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="DE31" t="n">
+        <v>0.06178671849733349</v>
+      </c>
+      <c r="DF31" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG31" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH31" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="32">
@@ -5948,14 +8619,30 @@
       <c r="O32" t="n">
         <v>268.91</v>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="P32" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R32" t="n">
+        <v>19.52369999999999</v>
+      </c>
+      <c r="S32" t="n">
+        <v>13.42529659501297</v>
+      </c>
+      <c r="T32" t="n">
+        <v>13.46203122861826</v>
+      </c>
+      <c r="U32" t="n">
+        <v>19.12810293035724</v>
+      </c>
+      <c r="V32" t="n">
+        <v>6.635190742057468</v>
+      </c>
+      <c r="W32" t="n">
+        <v>20.246236141511</v>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
@@ -5971,14 +8658,30 @@
       <c r="AH32" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
-      <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
+      <c r="AI32" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>19.993</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>13.45143580592305</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>13.54885261964741</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>19.28789083536696</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>7.343209044686362</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>20.63844596744136</v>
+      </c>
       <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5994,14 +8697,30 @@
       <c r="BA32" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB32" t="inlineStr"/>
-      <c r="BC32" t="inlineStr"/>
-      <c r="BD32" t="inlineStr"/>
-      <c r="BE32" t="inlineStr"/>
-      <c r="BF32" t="inlineStr"/>
-      <c r="BG32" t="inlineStr"/>
-      <c r="BH32" t="inlineStr"/>
-      <c r="BI32" t="inlineStr"/>
+      <c r="BB32" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>14.22999999999999</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>13.04115462211826</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>13.03966886303122</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>18.46967705372995</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>0.6668000035604743</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>18.48170968048754</v>
+      </c>
       <c r="BJ32" t="inlineStr"/>
       <c r="BK32" t="inlineStr"/>
       <c r="BL32" t="inlineStr"/>
@@ -6017,14 +8736,30 @@
       <c r="BT32" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU32" t="inlineStr"/>
-      <c r="BV32" t="inlineStr"/>
-      <c r="BW32" t="inlineStr"/>
-      <c r="BX32" t="inlineStr"/>
-      <c r="BY32" t="inlineStr"/>
-      <c r="BZ32" t="inlineStr"/>
-      <c r="CA32" t="inlineStr"/>
-      <c r="CB32" t="inlineStr"/>
+      <c r="BU32" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV32" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW32" t="n">
+        <v>14.27500000000001</v>
+      </c>
+      <c r="BX32" t="n">
+        <v>13.09858908799462</v>
+      </c>
+      <c r="BY32" t="n">
+        <v>13.10887147680286</v>
+      </c>
+      <c r="BZ32" t="n">
+        <v>18.56092913824942</v>
+      </c>
+      <c r="CA32" t="n">
+        <v>0.7804925062526448</v>
+      </c>
+      <c r="CB32" t="n">
+        <v>18.57733185975406</v>
+      </c>
       <c r="CC32" t="inlineStr"/>
       <c r="CD32" t="inlineStr"/>
       <c r="CE32" t="inlineStr"/>
@@ -6045,14 +8780,43 @@
       <c r="CT32" t="inlineStr"/>
       <c r="CU32" t="inlineStr"/>
       <c r="CV32" t="inlineStr"/>
-      <c r="CW32" t="inlineStr"/>
-      <c r="CX32" t="inlineStr"/>
-      <c r="CY32" t="inlineStr"/>
-      <c r="CZ32" t="inlineStr"/>
+      <c r="CW32" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="CX32" t="n">
+        <v>1.001947011801571</v>
+      </c>
+      <c r="CY32" t="n">
+        <v>0.9694990787805623</v>
+      </c>
+      <c r="CZ32" t="n">
+        <v>1.004404093620587</v>
+      </c>
       <c r="DA32" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB32" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC32" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD32" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="DE32" t="n">
+        <v>0.04096562911158437</v>
+      </c>
+      <c r="DF32" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG32" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH32" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="33">
@@ -6113,14 +8877,30 @@
       <c r="O33" t="n">
         <v>268.91</v>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="P33" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R33" t="n">
+        <v>19.34440000000002</v>
+      </c>
+      <c r="S33" t="n">
+        <v>13.38318516956701</v>
+      </c>
+      <c r="T33" t="n">
+        <v>13.4233339774978</v>
+      </c>
+      <c r="U33" t="n">
+        <v>19.04602615504421</v>
+      </c>
+      <c r="V33" t="n">
+        <v>6.366628815306812</v>
+      </c>
+      <c r="W33" t="n">
+        <v>20.08195893757686</v>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
@@ -6136,14 +8916,30 @@
       <c r="AH33" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr"/>
-      <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr"/>
+      <c r="AI33" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>19.17370000000003</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>13.25047513121575</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>13.24017886184207</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>18.79376451639407</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>7.15762694146227</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>20.11062426009743</v>
+      </c>
       <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -6159,14 +8955,30 @@
       <c r="BA33" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="inlineStr"/>
-      <c r="BD33" t="inlineStr"/>
-      <c r="BE33" t="inlineStr"/>
-      <c r="BF33" t="inlineStr"/>
-      <c r="BG33" t="inlineStr"/>
-      <c r="BH33" t="inlineStr"/>
-      <c r="BI33" t="inlineStr"/>
+      <c r="BB33" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>25.02999999999999</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>13.31033607253601</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>13.51012961597004</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>19.49921304768382</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>11.42938844019201</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>22.60199614184016</v>
+      </c>
       <c r="BJ33" t="inlineStr"/>
       <c r="BK33" t="inlineStr"/>
       <c r="BL33" t="inlineStr"/>
@@ -6182,14 +8994,30 @@
       <c r="BT33" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU33" t="inlineStr"/>
-      <c r="BV33" t="inlineStr"/>
-      <c r="BW33" t="inlineStr"/>
-      <c r="BX33" t="inlineStr"/>
-      <c r="BY33" t="inlineStr"/>
-      <c r="BZ33" t="inlineStr"/>
-      <c r="CA33" t="inlineStr"/>
-      <c r="CB33" t="inlineStr"/>
+      <c r="BU33" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV33" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW33" t="n">
+        <v>26.14265000000002</v>
+      </c>
+      <c r="BX33" t="n">
+        <v>13.48699934097751</v>
+      </c>
+      <c r="BY33" t="n">
+        <v>13.77269003512813</v>
+      </c>
+      <c r="BZ33" t="n">
+        <v>20.0057654510957</v>
+      </c>
+      <c r="CA33" t="n">
+        <v>11.3929696620031</v>
+      </c>
+      <c r="CB33" t="n">
+        <v>23.02238929832387</v>
+      </c>
       <c r="CC33" t="inlineStr"/>
       <c r="CD33" t="inlineStr"/>
       <c r="CE33" t="inlineStr"/>
@@ -6210,14 +9038,41 @@
       <c r="CT33" t="inlineStr"/>
       <c r="CU33" t="inlineStr"/>
       <c r="CV33" t="inlineStr"/>
-      <c r="CW33" t="inlineStr"/>
-      <c r="CX33" t="inlineStr"/>
-      <c r="CY33" t="inlineStr"/>
-      <c r="CZ33" t="inlineStr"/>
+      <c r="CW33" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="CX33" t="n">
+        <v>0.9900838225975505</v>
+      </c>
+      <c r="CY33" t="n">
+        <v>1.004517644894049</v>
+      </c>
+      <c r="CZ33" t="n">
+        <v>1.013272637706423</v>
+      </c>
       <c r="DA33" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB33" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC33" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD33" t="inlineStr"/>
+      <c r="DE33" t="n">
+        <v>0.03928688455443337</v>
+      </c>
+      <c r="DF33" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG33" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH33" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="34">
@@ -6278,14 +9133,30 @@
       <c r="O34" t="n">
         <v>268.91</v>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="P34" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4.769999999999982</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4.454466221289795</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4.464389818956206</v>
+      </c>
+      <c r="U34" t="n">
+        <v>6.320431651998915</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.1348253865121371</v>
+      </c>
+      <c r="W34" t="n">
+        <v>6.321869514031262</v>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
@@ -6301,14 +9172,30 @@
       <c r="AH34" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
+      <c r="AI34" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>4.944999999999965</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>4.680198781131049</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>4.690887401888886</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>6.641919964232837</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0.2201757954129031</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>6.645568312203286</v>
+      </c>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -6324,14 +9211,30 @@
       <c r="BA34" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB34" t="inlineStr"/>
-      <c r="BC34" t="inlineStr"/>
-      <c r="BD34" t="inlineStr"/>
-      <c r="BE34" t="inlineStr"/>
-      <c r="BF34" t="inlineStr"/>
-      <c r="BG34" t="inlineStr"/>
-      <c r="BH34" t="inlineStr"/>
-      <c r="BI34" t="inlineStr"/>
+      <c r="BB34" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>4.734999999999985</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>4.552616062966293</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>4.560105683179122</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>6.456151565083335</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>0.1388423646828674</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>6.457644325414549</v>
+      </c>
       <c r="BJ34" t="inlineStr"/>
       <c r="BK34" t="inlineStr"/>
       <c r="BL34" t="inlineStr"/>
@@ -6347,14 +9250,30 @@
       <c r="BT34" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU34" t="inlineStr"/>
-      <c r="BV34" t="inlineStr"/>
-      <c r="BW34" t="inlineStr"/>
-      <c r="BX34" t="inlineStr"/>
-      <c r="BY34" t="inlineStr"/>
-      <c r="BZ34" t="inlineStr"/>
-      <c r="CA34" t="inlineStr"/>
-      <c r="CB34" t="inlineStr"/>
+      <c r="BU34" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV34" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>4.900000000000006</v>
+      </c>
+      <c r="BX34" t="n">
+        <v>4.576398884999122</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>4.585062373667363</v>
+      </c>
+      <c r="BZ34" t="n">
+        <v>6.492042643738744</v>
+      </c>
+      <c r="CA34" t="n">
+        <v>0.1324384246073921</v>
+      </c>
+      <c r="CB34" t="n">
+        <v>6.493393382849589</v>
+      </c>
       <c r="CC34" t="inlineStr"/>
       <c r="CD34" t="inlineStr"/>
       <c r="CE34" t="inlineStr"/>
@@ -6375,14 +9294,41 @@
       <c r="CT34" t="inlineStr"/>
       <c r="CU34" t="inlineStr"/>
       <c r="CV34" t="inlineStr"/>
-      <c r="CW34" t="inlineStr"/>
-      <c r="CX34" t="inlineStr"/>
-      <c r="CY34" t="inlineStr"/>
-      <c r="CZ34" t="inlineStr"/>
+      <c r="CW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX34" t="n">
+        <v>1.050675557659946</v>
+      </c>
+      <c r="CY34" t="n">
+        <v>0.9727398932970273</v>
+      </c>
+      <c r="CZ34" t="n">
+        <v>1.005223990273701</v>
+      </c>
       <c r="DA34" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB34" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC34" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD34" t="inlineStr"/>
+      <c r="DE34" t="n">
+        <v>0.01013229810217492</v>
+      </c>
+      <c r="DF34" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG34" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH34" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="35">
@@ -6443,14 +9389,30 @@
       <c r="O35" t="n">
         <v>268.91</v>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="P35" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R35" t="n">
+        <v>17.45999999999999</v>
+      </c>
+      <c r="S35" t="n">
+        <v>15.48367520675542</v>
+      </c>
+      <c r="T35" t="n">
+        <v>15.36119807454691</v>
+      </c>
+      <c r="U35" t="n">
+        <v>21.75817163934667</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.912137297091457</v>
+      </c>
+      <c r="W35" t="n">
+        <v>21.84203063202224</v>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
@@ -6466,14 +9428,30 @@
       <c r="AH35" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
-      <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
+      <c r="AI35" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>16.64162500000002</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>14.78205383361488</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>14.90056334488608</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>21.11891246067513</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>2.210761868202598</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>21.23431024449718</v>
+      </c>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -6489,14 +9467,30 @@
       <c r="BA35" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="inlineStr"/>
-      <c r="BD35" t="inlineStr"/>
-      <c r="BE35" t="inlineStr"/>
-      <c r="BF35" t="inlineStr"/>
-      <c r="BG35" t="inlineStr"/>
-      <c r="BH35" t="inlineStr"/>
-      <c r="BI35" t="inlineStr"/>
+      <c r="BB35" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>11.52662499999997</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>10.28683641381718</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>10.20720434742455</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>14.46274159901122</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>1.215378403524657</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>14.51371900043279</v>
+      </c>
       <c r="BJ35" t="inlineStr"/>
       <c r="BK35" t="inlineStr"/>
       <c r="BL35" t="inlineStr"/>
@@ -6512,14 +9506,30 @@
       <c r="BT35" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU35" t="inlineStr"/>
-      <c r="BV35" t="inlineStr"/>
-      <c r="BW35" t="inlineStr"/>
-      <c r="BX35" t="inlineStr"/>
-      <c r="BY35" t="inlineStr"/>
-      <c r="BZ35" t="inlineStr"/>
-      <c r="CA35" t="inlineStr"/>
-      <c r="CB35" t="inlineStr"/>
+      <c r="BU35" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV35" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW35" t="n">
+        <v>11.34999999999999</v>
+      </c>
+      <c r="BX35" t="n">
+        <v>10.34111586772482</v>
+      </c>
+      <c r="BY35" t="n">
+        <v>10.31202425649983</v>
+      </c>
+      <c r="BZ35" t="n">
+        <v>14.60882867128465</v>
+      </c>
+      <c r="CA35" t="n">
+        <v>1.145096811345087</v>
+      </c>
+      <c r="CB35" t="n">
+        <v>14.65363851929961</v>
+      </c>
       <c r="CC35" t="inlineStr"/>
       <c r="CD35" t="inlineStr"/>
       <c r="CE35" t="inlineStr"/>
@@ -6540,14 +9550,43 @@
       <c r="CT35" t="inlineStr"/>
       <c r="CU35" t="inlineStr"/>
       <c r="CV35" t="inlineStr"/>
-      <c r="CW35" t="inlineStr"/>
-      <c r="CX35" t="inlineStr"/>
-      <c r="CY35" t="inlineStr"/>
-      <c r="CZ35" t="inlineStr"/>
+      <c r="CW35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CX35" t="n">
+        <v>0.9546863800892419</v>
+      </c>
+      <c r="CY35" t="n">
+        <v>0.6959003484633897</v>
+      </c>
+      <c r="CZ35" t="n">
+        <v>1.005276593475788</v>
+      </c>
       <c r="DA35" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB35" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC35" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD35" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="DE35" t="n">
+        <v>0.1133037354504893</v>
+      </c>
+      <c r="DF35" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG35" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH35" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="36">
@@ -6608,14 +9647,30 @@
       <c r="O36" t="n">
         <v>268.91</v>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="P36" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R36" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="S36" t="n">
+        <v>15.28811701243394</v>
+      </c>
+      <c r="T36" t="n">
+        <v>15.26986468791411</v>
+      </c>
+      <c r="U36" t="n">
+        <v>21.61919661064841</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.174763687297187</v>
+      </c>
+      <c r="W36" t="n">
+        <v>21.65109077646813</v>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
@@ -6631,14 +9686,30 @@
       <c r="AH36" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
-      <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
+      <c r="AI36" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>15.98500000000004</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>15.09444975330617</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>15.14495515916331</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>21.44484372008665</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.8097797774492769</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>21.46012734041683</v>
+      </c>
       <c r="AQ36" t="inlineStr"/>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -6654,14 +9725,30 @@
       <c r="BA36" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB36" t="inlineStr"/>
-      <c r="BC36" t="inlineStr"/>
-      <c r="BD36" t="inlineStr"/>
-      <c r="BE36" t="inlineStr"/>
-      <c r="BF36" t="inlineStr"/>
-      <c r="BG36" t="inlineStr"/>
-      <c r="BH36" t="inlineStr"/>
-      <c r="BI36" t="inlineStr"/>
+      <c r="BB36" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>15.81500000000003</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>14.91330958746181</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>14.84654207872012</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>21.02525614993583</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>0.839782951700883</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>21.04202061533972</v>
+      </c>
       <c r="BJ36" t="inlineStr"/>
       <c r="BK36" t="inlineStr"/>
       <c r="BL36" t="inlineStr"/>
@@ -6677,14 +9764,30 @@
       <c r="BT36" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU36" t="inlineStr"/>
-      <c r="BV36" t="inlineStr"/>
-      <c r="BW36" t="inlineStr"/>
-      <c r="BX36" t="inlineStr"/>
-      <c r="BY36" t="inlineStr"/>
-      <c r="BZ36" t="inlineStr"/>
-      <c r="CA36" t="inlineStr"/>
-      <c r="CB36" t="inlineStr"/>
+      <c r="BU36" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV36" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW36" t="n">
+        <v>15.855</v>
+      </c>
+      <c r="BX36" t="n">
+        <v>14.92392736518003</v>
+      </c>
+      <c r="BY36" t="n">
+        <v>14.84052801457027</v>
+      </c>
+      <c r="BZ36" t="n">
+        <v>21.02126125382789</v>
+      </c>
+      <c r="CA36" t="n">
+        <v>1.315133200057129</v>
+      </c>
+      <c r="CB36" t="n">
+        <v>21.06235979266279</v>
+      </c>
       <c r="CC36" t="inlineStr"/>
       <c r="CD36" t="inlineStr"/>
       <c r="CE36" t="inlineStr"/>
@@ -6705,14 +9808,41 @@
       <c r="CT36" t="inlineStr"/>
       <c r="CU36" t="inlineStr"/>
       <c r="CV36" t="inlineStr"/>
-      <c r="CW36" t="inlineStr"/>
-      <c r="CX36" t="inlineStr"/>
-      <c r="CY36" t="inlineStr"/>
-      <c r="CZ36" t="inlineStr"/>
+      <c r="CW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX36" t="n">
+        <v>0.9873321705367474</v>
+      </c>
+      <c r="CY36" t="n">
+        <v>0.9879995515699611</v>
+      </c>
+      <c r="CZ36" t="n">
+        <v>1.000711966559532</v>
+      </c>
       <c r="DA36" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB36" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC36" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD36" t="inlineStr"/>
+      <c r="DE36" t="n">
+        <v>0.1088331344550831</v>
+      </c>
+      <c r="DF36" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG36" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH36" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="37">
@@ -6773,14 +9903,30 @@
       <c r="O37" t="n">
         <v>268.91</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="P37" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5.339999999999975</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4.358826818549481</v>
+      </c>
+      <c r="T37" t="n">
+        <v>4.394376742562309</v>
+      </c>
+      <c r="U37" t="n">
+        <v>6.239769087851587</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.9710191981883275</v>
+      </c>
+      <c r="W37" t="n">
+        <v>6.314871063842755</v>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
@@ -6796,14 +9942,30 @@
       <c r="AH37" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr"/>
-      <c r="AN37" t="inlineStr"/>
-      <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
+      <c r="AI37" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>6.114249999999988</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>4.694313674073984</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>4.737793021313028</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>6.736000693219838</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.339901031498878</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>6.867972052452592</v>
+      </c>
       <c r="AQ37" t="inlineStr"/>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
@@ -6819,14 +9981,30 @@
       <c r="BA37" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB37" t="inlineStr"/>
-      <c r="BC37" t="inlineStr"/>
-      <c r="BD37" t="inlineStr"/>
-      <c r="BE37" t="inlineStr"/>
-      <c r="BF37" t="inlineStr"/>
-      <c r="BG37" t="inlineStr"/>
-      <c r="BH37" t="inlineStr"/>
-      <c r="BI37" t="inlineStr"/>
+      <c r="BB37" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>4.685000000000002</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>4.389219333751486</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>4.402348370384373</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>6.240565761448488</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>0.2148414268738843</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>6.244262795692087</v>
+      </c>
       <c r="BJ37" t="inlineStr"/>
       <c r="BK37" t="inlineStr"/>
       <c r="BL37" t="inlineStr"/>
@@ -6842,14 +10020,30 @@
       <c r="BT37" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU37" t="inlineStr"/>
-      <c r="BV37" t="inlineStr"/>
-      <c r="BW37" t="inlineStr"/>
-      <c r="BX37" t="inlineStr"/>
-      <c r="BY37" t="inlineStr"/>
-      <c r="BZ37" t="inlineStr"/>
-      <c r="CA37" t="inlineStr"/>
-      <c r="CB37" t="inlineStr"/>
+      <c r="BU37" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV37" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW37" t="n">
+        <v>4.560000000000002</v>
+      </c>
+      <c r="BX37" t="n">
+        <v>4.405335897830579</v>
+      </c>
+      <c r="BY37" t="n">
+        <v>4.41740779625891</v>
+      </c>
+      <c r="BZ37" t="n">
+        <v>6.257473692155243</v>
+      </c>
+      <c r="CA37" t="n">
+        <v>0.199858330166209</v>
+      </c>
+      <c r="CB37" t="n">
+        <v>6.260664530235732</v>
+      </c>
       <c r="CC37" t="inlineStr"/>
       <c r="CD37" t="inlineStr"/>
       <c r="CE37" t="inlineStr"/>
@@ -6870,14 +10064,43 @@
       <c r="CT37" t="inlineStr"/>
       <c r="CU37" t="inlineStr"/>
       <c r="CV37" t="inlineStr"/>
-      <c r="CW37" t="inlineStr"/>
-      <c r="CX37" t="inlineStr"/>
-      <c r="CY37" t="inlineStr"/>
-      <c r="CZ37" t="inlineStr"/>
+      <c r="CW37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CX37" t="n">
+        <v>1.076967236710759</v>
+      </c>
+      <c r="CY37" t="n">
+        <v>0.9350076791826907</v>
+      </c>
+      <c r="CZ37" t="n">
+        <v>1.003671852066075</v>
+      </c>
       <c r="DA37" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB37" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC37" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD37" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="DE37" t="n">
+        <v>0.01252808972117762</v>
+      </c>
+      <c r="DF37" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG37" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH37" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="38">
@@ -6938,14 +10161,30 @@
       <c r="O38" t="n">
         <v>268.91</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+      <c r="P38" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R38" t="n">
+        <v>27.485</v>
+      </c>
+      <c r="S38" t="n">
+        <v>24.92537442015514</v>
+      </c>
+      <c r="T38" t="n">
+        <v>25.14092958304566</v>
+      </c>
+      <c r="U38" t="n">
+        <v>35.64233215852654</v>
+      </c>
+      <c r="V38" t="n">
+        <v>4.296138242833823</v>
+      </c>
+      <c r="W38" t="n">
+        <v>35.90031539555432</v>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
@@ -6961,14 +10200,30 @@
       <c r="AH38" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
-      <c r="AN38" t="inlineStr"/>
-      <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
+      <c r="AI38" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>28.605</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>23.52736289917449</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>23.7289998939207</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>33.67519402769934</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>4.685193482305975</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>33.99955486134839</v>
+      </c>
       <c r="AQ38" t="inlineStr"/>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
@@ -6984,14 +10239,30 @@
       <c r="BA38" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB38" t="inlineStr"/>
-      <c r="BC38" t="inlineStr"/>
-      <c r="BD38" t="inlineStr"/>
-      <c r="BE38" t="inlineStr"/>
-      <c r="BF38" t="inlineStr"/>
-      <c r="BG38" t="inlineStr"/>
-      <c r="BH38" t="inlineStr"/>
-      <c r="BI38" t="inlineStr"/>
+      <c r="BB38" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>17.80999999999997</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>16.11697083514185</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>16.13919018654516</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>22.86849188107042</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>1.542513568253386</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>22.92045525339384</v>
+      </c>
       <c r="BJ38" t="inlineStr"/>
       <c r="BK38" t="inlineStr"/>
       <c r="BL38" t="inlineStr"/>
@@ -7007,14 +10278,30 @@
       <c r="BT38" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU38" t="inlineStr"/>
-      <c r="BV38" t="inlineStr"/>
-      <c r="BW38" t="inlineStr"/>
-      <c r="BX38" t="inlineStr"/>
-      <c r="BY38" t="inlineStr"/>
-      <c r="BZ38" t="inlineStr"/>
-      <c r="CA38" t="inlineStr"/>
-      <c r="CB38" t="inlineStr"/>
+      <c r="BU38" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV38" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW38" t="n">
+        <v>19.181625</v>
+      </c>
+      <c r="BX38" t="n">
+        <v>16.64823230668189</v>
+      </c>
+      <c r="BY38" t="n">
+        <v>16.56308315825168</v>
+      </c>
+      <c r="BZ38" t="n">
+        <v>23.4594452305294</v>
+      </c>
+      <c r="CA38" t="n">
+        <v>1.384870051572866</v>
+      </c>
+      <c r="CB38" t="n">
+        <v>23.50028586174968</v>
+      </c>
       <c r="CC38" t="inlineStr"/>
       <c r="CD38" t="inlineStr"/>
       <c r="CE38" t="inlineStr"/>
@@ -7035,14 +10322,43 @@
       <c r="CT38" t="inlineStr"/>
       <c r="CU38" t="inlineStr"/>
       <c r="CV38" t="inlineStr"/>
-      <c r="CW38" t="inlineStr"/>
-      <c r="CX38" t="inlineStr"/>
-      <c r="CY38" t="inlineStr"/>
-      <c r="CZ38" t="inlineStr"/>
+      <c r="CW38" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="CX38" t="n">
+        <v>0.9439121155247246</v>
+      </c>
+      <c r="CY38" t="n">
+        <v>0.6850309107829227</v>
+      </c>
+      <c r="CZ38" t="n">
+        <v>1.032962861134033</v>
+      </c>
       <c r="DA38" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB38" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC38" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD38" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="DE38" t="n">
+        <v>0.1947558217758928</v>
+      </c>
+      <c r="DF38" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG38" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH38" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="39">
@@ -7103,14 +10419,30 @@
       <c r="O39" t="n">
         <v>268.91</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="P39" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R39" t="n">
+        <v>18.949375</v>
+      </c>
+      <c r="S39" t="n">
+        <v>15.96331727989866</v>
+      </c>
+      <c r="T39" t="n">
+        <v>16.06215723582486</v>
+      </c>
+      <c r="U39" t="n">
+        <v>22.77256802947467</v>
+      </c>
+      <c r="V39" t="n">
+        <v>4.454265078142773</v>
+      </c>
+      <c r="W39" t="n">
+        <v>23.20410162112325</v>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
@@ -7126,14 +10458,30 @@
       <c r="AH39" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="inlineStr"/>
-      <c r="AN39" t="inlineStr"/>
-      <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="inlineStr"/>
+      <c r="AI39" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>20.29787500000002</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>16.07736408751504</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>16.16876576284148</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>22.9600324592481</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>5.044979637087578</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>23.50776276186985</v>
+      </c>
       <c r="AQ39" t="inlineStr"/>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -7149,14 +10497,30 @@
       <c r="BA39" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB39" t="inlineStr"/>
-      <c r="BC39" t="inlineStr"/>
-      <c r="BD39" t="inlineStr"/>
-      <c r="BE39" t="inlineStr"/>
-      <c r="BF39" t="inlineStr"/>
-      <c r="BG39" t="inlineStr"/>
-      <c r="BH39" t="inlineStr"/>
-      <c r="BI39" t="inlineStr"/>
+      <c r="BB39" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>21.89199999999999</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>16.10062391823344</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>16.21299225846682</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>23.04202248702225</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>5.984791316137853</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>23.80656479608426</v>
+      </c>
       <c r="BJ39" t="inlineStr"/>
       <c r="BK39" t="inlineStr"/>
       <c r="BL39" t="inlineStr"/>
@@ -7172,14 +10536,30 @@
       <c r="BT39" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU39" t="inlineStr"/>
-      <c r="BV39" t="inlineStr"/>
-      <c r="BW39" t="inlineStr"/>
-      <c r="BX39" t="inlineStr"/>
-      <c r="BY39" t="inlineStr"/>
-      <c r="BZ39" t="inlineStr"/>
-      <c r="CA39" t="inlineStr"/>
-      <c r="CB39" t="inlineStr"/>
+      <c r="BU39" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV39" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW39" t="n">
+        <v>23.18662500000003</v>
+      </c>
+      <c r="BX39" t="n">
+        <v>16.52932744069228</v>
+      </c>
+      <c r="BY39" t="n">
+        <v>16.67033431788975</v>
+      </c>
+      <c r="BZ39" t="n">
+        <v>23.83780326100988</v>
+      </c>
+      <c r="CA39" t="n">
+        <v>6.469689917037136</v>
+      </c>
+      <c r="CB39" t="n">
+        <v>24.70015692122675</v>
+      </c>
       <c r="CC39" t="inlineStr"/>
       <c r="CD39" t="inlineStr"/>
       <c r="CE39" t="inlineStr"/>
@@ -7200,14 +10580,41 @@
       <c r="CT39" t="inlineStr"/>
       <c r="CU39" t="inlineStr"/>
       <c r="CV39" t="inlineStr"/>
-      <c r="CW39" t="inlineStr"/>
-      <c r="CX39" t="inlineStr"/>
-      <c r="CY39" t="inlineStr"/>
-      <c r="CZ39" t="inlineStr"/>
+      <c r="CW39" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="CX39" t="n">
+        <v>1.007144305009835</v>
+      </c>
+      <c r="CY39" t="n">
+        <v>1.001446744042854</v>
+      </c>
+      <c r="CZ39" t="n">
+        <v>1.02662651612981</v>
+      </c>
       <c r="DA39" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB39" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC39" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD39" t="inlineStr"/>
+      <c r="DE39" t="n">
+        <v>0.1381971447624315</v>
+      </c>
+      <c r="DF39" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG39" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH39" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="40">
@@ -7268,14 +10675,30 @@
       <c r="O40" t="n">
         <v>268.91</v>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="P40" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R40" t="n">
+        <v>14.82975000000002</v>
+      </c>
+      <c r="S40" t="n">
+        <v>13.19721520349957</v>
+      </c>
+      <c r="T40" t="n">
+        <v>13.21677400229876</v>
+      </c>
+      <c r="U40" t="n">
+        <v>18.74247884772349</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.503234839904662</v>
+      </c>
+      <c r="W40" t="n">
+        <v>18.80266545842013</v>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
@@ -7291,14 +10714,30 @@
       <c r="AH40" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
-      <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr"/>
-      <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
+      <c r="AI40" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>13.71000336232425</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>13.72469928353256</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>19.45024998833113</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.577378375609547</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>19.51410636304967</v>
+      </c>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
@@ -7314,14 +10753,30 @@
       <c r="BA40" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB40" t="inlineStr"/>
-      <c r="BC40" t="inlineStr"/>
-      <c r="BD40" t="inlineStr"/>
-      <c r="BE40" t="inlineStr"/>
-      <c r="BF40" t="inlineStr"/>
-      <c r="BG40" t="inlineStr"/>
-      <c r="BH40" t="inlineStr"/>
-      <c r="BI40" t="inlineStr"/>
+      <c r="BB40" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>13.28863116752071</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>13.31752097812435</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>18.85638890138816</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>0.3632498076221276</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>18.85988740218594</v>
+      </c>
       <c r="BJ40" t="inlineStr"/>
       <c r="BK40" t="inlineStr"/>
       <c r="BL40" t="inlineStr"/>
@@ -7337,14 +10792,30 @@
       <c r="BT40" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU40" t="inlineStr"/>
-      <c r="BV40" t="inlineStr"/>
-      <c r="BW40" t="inlineStr"/>
-      <c r="BX40" t="inlineStr"/>
-      <c r="BY40" t="inlineStr"/>
-      <c r="BZ40" t="inlineStr"/>
-      <c r="CA40" t="inlineStr"/>
-      <c r="CB40" t="inlineStr"/>
+      <c r="BU40" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV40" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW40" t="n">
+        <v>13.85999999999997</v>
+      </c>
+      <c r="BX40" t="n">
+        <v>13.28180690477019</v>
+      </c>
+      <c r="BY40" t="n">
+        <v>13.31247581166181</v>
+      </c>
+      <c r="BZ40" t="n">
+        <v>18.85134616544854</v>
+      </c>
+      <c r="CA40" t="n">
+        <v>0.3348778098684934</v>
+      </c>
+      <c r="CB40" t="n">
+        <v>18.85432033771342</v>
+      </c>
       <c r="CC40" t="inlineStr"/>
       <c r="CD40" t="inlineStr"/>
       <c r="CE40" t="inlineStr"/>
@@ -7365,14 +10836,43 @@
       <c r="CT40" t="inlineStr"/>
       <c r="CU40" t="inlineStr"/>
       <c r="CV40" t="inlineStr"/>
-      <c r="CW40" t="inlineStr"/>
-      <c r="CX40" t="inlineStr"/>
-      <c r="CY40" t="inlineStr"/>
-      <c r="CZ40" t="inlineStr"/>
+      <c r="CW40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CX40" t="n">
+        <v>1.038855785172671</v>
+      </c>
+      <c r="CY40" t="n">
+        <v>0.9692653470850712</v>
+      </c>
+      <c r="CZ40" t="n">
+        <v>0.9994864585626243</v>
+      </c>
       <c r="DA40" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB40" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC40" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD40" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="DE40" t="n">
+        <v>0.03128820869973956</v>
+      </c>
+      <c r="DF40" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG40" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH40" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="41">
@@ -7433,14 +10933,30 @@
       <c r="O41" t="n">
         <v>268.91</v>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="P41" t="n">
+        <v>4700</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9315.384615384615</v>
+      </c>
+      <c r="R41" t="n">
+        <v>12.18000000000001</v>
+      </c>
+      <c r="S41" t="n">
+        <v>7.058858935098313</v>
+      </c>
+      <c r="T41" t="n">
+        <v>7.140381563911336</v>
+      </c>
+      <c r="U41" t="n">
+        <v>10.17808179257656</v>
+      </c>
+      <c r="V41" t="n">
+        <v>4.399990381710611</v>
+      </c>
+      <c r="W41" t="n">
+        <v>11.08842929974865</v>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
@@ -7456,14 +10972,30 @@
       <c r="AH41" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr"/>
-      <c r="AN41" t="inlineStr"/>
-      <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="inlineStr"/>
+      <c r="AI41" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>9415.384615384615</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>14.74825000000004</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>7.850897937829725</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>8.037866278183877</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>11.46078358188049</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>6.15946558106184</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>13.01109436423343</v>
+      </c>
       <c r="AQ41" t="inlineStr"/>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -7479,14 +11011,30 @@
       <c r="BA41" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB41" t="inlineStr"/>
-      <c r="BC41" t="inlineStr"/>
-      <c r="BD41" t="inlineStr"/>
-      <c r="BE41" t="inlineStr"/>
-      <c r="BF41" t="inlineStr"/>
-      <c r="BG41" t="inlineStr"/>
-      <c r="BH41" t="inlineStr"/>
-      <c r="BI41" t="inlineStr"/>
+      <c r="BB41" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>6.535000000000025</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>5.514552322961101</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>5.488227180498509</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>7.783419585947873</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>0.8495520164165172</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>7.829646165665107</v>
+      </c>
       <c r="BJ41" t="inlineStr"/>
       <c r="BK41" t="inlineStr"/>
       <c r="BL41" t="inlineStr"/>
@@ -7502,14 +11050,30 @@
       <c r="BT41" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU41" t="inlineStr"/>
-      <c r="BV41" t="inlineStr"/>
-      <c r="BW41" t="inlineStr"/>
-      <c r="BX41" t="inlineStr"/>
-      <c r="BY41" t="inlineStr"/>
-      <c r="BZ41" t="inlineStr"/>
-      <c r="CA41" t="inlineStr"/>
-      <c r="CB41" t="inlineStr"/>
+      <c r="BU41" t="n">
+        <v>6500</v>
+      </c>
+      <c r="BV41" t="n">
+        <v>11115.38461538462</v>
+      </c>
+      <c r="BW41" t="n">
+        <v>6.582000000000009</v>
+      </c>
+      <c r="BX41" t="n">
+        <v>5.529353619012136</v>
+      </c>
+      <c r="BY41" t="n">
+        <v>5.53468615502238</v>
+      </c>
+      <c r="BZ41" t="n">
+        <v>7.854952624199609</v>
+      </c>
+      <c r="CA41" t="n">
+        <v>0.8409701190906622</v>
+      </c>
+      <c r="CB41" t="n">
+        <v>7.899842496507364</v>
+      </c>
       <c r="CC41" t="inlineStr"/>
       <c r="CD41" t="inlineStr"/>
       <c r="CE41" t="inlineStr"/>
@@ -7530,14 +11094,43 @@
       <c r="CT41" t="inlineStr"/>
       <c r="CU41" t="inlineStr"/>
       <c r="CV41" t="inlineStr"/>
-      <c r="CW41" t="inlineStr"/>
-      <c r="CX41" t="inlineStr"/>
-      <c r="CY41" t="inlineStr"/>
-      <c r="CZ41" t="inlineStr"/>
+      <c r="CW41" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="CX41" t="n">
+        <v>1.112204962588671</v>
+      </c>
+      <c r="CY41" t="n">
+        <v>0.7024103951713738</v>
+      </c>
+      <c r="CZ41" t="n">
+        <v>1.002684043088939</v>
+      </c>
       <c r="DA41" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB41" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="DC41" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="DD41" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="DE41" t="n">
+        <v>0.1004127791821821</v>
+      </c>
+      <c r="DF41" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="DG41" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="DH41" t="n">
+        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="42">
@@ -7598,14 +11191,30 @@
       <c r="O42" t="n">
         <v>268.91</v>
       </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+      <c r="P42" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R42" t="n">
+        <v>14.21475</v>
+      </c>
+      <c r="S42" t="n">
+        <v>13.39727899906288</v>
+      </c>
+      <c r="T42" t="n">
+        <v>13.42035241774436</v>
+      </c>
+      <c r="U42" t="n">
+        <v>19.00620289485104</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.2909931780955392</v>
+      </c>
+      <c r="W42" t="n">
+        <v>19.0084303799641</v>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
@@ -7621,14 +11230,30 @@
       <c r="AH42" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr"/>
-      <c r="AN42" t="inlineStr"/>
-      <c r="AO42" t="inlineStr"/>
-      <c r="AP42" t="inlineStr"/>
+      <c r="AI42" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>14.185</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>13.83843406621354</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>13.86970084190515</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>19.64087490081616</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.2897115949233935</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>19.64301147171033</v>
+      </c>
       <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
@@ -7644,14 +11269,30 @@
       <c r="BA42" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB42" t="inlineStr"/>
-      <c r="BC42" t="inlineStr"/>
-      <c r="BD42" t="inlineStr"/>
-      <c r="BE42" t="inlineStr"/>
-      <c r="BF42" t="inlineStr"/>
-      <c r="BG42" t="inlineStr"/>
-      <c r="BH42" t="inlineStr"/>
-      <c r="BI42" t="inlineStr"/>
+      <c r="BB42" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>14.57000000000001</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>13.59206541655621</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>13.60913781618921</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>19.28367670486812</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>0.3389876936649855</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>19.28665600653285</v>
+      </c>
       <c r="BJ42" t="inlineStr"/>
       <c r="BK42" t="inlineStr"/>
       <c r="BL42" t="inlineStr"/>
@@ -7667,14 +11308,30 @@
       <c r="BT42" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU42" t="inlineStr"/>
-      <c r="BV42" t="inlineStr"/>
-      <c r="BW42" t="inlineStr"/>
-      <c r="BX42" t="inlineStr"/>
-      <c r="BY42" t="inlineStr"/>
-      <c r="BZ42" t="inlineStr"/>
-      <c r="CA42" t="inlineStr"/>
-      <c r="CB42" t="inlineStr"/>
+      <c r="BU42" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV42" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW42" t="n">
+        <v>14.56999999999999</v>
+      </c>
+      <c r="BX42" t="n">
+        <v>13.58162985680418</v>
+      </c>
+      <c r="BY42" t="n">
+        <v>13.60023579250978</v>
+      </c>
+      <c r="BZ42" t="n">
+        <v>19.27320112662493</v>
+      </c>
+      <c r="CA42" t="n">
+        <v>0.3141606066903892</v>
+      </c>
+      <c r="CB42" t="n">
+        <v>19.27576142605352</v>
+      </c>
       <c r="CC42" t="inlineStr"/>
       <c r="CD42" t="inlineStr"/>
       <c r="CE42" t="inlineStr"/>
@@ -7695,14 +11352,41 @@
       <c r="CT42" t="inlineStr"/>
       <c r="CU42" t="inlineStr"/>
       <c r="CV42" t="inlineStr"/>
-      <c r="CW42" t="inlineStr"/>
-      <c r="CX42" t="inlineStr"/>
-      <c r="CY42" t="inlineStr"/>
-      <c r="CZ42" t="inlineStr"/>
+      <c r="CW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX42" t="n">
+        <v>1.032928706432218</v>
+      </c>
+      <c r="CY42" t="n">
+        <v>0.9821967826360616</v>
+      </c>
+      <c r="CZ42" t="n">
+        <v>0.9992322314944626</v>
+      </c>
       <c r="DA42" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB42" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC42" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD42" t="inlineStr"/>
+      <c r="DE42" t="n">
+        <v>0.02906504521321584</v>
+      </c>
+      <c r="DF42" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG42" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH42" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="43">
@@ -7763,14 +11447,30 @@
       <c r="O43" t="n">
         <v>268.91</v>
       </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+      <c r="P43" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R43" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4.281881627209044</v>
+      </c>
+      <c r="T43" t="n">
+        <v>4.359676611768778</v>
+      </c>
+      <c r="U43" t="n">
+        <v>6.291286048484499</v>
+      </c>
+      <c r="V43" t="n">
+        <v>6.249438988397257</v>
+      </c>
+      <c r="W43" t="n">
+        <v>8.867681084339662</v>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
@@ -7786,14 +11486,30 @@
       <c r="AH43" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
-      <c r="AN43" t="inlineStr"/>
-      <c r="AO43" t="inlineStr"/>
-      <c r="AP43" t="inlineStr"/>
+      <c r="AI43" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>13.675</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>4.558043224275926</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>4.70284905886141</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>6.837436448686042</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>8.328695668393456</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>10.77579271917089</v>
+      </c>
       <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -7809,14 +11525,30 @@
       <c r="BA43" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB43" t="inlineStr"/>
-      <c r="BC43" t="inlineStr"/>
-      <c r="BD43" t="inlineStr"/>
-      <c r="BE43" t="inlineStr"/>
-      <c r="BF43" t="inlineStr"/>
-      <c r="BG43" t="inlineStr"/>
-      <c r="BH43" t="inlineStr"/>
-      <c r="BI43" t="inlineStr"/>
+      <c r="BB43" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>18.13895000000007</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>4.472087168347905</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>4.698135737647096</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>7.348093392675044</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>11.59291280924994</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>13.72552745472268</v>
+      </c>
       <c r="BJ43" t="inlineStr"/>
       <c r="BK43" t="inlineStr"/>
       <c r="BL43" t="inlineStr"/>
@@ -7832,14 +11564,30 @@
       <c r="BT43" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU43" t="inlineStr"/>
-      <c r="BV43" t="inlineStr"/>
-      <c r="BW43" t="inlineStr"/>
-      <c r="BX43" t="inlineStr"/>
-      <c r="BY43" t="inlineStr"/>
-      <c r="BZ43" t="inlineStr"/>
-      <c r="CA43" t="inlineStr"/>
-      <c r="CB43" t="inlineStr"/>
+      <c r="BU43" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV43" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW43" t="n">
+        <v>21.10410000000032</v>
+      </c>
+      <c r="BX43" t="n">
+        <v>3.982345863960177</v>
+      </c>
+      <c r="BY43" t="n">
+        <v>4.212914007321219</v>
+      </c>
+      <c r="BZ43" t="n">
+        <v>7.221421545072832</v>
+      </c>
+      <c r="CA43" t="n">
+        <v>14.26368714630179</v>
+      </c>
+      <c r="CB43" t="n">
+        <v>15.9875482841872</v>
+      </c>
       <c r="CC43" t="inlineStr"/>
       <c r="CD43" t="inlineStr"/>
       <c r="CE43" t="inlineStr"/>
@@ -7860,14 +11608,41 @@
       <c r="CT43" t="inlineStr"/>
       <c r="CU43" t="inlineStr"/>
       <c r="CV43" t="inlineStr"/>
-      <c r="CW43" t="inlineStr"/>
-      <c r="CX43" t="inlineStr"/>
-      <c r="CY43" t="inlineStr"/>
-      <c r="CZ43" t="inlineStr"/>
+      <c r="CW43" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="CX43" t="n">
+        <v>1.064495383364179</v>
+      </c>
+      <c r="CY43" t="n">
+        <v>0.9811418953926931</v>
+      </c>
+      <c r="CZ43" t="n">
+        <v>0.8904893205450086</v>
+      </c>
       <c r="DA43" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB43" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC43" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD43" t="inlineStr"/>
+      <c r="DE43" t="n">
+        <v>0.02802005592461942</v>
+      </c>
+      <c r="DF43" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG43" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH43" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="44">
@@ -7928,14 +11703,30 @@
       <c r="O44" t="n">
         <v>268.91</v>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="P44" t="n">
+        <v>3950</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>13180.76923076923</v>
+      </c>
+      <c r="R44" t="n">
+        <v>15.01932499999998</v>
+      </c>
+      <c r="S44" t="n">
+        <v>8.869884909886459</v>
+      </c>
+      <c r="T44" t="n">
+        <v>8.877707096535326</v>
+      </c>
+      <c r="U44" t="n">
+        <v>12.62322122891813</v>
+      </c>
+      <c r="V44" t="n">
+        <v>6.801407426826058</v>
+      </c>
+      <c r="W44" t="n">
+        <v>14.33892803454617</v>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
@@ -7951,14 +11742,30 @@
       <c r="AH44" t="n">
         <v>269.34</v>
       </c>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="inlineStr"/>
-      <c r="AM44" t="inlineStr"/>
-      <c r="AN44" t="inlineStr"/>
-      <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="inlineStr"/>
+      <c r="AI44" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>13230.76923076923</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>16.46940000000001</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>8.952608492266558</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>8.982606893739227</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>12.83454150472009</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>8.097236815148516</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>15.17533194618751</v>
+      </c>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -7974,14 +11781,30 @@
       <c r="BA44" t="n">
         <v>269.73</v>
       </c>
-      <c r="BB44" t="inlineStr"/>
-      <c r="BC44" t="inlineStr"/>
-      <c r="BD44" t="inlineStr"/>
-      <c r="BE44" t="inlineStr"/>
-      <c r="BF44" t="inlineStr"/>
-      <c r="BG44" t="inlineStr"/>
-      <c r="BH44" t="inlineStr"/>
-      <c r="BI44" t="inlineStr"/>
+      <c r="BB44" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>9.55425000000001</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>8.651077282197946</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>8.660350908304096</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>12.29163819022871</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>0.6204918010209992</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>12.30728968841731</v>
+      </c>
       <c r="BJ44" t="inlineStr"/>
       <c r="BK44" t="inlineStr"/>
       <c r="BL44" t="inlineStr"/>
@@ -7997,14 +11820,30 @@
       <c r="BT44" t="n">
         <v>270.29</v>
       </c>
-      <c r="BU44" t="inlineStr"/>
-      <c r="BV44" t="inlineStr"/>
-      <c r="BW44" t="inlineStr"/>
-      <c r="BX44" t="inlineStr"/>
-      <c r="BY44" t="inlineStr"/>
-      <c r="BZ44" t="inlineStr"/>
-      <c r="CA44" t="inlineStr"/>
-      <c r="CB44" t="inlineStr"/>
+      <c r="BU44" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BV44" t="n">
+        <v>13730.76923076923</v>
+      </c>
+      <c r="BW44" t="n">
+        <v>9.724999999999994</v>
+      </c>
+      <c r="BX44" t="n">
+        <v>8.658321476792</v>
+      </c>
+      <c r="BY44" t="n">
+        <v>8.69279915227564</v>
+      </c>
+      <c r="BZ44" t="n">
+        <v>12.33087458204132</v>
+      </c>
+      <c r="CA44" t="n">
+        <v>0.6914653873928602</v>
+      </c>
+      <c r="CB44" t="n">
+        <v>12.35024665097807</v>
+      </c>
       <c r="CC44" t="inlineStr"/>
       <c r="CD44" t="inlineStr"/>
       <c r="CE44" t="inlineStr"/>
@@ -8025,14 +11864,43 @@
       <c r="CT44" t="inlineStr"/>
       <c r="CU44" t="inlineStr"/>
       <c r="CV44" t="inlineStr"/>
-      <c r="CW44" t="inlineStr"/>
-      <c r="CX44" t="inlineStr"/>
-      <c r="CY44" t="inlineStr"/>
-      <c r="CZ44" t="inlineStr"/>
+      <c r="CW44" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="CX44" t="n">
+        <v>1.009326342249142</v>
+      </c>
+      <c r="CY44" t="n">
+        <v>0.9663191783345513</v>
+      </c>
+      <c r="CZ44" t="n">
+        <v>1.000837374856073</v>
+      </c>
       <c r="DA44" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
+      </c>
+      <c r="DB44" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="DC44" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="DD44" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="DE44" t="n">
+        <v>0.03374577762668574</v>
+      </c>
+      <c r="DF44" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="DG44" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="DH44" t="n">
+        <v>1.993203138117973</v>
       </c>
     </row>
   </sheetData>

--- a/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
+++ b/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DH44"/>
+  <dimension ref="A1:DL44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,35 +949,55 @@
       </c>
       <c r="DB1" t="inlineStr">
         <is>
+          <t>Probe 1 Frequency (FFT)</t>
+        </is>
+      </c>
+      <c r="DC1" t="inlineStr">
+        <is>
+          <t>Probe 2 Frequency (FFT)</t>
+        </is>
+      </c>
+      <c r="DD1" t="inlineStr">
+        <is>
+          <t>Probe 3 Frequency (FFT)</t>
+        </is>
+      </c>
+      <c r="DE1" t="inlineStr">
+        <is>
+          <t>Probe 4 Frequency (FFT)</t>
+        </is>
+      </c>
+      <c r="DF1" t="inlineStr">
+        <is>
           <t>Wavenumber</t>
         </is>
       </c>
-      <c r="DC1" t="inlineStr">
+      <c r="DG1" t="inlineStr">
         <is>
           <t>Wavelength</t>
         </is>
       </c>
-      <c r="DD1" t="inlineStr">
+      <c r="DH1" t="inlineStr">
         <is>
           <t>kL</t>
         </is>
       </c>
-      <c r="DE1" t="inlineStr">
+      <c r="DI1" t="inlineStr">
         <is>
           <t>ak</t>
         </is>
       </c>
-      <c r="DF1" t="inlineStr">
+      <c r="DJ1" t="inlineStr">
         <is>
           <t>kH</t>
         </is>
       </c>
-      <c r="DG1" t="inlineStr">
+      <c r="DK1" t="inlineStr">
         <is>
           <t>tanh(kH)</t>
         </is>
       </c>
-      <c r="DH1" t="inlineStr">
+      <c r="DL1" t="inlineStr">
         <is>
           <t>Celerity</t>
         </is>
@@ -1065,13 +1085,25 @@
       <c r="W2" t="n">
         <v>31.64910792637422</v>
       </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+      <c r="AB2" t="n">
+        <v>0.1630192484324389</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
@@ -1104,13 +1136,25 @@
       <c r="AP2" t="n">
         <v>31.95081162616681</v>
       </c>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
+      <c r="AQ2" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
+      <c r="AU2" t="n">
+        <v>0.1661979536106412</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="n">
@@ -1143,13 +1187,25 @@
       <c r="BI2" t="n">
         <v>31.10782627890302</v>
       </c>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
+      <c r="BJ2" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr"/>
+      <c r="BN2" t="n">
+        <v>0.1626925292706536</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="n">
@@ -1182,13 +1238,25 @@
       <c r="CB2" t="n">
         <v>32.47904181745891</v>
       </c>
-      <c r="CC2" t="inlineStr"/>
-      <c r="CD2" t="inlineStr"/>
-      <c r="CE2" t="inlineStr"/>
+      <c r="CC2" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="CF2" t="inlineStr"/>
-      <c r="CG2" t="inlineStr"/>
-      <c r="CH2" t="inlineStr"/>
-      <c r="CI2" t="inlineStr"/>
+      <c r="CG2" t="n">
+        <v>0.1732632554842475</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ2" t="inlineStr"/>
       <c r="CK2" t="inlineStr"/>
       <c r="CL2" t="inlineStr"/>
@@ -1220,22 +1288,34 @@
         </is>
       </c>
       <c r="DB2" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF2" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DG2" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD2" t="inlineStr"/>
-      <c r="DE2" t="n">
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="n">
         <v>0.166242017140429</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DJ2" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DK2" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DL2" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -1321,13 +1401,27 @@
       <c r="W3" t="n">
         <v>18.88664274280582</v>
       </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.02844936135425653</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
@@ -1360,13 +1454,27 @@
       <c r="AP3" t="n">
         <v>19.71541898974817</v>
       </c>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
+      <c r="AQ3" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.02910501822378211</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="n">
@@ -1399,13 +1507,27 @@
       <c r="BI3" t="n">
         <v>19.11788659100333</v>
       </c>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="inlineStr"/>
-      <c r="BP3" t="inlineStr"/>
+      <c r="BJ3" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.02918697533247278</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="BQ3" t="inlineStr"/>
       <c r="BR3" t="inlineStr"/>
       <c r="BS3" t="n">
@@ -1438,13 +1560,27 @@
       <c r="CB3" t="n">
         <v>19.17730706604992</v>
       </c>
-      <c r="CC3" t="inlineStr"/>
-      <c r="CD3" t="inlineStr"/>
-      <c r="CE3" t="inlineStr"/>
-      <c r="CF3" t="inlineStr"/>
-      <c r="CG3" t="inlineStr"/>
-      <c r="CH3" t="inlineStr"/>
-      <c r="CI3" t="inlineStr"/>
+      <c r="CC3" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.02910501822378205</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="CJ3" t="inlineStr"/>
       <c r="CK3" t="inlineStr"/>
       <c r="CL3" t="inlineStr"/>
@@ -1476,24 +1612,36 @@
         </is>
       </c>
       <c r="DB3" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DF3" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DG3" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DH3" t="n">
         <v>5.368376345338421</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="DI3" t="n">
         <v>0.02910602518531768</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DJ3" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="DK3" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="DL3" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -1682,6 +1830,10 @@
       <c r="DF4" t="inlineStr"/>
       <c r="DG4" t="inlineStr"/>
       <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="inlineStr"/>
+      <c r="DJ4" t="inlineStr"/>
+      <c r="DK4" t="inlineStr"/>
+      <c r="DL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1765,13 +1917,25 @@
       <c r="W5" t="n">
         <v>10.3763384893122</v>
       </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
+      <c r="AB5" t="n">
+        <v>0.05707375357436319</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="n">
@@ -1804,13 +1968,25 @@
       <c r="AP5" t="n">
         <v>10.50594931724815</v>
       </c>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
+      <c r="AQ5" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
+      <c r="AU5" t="n">
+        <v>0.06045410573523022</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="n">
@@ -1843,13 +2019,25 @@
       <c r="BI5" t="n">
         <v>10.74789111370915</v>
       </c>
-      <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
+      <c r="BJ5" t="n">
+        <v>0.7691666666666667</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>6.809582094531432</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.9226976369409542</v>
+      </c>
       <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="inlineStr"/>
-      <c r="BO5" t="inlineStr"/>
-      <c r="BP5" t="inlineStr"/>
+      <c r="BN5" t="n">
+        <v>0.06618913795884551</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.9992581318692667</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.199606895264513</v>
+      </c>
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="inlineStr"/>
       <c r="BS5" t="n">
@@ -1882,13 +2070,25 @@
       <c r="CB5" t="n">
         <v>11.09315615817422</v>
       </c>
-      <c r="CC5" t="inlineStr"/>
-      <c r="CD5" t="inlineStr"/>
-      <c r="CE5" t="inlineStr"/>
+      <c r="CC5" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="CF5" t="inlineStr"/>
-      <c r="CG5" t="inlineStr"/>
-      <c r="CH5" t="inlineStr"/>
-      <c r="CI5" t="inlineStr"/>
+      <c r="CG5" t="n">
+        <v>0.06523152264518912</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ5" t="inlineStr"/>
       <c r="CK5" t="inlineStr"/>
       <c r="CL5" t="inlineStr"/>
@@ -1920,22 +2120,34 @@
         </is>
       </c>
       <c r="DB5" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>1.300108342361864</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF5" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="DG5" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD5" t="inlineStr"/>
-      <c r="DE5" t="n">
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="n">
         <v>0.06047013373816879</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="DJ5" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG5" t="n">
+      <c r="DK5" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="DL5" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -2021,13 +2233,27 @@
       <c r="W6" t="n">
         <v>6.281636488329285</v>
       </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.009691428102674338</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
@@ -2060,13 +2286,27 @@
       <c r="AP6" t="n">
         <v>6.62452740771124</v>
       </c>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
+      <c r="AQ6" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.009814363765710321</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="n">
@@ -2099,13 +2339,27 @@
       <c r="BI6" t="n">
         <v>6.430793907013045</v>
       </c>
-      <c r="BJ6" t="inlineStr"/>
-      <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="inlineStr"/>
-      <c r="BM6" t="inlineStr"/>
-      <c r="BN6" t="inlineStr"/>
-      <c r="BO6" t="inlineStr"/>
-      <c r="BP6" t="inlineStr"/>
+      <c r="BJ6" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.009763140572778684</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="n">
@@ -2138,13 +2392,27 @@
       <c r="CB6" t="n">
         <v>6.464557125055483</v>
       </c>
-      <c r="CC6" t="inlineStr"/>
-      <c r="CD6" t="inlineStr"/>
-      <c r="CE6" t="inlineStr"/>
-      <c r="CF6" t="inlineStr"/>
-      <c r="CG6" t="inlineStr"/>
-      <c r="CH6" t="inlineStr"/>
-      <c r="CI6" t="inlineStr"/>
+      <c r="CC6" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0.009629960271156373</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="CJ6" t="inlineStr"/>
       <c r="CK6" t="inlineStr"/>
       <c r="CL6" t="inlineStr"/>
@@ -2176,24 +2444,36 @@
         </is>
       </c>
       <c r="DB6" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DF6" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DG6" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD6" t="n">
+      <c r="DH6" t="n">
         <v>5.368376345338421</v>
       </c>
-      <c r="DE6" t="n">
+      <c r="DI6" t="n">
         <v>0.009814703318385815</v>
       </c>
-      <c r="DF6" t="n">
+      <c r="DJ6" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG6" t="n">
+      <c r="DK6" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH6" t="n">
+      <c r="DL6" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -2279,13 +2559,25 @@
       <c r="W7" t="n">
         <v>12.61004820197209</v>
       </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
+      <c r="AB7" t="n">
+        <v>0.02096053054764452</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="n">
@@ -2318,13 +2610,25 @@
       <c r="AP7" t="n">
         <v>13.12713137576087</v>
       </c>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
+      <c r="AQ7" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
+      <c r="AU7" t="n">
+        <v>0.02220013181659128</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AX7" t="inlineStr"/>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="n">
@@ -2357,13 +2661,25 @@
       <c r="BI7" t="n">
         <v>13.19854196486497</v>
       </c>
-      <c r="BJ7" t="inlineStr"/>
-      <c r="BK7" t="inlineStr"/>
-      <c r="BL7" t="inlineStr"/>
+      <c r="BJ7" t="n">
+        <v>1.538333333333333</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>2.049234936091632</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>3.066112721639952</v>
+      </c>
       <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="inlineStr"/>
-      <c r="BO7" t="inlineStr"/>
-      <c r="BP7" t="inlineStr"/>
+      <c r="BN7" t="n">
+        <v>0.02546174408093855</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.8301305724820542</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.99313936401297</v>
+      </c>
       <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="n">
@@ -2396,13 +2712,25 @@
       <c r="CB7" t="n">
         <v>13.37521434554576</v>
       </c>
-      <c r="CC7" t="inlineStr"/>
-      <c r="CD7" t="inlineStr"/>
-      <c r="CE7" t="inlineStr"/>
+      <c r="CC7" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="CF7" t="inlineStr"/>
-      <c r="CG7" t="inlineStr"/>
-      <c r="CH7" t="inlineStr"/>
-      <c r="CI7" t="inlineStr"/>
+      <c r="CG7" t="n">
+        <v>0.02624317843468896</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="CJ7" t="inlineStr"/>
       <c r="CK7" t="inlineStr"/>
       <c r="CL7" t="inlineStr"/>
@@ -2434,22 +2762,34 @@
         </is>
       </c>
       <c r="DB7" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0.6500541711809318</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DF7" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC7" t="n">
+      <c r="DG7" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD7" t="inlineStr"/>
-      <c r="DE7" t="n">
+      <c r="DH7" t="inlineStr"/>
+      <c r="DI7" t="n">
         <v>0.022200899886161</v>
       </c>
-      <c r="DF7" t="n">
+      <c r="DJ7" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG7" t="n">
+      <c r="DK7" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH7" t="n">
+      <c r="DL7" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -2535,13 +2875,27 @@
       <c r="W8" t="n">
         <v>20.99171716054206</v>
       </c>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
+      <c r="X8" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.1093147862139861</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="n">
@@ -2574,13 +2928,27 @@
       <c r="AP8" t="n">
         <v>20.99646978074422</v>
       </c>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
+      <c r="AQ8" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.1132166978700988</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="n">
@@ -2613,13 +2981,27 @@
       <c r="BI8" t="n">
         <v>14.57940460838826</v>
       </c>
-      <c r="BJ8" t="inlineStr"/>
-      <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="inlineStr"/>
-      <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr"/>
-      <c r="BO8" t="inlineStr"/>
-      <c r="BP8" t="inlineStr"/>
+      <c r="BJ8" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0.07960376243913868</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="inlineStr"/>
       <c r="BS8" t="n">
@@ -2652,13 +3034,27 @@
       <c r="CB8" t="n">
         <v>15.02685590348267</v>
       </c>
-      <c r="CC8" t="inlineStr"/>
-      <c r="CD8" t="inlineStr"/>
-      <c r="CE8" t="inlineStr"/>
-      <c r="CF8" t="inlineStr"/>
-      <c r="CG8" t="inlineStr"/>
-      <c r="CH8" t="inlineStr"/>
-      <c r="CI8" t="inlineStr"/>
+      <c r="CC8" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.08138455203709861</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ8" t="inlineStr"/>
       <c r="CK8" t="inlineStr"/>
       <c r="CL8" t="inlineStr"/>
@@ -2690,24 +3086,36 @@
         </is>
       </c>
       <c r="DB8" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF8" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC8" t="n">
+      <c r="DG8" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD8" t="n">
+      <c r="DH8" t="n">
         <v>17.83814903173707</v>
       </c>
-      <c r="DE8" t="n">
+      <c r="DI8" t="n">
         <v>0.1132467146496721</v>
       </c>
-      <c r="DF8" t="n">
+      <c r="DJ8" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG8" t="n">
+      <c r="DK8" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH8" t="n">
+      <c r="DL8" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -2793,13 +3201,25 @@
       <c r="W9" t="n">
         <v>6.459925246377317</v>
       </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
+      <c r="AB9" t="n">
+        <v>0.01189402539873672</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="n">
@@ -2832,13 +3252,25 @@
       <c r="AP9" t="n">
         <v>6.746161365281539</v>
       </c>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
+      <c r="AQ9" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
+      <c r="AU9" t="n">
+        <v>0.01268286256988456</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="n">
@@ -2871,13 +3303,25 @@
       <c r="BI9" t="n">
         <v>7.564975319333245</v>
       </c>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="inlineStr"/>
+      <c r="BJ9" t="n">
+        <v>1.538333333333333</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>2.049234936091632</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>3.066112721639952</v>
+      </c>
       <c r="BM9" t="inlineStr"/>
-      <c r="BN9" t="inlineStr"/>
-      <c r="BO9" t="inlineStr"/>
-      <c r="BP9" t="inlineStr"/>
+      <c r="BN9" t="n">
+        <v>0.01770538984783167</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.8301305724820542</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.99313936401297</v>
+      </c>
       <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="inlineStr"/>
       <c r="BS9" t="n">
@@ -2910,13 +3354,25 @@
       <c r="CB9" t="n">
         <v>7.439954922425064</v>
       </c>
-      <c r="CC9" t="inlineStr"/>
-      <c r="CD9" t="inlineStr"/>
-      <c r="CE9" t="inlineStr"/>
+      <c r="CC9" t="n">
+        <v>1.538333333333333</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>2.049234936091632</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>3.066112721639952</v>
+      </c>
       <c r="CF9" t="inlineStr"/>
-      <c r="CG9" t="inlineStr"/>
-      <c r="CH9" t="inlineStr"/>
-      <c r="CI9" t="inlineStr"/>
+      <c r="CG9" t="n">
+        <v>0.01770538984783167</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.8301305724820542</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>1.99313936401297</v>
+      </c>
       <c r="CJ9" t="inlineStr"/>
       <c r="CK9" t="inlineStr"/>
       <c r="CL9" t="inlineStr"/>
@@ -2948,22 +3404,34 @@
         </is>
       </c>
       <c r="DB9" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0.6500541711809318</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0.6500541711809318</v>
+      </c>
+      <c r="DF9" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC9" t="n">
+      <c r="DG9" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD9" t="inlineStr"/>
-      <c r="DE9" t="n">
+      <c r="DH9" t="inlineStr"/>
+      <c r="DI9" t="n">
         <v>0.01268330136551323</v>
       </c>
-      <c r="DF9" t="n">
+      <c r="DJ9" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG9" t="n">
+      <c r="DK9" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH9" t="n">
+      <c r="DL9" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -3049,13 +3517,27 @@
       <c r="W10" t="n">
         <v>10.75119594734381</v>
       </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.05734601954251752</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="n">
@@ -3088,13 +3570,27 @@
       <c r="AP10" t="n">
         <v>10.55957287986398</v>
       </c>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
+      <c r="AQ10" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.05561032399553353</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="n">
@@ -3127,13 +3623,27 @@
       <c r="BI10" t="n">
         <v>7.063417087690669</v>
       </c>
-      <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="inlineStr"/>
-      <c r="BL10" t="inlineStr"/>
-      <c r="BM10" t="inlineStr"/>
-      <c r="BN10" t="inlineStr"/>
-      <c r="BO10" t="inlineStr"/>
-      <c r="BP10" t="inlineStr"/>
+      <c r="BJ10" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.03801513580355625</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="n">
@@ -3166,13 +3676,27 @@
       <c r="CB10" t="n">
         <v>7.289094437803209</v>
       </c>
-      <c r="CC10" t="inlineStr"/>
-      <c r="CD10" t="inlineStr"/>
-      <c r="CE10" t="inlineStr"/>
-      <c r="CF10" t="inlineStr"/>
-      <c r="CG10" t="inlineStr"/>
-      <c r="CH10" t="inlineStr"/>
-      <c r="CI10" t="inlineStr"/>
+      <c r="CC10" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0.03920629941423177</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ10" t="inlineStr"/>
       <c r="CK10" t="inlineStr"/>
       <c r="CL10" t="inlineStr"/>
@@ -3204,24 +3728,36 @@
         </is>
       </c>
       <c r="DB10" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF10" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC10" t="n">
+      <c r="DG10" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD10" t="n">
+      <c r="DH10" t="n">
         <v>17.83814903173707</v>
       </c>
-      <c r="DE10" t="n">
+      <c r="DI10" t="n">
         <v>0.05562506778217258</v>
       </c>
-      <c r="DF10" t="n">
+      <c r="DJ10" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG10" t="n">
+      <c r="DK10" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH10" t="n">
+      <c r="DL10" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -3307,13 +3843,27 @@
       <c r="W11" t="n">
         <v>11.17219305328888</v>
       </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.05765231875669131</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="n">
@@ -3346,13 +3896,27 @@
       <c r="AP11" t="n">
         <v>10.36619255669662</v>
       </c>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
+      <c r="AQ11" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.05441916038485802</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX11" t="inlineStr"/>
       <c r="AY11" t="inlineStr"/>
       <c r="AZ11" t="n">
@@ -3385,13 +3949,27 @@
       <c r="BI11" t="n">
         <v>7.439371028456156</v>
       </c>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
-      <c r="BN11" t="inlineStr"/>
-      <c r="BO11" t="inlineStr"/>
-      <c r="BP11" t="inlineStr"/>
+      <c r="BJ11" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.03833249582268614</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ11" t="inlineStr"/>
       <c r="BR11" t="inlineStr"/>
       <c r="BS11" t="n">
@@ -3424,13 +4002,27 @@
       <c r="CB11" t="n">
         <v>7.635492700113601</v>
       </c>
-      <c r="CC11" t="inlineStr"/>
-      <c r="CD11" t="inlineStr"/>
-      <c r="CE11" t="inlineStr"/>
-      <c r="CF11" t="inlineStr"/>
-      <c r="CG11" t="inlineStr"/>
-      <c r="CH11" t="inlineStr"/>
-      <c r="CI11" t="inlineStr"/>
+      <c r="CC11" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0.03951259862840537</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ11" t="inlineStr"/>
       <c r="CK11" t="inlineStr"/>
       <c r="CL11" t="inlineStr"/>
@@ -3462,24 +4054,36 @@
         </is>
       </c>
       <c r="DB11" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF11" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC11" t="n">
+      <c r="DG11" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD11" t="n">
+      <c r="DH11" t="n">
         <v>17.83814903173707</v>
       </c>
-      <c r="DE11" t="n">
+      <c r="DI11" t="n">
         <v>0.05443358836211374</v>
       </c>
-      <c r="DF11" t="n">
+      <c r="DJ11" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG11" t="n">
+      <c r="DK11" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH11" t="n">
+      <c r="DL11" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -3565,13 +4169,25 @@
       <c r="W12" t="n">
         <v>6.48733945914759</v>
       </c>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
+      <c r="AB12" t="n">
+        <v>0.01189402539873672</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="n">
@@ -3604,13 +4220,25 @@
       <c r="AP12" t="n">
         <v>6.736025275768437</v>
       </c>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
+      <c r="AQ12" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
+      <c r="AU12" t="n">
+        <v>0.01277506431716162</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AX12" t="inlineStr"/>
       <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="n">
@@ -3643,13 +4271,25 @@
       <c r="BI12" t="n">
         <v>7.896680521895909</v>
       </c>
-      <c r="BJ12" t="inlineStr"/>
-      <c r="BK12" t="inlineStr"/>
-      <c r="BL12" t="inlineStr"/>
+      <c r="BJ12" t="n">
+        <v>1.538333333333333</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>2.049234936091632</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>3.066112721639952</v>
+      </c>
       <c r="BM12" t="inlineStr"/>
-      <c r="BN12" t="inlineStr"/>
-      <c r="BO12" t="inlineStr"/>
-      <c r="BP12" t="inlineStr"/>
+      <c r="BN12" t="n">
+        <v>0.01911936195373495</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0.8301305724820542</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.99313936401297</v>
+      </c>
       <c r="BQ12" t="inlineStr"/>
       <c r="BR12" t="inlineStr"/>
       <c r="BS12" t="n">
@@ -3682,13 +4322,25 @@
       <c r="CB12" t="n">
         <v>7.726817765481695</v>
       </c>
-      <c r="CC12" t="inlineStr"/>
-      <c r="CD12" t="inlineStr"/>
-      <c r="CE12" t="inlineStr"/>
+      <c r="CC12" t="n">
+        <v>1.538333333333333</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>2.049234936091632</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>3.066112721639952</v>
+      </c>
       <c r="CF12" t="inlineStr"/>
-      <c r="CG12" t="inlineStr"/>
-      <c r="CH12" t="inlineStr"/>
-      <c r="CI12" t="inlineStr"/>
+      <c r="CG12" t="n">
+        <v>0.01770538984783173</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0.8301305724820542</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>1.99313936401297</v>
+      </c>
       <c r="CJ12" t="inlineStr"/>
       <c r="CK12" t="inlineStr"/>
       <c r="CL12" t="inlineStr"/>
@@ -3720,22 +4372,34 @@
         </is>
       </c>
       <c r="DB12" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>0.6500541711809318</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>0.6500541711809318</v>
+      </c>
+      <c r="DF12" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC12" t="n">
+      <c r="DG12" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD12" t="inlineStr"/>
-      <c r="DE12" t="n">
+      <c r="DH12" t="inlineStr"/>
+      <c r="DI12" t="n">
         <v>0.01277550630274236</v>
       </c>
-      <c r="DF12" t="n">
+      <c r="DJ12" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG12" t="n">
+      <c r="DK12" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH12" t="n">
+      <c r="DL12" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -3821,13 +4485,25 @@
       <c r="W13" t="n">
         <v>20.9851627366306</v>
       </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
+      <c r="X13" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
+      <c r="AB13" t="n">
+        <v>0.1113729467670033</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="n">
@@ -3860,13 +4536,25 @@
       <c r="AP13" t="n">
         <v>21.38889936091036</v>
       </c>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
+      <c r="AQ13" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
+      <c r="AU13" t="n">
+        <v>0.1149302718071705</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX13" t="inlineStr"/>
       <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="n">
@@ -3899,13 +4587,25 @@
       <c r="BI13" t="n">
         <v>22.29584781072494</v>
       </c>
-      <c r="BJ13" t="inlineStr"/>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr"/>
+      <c r="BJ13" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="BM13" t="inlineStr"/>
-      <c r="BN13" t="inlineStr"/>
-      <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="inlineStr"/>
+      <c r="BN13" t="n">
+        <v>0.1225724372008038</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ13" t="inlineStr"/>
       <c r="BR13" t="inlineStr"/>
       <c r="BS13" t="n">
@@ -3938,13 +4638,25 @@
       <c r="CB13" t="n">
         <v>20.49917500069485</v>
       </c>
-      <c r="CC13" t="inlineStr"/>
-      <c r="CD13" t="inlineStr"/>
-      <c r="CE13" t="inlineStr"/>
+      <c r="CC13" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="CF13" t="inlineStr"/>
-      <c r="CG13" t="inlineStr"/>
-      <c r="CH13" t="inlineStr"/>
-      <c r="CI13" t="inlineStr"/>
+      <c r="CG13" t="n">
+        <v>0.1157998212429635</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ13" t="inlineStr"/>
       <c r="CK13" t="inlineStr"/>
       <c r="CL13" t="inlineStr"/>
@@ -3976,22 +4688,34 @@
         </is>
       </c>
       <c r="DB13" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF13" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC13" t="n">
+      <c r="DG13" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD13" t="inlineStr"/>
-      <c r="DE13" t="n">
+      <c r="DH13" t="inlineStr"/>
+      <c r="DI13" t="n">
         <v>0.1149607429010995</v>
       </c>
-      <c r="DF13" t="n">
+      <c r="DJ13" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG13" t="n">
+      <c r="DK13" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH13" t="n">
+      <c r="DL13" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -4077,13 +4801,27 @@
       <c r="W14" t="n">
         <v>12.5799243139763</v>
       </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
+      <c r="X14" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.01929065445807167</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="n">
@@ -4116,13 +4854,27 @@
       <c r="AP14" t="n">
         <v>13.21014514330406</v>
       </c>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
+      <c r="AQ14" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.01981313102597482</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AX14" t="inlineStr"/>
       <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="n">
@@ -4155,13 +4907,27 @@
       <c r="BI14" t="n">
         <v>12.80057800557218</v>
       </c>
-      <c r="BJ14" t="inlineStr"/>
-      <c r="BK14" t="inlineStr"/>
-      <c r="BL14" t="inlineStr"/>
-      <c r="BM14" t="inlineStr"/>
-      <c r="BN14" t="inlineStr"/>
-      <c r="BO14" t="inlineStr"/>
-      <c r="BP14" t="inlineStr"/>
+      <c r="BJ14" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0.0193726115667624</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="BQ14" t="inlineStr"/>
       <c r="BR14" t="inlineStr"/>
       <c r="BS14" t="n">
@@ -4194,13 +4960,27 @@
       <c r="CB14" t="n">
         <v>12.80686658184473</v>
       </c>
-      <c r="CC14" t="inlineStr"/>
-      <c r="CD14" t="inlineStr"/>
-      <c r="CE14" t="inlineStr"/>
-      <c r="CF14" t="inlineStr"/>
-      <c r="CG14" t="inlineStr"/>
-      <c r="CH14" t="inlineStr"/>
-      <c r="CI14" t="inlineStr"/>
+      <c r="CC14" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0.01938285620534873</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="CJ14" t="inlineStr"/>
       <c r="CK14" t="inlineStr"/>
       <c r="CL14" t="inlineStr"/>
@@ -4232,24 +5012,36 @@
         </is>
       </c>
       <c r="DB14" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DF14" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC14" t="n">
+      <c r="DG14" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD14" t="n">
+      <c r="DH14" t="n">
         <v>5.368376345338421</v>
       </c>
-      <c r="DE14" t="n">
+      <c r="DI14" t="n">
         <v>0.01981381651122995</v>
       </c>
-      <c r="DF14" t="n">
+      <c r="DJ14" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG14" t="n">
+      <c r="DK14" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH14" t="n">
+      <c r="DL14" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -4335,13 +5127,27 @@
       <c r="W15" t="n">
         <v>11.2358887789602</v>
       </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.05765231875669131</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="n">
@@ -4374,13 +5180,27 @@
       <c r="AP15" t="n">
         <v>10.48939924497913</v>
       </c>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
+      <c r="AQ15" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.05676745436018959</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX15" t="inlineStr"/>
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="n">
@@ -4413,13 +5233,27 @@
       <c r="BI15" t="n">
         <v>6.935265408448921</v>
       </c>
-      <c r="BJ15" t="inlineStr"/>
-      <c r="BK15" t="inlineStr"/>
-      <c r="BL15" t="inlineStr"/>
-      <c r="BM15" t="inlineStr"/>
-      <c r="BN15" t="inlineStr"/>
-      <c r="BO15" t="inlineStr"/>
-      <c r="BP15" t="inlineStr"/>
+      <c r="BJ15" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0.03893403344607725</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ15" t="inlineStr"/>
       <c r="BR15" t="inlineStr"/>
       <c r="BS15" t="n">
@@ -4452,13 +5286,27 @@
       <c r="CB15" t="n">
         <v>7.1335004886166</v>
       </c>
-      <c r="CC15" t="inlineStr"/>
-      <c r="CD15" t="inlineStr"/>
-      <c r="CE15" t="inlineStr"/>
-      <c r="CF15" t="inlineStr"/>
-      <c r="CG15" t="inlineStr"/>
-      <c r="CH15" t="inlineStr"/>
-      <c r="CI15" t="inlineStr"/>
+      <c r="CC15" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0.0403974630249071</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ15" t="inlineStr"/>
       <c r="CK15" t="inlineStr"/>
       <c r="CL15" t="inlineStr"/>
@@ -4490,24 +5338,36 @@
         </is>
       </c>
       <c r="DB15" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF15" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC15" t="n">
+      <c r="DG15" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD15" t="n">
+      <c r="DH15" t="n">
         <v>17.83814903173707</v>
       </c>
-      <c r="DE15" t="n">
+      <c r="DI15" t="n">
         <v>0.05678250493308674</v>
       </c>
-      <c r="DF15" t="n">
+      <c r="DJ15" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG15" t="n">
+      <c r="DK15" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH15" t="n">
+      <c r="DL15" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -4704,6 +5564,10 @@
       <c r="DF16" t="inlineStr"/>
       <c r="DG16" t="inlineStr"/>
       <c r="DH16" t="inlineStr"/>
+      <c r="DI16" t="inlineStr"/>
+      <c r="DJ16" t="inlineStr"/>
+      <c r="DK16" t="inlineStr"/>
+      <c r="DL16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4787,13 +5651,25 @@
       <c r="W17" t="n">
         <v>19.03264930878826</v>
       </c>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
+      <c r="X17" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
+      <c r="AB17" t="n">
+        <v>0.02995532322644802</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="n">
@@ -4826,13 +5702,25 @@
       <c r="AP17" t="n">
         <v>19.39804000398327</v>
       </c>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
+      <c r="AQ17" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
+      <c r="AU17" t="n">
+        <v>0.03127688160408543</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AX17" t="inlineStr"/>
       <c r="AY17" t="inlineStr"/>
       <c r="AZ17" t="n">
@@ -4865,13 +5753,25 @@
       <c r="BI17" t="n">
         <v>19.28817140419532</v>
       </c>
-      <c r="BJ17" t="inlineStr"/>
-      <c r="BK17" t="inlineStr"/>
-      <c r="BL17" t="inlineStr"/>
+      <c r="BJ17" t="n">
+        <v>1.538333333333333</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>2.049234936091632</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>3.066112721639952</v>
+      </c>
       <c r="BM17" t="inlineStr"/>
-      <c r="BN17" t="inlineStr"/>
-      <c r="BO17" t="inlineStr"/>
-      <c r="BP17" t="inlineStr"/>
+      <c r="BN17" t="n">
+        <v>0.0325111122610937</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0.8301305724820542</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.99313936401297</v>
+      </c>
       <c r="BQ17" t="inlineStr"/>
       <c r="BR17" t="inlineStr"/>
       <c r="BS17" t="n">
@@ -4904,13 +5804,25 @@
       <c r="CB17" t="n">
         <v>19.52356647635992</v>
       </c>
-      <c r="CC17" t="inlineStr"/>
-      <c r="CD17" t="inlineStr"/>
-      <c r="CE17" t="inlineStr"/>
+      <c r="CC17" t="n">
+        <v>1.538333333333333</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>2.049234936091632</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>3.066112721639952</v>
+      </c>
       <c r="CF17" t="inlineStr"/>
-      <c r="CG17" t="inlineStr"/>
-      <c r="CH17" t="inlineStr"/>
-      <c r="CI17" t="inlineStr"/>
+      <c r="CG17" t="n">
+        <v>0.03584972581897426</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0.8301305724820542</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>1.99313936401297</v>
+      </c>
       <c r="CJ17" t="inlineStr"/>
       <c r="CK17" t="inlineStr"/>
       <c r="CL17" t="inlineStr"/>
@@ -4942,22 +5854,34 @@
         </is>
       </c>
       <c r="DB17" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>0.6500541711809318</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>0.6500541711809318</v>
+      </c>
+      <c r="DF17" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC17" t="n">
+      <c r="DG17" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD17" t="inlineStr"/>
-      <c r="DE17" t="n">
+      <c r="DH17" t="inlineStr"/>
+      <c r="DI17" t="n">
         <v>0.03127796370671412</v>
       </c>
-      <c r="DF17" t="n">
+      <c r="DJ17" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG17" t="n">
+      <c r="DK17" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH17" t="n">
+      <c r="DL17" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -5043,13 +5967,27 @@
       <c r="W18" t="n">
         <v>31.62989602811928</v>
       </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.1645328770491471</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="n">
@@ -5082,13 +6020,27 @@
       <c r="AP18" t="n">
         <v>32.26136324215442</v>
       </c>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr"/>
-      <c r="AW18" t="inlineStr"/>
+      <c r="AQ18" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0.1658108254371719</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX18" t="inlineStr"/>
       <c r="AY18" t="inlineStr"/>
       <c r="AZ18" t="n">
@@ -5121,13 +6073,27 @@
       <c r="BI18" t="n">
         <v>23.32893138059266</v>
       </c>
-      <c r="BJ18" t="inlineStr"/>
-      <c r="BK18" t="inlineStr"/>
-      <c r="BL18" t="inlineStr"/>
-      <c r="BM18" t="inlineStr"/>
-      <c r="BN18" t="inlineStr"/>
-      <c r="BO18" t="inlineStr"/>
-      <c r="BP18" t="inlineStr"/>
+      <c r="BJ18" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0.1272749809695204</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ18" t="inlineStr"/>
       <c r="BR18" t="inlineStr"/>
       <c r="BS18" t="n">
@@ -5160,13 +6126,27 @@
       <c r="CB18" t="n">
         <v>24.06618281269954</v>
       </c>
-      <c r="CC18" t="inlineStr"/>
-      <c r="CD18" t="inlineStr"/>
-      <c r="CE18" t="inlineStr"/>
-      <c r="CF18" t="inlineStr"/>
-      <c r="CG18" t="inlineStr"/>
-      <c r="CH18" t="inlineStr"/>
-      <c r="CI18" t="inlineStr"/>
+      <c r="CC18" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0.1287818029370249</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ18" t="inlineStr"/>
       <c r="CK18" t="inlineStr"/>
       <c r="CL18" t="inlineStr"/>
@@ -5198,24 +6178,36 @@
         </is>
       </c>
       <c r="DB18" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF18" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC18" t="n">
+      <c r="DG18" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD18" t="n">
+      <c r="DH18" t="n">
         <v>17.83814903173707</v>
       </c>
-      <c r="DE18" t="n">
+      <c r="DI18" t="n">
         <v>0.16585478632891</v>
       </c>
-      <c r="DF18" t="n">
+      <c r="DJ18" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG18" t="n">
+      <c r="DK18" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH18" t="n">
+      <c r="DL18" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -5301,13 +6293,25 @@
       <c r="W19" t="n">
         <v>14.01220210333286</v>
       </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
+      <c r="X19" t="n">
+        <v>1.538333333333333</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.049234936091632</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>3.066112721639952</v>
+      </c>
       <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
+      <c r="AB19" t="n">
+        <v>0.03084098578817903</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.8301305724820542</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1.99313936401297</v>
+      </c>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="n">
@@ -5340,13 +6344,25 @@
       <c r="AP19" t="n">
         <v>15.08174956626922</v>
       </c>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
+      <c r="AQ19" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="inlineStr"/>
+      <c r="AU19" t="n">
+        <v>0.03384828588925583</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AX19" t="inlineStr"/>
       <c r="AY19" t="inlineStr"/>
       <c r="AZ19" t="n">
@@ -5379,13 +6395,25 @@
       <c r="BI19" t="n">
         <v>20.05473562600384</v>
       </c>
-      <c r="BJ19" t="inlineStr"/>
-      <c r="BK19" t="inlineStr"/>
-      <c r="BL19" t="inlineStr"/>
+      <c r="BJ19" t="n">
+        <v>1.538</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>2.049849672265102</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>3.065193214991523</v>
+      </c>
       <c r="BM19" t="inlineStr"/>
-      <c r="BN19" t="inlineStr"/>
-      <c r="BO19" t="inlineStr"/>
-      <c r="BP19" t="inlineStr"/>
+      <c r="BN19" t="n">
+        <v>0.07048162116122833</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0.8302413841571755</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.992973481789027</v>
+      </c>
       <c r="BQ19" t="inlineStr"/>
       <c r="BR19" t="inlineStr"/>
       <c r="BS19" t="n">
@@ -5418,13 +6446,25 @@
       <c r="CB19" t="n">
         <v>19.74114236056227</v>
       </c>
-      <c r="CC19" t="inlineStr"/>
-      <c r="CD19" t="inlineStr"/>
-      <c r="CE19" t="inlineStr"/>
+      <c r="CC19" t="n">
+        <v>1.537</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>2.051696272523865</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>3.062434431120944</v>
+      </c>
       <c r="CF19" t="inlineStr"/>
-      <c r="CG19" t="inlineStr"/>
-      <c r="CH19" t="inlineStr"/>
-      <c r="CI19" t="inlineStr"/>
+      <c r="CG19" t="n">
+        <v>0.05484517537100581</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0.8305738560286754</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>1.992475231698728</v>
+      </c>
       <c r="CJ19" t="inlineStr"/>
       <c r="CK19" t="inlineStr"/>
       <c r="CL19" t="inlineStr"/>
@@ -5456,22 +6496,34 @@
         </is>
       </c>
       <c r="DB19" t="n">
+        <v>0.6500541711809318</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>0.6501950585175553</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>0.6506180871828237</v>
+      </c>
+      <c r="DF19" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC19" t="n">
+      <c r="DG19" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD19" t="inlineStr"/>
-      <c r="DE19" t="n">
+      <c r="DH19" t="inlineStr"/>
+      <c r="DI19" t="n">
         <v>0.03384945695610326</v>
       </c>
-      <c r="DF19" t="n">
+      <c r="DJ19" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG19" t="n">
+      <c r="DK19" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH19" t="n">
+      <c r="DL19" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -5557,13 +6609,27 @@
       <c r="W20" t="n">
         <v>31.31740021023709</v>
       </c>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.1691299177552038</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="n">
@@ -5596,13 +6662,27 @@
       <c r="AP20" t="n">
         <v>31.57445291873684</v>
       </c>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
-      <c r="AV20" t="inlineStr"/>
-      <c r="AW20" t="inlineStr"/>
+      <c r="AQ20" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.1656687366350411</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX20" t="inlineStr"/>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="n">
@@ -5635,13 +6715,27 @@
       <c r="BI20" t="n">
         <v>22.60971098356305</v>
       </c>
-      <c r="BJ20" t="inlineStr"/>
-      <c r="BK20" t="inlineStr"/>
-      <c r="BL20" t="inlineStr"/>
-      <c r="BM20" t="inlineStr"/>
-      <c r="BN20" t="inlineStr"/>
-      <c r="BO20" t="inlineStr"/>
-      <c r="BP20" t="inlineStr"/>
+      <c r="BJ20" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0.1171194603573618</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ20" t="inlineStr"/>
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="n">
@@ -5674,13 +6768,27 @@
       <c r="CB20" t="n">
         <v>23.34934171559561</v>
       </c>
-      <c r="CC20" t="inlineStr"/>
-      <c r="CD20" t="inlineStr"/>
-      <c r="CE20" t="inlineStr"/>
-      <c r="CF20" t="inlineStr"/>
-      <c r="CG20" t="inlineStr"/>
-      <c r="CH20" t="inlineStr"/>
-      <c r="CI20" t="inlineStr"/>
+      <c r="CC20" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0.121396588550837</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ20" t="inlineStr"/>
       <c r="CK20" t="inlineStr"/>
       <c r="CL20" t="inlineStr"/>
@@ -5712,24 +6820,36 @@
         </is>
       </c>
       <c r="DB20" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF20" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC20" t="n">
+      <c r="DG20" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD20" t="n">
+      <c r="DH20" t="n">
         <v>17.83814903173707</v>
       </c>
-      <c r="DE20" t="n">
+      <c r="DI20" t="n">
         <v>0.1657126598552314</v>
       </c>
-      <c r="DF20" t="n">
+      <c r="DJ20" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG20" t="n">
+      <c r="DK20" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH20" t="n">
+      <c r="DL20" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -5815,13 +6935,27 @@
       <c r="W21" t="n">
         <v>9.758226651077004</v>
       </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>1.5375</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2.050772523574458</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>3.063813872553798</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>5.37302401176508</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.0229276368135624</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.8304076132092216</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1.99272446995369</v>
+      </c>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="n">
@@ -5854,13 +6988,27 @@
       <c r="AP21" t="n">
         <v>11.2726792672223</v>
       </c>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
-      <c r="AT21" t="inlineStr"/>
-      <c r="AU21" t="inlineStr"/>
-      <c r="AV21" t="inlineStr"/>
-      <c r="AW21" t="inlineStr"/>
+      <c r="AQ21" t="n">
+        <v>1.5375</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>2.050772523574458</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>3.063813872553798</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>5.37302401176508</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.02716289222924842</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.8304076132092216</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>1.99272446995369</v>
+      </c>
       <c r="AX21" t="inlineStr"/>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="n">
@@ -5893,13 +7041,27 @@
       <c r="BI21" t="n">
         <v>6.093163701864551</v>
       </c>
-      <c r="BJ21" t="inlineStr"/>
-      <c r="BK21" t="inlineStr"/>
-      <c r="BL21" t="inlineStr"/>
-      <c r="BM21" t="inlineStr"/>
-      <c r="BN21" t="inlineStr"/>
-      <c r="BO21" t="inlineStr"/>
-      <c r="BP21" t="inlineStr"/>
+      <c r="BJ21" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0.01039830816513155</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="BQ21" t="inlineStr"/>
       <c r="BR21" t="inlineStr"/>
       <c r="BS21" t="n">
@@ -5932,13 +7094,27 @@
       <c r="CB21" t="n">
         <v>6.102633318725847</v>
       </c>
-      <c r="CC21" t="inlineStr"/>
-      <c r="CD21" t="inlineStr"/>
-      <c r="CE21" t="inlineStr"/>
-      <c r="CF21" t="inlineStr"/>
-      <c r="CG21" t="inlineStr"/>
-      <c r="CH21" t="inlineStr"/>
-      <c r="CI21" t="inlineStr"/>
+      <c r="CC21" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0.01057246702109929</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="CJ21" t="inlineStr"/>
       <c r="CK21" t="inlineStr"/>
       <c r="CL21" t="inlineStr"/>
@@ -5970,24 +7146,36 @@
         </is>
       </c>
       <c r="DB21" t="n">
+        <v>0.6504065040650406</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>0.6504065040650406</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DF21" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC21" t="n">
+      <c r="DG21" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD21" t="n">
+      <c r="DH21" t="n">
         <v>5.368376345338421</v>
       </c>
-      <c r="DE21" t="n">
+      <c r="DI21" t="n">
         <v>0.02713939632415132</v>
       </c>
-      <c r="DF21" t="n">
+      <c r="DJ21" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG21" t="n">
+      <c r="DK21" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH21" t="n">
+      <c r="DL21" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -6073,13 +7261,25 @@
       <c r="W22" t="n">
         <v>31.69294616307263</v>
       </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>0.7691666666666667</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>6.809582094531432</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.9226976369409542</v>
+      </c>
       <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
+      <c r="AB22" t="n">
+        <v>0.1606165914263988</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.9992581318692667</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1.199606895264513</v>
+      </c>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="n">
@@ -6112,13 +7312,25 @@
       <c r="AP22" t="n">
         <v>31.94836456688817</v>
       </c>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
+      <c r="AQ22" t="n">
+        <v>0.7691666666666667</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>6.809582094531432</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.9226976369409542</v>
+      </c>
       <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="inlineStr"/>
-      <c r="AV22" t="inlineStr"/>
-      <c r="AW22" t="inlineStr"/>
+      <c r="AU22" t="n">
+        <v>0.1613189998194496</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.9992581318692667</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1.199606895264513</v>
+      </c>
       <c r="AX22" t="inlineStr"/>
       <c r="AY22" t="inlineStr"/>
       <c r="AZ22" t="n">
@@ -6151,13 +7363,25 @@
       <c r="BI22" t="n">
         <v>31.27824142735902</v>
       </c>
-      <c r="BJ22" t="inlineStr"/>
-      <c r="BK22" t="inlineStr"/>
-      <c r="BL22" t="inlineStr"/>
+      <c r="BJ22" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="BM22" t="inlineStr"/>
-      <c r="BN22" t="inlineStr"/>
-      <c r="BO22" t="inlineStr"/>
-      <c r="BP22" t="inlineStr"/>
+      <c r="BN22" t="n">
+        <v>0.158254593989737</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ22" t="inlineStr"/>
       <c r="BR22" t="inlineStr"/>
       <c r="BS22" t="n">
@@ -6190,13 +7414,25 @@
       <c r="CB22" t="n">
         <v>33.45678773300141</v>
       </c>
-      <c r="CC22" t="inlineStr"/>
-      <c r="CD22" t="inlineStr"/>
-      <c r="CE22" t="inlineStr"/>
+      <c r="CC22" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="CF22" t="inlineStr"/>
-      <c r="CG22" t="inlineStr"/>
-      <c r="CH22" t="inlineStr"/>
-      <c r="CI22" t="inlineStr"/>
+      <c r="CG22" t="n">
+        <v>0.1614647799205074</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ22" t="inlineStr"/>
       <c r="CK22" t="inlineStr"/>
       <c r="CL22" t="inlineStr"/>
@@ -6228,22 +7464,34 @@
         </is>
       </c>
       <c r="DB22" t="n">
+        <v>1.300108342361864</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>1.300108342361864</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF22" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC22" t="n">
+      <c r="DG22" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD22" t="inlineStr"/>
-      <c r="DE22" t="n">
+      <c r="DH22" t="inlineStr"/>
+      <c r="DI22" t="n">
         <v>0.1612922712068134</v>
       </c>
-      <c r="DF22" t="n">
+      <c r="DJ22" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG22" t="n">
+      <c r="DK22" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH22" t="n">
+      <c r="DL22" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -6329,13 +7577,25 @@
       <c r="W23" t="n">
         <v>12.183073729808</v>
       </c>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
+      <c r="AB23" t="n">
+        <v>0.09628345631319687</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="n">
@@ -6368,13 +7628,25 @@
       <c r="AP23" t="n">
         <v>13.51995369776169</v>
       </c>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
+      <c r="AQ23" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr"/>
-      <c r="AV23" t="inlineStr"/>
-      <c r="AW23" t="inlineStr"/>
+      <c r="AU23" t="n">
+        <v>0.09775199087892941</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX23" t="inlineStr"/>
       <c r="AY23" t="inlineStr"/>
       <c r="AZ23" t="n">
@@ -6407,13 +7679,25 @@
       <c r="BI23" t="n">
         <v>13.73916686097597</v>
       </c>
-      <c r="BJ23" t="inlineStr"/>
-      <c r="BK23" t="inlineStr"/>
-      <c r="BL23" t="inlineStr"/>
+      <c r="BJ23" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="BM23" t="inlineStr"/>
-      <c r="BN23" t="inlineStr"/>
-      <c r="BO23" t="inlineStr"/>
-      <c r="BP23" t="inlineStr"/>
+      <c r="BN23" t="n">
+        <v>0.1001232572953242</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ23" t="inlineStr"/>
       <c r="BR23" t="inlineStr"/>
       <c r="BS23" t="n">
@@ -6446,13 +7730,25 @@
       <c r="CB23" t="n">
         <v>15.63981007366154</v>
       </c>
-      <c r="CC23" t="inlineStr"/>
-      <c r="CD23" t="inlineStr"/>
-      <c r="CE23" t="inlineStr"/>
+      <c r="CC23" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="CF23" t="inlineStr"/>
-      <c r="CG23" t="inlineStr"/>
-      <c r="CH23" t="inlineStr"/>
-      <c r="CI23" t="inlineStr"/>
+      <c r="CG23" t="n">
+        <v>0.1676698915009761</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ23" t="inlineStr"/>
       <c r="CK23" t="inlineStr"/>
       <c r="CL23" t="inlineStr"/>
@@ -6484,22 +7780,34 @@
         </is>
       </c>
       <c r="DB23" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF23" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC23" t="n">
+      <c r="DG23" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD23" t="inlineStr"/>
-      <c r="DE23" t="n">
+      <c r="DH23" t="inlineStr"/>
+      <c r="DI23" t="n">
         <v>0.09777790755039455</v>
       </c>
-      <c r="DF23" t="n">
+      <c r="DJ23" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG23" t="n">
+      <c r="DK23" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH23" t="n">
+      <c r="DL23" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -6585,13 +7893,27 @@
       <c r="W24" t="n">
         <v>23.02361169563325</v>
       </c>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
+      <c r="X24" t="n">
+        <v>0.7688333333333335</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>6.815453729254355</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.9219027164999912</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17.85648877064641</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.1389486998144273</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.9992631657802564</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.199093062865803</v>
+      </c>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="n">
@@ -6624,13 +7946,27 @@
       <c r="AP24" t="n">
         <v>21.77672259751811</v>
       </c>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr"/>
-      <c r="AV24" t="inlineStr"/>
-      <c r="AW24" t="inlineStr"/>
+      <c r="AQ24" t="n">
+        <v>0.7689999999999999</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>6.81251693579031</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.9223001375850061</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>17.84879437177061</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.1390468769179487</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0.9992606522705574</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>1.199349983855665</v>
+      </c>
       <c r="AX24" t="inlineStr"/>
       <c r="AY24" t="inlineStr"/>
       <c r="AZ24" t="n">
@@ -6663,13 +7999,27 @@
       <c r="BI24" t="n">
         <v>14.31478826555548</v>
       </c>
-      <c r="BJ24" t="inlineStr"/>
-      <c r="BK24" t="inlineStr"/>
-      <c r="BL24" t="inlineStr"/>
-      <c r="BM24" t="inlineStr"/>
-      <c r="BN24" t="inlineStr"/>
-      <c r="BO24" t="inlineStr"/>
-      <c r="BP24" t="inlineStr"/>
+      <c r="BJ24" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>0.07699426330060902</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ24" t="inlineStr"/>
       <c r="BR24" t="inlineStr"/>
       <c r="BS24" t="n">
@@ -6702,13 +8052,27 @@
       <c r="CB24" t="n">
         <v>15.13394711205591</v>
       </c>
-      <c r="CC24" t="inlineStr"/>
-      <c r="CD24" t="inlineStr"/>
-      <c r="CE24" t="inlineStr"/>
-      <c r="CF24" t="inlineStr"/>
-      <c r="CG24" t="inlineStr"/>
-      <c r="CH24" t="inlineStr"/>
-      <c r="CI24" t="inlineStr"/>
+      <c r="CC24" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>0.081713823692335</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ24" t="inlineStr"/>
       <c r="CK24" t="inlineStr"/>
       <c r="CL24" t="inlineStr"/>
@@ -6740,24 +8104,36 @@
         </is>
       </c>
       <c r="DB24" t="n">
+        <v>1.300672013873835</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>1.300390117035111</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF24" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC24" t="n">
+      <c r="DG24" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD24" t="n">
+      <c r="DH24" t="n">
         <v>17.83814903173707</v>
       </c>
-      <c r="DE24" t="n">
+      <c r="DI24" t="n">
         <v>0.1389639468749126</v>
       </c>
-      <c r="DF24" t="n">
+      <c r="DJ24" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG24" t="n">
+      <c r="DK24" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH24" t="n">
+      <c r="DL24" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -6843,13 +8219,25 @@
       <c r="W25" t="n">
         <v>33.61466555636437</v>
       </c>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
+      <c r="X25" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
+      <c r="AB25" t="n">
+        <v>0.1773923390575391</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="n">
@@ -6882,13 +8270,25 @@
       <c r="AP25" t="n">
         <v>33.25663374421735</v>
       </c>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
+      <c r="AQ25" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="AT25" t="inlineStr"/>
-      <c r="AU25" t="inlineStr"/>
-      <c r="AV25" t="inlineStr"/>
-      <c r="AW25" t="inlineStr"/>
+      <c r="AU25" t="n">
+        <v>0.1870237476810005</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX25" t="inlineStr"/>
       <c r="AY25" t="inlineStr"/>
       <c r="AZ25" t="n">
@@ -6921,13 +8321,25 @@
       <c r="BI25" t="n">
         <v>33.39016009740612</v>
       </c>
-      <c r="BJ25" t="inlineStr"/>
-      <c r="BK25" t="inlineStr"/>
-      <c r="BL25" t="inlineStr"/>
+      <c r="BJ25" t="n">
+        <v>0.7689999999999999</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>6.81251693579031</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0.9223001375850061</v>
+      </c>
       <c r="BM25" t="inlineStr"/>
-      <c r="BN25" t="inlineStr"/>
-      <c r="BO25" t="inlineStr"/>
-      <c r="BP25" t="inlineStr"/>
+      <c r="BN25" t="n">
+        <v>0.1992484078278334</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>0.9992606522705574</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>1.199349983855665</v>
+      </c>
       <c r="BQ25" t="inlineStr"/>
       <c r="BR25" t="inlineStr"/>
       <c r="BS25" t="n">
@@ -6960,13 +8372,25 @@
       <c r="CB25" t="n">
         <v>35.40585957070459</v>
       </c>
-      <c r="CC25" t="inlineStr"/>
-      <c r="CD25" t="inlineStr"/>
-      <c r="CE25" t="inlineStr"/>
+      <c r="CC25" t="n">
+        <v>0.7689999999999999</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>6.81251693579031</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>0.9223001375850061</v>
+      </c>
       <c r="CF25" t="inlineStr"/>
-      <c r="CG25" t="inlineStr"/>
-      <c r="CH25" t="inlineStr"/>
-      <c r="CI25" t="inlineStr"/>
+      <c r="CG25" t="n">
+        <v>0.2044918318003879</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>0.9992606522705574</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>1.199349983855665</v>
+      </c>
       <c r="CJ25" t="inlineStr"/>
       <c r="CK25" t="inlineStr"/>
       <c r="CL25" t="inlineStr"/>
@@ -6998,22 +8422,34 @@
         </is>
       </c>
       <c r="DB25" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>1.300390117035111</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>1.300390117035111</v>
+      </c>
+      <c r="DF25" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC25" t="n">
+      <c r="DG25" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD25" t="inlineStr"/>
-      <c r="DE25" t="n">
+      <c r="DH25" t="inlineStr"/>
+      <c r="DI25" t="n">
         <v>0.1870733326866996</v>
       </c>
-      <c r="DF25" t="n">
+      <c r="DJ25" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG25" t="n">
+      <c r="DK25" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH25" t="n">
+      <c r="DL25" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -7099,13 +8535,27 @@
       <c r="W26" t="n">
         <v>20.52620887266059</v>
       </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
+      <c r="X26" t="n">
+        <v>1.537666666666667</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.050464806799213</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>3.064273664363776</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>5.372217793813937</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.04187049135483996</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.8303522019910555</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1.992807499044294</v>
+      </c>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="n">
@@ -7138,13 +8588,27 @@
       <c r="AP26" t="n">
         <v>20.65480743214281</v>
       </c>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
-      <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="inlineStr"/>
-      <c r="AV26" t="inlineStr"/>
-      <c r="AW26" t="inlineStr"/>
+      <c r="AQ26" t="n">
+        <v>1.537833333333333</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>2.050157189712495</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>3.064733445175837</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>5.371411837046737</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.04082713779951315</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.8302967923059318</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>1.992890502986347</v>
+      </c>
       <c r="AX26" t="inlineStr"/>
       <c r="AY26" t="inlineStr"/>
       <c r="AZ26" t="n">
@@ -7177,13 +8641,27 @@
       <c r="BI26" t="n">
         <v>18.48341226106941</v>
       </c>
-      <c r="BJ26" t="inlineStr"/>
-      <c r="BK26" t="inlineStr"/>
-      <c r="BL26" t="inlineStr"/>
-      <c r="BM26" t="inlineStr"/>
-      <c r="BN26" t="inlineStr"/>
-      <c r="BO26" t="inlineStr"/>
-      <c r="BP26" t="inlineStr"/>
+      <c r="BJ26" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>0.02873621123467392</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="BQ26" t="inlineStr"/>
       <c r="BR26" t="inlineStr"/>
       <c r="BS26" t="n">
@@ -7216,13 +8694,27 @@
       <c r="CB26" t="n">
         <v>18.56151524704589</v>
       </c>
-      <c r="CC26" t="inlineStr"/>
-      <c r="CD26" t="inlineStr"/>
-      <c r="CE26" t="inlineStr"/>
-      <c r="CF26" t="inlineStr"/>
-      <c r="CG26" t="inlineStr"/>
-      <c r="CH26" t="inlineStr"/>
-      <c r="CI26" t="inlineStr"/>
+      <c r="CC26" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>0.0291751939980985</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="CJ26" t="inlineStr"/>
       <c r="CK26" t="inlineStr"/>
       <c r="CL26" t="inlineStr"/>
@@ -7254,24 +8746,36 @@
         </is>
       </c>
       <c r="DB26" t="n">
+        <v>0.6503360069369173</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>0.6502655250894115</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DF26" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC26" t="n">
+      <c r="DG26" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD26" t="n">
+      <c r="DH26" t="n">
         <v>5.368376345338421</v>
       </c>
-      <c r="DE26" t="n">
+      <c r="DI26" t="n">
         <v>0.040804065571573</v>
       </c>
-      <c r="DF26" t="n">
+      <c r="DJ26" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG26" t="n">
+      <c r="DK26" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH26" t="n">
+      <c r="DL26" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -7357,13 +8861,27 @@
       <c r="W27" t="n">
         <v>10.68361901616032</v>
       </c>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
+      <c r="X27" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.05967134107678626</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="n">
@@ -7396,13 +8914,27 @@
       <c r="AP27" t="n">
         <v>10.85210448965197</v>
       </c>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="inlineStr"/>
-      <c r="AV27" t="inlineStr"/>
-      <c r="AW27" t="inlineStr"/>
+      <c r="AQ27" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.0619907067930015</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX27" t="inlineStr"/>
       <c r="AY27" t="inlineStr"/>
       <c r="AZ27" t="n">
@@ -7435,13 +8967,27 @@
       <c r="BI27" t="n">
         <v>5.910614642240976</v>
       </c>
-      <c r="BJ27" t="inlineStr"/>
-      <c r="BK27" t="inlineStr"/>
-      <c r="BL27" t="inlineStr"/>
-      <c r="BM27" t="inlineStr"/>
-      <c r="BN27" t="inlineStr"/>
-      <c r="BO27" t="inlineStr"/>
-      <c r="BP27" t="inlineStr"/>
+      <c r="BJ27" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>0.03365888031308598</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ27" t="inlineStr"/>
       <c r="BR27" t="inlineStr"/>
       <c r="BS27" t="n">
@@ -7474,13 +9020,27 @@
       <c r="CB27" t="n">
         <v>6.494786139380921</v>
       </c>
-      <c r="CC27" t="inlineStr"/>
-      <c r="CD27" t="inlineStr"/>
-      <c r="CE27" t="inlineStr"/>
-      <c r="CF27" t="inlineStr"/>
-      <c r="CG27" t="inlineStr"/>
-      <c r="CH27" t="inlineStr"/>
-      <c r="CI27" t="inlineStr"/>
+      <c r="CC27" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>0.0359552735882382</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ27" t="inlineStr"/>
       <c r="CK27" t="inlineStr"/>
       <c r="CL27" t="inlineStr"/>
@@ -7512,24 +9072,36 @@
         </is>
       </c>
       <c r="DB27" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF27" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC27" t="n">
+      <c r="DG27" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD27" t="n">
+      <c r="DH27" t="n">
         <v>17.83814903173707</v>
       </c>
-      <c r="DE27" t="n">
+      <c r="DI27" t="n">
         <v>0.06200714219004456</v>
       </c>
-      <c r="DF27" t="n">
+      <c r="DJ27" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG27" t="n">
+      <c r="DK27" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH27" t="n">
+      <c r="DL27" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -7615,13 +9187,25 @@
       <c r="W28" t="n">
         <v>10.8646723921523</v>
       </c>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
+      <c r="X28" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
+      <c r="AB28" t="n">
+        <v>0.0558596175226249</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="n">
@@ -7654,13 +9238,25 @@
       <c r="AP28" t="n">
         <v>10.77005992982031</v>
       </c>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
+      <c r="AQ28" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="AT28" t="inlineStr"/>
-      <c r="AU28" t="inlineStr"/>
-      <c r="AV28" t="inlineStr"/>
-      <c r="AW28" t="inlineStr"/>
+      <c r="AU28" t="n">
+        <v>0.05588258996368787</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX28" t="inlineStr"/>
       <c r="AY28" t="inlineStr"/>
       <c r="AZ28" t="n">
@@ -7693,13 +9289,25 @@
       <c r="BI28" t="n">
         <v>10.60610235047107</v>
       </c>
-      <c r="BJ28" t="inlineStr"/>
-      <c r="BK28" t="inlineStr"/>
-      <c r="BL28" t="inlineStr"/>
+      <c r="BJ28" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="BM28" t="inlineStr"/>
-      <c r="BN28" t="inlineStr"/>
-      <c r="BO28" t="inlineStr"/>
-      <c r="BP28" t="inlineStr"/>
+      <c r="BN28" t="n">
+        <v>0.05469142635301235</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ28" t="inlineStr"/>
       <c r="BR28" t="inlineStr"/>
       <c r="BS28" t="n">
@@ -7732,13 +9340,25 @@
       <c r="CB28" t="n">
         <v>10.64460645531256</v>
       </c>
-      <c r="CC28" t="inlineStr"/>
-      <c r="CD28" t="inlineStr"/>
-      <c r="CE28" t="inlineStr"/>
+      <c r="CC28" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD28" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE28" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="CF28" t="inlineStr"/>
-      <c r="CG28" t="inlineStr"/>
-      <c r="CH28" t="inlineStr"/>
-      <c r="CI28" t="inlineStr"/>
+      <c r="CG28" t="n">
+        <v>0.05499772556718595</v>
+      </c>
+      <c r="CH28" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI28" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ28" t="inlineStr"/>
       <c r="CK28" t="inlineStr"/>
       <c r="CL28" t="inlineStr"/>
@@ -7770,22 +9390,34 @@
         </is>
       </c>
       <c r="DB28" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC28" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD28" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE28" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF28" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC28" t="n">
+      <c r="DG28" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD28" t="inlineStr"/>
-      <c r="DE28" t="n">
+      <c r="DH28" t="inlineStr"/>
+      <c r="DI28" t="n">
         <v>0.05589740593532883</v>
       </c>
-      <c r="DF28" t="n">
+      <c r="DJ28" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG28" t="n">
+      <c r="DK28" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH28" t="n">
+      <c r="DL28" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -7871,13 +9503,27 @@
       <c r="W29" t="n">
         <v>12.54004310192082</v>
       </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
+      <c r="X29" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.02071465922157249</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="n">
@@ -7910,13 +9556,27 @@
       <c r="AP29" t="n">
         <v>13.04730259961641</v>
       </c>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="inlineStr"/>
-      <c r="AV29" t="inlineStr"/>
-      <c r="AW29" t="inlineStr"/>
+      <c r="AQ29" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0.02232306747962726</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AX29" t="inlineStr"/>
       <c r="AY29" t="inlineStr"/>
       <c r="AZ29" t="n">
@@ -7949,13 +9609,27 @@
       <c r="BI29" t="n">
         <v>12.56781841561096</v>
       </c>
-      <c r="BJ29" t="inlineStr"/>
-      <c r="BK29" t="inlineStr"/>
-      <c r="BL29" t="inlineStr"/>
-      <c r="BM29" t="inlineStr"/>
-      <c r="BN29" t="inlineStr"/>
-      <c r="BO29" t="inlineStr"/>
-      <c r="BP29" t="inlineStr"/>
+      <c r="BJ29" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>0.01912674024069032</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="BQ29" t="inlineStr"/>
       <c r="BR29" t="inlineStr"/>
       <c r="BS29" t="n">
@@ -7988,13 +9662,27 @@
       <c r="CB29" t="n">
         <v>12.53057459478157</v>
       </c>
-      <c r="CC29" t="inlineStr"/>
-      <c r="CD29" t="inlineStr"/>
-      <c r="CE29" t="inlineStr"/>
-      <c r="CF29" t="inlineStr"/>
-      <c r="CG29" t="inlineStr"/>
-      <c r="CH29" t="inlineStr"/>
-      <c r="CI29" t="inlineStr"/>
+      <c r="CC29" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="CD29" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="CE29" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="CG29" t="n">
+        <v>0.01930089909665806</v>
+      </c>
+      <c r="CH29" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="CI29" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="CJ29" t="inlineStr"/>
       <c r="CK29" t="inlineStr"/>
       <c r="CL29" t="inlineStr"/>
@@ -8026,24 +9714,36 @@
         </is>
       </c>
       <c r="DB29" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DC29" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DD29" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DE29" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DF29" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC29" t="n">
+      <c r="DG29" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD29" t="n">
+      <c r="DH29" t="n">
         <v>5.368376345338421</v>
       </c>
-      <c r="DE29" t="n">
+      <c r="DI29" t="n">
         <v>0.02232383980246641</v>
       </c>
-      <c r="DF29" t="n">
+      <c r="DJ29" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG29" t="n">
+      <c r="DK29" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH29" t="n">
+      <c r="DL29" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -8129,13 +9829,25 @@
       <c r="W30" t="n">
         <v>12.64756159432447</v>
       </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
+      <c r="X30" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
+      <c r="AB30" t="n">
+        <v>0.01938285620534868</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="n">
@@ -8168,13 +9880,25 @@
       <c r="AP30" t="n">
         <v>13.09722323664647</v>
       </c>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
+      <c r="AQ30" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="AT30" t="inlineStr"/>
-      <c r="AU30" t="inlineStr"/>
-      <c r="AV30" t="inlineStr"/>
-      <c r="AW30" t="inlineStr"/>
+      <c r="AU30" t="n">
+        <v>0.01973117391728415</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AX30" t="inlineStr"/>
       <c r="AY30" t="inlineStr"/>
       <c r="AZ30" t="n">
@@ -8207,13 +9931,25 @@
       <c r="BI30" t="n">
         <v>12.74881439318935</v>
       </c>
-      <c r="BJ30" t="inlineStr"/>
-      <c r="BK30" t="inlineStr"/>
-      <c r="BL30" t="inlineStr"/>
+      <c r="BJ30" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="BM30" t="inlineStr"/>
-      <c r="BN30" t="inlineStr"/>
-      <c r="BO30" t="inlineStr"/>
-      <c r="BP30" t="inlineStr"/>
+      <c r="BN30" t="n">
+        <v>0.01938285620534868</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="BQ30" t="inlineStr"/>
       <c r="BR30" t="inlineStr"/>
       <c r="BS30" t="n">
@@ -8246,13 +9982,25 @@
       <c r="CB30" t="n">
         <v>12.77954098493494</v>
       </c>
-      <c r="CC30" t="inlineStr"/>
-      <c r="CD30" t="inlineStr"/>
-      <c r="CE30" t="inlineStr"/>
+      <c r="CC30" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="CD30" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="CE30" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="CF30" t="inlineStr"/>
-      <c r="CG30" t="inlineStr"/>
-      <c r="CH30" t="inlineStr"/>
-      <c r="CI30" t="inlineStr"/>
+      <c r="CG30" t="n">
+        <v>0.01981313102597488</v>
+      </c>
+      <c r="CH30" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="CI30" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="CJ30" t="inlineStr"/>
       <c r="CK30" t="inlineStr"/>
       <c r="CL30" t="inlineStr"/>
@@ -8284,22 +10032,34 @@
         </is>
       </c>
       <c r="DB30" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DC30" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DD30" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DE30" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DF30" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC30" t="n">
+      <c r="DG30" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD30" t="inlineStr"/>
-      <c r="DE30" t="n">
+      <c r="DH30" t="inlineStr"/>
+      <c r="DI30" t="n">
         <v>0.01973185656702632</v>
       </c>
-      <c r="DF30" t="n">
+      <c r="DJ30" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG30" t="n">
+      <c r="DK30" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH30" t="n">
+      <c r="DL30" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -8385,13 +10145,27 @@
       <c r="W31" t="n">
         <v>10.46889857749126</v>
       </c>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
+      <c r="X31" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.05795861797086511</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="n">
@@ -8424,13 +10198,27 @@
       <c r="AP31" t="n">
         <v>10.53392995065114</v>
       </c>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
-      <c r="AV31" t="inlineStr"/>
-      <c r="AW31" t="inlineStr"/>
+      <c r="AQ31" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0.06177034152502634</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX31" t="inlineStr"/>
       <c r="AY31" t="inlineStr"/>
       <c r="AZ31" t="n">
@@ -8463,13 +10251,27 @@
       <c r="BI31" t="n">
         <v>6.28033735563723</v>
       </c>
-      <c r="BJ31" t="inlineStr"/>
-      <c r="BK31" t="inlineStr"/>
-      <c r="BL31" t="inlineStr"/>
-      <c r="BM31" t="inlineStr"/>
-      <c r="BN31" t="inlineStr"/>
-      <c r="BO31" t="inlineStr"/>
-      <c r="BP31" t="inlineStr"/>
+      <c r="BJ31" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>0.03454374470958789</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ31" t="inlineStr"/>
       <c r="BR31" t="inlineStr"/>
       <c r="BS31" t="n">
@@ -8502,13 +10304,27 @@
       <c r="CB31" t="n">
         <v>6.490156361293383</v>
       </c>
-      <c r="CC31" t="inlineStr"/>
-      <c r="CD31" t="inlineStr"/>
-      <c r="CE31" t="inlineStr"/>
-      <c r="CF31" t="inlineStr"/>
-      <c r="CG31" t="inlineStr"/>
-      <c r="CH31" t="inlineStr"/>
-      <c r="CI31" t="inlineStr"/>
+      <c r="CC31" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD31" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE31" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="CG31" t="n">
+        <v>0.03515634313793509</v>
+      </c>
+      <c r="CH31" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI31" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ31" t="inlineStr"/>
       <c r="CK31" t="inlineStr"/>
       <c r="CL31" t="inlineStr"/>
@@ -8540,24 +10356,36 @@
         </is>
       </c>
       <c r="DB31" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC31" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD31" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE31" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF31" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC31" t="n">
+      <c r="DG31" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD31" t="n">
+      <c r="DH31" t="n">
         <v>17.83814903173707</v>
       </c>
-      <c r="DE31" t="n">
+      <c r="DI31" t="n">
         <v>0.06178671849733349</v>
       </c>
-      <c r="DF31" t="n">
+      <c r="DJ31" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG31" t="n">
+      <c r="DK31" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH31" t="n">
+      <c r="DL31" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -8643,13 +10471,27 @@
       <c r="W32" t="n">
         <v>20.246236141511</v>
       </c>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
+      <c r="X32" t="n">
+        <v>1.538166666666667</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>2.04954225440786</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>3.065652973812381</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>5.369800706548593</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.04001464811238271</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.8301859775481096</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1.993056435461511</v>
+      </c>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="n">
@@ -8682,13 +10524,27 @@
       <c r="AP32" t="n">
         <v>20.63844596744136</v>
       </c>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
-      <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr"/>
-      <c r="AV32" t="inlineStr"/>
-      <c r="AW32" t="inlineStr"/>
+      <c r="AQ32" t="n">
+        <v>1.538166666666667</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>2.04954225440786</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>3.065652973812381</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>5.369800706548593</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.04097649829237635</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.8301859775481096</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>1.993056435461511</v>
+      </c>
       <c r="AX32" t="inlineStr"/>
       <c r="AY32" t="inlineStr"/>
       <c r="AZ32" t="n">
@@ -8721,13 +10577,27 @@
       <c r="BI32" t="n">
         <v>18.48170968048754</v>
       </c>
-      <c r="BJ32" t="inlineStr"/>
-      <c r="BK32" t="inlineStr"/>
-      <c r="BL32" t="inlineStr"/>
-      <c r="BM32" t="inlineStr"/>
-      <c r="BN32" t="inlineStr"/>
-      <c r="BO32" t="inlineStr"/>
-      <c r="BP32" t="inlineStr"/>
+      <c r="BJ32" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>0.02915624141671375</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="BQ32" t="inlineStr"/>
       <c r="BR32" t="inlineStr"/>
       <c r="BS32" t="n">
@@ -8760,13 +10630,27 @@
       <c r="CB32" t="n">
         <v>18.57733185975406</v>
       </c>
-      <c r="CC32" t="inlineStr"/>
-      <c r="CD32" t="inlineStr"/>
-      <c r="CE32" t="inlineStr"/>
-      <c r="CF32" t="inlineStr"/>
-      <c r="CG32" t="inlineStr"/>
-      <c r="CH32" t="inlineStr"/>
-      <c r="CI32" t="inlineStr"/>
+      <c r="CC32" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="CD32" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="CE32" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="CG32" t="n">
+        <v>0.02924844316399081</v>
+      </c>
+      <c r="CH32" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="CI32" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="CJ32" t="inlineStr"/>
       <c r="CK32" t="inlineStr"/>
       <c r="CL32" t="inlineStr"/>
@@ -8798,24 +10682,36 @@
         </is>
       </c>
       <c r="DB32" t="n">
+        <v>0.6501246072163831</v>
+      </c>
+      <c r="DC32" t="n">
+        <v>0.6501246072163831</v>
+      </c>
+      <c r="DD32" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DE32" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DF32" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC32" t="n">
+      <c r="DG32" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD32" t="n">
+      <c r="DH32" t="n">
         <v>5.368376345338421</v>
       </c>
-      <c r="DE32" t="n">
+      <c r="DI32" t="n">
         <v>0.04096562911158437</v>
       </c>
-      <c r="DF32" t="n">
+      <c r="DJ32" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG32" t="n">
+      <c r="DK32" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH32" t="n">
+      <c r="DL32" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -8901,13 +10797,25 @@
       <c r="W33" t="n">
         <v>20.08195893757686</v>
       </c>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
+      <c r="X33" t="n">
+        <v>1.538166666666667</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2.04954225440786</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>3.065652973812381</v>
+      </c>
       <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
+      <c r="AB33" t="n">
+        <v>0.03964716518616745</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.8301859775481096</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1.993056435461511</v>
+      </c>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="n">
@@ -8940,13 +10848,25 @@
       <c r="AP33" t="n">
         <v>20.11062426009743</v>
       </c>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
+      <c r="AQ33" t="n">
+        <v>1.538166666666667</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>2.04954225440786</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>3.065652973812381</v>
+      </c>
       <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="inlineStr"/>
-      <c r="AV33" t="inlineStr"/>
-      <c r="AW33" t="inlineStr"/>
+      <c r="AU33" t="n">
+        <v>0.03929730832334005</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0.8301859775481096</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>1.993056435461511</v>
+      </c>
       <c r="AX33" t="inlineStr"/>
       <c r="AY33" t="inlineStr"/>
       <c r="AZ33" t="n">
@@ -8979,13 +10899,25 @@
       <c r="BI33" t="n">
         <v>22.60199614184016</v>
       </c>
-      <c r="BJ33" t="inlineStr"/>
-      <c r="BK33" t="inlineStr"/>
-      <c r="BL33" t="inlineStr"/>
+      <c r="BJ33" t="n">
+        <v>1.536833333333333</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>2.052004388545885</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>3.061974595303887</v>
+      </c>
       <c r="BM33" t="inlineStr"/>
-      <c r="BN33" t="inlineStr"/>
-      <c r="BO33" t="inlineStr"/>
-      <c r="BP33" t="inlineStr"/>
+      <c r="BN33" t="n">
+        <v>0.05136166984530347</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>0.8306292733456987</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>1.992392101922061</v>
+      </c>
       <c r="BQ33" t="inlineStr"/>
       <c r="BR33" t="inlineStr"/>
       <c r="BS33" t="n">
@@ -9018,13 +10950,25 @@
       <c r="CB33" t="n">
         <v>23.02238929832387</v>
       </c>
-      <c r="CC33" t="inlineStr"/>
-      <c r="CD33" t="inlineStr"/>
-      <c r="CE33" t="inlineStr"/>
+      <c r="CC33" t="n">
+        <v>1.537833333333333</v>
+      </c>
+      <c r="CD33" t="n">
+        <v>2.050157189712495</v>
+      </c>
+      <c r="CE33" t="n">
+        <v>3.064733445175837</v>
+      </c>
       <c r="CF33" t="inlineStr"/>
-      <c r="CG33" t="inlineStr"/>
-      <c r="CH33" t="inlineStr"/>
-      <c r="CI33" t="inlineStr"/>
+      <c r="CG33" t="n">
+        <v>0.05359654185563741</v>
+      </c>
+      <c r="CH33" t="n">
+        <v>0.8302967923059318</v>
+      </c>
+      <c r="CI33" t="n">
+        <v>1.992890502986347</v>
+      </c>
       <c r="CJ33" t="inlineStr"/>
       <c r="CK33" t="inlineStr"/>
       <c r="CL33" t="inlineStr"/>
@@ -9056,22 +11000,34 @@
         </is>
       </c>
       <c r="DB33" t="n">
+        <v>0.6501246072163831</v>
+      </c>
+      <c r="DC33" t="n">
+        <v>0.6501246072163831</v>
+      </c>
+      <c r="DD33" t="n">
+        <v>0.6506886454831363</v>
+      </c>
+      <c r="DE33" t="n">
+        <v>0.6502655250894115</v>
+      </c>
+      <c r="DF33" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC33" t="n">
+      <c r="DG33" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD33" t="inlineStr"/>
-      <c r="DE33" t="n">
+      <c r="DH33" t="inlineStr"/>
+      <c r="DI33" t="n">
         <v>0.03928688455443337</v>
       </c>
-      <c r="DF33" t="n">
+      <c r="DJ33" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG33" t="n">
+      <c r="DK33" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH33" t="n">
+      <c r="DL33" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -9157,13 +11113,25 @@
       <c r="W34" t="n">
         <v>6.321869514031262</v>
       </c>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
+      <c r="X34" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
+      <c r="AB34" t="n">
+        <v>0.009773385211365011</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="n">
@@ -9196,13 +11164,25 @@
       <c r="AP34" t="n">
         <v>6.645568312203286</v>
       </c>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
+      <c r="AQ34" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
-      <c r="AW34" t="inlineStr"/>
+      <c r="AU34" t="n">
+        <v>0.01013194756188676</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AX34" t="inlineStr"/>
       <c r="AY34" t="inlineStr"/>
       <c r="AZ34" t="n">
@@ -9235,13 +11215,25 @@
       <c r="BI34" t="n">
         <v>6.457644325414549</v>
       </c>
-      <c r="BJ34" t="inlineStr"/>
-      <c r="BK34" t="inlineStr"/>
-      <c r="BL34" t="inlineStr"/>
+      <c r="BJ34" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="BM34" t="inlineStr"/>
-      <c r="BN34" t="inlineStr"/>
-      <c r="BO34" t="inlineStr"/>
-      <c r="BP34" t="inlineStr"/>
+      <c r="BN34" t="n">
+        <v>0.009701672741260664</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="BQ34" t="inlineStr"/>
       <c r="BR34" t="inlineStr"/>
       <c r="BS34" t="n">
@@ -9274,13 +11266,25 @@
       <c r="CB34" t="n">
         <v>6.493393382849589</v>
       </c>
-      <c r="CC34" t="inlineStr"/>
-      <c r="CD34" t="inlineStr"/>
-      <c r="CE34" t="inlineStr"/>
+      <c r="CC34" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="CD34" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="CE34" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="CF34" t="inlineStr"/>
-      <c r="CG34" t="inlineStr"/>
-      <c r="CH34" t="inlineStr"/>
-      <c r="CI34" t="inlineStr"/>
+      <c r="CG34" t="n">
+        <v>0.01003974581460981</v>
+      </c>
+      <c r="CH34" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="CI34" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="CJ34" t="inlineStr"/>
       <c r="CK34" t="inlineStr"/>
       <c r="CL34" t="inlineStr"/>
@@ -9312,22 +11316,34 @@
         </is>
       </c>
       <c r="DB34" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DC34" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DD34" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DE34" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DF34" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC34" t="n">
+      <c r="DG34" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD34" t="inlineStr"/>
-      <c r="DE34" t="n">
+      <c r="DH34" t="inlineStr"/>
+      <c r="DI34" t="n">
         <v>0.01013229810217492</v>
       </c>
-      <c r="DF34" t="n">
+      <c r="DJ34" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG34" t="n">
+      <c r="DK34" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH34" t="n">
+      <c r="DL34" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -9413,13 +11429,27 @@
       <c r="W35" t="n">
         <v>21.84203063202224</v>
       </c>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
+      <c r="X35" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.1188440950993896</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="n">
@@ -9452,13 +11482,27 @@
       <c r="AP35" t="n">
         <v>21.23431024449718</v>
       </c>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="inlineStr"/>
-      <c r="AV35" t="inlineStr"/>
-      <c r="AW35" t="inlineStr"/>
+      <c r="AQ35" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.1132737035571812</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX35" t="inlineStr"/>
       <c r="AY35" t="inlineStr"/>
       <c r="AZ35" t="n">
@@ -9491,13 +11535,27 @@
       <c r="BI35" t="n">
         <v>14.51371900043279</v>
       </c>
-      <c r="BJ35" t="inlineStr"/>
-      <c r="BK35" t="inlineStr"/>
-      <c r="BL35" t="inlineStr"/>
-      <c r="BM35" t="inlineStr"/>
-      <c r="BN35" t="inlineStr"/>
-      <c r="BO35" t="inlineStr"/>
-      <c r="BP35" t="inlineStr"/>
+      <c r="BJ35" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>0.07845769287943868</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ35" t="inlineStr"/>
       <c r="BR35" t="inlineStr"/>
       <c r="BS35" t="n">
@@ -9530,13 +11588,27 @@
       <c r="CB35" t="n">
         <v>14.65363851929961</v>
       </c>
-      <c r="CC35" t="inlineStr"/>
-      <c r="CD35" t="inlineStr"/>
-      <c r="CE35" t="inlineStr"/>
-      <c r="CF35" t="inlineStr"/>
-      <c r="CG35" t="inlineStr"/>
-      <c r="CH35" t="inlineStr"/>
-      <c r="CI35" t="inlineStr"/>
+      <c r="CC35" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD35" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE35" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="CF35" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="CG35" t="n">
+        <v>0.0772554684638071</v>
+      </c>
+      <c r="CH35" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI35" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ35" t="inlineStr"/>
       <c r="CK35" t="inlineStr"/>
       <c r="CL35" t="inlineStr"/>
@@ -9568,24 +11640,36 @@
         </is>
       </c>
       <c r="DB35" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC35" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD35" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE35" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF35" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC35" t="n">
+      <c r="DG35" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD35" t="n">
+      <c r="DH35" t="n">
         <v>17.83814903173707</v>
       </c>
-      <c r="DE35" t="n">
+      <c r="DI35" t="n">
         <v>0.1133037354504893</v>
       </c>
-      <c r="DF35" t="n">
+      <c r="DJ35" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG35" t="n">
+      <c r="DK35" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH35" t="n">
+      <c r="DL35" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -9671,13 +11755,25 @@
       <c r="W36" t="n">
         <v>21.65109077646813</v>
       </c>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
+      <c r="AB36" t="n">
+        <v>0.1099954511343721</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="n">
@@ -9710,13 +11806,25 @@
       <c r="AP36" t="n">
         <v>21.46012734041683</v>
       </c>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
+      <c r="AQ36" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="AT36" t="inlineStr"/>
-      <c r="AU36" t="inlineStr"/>
-      <c r="AV36" t="inlineStr"/>
-      <c r="AW36" t="inlineStr"/>
+      <c r="AU36" t="n">
+        <v>0.1088042875236969</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX36" t="inlineStr"/>
       <c r="AY36" t="inlineStr"/>
       <c r="AZ36" t="n">
@@ -9749,13 +11857,25 @@
       <c r="BI36" t="n">
         <v>21.04202061533972</v>
       </c>
-      <c r="BJ36" t="inlineStr"/>
-      <c r="BK36" t="inlineStr"/>
-      <c r="BL36" t="inlineStr"/>
+      <c r="BJ36" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="BM36" t="inlineStr"/>
-      <c r="BN36" t="inlineStr"/>
-      <c r="BO36" t="inlineStr"/>
-      <c r="BP36" t="inlineStr"/>
+      <c r="BN36" t="n">
+        <v>0.1076471571590407</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ36" t="inlineStr"/>
       <c r="BR36" t="inlineStr"/>
       <c r="BS36" t="n">
@@ -9788,13 +11908,25 @@
       <c r="CB36" t="n">
         <v>21.06235979266279</v>
       </c>
-      <c r="CC36" t="inlineStr"/>
-      <c r="CD36" t="inlineStr"/>
-      <c r="CE36" t="inlineStr"/>
+      <c r="CC36" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD36" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE36" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="CF36" t="inlineStr"/>
-      <c r="CG36" t="inlineStr"/>
-      <c r="CH36" t="inlineStr"/>
-      <c r="CI36" t="inlineStr"/>
+      <c r="CG36" t="n">
+        <v>0.1079194231271949</v>
+      </c>
+      <c r="CH36" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI36" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ36" t="inlineStr"/>
       <c r="CK36" t="inlineStr"/>
       <c r="CL36" t="inlineStr"/>
@@ -9826,22 +11958,34 @@
         </is>
       </c>
       <c r="DB36" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC36" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD36" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE36" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF36" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC36" t="n">
+      <c r="DG36" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD36" t="inlineStr"/>
-      <c r="DE36" t="n">
+      <c r="DH36" t="inlineStr"/>
+      <c r="DI36" t="n">
         <v>0.1088331344550831</v>
       </c>
-      <c r="DF36" t="n">
+      <c r="DJ36" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG36" t="n">
+      <c r="DK36" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH36" t="n">
+      <c r="DL36" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -9927,13 +12071,27 @@
       <c r="W37" t="n">
         <v>6.314871063842755</v>
       </c>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
+      <c r="X37" t="n">
+        <v>1.538333333333333</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2.049234936091632</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>3.066112721639952</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>5.368995532560076</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.01094291455872926</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.8301305724820542</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1.99313936401297</v>
+      </c>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="n">
@@ -9966,13 +12124,27 @@
       <c r="AP37" t="n">
         <v>6.867972052452592</v>
       </c>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
-      <c r="AT37" t="inlineStr"/>
-      <c r="AU37" t="inlineStr"/>
-      <c r="AV37" t="inlineStr"/>
-      <c r="AW37" t="inlineStr"/>
+      <c r="AQ37" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.0125276562953016</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AX37" t="inlineStr"/>
       <c r="AY37" t="inlineStr"/>
       <c r="AZ37" t="n">
@@ -10005,13 +12177,27 @@
       <c r="BI37" t="n">
         <v>6.244262795692087</v>
       </c>
-      <c r="BJ37" t="inlineStr"/>
-      <c r="BK37" t="inlineStr"/>
-      <c r="BL37" t="inlineStr"/>
-      <c r="BM37" t="inlineStr"/>
-      <c r="BN37" t="inlineStr"/>
-      <c r="BO37" t="inlineStr"/>
-      <c r="BP37" t="inlineStr"/>
+      <c r="BJ37" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>0.009599226355397334</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="BQ37" t="inlineStr"/>
       <c r="BR37" t="inlineStr"/>
       <c r="BS37" t="n">
@@ -10044,13 +12230,27 @@
       <c r="CB37" t="n">
         <v>6.260664530235732</v>
       </c>
-      <c r="CC37" t="inlineStr"/>
-      <c r="CD37" t="inlineStr"/>
-      <c r="CE37" t="inlineStr"/>
-      <c r="CF37" t="inlineStr"/>
-      <c r="CG37" t="inlineStr"/>
-      <c r="CH37" t="inlineStr"/>
-      <c r="CI37" t="inlineStr"/>
+      <c r="CC37" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="CD37" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="CE37" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="CF37" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="CG37" t="n">
+        <v>0.00934311039073892</v>
+      </c>
+      <c r="CH37" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="CI37" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="CJ37" t="inlineStr"/>
       <c r="CK37" t="inlineStr"/>
       <c r="CL37" t="inlineStr"/>
@@ -10082,24 +12282,36 @@
         </is>
       </c>
       <c r="DB37" t="n">
+        <v>0.6500541711809318</v>
+      </c>
+      <c r="DC37" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DD37" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DE37" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DF37" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC37" t="n">
+      <c r="DG37" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD37" t="n">
+      <c r="DH37" t="n">
         <v>5.368376345338421</v>
       </c>
-      <c r="DE37" t="n">
+      <c r="DI37" t="n">
         <v>0.01252808972117762</v>
       </c>
-      <c r="DF37" t="n">
+      <c r="DJ37" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG37" t="n">
+      <c r="DK37" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH37" t="n">
+      <c r="DL37" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -10185,13 +12397,27 @@
       <c r="W38" t="n">
         <v>35.90031539555432</v>
       </c>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
+      <c r="X38" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.1870807533680827</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="n">
@@ -10224,13 +12450,27 @@
       <c r="AP38" t="n">
         <v>33.99955486134839</v>
       </c>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
-      <c r="AT38" t="inlineStr"/>
-      <c r="AU38" t="inlineStr"/>
-      <c r="AV38" t="inlineStr"/>
-      <c r="AW38" t="inlineStr"/>
+      <c r="AQ38" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.1947042004764056</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX38" t="inlineStr"/>
       <c r="AY38" t="inlineStr"/>
       <c r="AZ38" t="n">
@@ -10263,13 +12503,27 @@
       <c r="BI38" t="n">
         <v>22.92045525339384</v>
       </c>
-      <c r="BJ38" t="inlineStr"/>
-      <c r="BK38" t="inlineStr"/>
-      <c r="BL38" t="inlineStr"/>
-      <c r="BM38" t="inlineStr"/>
-      <c r="BN38" t="inlineStr"/>
-      <c r="BO38" t="inlineStr"/>
-      <c r="BP38" t="inlineStr"/>
+      <c r="BJ38" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>0.1212264223207404</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ38" t="inlineStr"/>
       <c r="BR38" t="inlineStr"/>
       <c r="BS38" t="n">
@@ -10302,13 +12556,27 @@
       <c r="CB38" t="n">
         <v>23.50028586174968</v>
       </c>
-      <c r="CC38" t="inlineStr"/>
-      <c r="CD38" t="inlineStr"/>
-      <c r="CE38" t="inlineStr"/>
-      <c r="CF38" t="inlineStr"/>
-      <c r="CG38" t="inlineStr"/>
-      <c r="CH38" t="inlineStr"/>
-      <c r="CI38" t="inlineStr"/>
+      <c r="CC38" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD38" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE38" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="CF38" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="CG38" t="n">
+        <v>0.1305625925349846</v>
+      </c>
+      <c r="CH38" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI38" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ38" t="inlineStr"/>
       <c r="CK38" t="inlineStr"/>
       <c r="CL38" t="inlineStr"/>
@@ -10340,24 +12608,36 @@
         </is>
       </c>
       <c r="DB38" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC38" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD38" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE38" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF38" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC38" t="n">
+      <c r="DG38" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD38" t="n">
+      <c r="DH38" t="n">
         <v>17.83814903173707</v>
       </c>
-      <c r="DE38" t="n">
+      <c r="DI38" t="n">
         <v>0.1947558217758928</v>
       </c>
-      <c r="DF38" t="n">
+      <c r="DJ38" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG38" t="n">
+      <c r="DK38" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH38" t="n">
+      <c r="DL38" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -10443,13 +12723,25 @@
       <c r="W39" t="n">
         <v>23.20410162112325</v>
       </c>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
+      <c r="X39" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
+      <c r="AB39" t="n">
+        <v>0.1289817482573882</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="n">
@@ -10482,13 +12774,25 @@
       <c r="AP39" t="n">
         <v>23.50776276186985</v>
       </c>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr"/>
+      <c r="AQ39" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="AT39" t="inlineStr"/>
-      <c r="AU39" t="inlineStr"/>
-      <c r="AV39" t="inlineStr"/>
-      <c r="AW39" t="inlineStr"/>
+      <c r="AU39" t="n">
+        <v>0.1381605147087931</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX39" t="inlineStr"/>
       <c r="AY39" t="inlineStr"/>
       <c r="AZ39" t="n">
@@ -10521,13 +12825,25 @@
       <c r="BI39" t="n">
         <v>23.80656479608426</v>
       </c>
-      <c r="BJ39" t="inlineStr"/>
-      <c r="BK39" t="inlineStr"/>
-      <c r="BL39" t="inlineStr"/>
+      <c r="BJ39" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="BM39" t="inlineStr"/>
-      <c r="BN39" t="inlineStr"/>
-      <c r="BO39" t="inlineStr"/>
-      <c r="BP39" t="inlineStr"/>
+      <c r="BN39" t="n">
+        <v>0.1490111643708956</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ39" t="inlineStr"/>
       <c r="BR39" t="inlineStr"/>
       <c r="BS39" t="n">
@@ -10560,13 +12876,25 @@
       <c r="CB39" t="n">
         <v>24.70015692122675</v>
       </c>
-      <c r="CC39" t="inlineStr"/>
-      <c r="CD39" t="inlineStr"/>
-      <c r="CE39" t="inlineStr"/>
+      <c r="CC39" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD39" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE39" t="n">
+        <v>0.9230952145464986</v>
+      </c>
       <c r="CF39" t="inlineStr"/>
-      <c r="CG39" t="inlineStr"/>
-      <c r="CH39" t="inlineStr"/>
-      <c r="CI39" t="inlineStr"/>
+      <c r="CG39" t="n">
+        <v>0.1578232225964427</v>
+      </c>
+      <c r="CH39" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI39" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ39" t="inlineStr"/>
       <c r="CK39" t="inlineStr"/>
       <c r="CL39" t="inlineStr"/>
@@ -10598,22 +12926,34 @@
         </is>
       </c>
       <c r="DB39" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC39" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD39" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE39" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF39" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC39" t="n">
+      <c r="DG39" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD39" t="inlineStr"/>
-      <c r="DE39" t="n">
+      <c r="DH39" t="inlineStr"/>
+      <c r="DI39" t="n">
         <v>0.1381971447624315</v>
       </c>
-      <c r="DF39" t="n">
+      <c r="DJ39" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG39" t="n">
+      <c r="DK39" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH39" t="n">
+      <c r="DL39" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -10699,13 +13039,27 @@
       <c r="W40" t="n">
         <v>18.80266545842013</v>
       </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
+      <c r="X40" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.03038508581514487</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="n">
@@ -10738,13 +13092,27 @@
       <c r="AP40" t="n">
         <v>19.51410636304967</v>
       </c>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
-      <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="inlineStr"/>
-      <c r="AV40" t="inlineStr"/>
-      <c r="AW40" t="inlineStr"/>
+      <c r="AQ40" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.03128712624267176</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AX40" t="inlineStr"/>
       <c r="AY40" t="inlineStr"/>
       <c r="AZ40" t="n">
@@ -10777,13 +13145,27 @@
       <c r="BI40" t="n">
         <v>18.85988740218594</v>
       </c>
-      <c r="BJ40" t="inlineStr"/>
-      <c r="BK40" t="inlineStr"/>
-      <c r="BL40" t="inlineStr"/>
-      <c r="BM40" t="inlineStr"/>
-      <c r="BN40" t="inlineStr"/>
-      <c r="BO40" t="inlineStr"/>
-      <c r="BP40" t="inlineStr"/>
+      <c r="BJ40" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>0.02864400948739695</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="BQ40" t="inlineStr"/>
       <c r="BR40" t="inlineStr"/>
       <c r="BS40" t="n">
@@ -10816,13 +13198,27 @@
       <c r="CB40" t="n">
         <v>18.85432033771342</v>
       </c>
-      <c r="CC40" t="inlineStr"/>
-      <c r="CD40" t="inlineStr"/>
-      <c r="CE40" t="inlineStr"/>
-      <c r="CF40" t="inlineStr"/>
-      <c r="CG40" t="inlineStr"/>
-      <c r="CH40" t="inlineStr"/>
-      <c r="CI40" t="inlineStr"/>
+      <c r="CC40" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="CD40" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="CE40" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="CF40" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="CG40" t="n">
+        <v>0.0283981381613248</v>
+      </c>
+      <c r="CH40" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="CI40" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="CJ40" t="inlineStr"/>
       <c r="CK40" t="inlineStr"/>
       <c r="CL40" t="inlineStr"/>
@@ -10854,24 +13250,36 @@
         </is>
       </c>
       <c r="DB40" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DC40" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DD40" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DE40" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DF40" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC40" t="n">
+      <c r="DG40" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD40" t="n">
+      <c r="DH40" t="n">
         <v>5.368376345338421</v>
       </c>
-      <c r="DE40" t="n">
+      <c r="DI40" t="n">
         <v>0.03128820869973956</v>
       </c>
-      <c r="DF40" t="n">
+      <c r="DJ40" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG40" t="n">
+      <c r="DK40" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH40" t="n">
+      <c r="DL40" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -10957,13 +13365,27 @@
       <c r="W41" t="n">
         <v>11.08842929974865</v>
       </c>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
+      <c r="X41" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.0829049873030107</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="n">
@@ -10996,13 +13418,27 @@
       <c r="AP41" t="n">
         <v>13.01109436423343</v>
       </c>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
-      <c r="AT41" t="inlineStr"/>
-      <c r="AU41" t="inlineStr"/>
-      <c r="AV41" t="inlineStr"/>
-      <c r="AW41" t="inlineStr"/>
+      <c r="AQ41" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.1003861641208235</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="AX41" t="inlineStr"/>
       <c r="AY41" t="inlineStr"/>
       <c r="AZ41" t="n">
@@ -11035,13 +13471,27 @@
       <c r="BI41" t="n">
         <v>7.829646165665107</v>
       </c>
-      <c r="BJ41" t="inlineStr"/>
-      <c r="BK41" t="inlineStr"/>
-      <c r="BL41" t="inlineStr"/>
-      <c r="BM41" t="inlineStr"/>
-      <c r="BN41" t="inlineStr"/>
-      <c r="BO41" t="inlineStr"/>
-      <c r="BP41" t="inlineStr"/>
+      <c r="BJ41" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>0.04448145254722305</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="BQ41" t="inlineStr"/>
       <c r="BR41" t="inlineStr"/>
       <c r="BS41" t="n">
@@ -11074,13 +13524,27 @@
       <c r="CB41" t="n">
         <v>7.899842496507364</v>
       </c>
-      <c r="CC41" t="inlineStr"/>
-      <c r="CD41" t="inlineStr"/>
-      <c r="CE41" t="inlineStr"/>
-      <c r="CF41" t="inlineStr"/>
-      <c r="CG41" t="inlineStr"/>
-      <c r="CH41" t="inlineStr"/>
-      <c r="CI41" t="inlineStr"/>
+      <c r="CC41" t="n">
+        <v>0.7693333333333332</v>
+      </c>
+      <c r="CD41" t="n">
+        <v>6.80664920385966</v>
+      </c>
+      <c r="CE41" t="n">
+        <v>0.9230952145464986</v>
+      </c>
+      <c r="CF41" t="n">
+        <v>17.83342091411231</v>
+      </c>
+      <c r="CG41" t="n">
+        <v>0.04480136505980434</v>
+      </c>
+      <c r="CH41" t="n">
+        <v>0.9992556045629514</v>
+      </c>
+      <c r="CI41" t="n">
+        <v>1.199863797070839</v>
+      </c>
       <c r="CJ41" t="inlineStr"/>
       <c r="CK41" t="inlineStr"/>
       <c r="CL41" t="inlineStr"/>
@@ -11112,24 +13576,36 @@
         </is>
       </c>
       <c r="DB41" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DC41" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DD41" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE41" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DF41" t="n">
         <v>6.80845382890728</v>
       </c>
-      <c r="DC41" t="n">
+      <c r="DG41" t="n">
         <v>0.922850542145485</v>
       </c>
-      <c r="DD41" t="n">
+      <c r="DH41" t="n">
         <v>17.83814903173707</v>
       </c>
-      <c r="DE41" t="n">
+      <c r="DI41" t="n">
         <v>0.1004127791821821</v>
       </c>
-      <c r="DF41" t="n">
+      <c r="DJ41" t="n">
         <v>3.948903220766222</v>
       </c>
-      <c r="DG41" t="n">
+      <c r="DK41" t="n">
         <v>0.9992571606462729</v>
       </c>
-      <c r="DH41" t="n">
+      <c r="DL41" t="n">
         <v>1.19970570478913</v>
       </c>
     </row>
@@ -11215,13 +13691,25 @@
       <c r="W42" t="n">
         <v>19.0084303799641</v>
       </c>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
+      <c r="X42" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
+      <c r="AB42" t="n">
+        <v>0.02912499526902543</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="n">
@@ -11254,13 +13742,25 @@
       <c r="AP42" t="n">
         <v>19.64301147171033</v>
       </c>
-      <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="inlineStr"/>
+      <c r="AQ42" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="AT42" t="inlineStr"/>
-      <c r="AU42" t="inlineStr"/>
-      <c r="AV42" t="inlineStr"/>
-      <c r="AW42" t="inlineStr"/>
+      <c r="AU42" t="n">
+        <v>0.02906403966943674</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="AX42" t="inlineStr"/>
       <c r="AY42" t="inlineStr"/>
       <c r="AZ42" t="n">
@@ -11293,13 +13793,25 @@
       <c r="BI42" t="n">
         <v>19.28665600653285</v>
       </c>
-      <c r="BJ42" t="inlineStr"/>
-      <c r="BK42" t="inlineStr"/>
-      <c r="BL42" t="inlineStr"/>
+      <c r="BJ42" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="BM42" t="inlineStr"/>
-      <c r="BN42" t="inlineStr"/>
-      <c r="BO42" t="inlineStr"/>
-      <c r="BP42" t="inlineStr"/>
+      <c r="BN42" t="n">
+        <v>0.02985287684058466</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="BQ42" t="inlineStr"/>
       <c r="BR42" t="inlineStr"/>
       <c r="BS42" t="n">
@@ -11332,13 +13844,25 @@
       <c r="CB42" t="n">
         <v>19.27576142605352</v>
       </c>
-      <c r="CC42" t="inlineStr"/>
-      <c r="CD42" t="inlineStr"/>
-      <c r="CE42" t="inlineStr"/>
+      <c r="CC42" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="CD42" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="CE42" t="n">
+        <v>3.066572458475788</v>
+      </c>
       <c r="CF42" t="inlineStr"/>
-      <c r="CG42" t="inlineStr"/>
-      <c r="CH42" t="inlineStr"/>
-      <c r="CI42" t="inlineStr"/>
+      <c r="CG42" t="n">
+        <v>0.02985287684058463</v>
+      </c>
+      <c r="CH42" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="CI42" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="CJ42" t="inlineStr"/>
       <c r="CK42" t="inlineStr"/>
       <c r="CL42" t="inlineStr"/>
@@ -11370,22 +13894,34 @@
         </is>
       </c>
       <c r="DB42" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DC42" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DD42" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DE42" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DF42" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC42" t="n">
+      <c r="DG42" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD42" t="inlineStr"/>
-      <c r="DE42" t="n">
+      <c r="DH42" t="inlineStr"/>
+      <c r="DI42" t="n">
         <v>0.02906504521321584</v>
       </c>
-      <c r="DF42" t="n">
+      <c r="DJ42" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG42" t="n">
+      <c r="DK42" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH42" t="n">
+      <c r="DL42" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -11471,13 +14007,25 @@
       <c r="W43" t="n">
         <v>8.867681084339662</v>
       </c>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
+      <c r="X43" t="n">
+        <v>1.538166666666667</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>2.04954225440786</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>3.065652973812381</v>
+      </c>
       <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
+      <c r="AB43" t="n">
+        <v>0.0210692943753128</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.8301859775481096</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1.993056435461511</v>
+      </c>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="n">
@@ -11510,13 +14058,25 @@
       <c r="AP43" t="n">
         <v>10.77579271917089</v>
       </c>
-      <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="inlineStr"/>
+      <c r="AQ43" t="n">
+        <v>1.538166666666667</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>2.04954225440786</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>3.065652973812381</v>
+      </c>
       <c r="AT43" t="inlineStr"/>
-      <c r="AU43" t="inlineStr"/>
-      <c r="AV43" t="inlineStr"/>
-      <c r="AW43" t="inlineStr"/>
+      <c r="AU43" t="n">
+        <v>0.02802749032902748</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.8301859775481096</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>1.993056435461511</v>
+      </c>
       <c r="AX43" t="inlineStr"/>
       <c r="AY43" t="inlineStr"/>
       <c r="AZ43" t="n">
@@ -11549,13 +14109,25 @@
       <c r="BI43" t="n">
         <v>13.72552745472268</v>
       </c>
-      <c r="BJ43" t="inlineStr"/>
-      <c r="BK43" t="inlineStr"/>
-      <c r="BL43" t="inlineStr"/>
+      <c r="BJ43" t="n">
+        <v>1.537833333333333</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>2.050157189712495</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>3.064733445175837</v>
+      </c>
       <c r="BM43" t="inlineStr"/>
-      <c r="BN43" t="inlineStr"/>
-      <c r="BO43" t="inlineStr"/>
-      <c r="BP43" t="inlineStr"/>
+      <c r="BN43" t="n">
+        <v>0.03718769875633561</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>0.8302967923059318</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>1.992890502986347</v>
+      </c>
       <c r="BQ43" t="inlineStr"/>
       <c r="BR43" t="inlineStr"/>
       <c r="BS43" t="n">
@@ -11588,13 +14160,25 @@
       <c r="CB43" t="n">
         <v>15.9875482841872</v>
       </c>
-      <c r="CC43" t="inlineStr"/>
-      <c r="CD43" t="inlineStr"/>
-      <c r="CE43" t="inlineStr"/>
+      <c r="CC43" t="n">
+        <v>1.537833333333333</v>
+      </c>
+      <c r="CD43" t="n">
+        <v>2.050157189712495</v>
+      </c>
+      <c r="CE43" t="n">
+        <v>3.064733445175837</v>
+      </c>
       <c r="CF43" t="inlineStr"/>
-      <c r="CG43" t="inlineStr"/>
-      <c r="CH43" t="inlineStr"/>
-      <c r="CI43" t="inlineStr"/>
+      <c r="CG43" t="n">
+        <v>0.04326672234741213</v>
+      </c>
+      <c r="CH43" t="n">
+        <v>0.8302967923059318</v>
+      </c>
+      <c r="CI43" t="n">
+        <v>1.992890502986347</v>
+      </c>
       <c r="CJ43" t="inlineStr"/>
       <c r="CK43" t="inlineStr"/>
       <c r="CL43" t="inlineStr"/>
@@ -11626,22 +14210,34 @@
         </is>
       </c>
       <c r="DB43" t="n">
+        <v>0.6501246072163831</v>
+      </c>
+      <c r="DC43" t="n">
+        <v>0.6501246072163831</v>
+      </c>
+      <c r="DD43" t="n">
+        <v>0.6502655250894115</v>
+      </c>
+      <c r="DE43" t="n">
+        <v>0.6502655250894115</v>
+      </c>
+      <c r="DF43" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC43" t="n">
+      <c r="DG43" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD43" t="inlineStr"/>
-      <c r="DE43" t="n">
+      <c r="DH43" t="inlineStr"/>
+      <c r="DI43" t="n">
         <v>0.02802005592461942</v>
       </c>
-      <c r="DF43" t="n">
+      <c r="DJ43" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG43" t="n">
+      <c r="DK43" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH43" t="n">
+      <c r="DL43" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>
@@ -11727,13 +14323,27 @@
       <c r="W44" t="n">
         <v>14.33892803454617</v>
       </c>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
+      <c r="X44" t="n">
+        <v>1.538</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>2.049849672265102</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>3.065193214991523</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>5.370606141334567</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.03078735842889302</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.8302413841571755</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1.992973481789027</v>
+      </c>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="n">
@@ -11766,13 +14376,27 @@
       <c r="AP44" t="n">
         <v>15.17533194618751</v>
       </c>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="inlineStr"/>
-      <c r="AT44" t="inlineStr"/>
-      <c r="AU44" t="inlineStr"/>
-      <c r="AV44" t="inlineStr"/>
-      <c r="AW44" t="inlineStr"/>
+      <c r="AQ44" t="n">
+        <v>1.538166666666667</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>2.04954225440786</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>3.065652973812381</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>5.369800706548593</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.03375473120474483</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.8301859775481096</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>1.993056435461511</v>
+      </c>
       <c r="AX44" t="inlineStr"/>
       <c r="AY44" t="inlineStr"/>
       <c r="AZ44" t="n">
@@ -11805,13 +14429,27 @@
       <c r="BI44" t="n">
         <v>12.30728968841731</v>
       </c>
-      <c r="BJ44" t="inlineStr"/>
-      <c r="BK44" t="inlineStr"/>
-      <c r="BL44" t="inlineStr"/>
-      <c r="BM44" t="inlineStr"/>
-      <c r="BN44" t="inlineStr"/>
-      <c r="BO44" t="inlineStr"/>
-      <c r="BP44" t="inlineStr"/>
+      <c r="BJ44" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>0.01957596764270118</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="BQ44" t="inlineStr"/>
       <c r="BR44" t="inlineStr"/>
       <c r="BS44" t="n">
@@ -11844,13 +14482,27 @@
       <c r="CB44" t="n">
         <v>12.35024665097807</v>
       </c>
-      <c r="CC44" t="inlineStr"/>
-      <c r="CD44" t="inlineStr"/>
-      <c r="CE44" t="inlineStr"/>
-      <c r="CF44" t="inlineStr"/>
-      <c r="CG44" t="inlineStr"/>
-      <c r="CH44" t="inlineStr"/>
-      <c r="CI44" t="inlineStr"/>
+      <c r="CC44" t="n">
+        <v>1.5385</v>
+      </c>
+      <c r="CD44" t="n">
+        <v>2.048927717267306</v>
+      </c>
+      <c r="CE44" t="n">
+        <v>3.066572458475788</v>
+      </c>
+      <c r="CF44" t="n">
+        <v>5.368190619240342</v>
+      </c>
+      <c r="CG44" t="n">
+        <v>0.01992582205042454</v>
+      </c>
+      <c r="CH44" t="n">
+        <v>0.8300751689623258</v>
+      </c>
+      <c r="CI44" t="n">
+        <v>1.993222267452576</v>
+      </c>
       <c r="CJ44" t="inlineStr"/>
       <c r="CK44" t="inlineStr"/>
       <c r="CL44" t="inlineStr"/>
@@ -11882,24 +14534,36 @@
         </is>
       </c>
       <c r="DB44" t="n">
+        <v>0.6501950585175553</v>
+      </c>
+      <c r="DC44" t="n">
+        <v>0.6501246072163831</v>
+      </c>
+      <c r="DD44" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DE44" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DF44" t="n">
         <v>2.048998605091</v>
       </c>
-      <c r="DC44" t="n">
+      <c r="DG44" t="n">
         <v>3.066466366335344</v>
       </c>
-      <c r="DD44" t="n">
+      <c r="DH44" t="n">
         <v>5.368376345338421</v>
       </c>
-      <c r="DE44" t="n">
+      <c r="DI44" t="n">
         <v>0.03374577762668574</v>
       </c>
-      <c r="DF44" t="n">
+      <c r="DJ44" t="n">
         <v>1.18841919095278</v>
       </c>
-      <c r="DG44" t="n">
+      <c r="DK44" t="n">
         <v>0.8300879542525339</v>
       </c>
-      <c r="DH44" t="n">
+      <c r="DL44" t="n">
         <v>1.993203138117973</v>
       </c>
     </row>

--- a/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
+++ b/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL44"/>
+  <dimension ref="A1:DF44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,57 +869,57 @@
       </c>
       <c r="CL1" t="inlineStr">
         <is>
-          <t>Wavefrequency (given)</t>
+          <t>Waveperiod</t>
         </is>
       </c>
       <c r="CM1" t="inlineStr">
         <is>
-          <t>Waveperiod (given)</t>
+          <t>Wavenumber</t>
         </is>
       </c>
       <c r="CN1" t="inlineStr">
         <is>
-          <t>Wavenumber (given)</t>
+          <t>Wavelength</t>
         </is>
       </c>
       <c r="CO1" t="inlineStr">
         <is>
-          <t>Wavelength (given)</t>
+          <t>kL</t>
         </is>
       </c>
       <c r="CP1" t="inlineStr">
         <is>
-          <t>kL (given)</t>
+          <t>ak</t>
         </is>
       </c>
       <c r="CQ1" t="inlineStr">
         <is>
-          <t>ak (given)</t>
+          <t>kH</t>
         </is>
       </c>
       <c r="CR1" t="inlineStr">
         <is>
-          <t>kH (given)</t>
+          <t>tanh(kH)</t>
         </is>
       </c>
       <c r="CS1" t="inlineStr">
         <is>
-          <t>tanh(kH) (given)</t>
+          <t>Celerity</t>
         </is>
       </c>
       <c r="CT1" t="inlineStr">
         <is>
-          <t>Celerity (given)</t>
+          <t>Significant Wave Height Hs</t>
         </is>
       </c>
       <c r="CU1" t="inlineStr">
         <is>
-          <t>Significant Wave Height Hs (given)</t>
+          <t>Significant Wave Height Hm0</t>
         </is>
       </c>
       <c r="CV1" t="inlineStr">
         <is>
-          <t>Significant Wave Height Hm0 (given)</t>
+          <t>Reynoldsnumber (Water)</t>
         </is>
       </c>
       <c r="CW1" t="inlineStr">
@@ -929,77 +929,47 @@
       </c>
       <c r="CX1" t="inlineStr">
         <is>
+          <t>Reynoldsnumber (Wind)</t>
+        </is>
+      </c>
+      <c r="CY1" t="inlineStr">
+        <is>
           <t>P2/P1 (FFT)</t>
         </is>
       </c>
-      <c r="CY1" t="inlineStr">
+      <c r="CZ1" t="inlineStr">
         <is>
           <t>P3/P2 (FFT)</t>
         </is>
       </c>
-      <c r="CZ1" t="inlineStr">
+      <c r="DA1" t="inlineStr">
         <is>
           <t>P4/P3 (FFT)</t>
         </is>
       </c>
-      <c r="DA1" t="inlineStr">
+      <c r="DB1" t="inlineStr">
         <is>
           <t>PROCESSED_folder</t>
         </is>
       </c>
-      <c r="DB1" t="inlineStr">
+      <c r="DC1" t="inlineStr">
         <is>
           <t>Probe 1 Frequency (FFT)</t>
         </is>
       </c>
-      <c r="DC1" t="inlineStr">
+      <c r="DD1" t="inlineStr">
         <is>
           <t>Probe 2 Frequency (FFT)</t>
         </is>
       </c>
-      <c r="DD1" t="inlineStr">
+      <c r="DE1" t="inlineStr">
         <is>
           <t>Probe 3 Frequency (FFT)</t>
         </is>
       </c>
-      <c r="DE1" t="inlineStr">
+      <c r="DF1" t="inlineStr">
         <is>
           <t>Probe 4 Frequency (FFT)</t>
-        </is>
-      </c>
-      <c r="DF1" t="inlineStr">
-        <is>
-          <t>Wavenumber</t>
-        </is>
-      </c>
-      <c r="DG1" t="inlineStr">
-        <is>
-          <t>Wavelength</t>
-        </is>
-      </c>
-      <c r="DH1" t="inlineStr">
-        <is>
-          <t>kL</t>
-        </is>
-      </c>
-      <c r="DI1" t="inlineStr">
-        <is>
-          <t>ak</t>
-        </is>
-      </c>
-      <c r="DJ1" t="inlineStr">
-        <is>
-          <t>kH</t>
-        </is>
-      </c>
-      <c r="DK1" t="inlineStr">
-        <is>
-          <t>tanh(kH)</t>
-        </is>
-      </c>
-      <c r="DL1" t="inlineStr">
-        <is>
-          <t>Celerity</t>
         </is>
       </c>
     </row>
@@ -1260,35 +1230,45 @@
       <c r="CJ2" t="inlineStr"/>
       <c r="CK2" t="inlineStr"/>
       <c r="CL2" t="inlineStr"/>
-      <c r="CM2" t="inlineStr"/>
-      <c r="CN2" t="inlineStr"/>
+      <c r="CM2" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="CO2" t="inlineStr"/>
-      <c r="CP2" t="inlineStr"/>
-      <c r="CQ2" t="inlineStr"/>
-      <c r="CR2" t="inlineStr"/>
-      <c r="CS2" t="inlineStr"/>
+      <c r="CP2" t="n">
+        <v>0.166242017140429</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT2" t="inlineStr"/>
       <c r="CU2" t="inlineStr"/>
       <c r="CV2" t="inlineStr"/>
       <c r="CW2" t="n">
         <v>3.8</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="n">
         <v>1.011336447675711</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="CZ2" t="n">
         <v>0.9501802213991354</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DA2" t="n">
         <v>1.048557063364884</v>
       </c>
-      <c r="DA2" t="inlineStr">
+      <c r="DB2" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB2" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC2" t="n">
         <v>1.299826689774697</v>
@@ -1300,23 +1280,7 @@
         <v>1.299826689774697</v>
       </c>
       <c r="DF2" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH2" t="inlineStr"/>
-      <c r="DI2" t="n">
-        <v>0.166242017140429</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="3">
@@ -1584,35 +1548,47 @@
       <c r="CJ3" t="inlineStr"/>
       <c r="CK3" t="inlineStr"/>
       <c r="CL3" t="inlineStr"/>
-      <c r="CM3" t="inlineStr"/>
-      <c r="CN3" t="inlineStr"/>
-      <c r="CO3" t="inlineStr"/>
-      <c r="CP3" t="inlineStr"/>
-      <c r="CQ3" t="inlineStr"/>
-      <c r="CR3" t="inlineStr"/>
-      <c r="CS3" t="inlineStr"/>
+      <c r="CM3" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0.02910602518531768</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT3" t="inlineStr"/>
       <c r="CU3" t="inlineStr"/>
       <c r="CV3" t="inlineStr"/>
       <c r="CW3" t="n">
         <v>0</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="n">
         <v>1.044162970336802</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="CZ3" t="n">
         <v>0.9696157709281857</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="DA3" t="n">
         <v>1.003088565524012</v>
       </c>
-      <c r="DA3" t="inlineStr">
+      <c r="DB3" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB3" t="n">
-        <v>0.6499837504062399</v>
       </c>
       <c r="DC3" t="n">
         <v>0.6499837504062399</v>
@@ -1624,25 +1600,7 @@
         <v>0.6499837504062399</v>
       </c>
       <c r="DF3" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>5.368376345338421</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>0.02910602518531768</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>1.993203138117973</v>
+        <v>0.6499837504062399</v>
       </c>
     </row>
     <row r="4">
@@ -1818,22 +1776,16 @@
       <c r="CX4" t="inlineStr"/>
       <c r="CY4" t="inlineStr"/>
       <c r="CZ4" t="inlineStr"/>
-      <c r="DA4" t="inlineStr">
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB4" t="inlineStr"/>
       <c r="DC4" t="inlineStr"/>
       <c r="DD4" t="inlineStr"/>
       <c r="DE4" t="inlineStr"/>
       <c r="DF4" t="inlineStr"/>
-      <c r="DG4" t="inlineStr"/>
-      <c r="DH4" t="inlineStr"/>
-      <c r="DI4" t="inlineStr"/>
-      <c r="DJ4" t="inlineStr"/>
-      <c r="DK4" t="inlineStr"/>
-      <c r="DL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2092,63 +2044,57 @@
       <c r="CJ5" t="inlineStr"/>
       <c r="CK5" t="inlineStr"/>
       <c r="CL5" t="inlineStr"/>
-      <c r="CM5" t="inlineStr"/>
-      <c r="CN5" t="inlineStr"/>
+      <c r="CM5" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="CO5" t="inlineStr"/>
-      <c r="CP5" t="inlineStr"/>
-      <c r="CQ5" t="inlineStr"/>
-      <c r="CR5" t="inlineStr"/>
-      <c r="CS5" t="inlineStr"/>
+      <c r="CP5" t="n">
+        <v>0.06047013373816879</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT5" t="inlineStr"/>
       <c r="CU5" t="inlineStr"/>
       <c r="CV5" t="inlineStr"/>
       <c r="CW5" t="n">
         <v>3.8</v>
       </c>
-      <c r="CX5" t="n">
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="n">
         <v>1.012872225174823</v>
       </c>
-      <c r="CY5" t="n">
+      <c r="CZ5" t="n">
         <v>1.014358044141053</v>
       </c>
-      <c r="CZ5" t="n">
+      <c r="DA5" t="n">
         <v>1.036939680368307</v>
       </c>
-      <c r="DA5" t="inlineStr">
+      <c r="DB5" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB5" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC5" t="n">
         <v>1.299826689774697</v>
       </c>
       <c r="DD5" t="n">
+        <v>1.299826689774697</v>
+      </c>
+      <c r="DE5" t="n">
         <v>1.300108342361864</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="DF5" t="n">
         <v>1.299826689774697</v>
-      </c>
-      <c r="DF5" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG5" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH5" t="inlineStr"/>
-      <c r="DI5" t="n">
-        <v>0.06047013373816879</v>
-      </c>
-      <c r="DJ5" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK5" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL5" t="n">
-        <v>1.19970570478913</v>
       </c>
     </row>
     <row r="6">
@@ -2416,35 +2362,47 @@
       <c r="CJ6" t="inlineStr"/>
       <c r="CK6" t="inlineStr"/>
       <c r="CL6" t="inlineStr"/>
-      <c r="CM6" t="inlineStr"/>
-      <c r="CN6" t="inlineStr"/>
-      <c r="CO6" t="inlineStr"/>
-      <c r="CP6" t="inlineStr"/>
-      <c r="CQ6" t="inlineStr"/>
-      <c r="CR6" t="inlineStr"/>
-      <c r="CS6" t="inlineStr"/>
+      <c r="CM6" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0.009814703318385815</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT6" t="inlineStr"/>
       <c r="CU6" t="inlineStr"/>
       <c r="CV6" t="inlineStr"/>
       <c r="CW6" t="n">
         <v>0</v>
       </c>
-      <c r="CX6" t="n">
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="n">
         <v>1.053504371600242</v>
       </c>
-      <c r="CY6" t="n">
+      <c r="CZ6" t="n">
         <v>0.9715811770956726</v>
       </c>
-      <c r="CZ6" t="n">
+      <c r="DA6" t="n">
         <v>1.005264131057575</v>
       </c>
-      <c r="DA6" t="inlineStr">
+      <c r="DB6" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB6" t="n">
-        <v>0.6499837504062399</v>
       </c>
       <c r="DC6" t="n">
         <v>0.6499837504062399</v>
@@ -2456,25 +2414,7 @@
         <v>0.6499837504062399</v>
       </c>
       <c r="DF6" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG6" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH6" t="n">
-        <v>5.368376345338421</v>
-      </c>
-      <c r="DI6" t="n">
-        <v>0.009814703318385815</v>
-      </c>
-      <c r="DJ6" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK6" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL6" t="n">
-        <v>1.993203138117973</v>
+        <v>0.6499837504062399</v>
       </c>
     </row>
     <row r="7">
@@ -2734,63 +2674,57 @@
       <c r="CJ7" t="inlineStr"/>
       <c r="CK7" t="inlineStr"/>
       <c r="CL7" t="inlineStr"/>
-      <c r="CM7" t="inlineStr"/>
-      <c r="CN7" t="inlineStr"/>
+      <c r="CM7" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>3.066466366335344</v>
+      </c>
       <c r="CO7" t="inlineStr"/>
-      <c r="CP7" t="inlineStr"/>
-      <c r="CQ7" t="inlineStr"/>
-      <c r="CR7" t="inlineStr"/>
-      <c r="CS7" t="inlineStr"/>
+      <c r="CP7" t="n">
+        <v>0.022200899886161</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT7" t="inlineStr"/>
       <c r="CU7" t="inlineStr"/>
       <c r="CV7" t="inlineStr"/>
       <c r="CW7" t="n">
         <v>3.8</v>
       </c>
-      <c r="CX7" t="n">
+      <c r="CX7" t="inlineStr"/>
+      <c r="CY7" t="n">
         <v>1.03709056210268</v>
       </c>
-      <c r="CY7" t="n">
+      <c r="CZ7" t="n">
         <v>0.9673806146154074</v>
       </c>
-      <c r="CZ7" t="n">
+      <c r="DA7" t="n">
         <v>1.018331230674218</v>
       </c>
-      <c r="DA7" t="inlineStr">
+      <c r="DB7" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB7" t="n">
-        <v>0.6499837504062399</v>
       </c>
       <c r="DC7" t="n">
         <v>0.6499837504062399</v>
       </c>
       <c r="DD7" t="n">
+        <v>0.6499837504062399</v>
+      </c>
+      <c r="DE7" t="n">
         <v>0.6500541711809318</v>
       </c>
-      <c r="DE7" t="n">
+      <c r="DF7" t="n">
         <v>0.6499837504062399</v>
-      </c>
-      <c r="DF7" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG7" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH7" t="inlineStr"/>
-      <c r="DI7" t="n">
-        <v>0.022200899886161</v>
-      </c>
-      <c r="DJ7" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK7" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL7" t="n">
-        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="8">
@@ -3058,35 +2992,47 @@
       <c r="CJ8" t="inlineStr"/>
       <c r="CK8" t="inlineStr"/>
       <c r="CL8" t="inlineStr"/>
-      <c r="CM8" t="inlineStr"/>
-      <c r="CN8" t="inlineStr"/>
-      <c r="CO8" t="inlineStr"/>
-      <c r="CP8" t="inlineStr"/>
-      <c r="CQ8" t="inlineStr"/>
-      <c r="CR8" t="inlineStr"/>
-      <c r="CS8" t="inlineStr"/>
+      <c r="CM8" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0.1132467146496721</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT8" t="inlineStr"/>
       <c r="CU8" t="inlineStr"/>
       <c r="CV8" t="inlineStr"/>
       <c r="CW8" t="n">
         <v>0</v>
       </c>
-      <c r="CX8" t="n">
+      <c r="CX8" t="inlineStr"/>
+      <c r="CY8" t="n">
         <v>1.000232244319276</v>
       </c>
-      <c r="CY8" t="n">
+      <c r="CZ8" t="n">
         <v>0.7097443096061512</v>
       </c>
-      <c r="CZ8" t="n">
+      <c r="DA8" t="n">
         <v>1.027726942846914</v>
       </c>
-      <c r="DA8" t="inlineStr">
+      <c r="DB8" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB8" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC8" t="n">
         <v>1.299826689774697</v>
@@ -3098,25 +3044,7 @@
         <v>1.299826689774697</v>
       </c>
       <c r="DF8" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG8" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH8" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DI8" t="n">
-        <v>0.1132467146496721</v>
-      </c>
-      <c r="DJ8" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK8" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL8" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="9">
@@ -3376,63 +3304,57 @@
       <c r="CJ9" t="inlineStr"/>
       <c r="CK9" t="inlineStr"/>
       <c r="CL9" t="inlineStr"/>
-      <c r="CM9" t="inlineStr"/>
-      <c r="CN9" t="inlineStr"/>
+      <c r="CM9" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>3.066466366335344</v>
+      </c>
       <c r="CO9" t="inlineStr"/>
-      <c r="CP9" t="inlineStr"/>
-      <c r="CQ9" t="inlineStr"/>
-      <c r="CR9" t="inlineStr"/>
-      <c r="CS9" t="inlineStr"/>
+      <c r="CP9" t="n">
+        <v>0.01268330136551323</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT9" t="inlineStr"/>
       <c r="CU9" t="inlineStr"/>
       <c r="CV9" t="inlineStr"/>
       <c r="CW9" t="n">
         <v>3.8</v>
       </c>
-      <c r="CX9" t="n">
+      <c r="CX9" t="inlineStr"/>
+      <c r="CY9" t="n">
         <v>1.019573777652404</v>
       </c>
-      <c r="CY9" t="n">
+      <c r="CZ9" t="n">
         <v>1.002510224035701</v>
       </c>
-      <c r="CZ9" t="n">
+      <c r="DA9" t="n">
         <v>0.9787999311488548</v>
       </c>
-      <c r="DA9" t="inlineStr">
+      <c r="DB9" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB9" t="n">
-        <v>0.6499837504062399</v>
       </c>
       <c r="DC9" t="n">
         <v>0.6499837504062399</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.6500541711809318</v>
+        <v>0.6499837504062399</v>
       </c>
       <c r="DE9" t="n">
         <v>0.6500541711809318</v>
       </c>
       <c r="DF9" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG9" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH9" t="inlineStr"/>
-      <c r="DI9" t="n">
-        <v>0.01268330136551323</v>
-      </c>
-      <c r="DJ9" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK9" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL9" t="n">
-        <v>1.993203138117973</v>
+        <v>0.6500541711809318</v>
       </c>
     </row>
     <row r="10">
@@ -3700,35 +3622,47 @@
       <c r="CJ10" t="inlineStr"/>
       <c r="CK10" t="inlineStr"/>
       <c r="CL10" t="inlineStr"/>
-      <c r="CM10" t="inlineStr"/>
-      <c r="CN10" t="inlineStr"/>
-      <c r="CO10" t="inlineStr"/>
-      <c r="CP10" t="inlineStr"/>
-      <c r="CQ10" t="inlineStr"/>
-      <c r="CR10" t="inlineStr"/>
-      <c r="CS10" t="inlineStr"/>
+      <c r="CM10" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0.05562506778217258</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT10" t="inlineStr"/>
       <c r="CU10" t="inlineStr"/>
       <c r="CV10" t="inlineStr"/>
       <c r="CW10" t="n">
         <v>0</v>
       </c>
-      <c r="CX10" t="n">
+      <c r="CX10" t="inlineStr"/>
+      <c r="CY10" t="n">
         <v>0.9786678979529024</v>
       </c>
-      <c r="CY10" t="n">
+      <c r="CZ10" t="n">
         <v>0.6766989732725671</v>
       </c>
-      <c r="CZ10" t="n">
+      <c r="DA10" t="n">
         <v>1.029915392881313</v>
       </c>
-      <c r="DA10" t="inlineStr">
+      <c r="DB10" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB10" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC10" t="n">
         <v>1.299826689774697</v>
@@ -3740,25 +3674,7 @@
         <v>1.299826689774697</v>
       </c>
       <c r="DF10" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG10" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH10" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DI10" t="n">
-        <v>0.05562506778217258</v>
-      </c>
-      <c r="DJ10" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK10" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL10" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="11">
@@ -4026,35 +3942,47 @@
       <c r="CJ11" t="inlineStr"/>
       <c r="CK11" t="inlineStr"/>
       <c r="CL11" t="inlineStr"/>
-      <c r="CM11" t="inlineStr"/>
-      <c r="CN11" t="inlineStr"/>
-      <c r="CO11" t="inlineStr"/>
-      <c r="CP11" t="inlineStr"/>
-      <c r="CQ11" t="inlineStr"/>
-      <c r="CR11" t="inlineStr"/>
-      <c r="CS11" t="inlineStr"/>
+      <c r="CM11" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0.05443358836211374</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT11" t="inlineStr"/>
       <c r="CU11" t="inlineStr"/>
       <c r="CV11" t="inlineStr"/>
       <c r="CW11" t="n">
         <v>0</v>
       </c>
-      <c r="CX11" t="n">
+      <c r="CX11" t="inlineStr"/>
+      <c r="CY11" t="n">
         <v>0.9238849845864656</v>
       </c>
-      <c r="CY11" t="n">
+      <c r="CZ11" t="n">
         <v>0.7014382994437879</v>
       </c>
-      <c r="CZ11" t="n">
+      <c r="DA11" t="n">
         <v>1.035096802498275</v>
       </c>
-      <c r="DA11" t="inlineStr">
+      <c r="DB11" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB11" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC11" t="n">
         <v>1.299826689774697</v>
@@ -4066,25 +3994,7 @@
         <v>1.299826689774697</v>
       </c>
       <c r="DF11" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG11" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH11" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DI11" t="n">
-        <v>0.05443358836211374</v>
-      </c>
-      <c r="DJ11" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK11" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL11" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="12">
@@ -4344,63 +4254,57 @@
       <c r="CJ12" t="inlineStr"/>
       <c r="CK12" t="inlineStr"/>
       <c r="CL12" t="inlineStr"/>
-      <c r="CM12" t="inlineStr"/>
-      <c r="CN12" t="inlineStr"/>
+      <c r="CM12" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>3.066466366335344</v>
+      </c>
       <c r="CO12" t="inlineStr"/>
-      <c r="CP12" t="inlineStr"/>
-      <c r="CQ12" t="inlineStr"/>
-      <c r="CR12" t="inlineStr"/>
-      <c r="CS12" t="inlineStr"/>
+      <c r="CP12" t="n">
+        <v>0.01277550630274236</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT12" t="inlineStr"/>
       <c r="CU12" t="inlineStr"/>
       <c r="CV12" t="inlineStr"/>
       <c r="CW12" t="n">
         <v>3.8</v>
       </c>
-      <c r="CX12" t="n">
+      <c r="CX12" t="inlineStr"/>
+      <c r="CY12" t="n">
         <v>1.033102191917685</v>
       </c>
-      <c r="CY12" t="n">
+      <c r="CZ12" t="n">
         <v>1.004577508931341</v>
       </c>
-      <c r="CZ12" t="n">
+      <c r="DA12" t="n">
         <v>0.9921151426193191</v>
       </c>
-      <c r="DA12" t="inlineStr">
+      <c r="DB12" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB12" t="n">
-        <v>0.6499837504062399</v>
       </c>
       <c r="DC12" t="n">
         <v>0.6499837504062399</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.6500541711809318</v>
+        <v>0.6499837504062399</v>
       </c>
       <c r="DE12" t="n">
         <v>0.6500541711809318</v>
       </c>
       <c r="DF12" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG12" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH12" t="inlineStr"/>
-      <c r="DI12" t="n">
-        <v>0.01277550630274236</v>
-      </c>
-      <c r="DJ12" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK12" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL12" t="n">
-        <v>1.993203138117973</v>
+        <v>0.6500541711809318</v>
       </c>
     </row>
     <row r="13">
@@ -4660,35 +4564,45 @@
       <c r="CJ13" t="inlineStr"/>
       <c r="CK13" t="inlineStr"/>
       <c r="CL13" t="inlineStr"/>
-      <c r="CM13" t="inlineStr"/>
-      <c r="CN13" t="inlineStr"/>
+      <c r="CM13" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="CO13" t="inlineStr"/>
-      <c r="CP13" t="inlineStr"/>
-      <c r="CQ13" t="inlineStr"/>
-      <c r="CR13" t="inlineStr"/>
-      <c r="CS13" t="inlineStr"/>
+      <c r="CP13" t="n">
+        <v>0.1149607429010995</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT13" t="inlineStr"/>
       <c r="CU13" t="inlineStr"/>
       <c r="CV13" t="inlineStr"/>
       <c r="CW13" t="n">
         <v>3.8</v>
       </c>
-      <c r="CX13" t="n">
+      <c r="CX13" t="inlineStr"/>
+      <c r="CY13" t="n">
         <v>1.01355468652777</v>
       </c>
-      <c r="CY13" t="n">
+      <c r="CZ13" t="n">
         <v>1.024205767586054</v>
       </c>
-      <c r="CZ13" t="n">
+      <c r="DA13" t="n">
         <v>0.9323278848873658</v>
       </c>
-      <c r="DA13" t="inlineStr">
+      <c r="DB13" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB13" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC13" t="n">
         <v>1.299826689774697</v>
@@ -4700,23 +4614,7 @@
         <v>1.299826689774697</v>
       </c>
       <c r="DF13" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG13" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH13" t="inlineStr"/>
-      <c r="DI13" t="n">
-        <v>0.1149607429010995</v>
-      </c>
-      <c r="DJ13" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK13" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL13" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="14">
@@ -4984,35 +4882,47 @@
       <c r="CJ14" t="inlineStr"/>
       <c r="CK14" t="inlineStr"/>
       <c r="CL14" t="inlineStr"/>
-      <c r="CM14" t="inlineStr"/>
-      <c r="CN14" t="inlineStr"/>
-      <c r="CO14" t="inlineStr"/>
-      <c r="CP14" t="inlineStr"/>
-      <c r="CQ14" t="inlineStr"/>
-      <c r="CR14" t="inlineStr"/>
-      <c r="CS14" t="inlineStr"/>
+      <c r="CM14" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0.01981381651122995</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT14" t="inlineStr"/>
       <c r="CU14" t="inlineStr"/>
       <c r="CV14" t="inlineStr"/>
       <c r="CW14" t="n">
         <v>0</v>
       </c>
-      <c r="CX14" t="n">
+      <c r="CX14" t="inlineStr"/>
+      <c r="CY14" t="n">
         <v>1.049993344681407</v>
       </c>
-      <c r="CY14" t="n">
+      <c r="CZ14" t="n">
         <v>0.9698762960193082</v>
       </c>
-      <c r="CZ14" t="n">
+      <c r="DA14" t="n">
         <v>1.000801970199081</v>
       </c>
-      <c r="DA14" t="inlineStr">
+      <c r="DB14" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB14" t="n">
-        <v>0.6499837504062399</v>
       </c>
       <c r="DC14" t="n">
         <v>0.6499837504062399</v>
@@ -5024,25 +4934,7 @@
         <v>0.6499837504062399</v>
       </c>
       <c r="DF14" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG14" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH14" t="n">
-        <v>5.368376345338421</v>
-      </c>
-      <c r="DI14" t="n">
-        <v>0.01981381651122995</v>
-      </c>
-      <c r="DJ14" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK14" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL14" t="n">
-        <v>1.993203138117973</v>
+        <v>0.6499837504062399</v>
       </c>
     </row>
     <row r="15">
@@ -5310,35 +5202,47 @@
       <c r="CJ15" t="inlineStr"/>
       <c r="CK15" t="inlineStr"/>
       <c r="CL15" t="inlineStr"/>
-      <c r="CM15" t="inlineStr"/>
-      <c r="CN15" t="inlineStr"/>
-      <c r="CO15" t="inlineStr"/>
-      <c r="CP15" t="inlineStr"/>
-      <c r="CQ15" t="inlineStr"/>
-      <c r="CR15" t="inlineStr"/>
-      <c r="CS15" t="inlineStr"/>
+      <c r="CM15" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0.05678250493308674</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT15" t="inlineStr"/>
       <c r="CU15" t="inlineStr"/>
       <c r="CV15" t="inlineStr"/>
       <c r="CW15" t="n">
         <v>0</v>
       </c>
-      <c r="CX15" t="n">
+      <c r="CX15" t="inlineStr"/>
+      <c r="CY15" t="n">
         <v>0.9391983752380851</v>
       </c>
-      <c r="CY15" t="n">
+      <c r="CZ15" t="n">
         <v>0.6687555103856894</v>
       </c>
-      <c r="CZ15" t="n">
+      <c r="DA15" t="n">
         <v>1.035592795403869</v>
       </c>
-      <c r="DA15" t="inlineStr">
+      <c r="DB15" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB15" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC15" t="n">
         <v>1.299826689774697</v>
@@ -5350,25 +5254,7 @@
         <v>1.299826689774697</v>
       </c>
       <c r="DF15" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG15" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH15" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DI15" t="n">
-        <v>0.05678250493308674</v>
-      </c>
-      <c r="DJ15" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK15" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL15" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="16">
@@ -5552,22 +5438,16 @@
       <c r="CX16" t="inlineStr"/>
       <c r="CY16" t="inlineStr"/>
       <c r="CZ16" t="inlineStr"/>
-      <c r="DA16" t="inlineStr">
+      <c r="DA16" t="inlineStr"/>
+      <c r="DB16" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB16" t="inlineStr"/>
       <c r="DC16" t="inlineStr"/>
       <c r="DD16" t="inlineStr"/>
       <c r="DE16" t="inlineStr"/>
       <c r="DF16" t="inlineStr"/>
-      <c r="DG16" t="inlineStr"/>
-      <c r="DH16" t="inlineStr"/>
-      <c r="DI16" t="inlineStr"/>
-      <c r="DJ16" t="inlineStr"/>
-      <c r="DK16" t="inlineStr"/>
-      <c r="DL16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5826,63 +5706,57 @@
       <c r="CJ17" t="inlineStr"/>
       <c r="CK17" t="inlineStr"/>
       <c r="CL17" t="inlineStr"/>
-      <c r="CM17" t="inlineStr"/>
-      <c r="CN17" t="inlineStr"/>
+      <c r="CM17" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>3.066466366335344</v>
+      </c>
       <c r="CO17" t="inlineStr"/>
-      <c r="CP17" t="inlineStr"/>
-      <c r="CQ17" t="inlineStr"/>
-      <c r="CR17" t="inlineStr"/>
-      <c r="CS17" t="inlineStr"/>
+      <c r="CP17" t="n">
+        <v>0.03127796370671412</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT17" t="inlineStr"/>
       <c r="CU17" t="inlineStr"/>
       <c r="CV17" t="inlineStr"/>
       <c r="CW17" t="n">
         <v>3.8</v>
       </c>
-      <c r="CX17" t="n">
+      <c r="CX17" t="inlineStr"/>
+      <c r="CY17" t="n">
         <v>1.018839537633315</v>
       </c>
-      <c r="CY17" t="n">
+      <c r="CZ17" t="n">
         <v>0.9830592940078693</v>
       </c>
-      <c r="CZ17" t="n">
+      <c r="DA17" t="n">
         <v>1.005635066148295</v>
       </c>
-      <c r="DA17" t="inlineStr">
+      <c r="DB17" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB17" t="n">
-        <v>0.6499837504062399</v>
       </c>
       <c r="DC17" t="n">
         <v>0.6499837504062399</v>
       </c>
       <c r="DD17" t="n">
-        <v>0.6500541711809318</v>
+        <v>0.6499837504062399</v>
       </c>
       <c r="DE17" t="n">
         <v>0.6500541711809318</v>
       </c>
       <c r="DF17" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG17" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH17" t="inlineStr"/>
-      <c r="DI17" t="n">
-        <v>0.03127796370671412</v>
-      </c>
-      <c r="DJ17" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK17" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL17" t="n">
-        <v>1.993203138117973</v>
+        <v>0.6500541711809318</v>
       </c>
     </row>
     <row r="18">
@@ -6150,35 +6024,47 @@
       <c r="CJ18" t="inlineStr"/>
       <c r="CK18" t="inlineStr"/>
       <c r="CL18" t="inlineStr"/>
-      <c r="CM18" t="inlineStr"/>
-      <c r="CN18" t="inlineStr"/>
-      <c r="CO18" t="inlineStr"/>
-      <c r="CP18" t="inlineStr"/>
-      <c r="CQ18" t="inlineStr"/>
-      <c r="CR18" t="inlineStr"/>
-      <c r="CS18" t="inlineStr"/>
+      <c r="CM18" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0.16585478632891</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT18" t="inlineStr"/>
       <c r="CU18" t="inlineStr"/>
       <c r="CV18" t="inlineStr"/>
       <c r="CW18" t="n">
         <v>0</v>
       </c>
-      <c r="CX18" t="n">
+      <c r="CX18" t="inlineStr"/>
+      <c r="CY18" t="n">
         <v>1.022673349972923</v>
       </c>
-      <c r="CY18" t="n">
+      <c r="CZ18" t="n">
         <v>0.7394640719643086</v>
       </c>
-      <c r="CZ18" t="n">
+      <c r="DA18" t="n">
         <v>1.023925402439761</v>
       </c>
-      <c r="DA18" t="inlineStr">
+      <c r="DB18" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB18" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC18" t="n">
         <v>1.299826689774697</v>
@@ -6190,25 +6076,7 @@
         <v>1.299826689774697</v>
       </c>
       <c r="DF18" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG18" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH18" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DI18" t="n">
-        <v>0.16585478632891</v>
-      </c>
-      <c r="DJ18" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK18" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL18" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="19">
@@ -6468,63 +6336,57 @@
       <c r="CJ19" t="inlineStr"/>
       <c r="CK19" t="inlineStr"/>
       <c r="CL19" t="inlineStr"/>
-      <c r="CM19" t="inlineStr"/>
-      <c r="CN19" t="inlineStr"/>
+      <c r="CM19" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>3.066466366335344</v>
+      </c>
       <c r="CO19" t="inlineStr"/>
-      <c r="CP19" t="inlineStr"/>
-      <c r="CQ19" t="inlineStr"/>
-      <c r="CR19" t="inlineStr"/>
-      <c r="CS19" t="inlineStr"/>
+      <c r="CP19" t="n">
+        <v>0.03384945695610326</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT19" t="inlineStr"/>
       <c r="CU19" t="inlineStr"/>
       <c r="CV19" t="inlineStr"/>
       <c r="CW19" t="n">
         <v>5.8</v>
       </c>
-      <c r="CX19" t="n">
+      <c r="CX19" t="inlineStr"/>
+      <c r="CY19" t="n">
         <v>1.017665842415511</v>
       </c>
-      <c r="CY19" t="n">
+      <c r="CZ19" t="n">
         <v>0.9589852054503312</v>
       </c>
-      <c r="CZ19" t="n">
+      <c r="DA19" t="n">
         <v>1.035713722053874</v>
       </c>
-      <c r="DA19" t="inlineStr">
+      <c r="DB19" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB19" t="n">
+      <c r="DC19" t="n">
         <v>0.6500541711809318</v>
       </c>
-      <c r="DC19" t="n">
+      <c r="DD19" t="n">
         <v>0.6499837504062399</v>
       </c>
-      <c r="DD19" t="n">
+      <c r="DE19" t="n">
         <v>0.6501950585175553</v>
       </c>
-      <c r="DE19" t="n">
+      <c r="DF19" t="n">
         <v>0.6506180871828237</v>
-      </c>
-      <c r="DF19" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH19" t="inlineStr"/>
-      <c r="DI19" t="n">
-        <v>0.03384945695610326</v>
-      </c>
-      <c r="DJ19" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK19" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL19" t="n">
-        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="20">
@@ -6792,35 +6654,47 @@
       <c r="CJ20" t="inlineStr"/>
       <c r="CK20" t="inlineStr"/>
       <c r="CL20" t="inlineStr"/>
-      <c r="CM20" t="inlineStr"/>
-      <c r="CN20" t="inlineStr"/>
-      <c r="CO20" t="inlineStr"/>
-      <c r="CP20" t="inlineStr"/>
-      <c r="CQ20" t="inlineStr"/>
-      <c r="CR20" t="inlineStr"/>
-      <c r="CS20" t="inlineStr"/>
+      <c r="CM20" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0.1657126598552314</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT20" t="inlineStr"/>
       <c r="CU20" t="inlineStr"/>
       <c r="CV20" t="inlineStr"/>
       <c r="CW20" t="n">
         <v>3.8</v>
       </c>
-      <c r="CX20" t="n">
+      <c r="CX20" t="inlineStr"/>
+      <c r="CY20" t="n">
         <v>0.9995393386604625</v>
       </c>
-      <c r="CY20" t="n">
+      <c r="CZ20" t="n">
         <v>0.7150886164052068</v>
       </c>
-      <c r="CZ20" t="n">
+      <c r="DA20" t="n">
         <v>1.030678318936897</v>
       </c>
-      <c r="DA20" t="inlineStr">
+      <c r="DB20" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB20" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC20" t="n">
         <v>1.299826689774697</v>
@@ -6832,25 +6706,7 @@
         <v>1.299826689774697</v>
       </c>
       <c r="DF20" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG20" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH20" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DI20" t="n">
-        <v>0.1657126598552314</v>
-      </c>
-      <c r="DJ20" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK20" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL20" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="21">
@@ -7118,65 +6974,59 @@
       <c r="CJ21" t="inlineStr"/>
       <c r="CK21" t="inlineStr"/>
       <c r="CL21" t="inlineStr"/>
-      <c r="CM21" t="inlineStr"/>
-      <c r="CN21" t="inlineStr"/>
-      <c r="CO21" t="inlineStr"/>
-      <c r="CP21" t="inlineStr"/>
-      <c r="CQ21" t="inlineStr"/>
-      <c r="CR21" t="inlineStr"/>
-      <c r="CS21" t="inlineStr"/>
+      <c r="CM21" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0.02713939632415132</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT21" t="inlineStr"/>
       <c r="CU21" t="inlineStr"/>
       <c r="CV21" t="inlineStr"/>
       <c r="CW21" t="n">
         <v>5.8</v>
       </c>
-      <c r="CX21" t="n">
+      <c r="CX21" t="inlineStr"/>
+      <c r="CY21" t="n">
         <v>1.014635490411201</v>
       </c>
-      <c r="CY21" t="n">
+      <c r="CZ21" t="n">
         <v>0.9202085928078108</v>
       </c>
-      <c r="CZ21" t="n">
+      <c r="DA21" t="n">
         <v>0.9991555502986639</v>
       </c>
-      <c r="DA21" t="inlineStr">
+      <c r="DB21" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB21" t="n">
-        <v>0.6504065040650406</v>
       </c>
       <c r="DC21" t="n">
         <v>0.6504065040650406</v>
       </c>
       <c r="DD21" t="n">
-        <v>0.6499837504062399</v>
+        <v>0.6504065040650406</v>
       </c>
       <c r="DE21" t="n">
         <v>0.6499837504062399</v>
       </c>
       <c r="DF21" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG21" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH21" t="n">
-        <v>5.368376345338421</v>
-      </c>
-      <c r="DI21" t="n">
-        <v>0.02713939632415132</v>
-      </c>
-      <c r="DJ21" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK21" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL21" t="n">
-        <v>1.993203138117973</v>
+        <v>0.6499837504062399</v>
       </c>
     </row>
     <row r="22">
@@ -7436,63 +7286,57 @@
       <c r="CJ22" t="inlineStr"/>
       <c r="CK22" t="inlineStr"/>
       <c r="CL22" t="inlineStr"/>
-      <c r="CM22" t="inlineStr"/>
-      <c r="CN22" t="inlineStr"/>
+      <c r="CM22" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="CO22" t="inlineStr"/>
-      <c r="CP22" t="inlineStr"/>
-      <c r="CQ22" t="inlineStr"/>
-      <c r="CR22" t="inlineStr"/>
-      <c r="CS22" t="inlineStr"/>
+      <c r="CP22" t="n">
+        <v>0.1612922712068134</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT22" t="inlineStr"/>
       <c r="CU22" t="inlineStr"/>
       <c r="CV22" t="inlineStr"/>
       <c r="CW22" t="n">
         <v>0</v>
       </c>
-      <c r="CX22" t="n">
+      <c r="CX22" t="inlineStr"/>
+      <c r="CY22" t="n">
         <v>1.008164314772437</v>
       </c>
-      <c r="CY22" t="n">
+      <c r="CZ22" t="n">
         <v>0.9741185995116167</v>
       </c>
-      <c r="CZ22" t="n">
+      <c r="DA22" t="n">
         <v>1.002457515769358</v>
       </c>
-      <c r="DA22" t="inlineStr">
+      <c r="DB22" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB22" t="n">
-        <v>1.300108342361864</v>
       </c>
       <c r="DC22" t="n">
         <v>1.300108342361864</v>
       </c>
       <c r="DD22" t="n">
-        <v>1.299826689774697</v>
+        <v>1.300108342361864</v>
       </c>
       <c r="DE22" t="n">
         <v>1.299826689774697</v>
       </c>
       <c r="DF22" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG22" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH22" t="inlineStr"/>
-      <c r="DI22" t="n">
-        <v>0.1612922712068134</v>
-      </c>
-      <c r="DJ22" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK22" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL22" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="23">
@@ -7752,35 +7596,45 @@
       <c r="CJ23" t="inlineStr"/>
       <c r="CK23" t="inlineStr"/>
       <c r="CL23" t="inlineStr"/>
-      <c r="CM23" t="inlineStr"/>
-      <c r="CN23" t="inlineStr"/>
+      <c r="CM23" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="CO23" t="inlineStr"/>
-      <c r="CP23" t="inlineStr"/>
-      <c r="CQ23" t="inlineStr"/>
-      <c r="CR23" t="inlineStr"/>
-      <c r="CS23" t="inlineStr"/>
+      <c r="CP23" t="n">
+        <v>0.09777790755039455</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT23" t="inlineStr"/>
       <c r="CU23" t="inlineStr"/>
       <c r="CV23" t="inlineStr"/>
       <c r="CW23" t="n">
         <v>5.8</v>
       </c>
-      <c r="CX23" t="n">
+      <c r="CX23" t="inlineStr"/>
+      <c r="CY23" t="n">
         <v>1.048673337742408</v>
       </c>
-      <c r="CY23" t="n">
+      <c r="CZ23" t="n">
         <v>0.9559770881732745</v>
       </c>
-      <c r="CZ23" t="n">
+      <c r="DA23" t="n">
         <v>1.187378214994207</v>
       </c>
-      <c r="DA23" t="inlineStr">
+      <c r="DB23" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB23" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC23" t="n">
         <v>1.299826689774697</v>
@@ -7792,23 +7646,7 @@
         <v>1.299826689774697</v>
       </c>
       <c r="DF23" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG23" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH23" t="inlineStr"/>
-      <c r="DI23" t="n">
-        <v>0.09777790755039455</v>
-      </c>
-      <c r="DJ23" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK23" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL23" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="24">
@@ -8076,65 +7914,59 @@
       <c r="CJ24" t="inlineStr"/>
       <c r="CK24" t="inlineStr"/>
       <c r="CL24" t="inlineStr"/>
-      <c r="CM24" t="inlineStr"/>
-      <c r="CN24" t="inlineStr"/>
-      <c r="CO24" t="inlineStr"/>
-      <c r="CP24" t="inlineStr"/>
-      <c r="CQ24" t="inlineStr"/>
-      <c r="CR24" t="inlineStr"/>
-      <c r="CS24" t="inlineStr"/>
+      <c r="CM24" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>0.1389639468749126</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT24" t="inlineStr"/>
       <c r="CU24" t="inlineStr"/>
       <c r="CV24" t="inlineStr"/>
       <c r="CW24" t="n">
         <v>5.8</v>
       </c>
-      <c r="CX24" t="n">
+      <c r="CX24" t="inlineStr"/>
+      <c r="CY24" t="n">
         <v>0.9328998469251686</v>
       </c>
-      <c r="CY24" t="n">
+      <c r="CZ24" t="n">
         <v>0.6513335073858831</v>
       </c>
-      <c r="CZ24" t="n">
+      <c r="DA24" t="n">
         <v>1.079745872736531</v>
       </c>
-      <c r="DA24" t="inlineStr">
+      <c r="DB24" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB24" t="n">
+      <c r="DC24" t="n">
         <v>1.300672013873835</v>
       </c>
-      <c r="DC24" t="n">
+      <c r="DD24" t="n">
         <v>1.300390117035111</v>
-      </c>
-      <c r="DD24" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DE24" t="n">
         <v>1.299826689774697</v>
       </c>
       <c r="DF24" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG24" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH24" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DI24" t="n">
-        <v>0.1389639468749126</v>
-      </c>
-      <c r="DJ24" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK24" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL24" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="25">
@@ -8394,63 +8226,57 @@
       <c r="CJ25" t="inlineStr"/>
       <c r="CK25" t="inlineStr"/>
       <c r="CL25" t="inlineStr"/>
-      <c r="CM25" t="inlineStr"/>
-      <c r="CN25" t="inlineStr"/>
+      <c r="CM25" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="CO25" t="inlineStr"/>
-      <c r="CP25" t="inlineStr"/>
-      <c r="CQ25" t="inlineStr"/>
-      <c r="CR25" t="inlineStr"/>
-      <c r="CS25" t="inlineStr"/>
+      <c r="CP25" t="n">
+        <v>0.1870733326866996</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT25" t="inlineStr"/>
       <c r="CU25" t="inlineStr"/>
       <c r="CV25" t="inlineStr"/>
       <c r="CW25" t="n">
         <v>5.8</v>
       </c>
-      <c r="CX25" t="n">
+      <c r="CX25" t="inlineStr"/>
+      <c r="CY25" t="n">
         <v>1.004976346083953</v>
       </c>
-      <c r="CY25" t="n">
+      <c r="CZ25" t="n">
         <v>0.98285471377303</v>
       </c>
-      <c r="CZ25" t="n">
+      <c r="DA25" t="n">
         <v>1.04591769446072</v>
       </c>
-      <c r="DA25" t="inlineStr">
+      <c r="DB25" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB25" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC25" t="n">
         <v>1.299826689774697</v>
       </c>
       <c r="DD25" t="n">
-        <v>1.300390117035111</v>
+        <v>1.299826689774697</v>
       </c>
       <c r="DE25" t="n">
         <v>1.300390117035111</v>
       </c>
       <c r="DF25" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG25" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH25" t="inlineStr"/>
-      <c r="DI25" t="n">
-        <v>0.1870733326866996</v>
-      </c>
-      <c r="DJ25" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK25" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL25" t="n">
-        <v>1.19970570478913</v>
+        <v>1.300390117035111</v>
       </c>
     </row>
     <row r="26">
@@ -8718,65 +8544,59 @@
       <c r="CJ26" t="inlineStr"/>
       <c r="CK26" t="inlineStr"/>
       <c r="CL26" t="inlineStr"/>
-      <c r="CM26" t="inlineStr"/>
-      <c r="CN26" t="inlineStr"/>
-      <c r="CO26" t="inlineStr"/>
-      <c r="CP26" t="inlineStr"/>
-      <c r="CQ26" t="inlineStr"/>
-      <c r="CR26" t="inlineStr"/>
-      <c r="CS26" t="inlineStr"/>
+      <c r="CM26" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="CO26" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="CP26" t="n">
+        <v>0.040804065571573</v>
+      </c>
+      <c r="CQ26" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT26" t="inlineStr"/>
       <c r="CU26" t="inlineStr"/>
       <c r="CV26" t="inlineStr"/>
       <c r="CW26" t="n">
         <v>5.8</v>
       </c>
-      <c r="CX26" t="n">
+      <c r="CX26" t="inlineStr"/>
+      <c r="CY26" t="n">
         <v>0.9916776239075402</v>
       </c>
-      <c r="CY26" t="n">
+      <c r="CZ26" t="n">
         <v>0.9683088860691933</v>
       </c>
-      <c r="CZ26" t="n">
+      <c r="DA26" t="n">
         <v>1.00335389898459</v>
       </c>
-      <c r="DA26" t="inlineStr">
+      <c r="DB26" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB26" t="n">
+      <c r="DC26" t="n">
         <v>0.6503360069369173</v>
       </c>
-      <c r="DC26" t="n">
+      <c r="DD26" t="n">
         <v>0.6502655250894115</v>
-      </c>
-      <c r="DD26" t="n">
-        <v>0.6499837504062399</v>
       </c>
       <c r="DE26" t="n">
         <v>0.6499837504062399</v>
       </c>
       <c r="DF26" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG26" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH26" t="n">
-        <v>5.368376345338421</v>
-      </c>
-      <c r="DI26" t="n">
-        <v>0.040804065571573</v>
-      </c>
-      <c r="DJ26" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK26" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL26" t="n">
-        <v>1.993203138117973</v>
+        <v>0.6499837504062399</v>
       </c>
     </row>
     <row r="27">
@@ -9044,35 +8864,47 @@
       <c r="CJ27" t="inlineStr"/>
       <c r="CK27" t="inlineStr"/>
       <c r="CL27" t="inlineStr"/>
-      <c r="CM27" t="inlineStr"/>
-      <c r="CN27" t="inlineStr"/>
-      <c r="CO27" t="inlineStr"/>
-      <c r="CP27" t="inlineStr"/>
-      <c r="CQ27" t="inlineStr"/>
-      <c r="CR27" t="inlineStr"/>
-      <c r="CS27" t="inlineStr"/>
+      <c r="CM27" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN27" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO27" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP27" t="n">
+        <v>0.06200714219004456</v>
+      </c>
+      <c r="CQ27" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR27" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS27" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT27" t="inlineStr"/>
       <c r="CU27" t="inlineStr"/>
       <c r="CV27" t="inlineStr"/>
       <c r="CW27" t="n">
         <v>3.8</v>
       </c>
-      <c r="CX27" t="n">
+      <c r="CX27" t="inlineStr"/>
+      <c r="CY27" t="n">
         <v>0.9999033140130243</v>
       </c>
-      <c r="CY27" t="n">
+      <c r="CZ27" t="n">
         <v>0.5634703957094437</v>
       </c>
-      <c r="CZ27" t="n">
+      <c r="DA27" t="n">
         <v>1.071986158578824</v>
       </c>
-      <c r="DA27" t="inlineStr">
+      <c r="DB27" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB27" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC27" t="n">
         <v>1.299826689774697</v>
@@ -9084,25 +8916,7 @@
         <v>1.299826689774697</v>
       </c>
       <c r="DF27" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG27" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH27" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DI27" t="n">
-        <v>0.06200714219004456</v>
-      </c>
-      <c r="DJ27" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK27" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL27" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="28">
@@ -9362,35 +9176,45 @@
       <c r="CJ28" t="inlineStr"/>
       <c r="CK28" t="inlineStr"/>
       <c r="CL28" t="inlineStr"/>
-      <c r="CM28" t="inlineStr"/>
-      <c r="CN28" t="inlineStr"/>
+      <c r="CM28" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN28" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="CO28" t="inlineStr"/>
-      <c r="CP28" t="inlineStr"/>
-      <c r="CQ28" t="inlineStr"/>
-      <c r="CR28" t="inlineStr"/>
-      <c r="CS28" t="inlineStr"/>
+      <c r="CP28" t="n">
+        <v>0.05589740593532883</v>
+      </c>
+      <c r="CQ28" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR28" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS28" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT28" t="inlineStr"/>
       <c r="CU28" t="inlineStr"/>
       <c r="CV28" t="inlineStr"/>
       <c r="CW28" t="n">
         <v>0</v>
       </c>
-      <c r="CX28" t="n">
+      <c r="CX28" t="inlineStr"/>
+      <c r="CY28" t="n">
         <v>0.9874345447860932</v>
       </c>
-      <c r="CY28" t="n">
+      <c r="CZ28" t="n">
         <v>0.9831597025203702</v>
       </c>
-      <c r="CZ28" t="n">
+      <c r="DA28" t="n">
         <v>1.008419267322489</v>
       </c>
-      <c r="DA28" t="inlineStr">
+      <c r="DB28" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB28" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC28" t="n">
         <v>1.299826689774697</v>
@@ -9402,23 +9226,7 @@
         <v>1.299826689774697</v>
       </c>
       <c r="DF28" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG28" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH28" t="inlineStr"/>
-      <c r="DI28" t="n">
-        <v>0.05589740593532883</v>
-      </c>
-      <c r="DJ28" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK28" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL28" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="29">
@@ -9686,35 +9494,47 @@
       <c r="CJ29" t="inlineStr"/>
       <c r="CK29" t="inlineStr"/>
       <c r="CL29" t="inlineStr"/>
-      <c r="CM29" t="inlineStr"/>
-      <c r="CN29" t="inlineStr"/>
-      <c r="CO29" t="inlineStr"/>
-      <c r="CP29" t="inlineStr"/>
-      <c r="CQ29" t="inlineStr"/>
-      <c r="CR29" t="inlineStr"/>
-      <c r="CS29" t="inlineStr"/>
+      <c r="CM29" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN29" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="CO29" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="CP29" t="n">
+        <v>0.02232383980246641</v>
+      </c>
+      <c r="CQ29" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR29" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS29" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT29" t="inlineStr"/>
       <c r="CU29" t="inlineStr"/>
       <c r="CV29" t="inlineStr"/>
       <c r="CW29" t="n">
         <v>3.8</v>
       </c>
-      <c r="CX29" t="n">
+      <c r="CX29" t="inlineStr"/>
+      <c r="CY29" t="n">
         <v>1.036116646443266</v>
       </c>
-      <c r="CY29" t="n">
+      <c r="CZ29" t="n">
         <v>0.9726428393738623</v>
       </c>
-      <c r="CZ29" t="n">
+      <c r="DA29" t="n">
         <v>0.9973264385216895</v>
       </c>
-      <c r="DA29" t="inlineStr">
+      <c r="DB29" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB29" t="n">
-        <v>0.6499837504062399</v>
       </c>
       <c r="DC29" t="n">
         <v>0.6499837504062399</v>
@@ -9726,25 +9546,7 @@
         <v>0.6499837504062399</v>
       </c>
       <c r="DF29" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG29" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH29" t="n">
-        <v>5.368376345338421</v>
-      </c>
-      <c r="DI29" t="n">
-        <v>0.02232383980246641</v>
-      </c>
-      <c r="DJ29" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK29" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL29" t="n">
-        <v>1.993203138117973</v>
+        <v>0.6499837504062399</v>
       </c>
     </row>
     <row r="30">
@@ -10004,35 +9806,45 @@
       <c r="CJ30" t="inlineStr"/>
       <c r="CK30" t="inlineStr"/>
       <c r="CL30" t="inlineStr"/>
-      <c r="CM30" t="inlineStr"/>
-      <c r="CN30" t="inlineStr"/>
+      <c r="CM30" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN30" t="n">
+        <v>3.066466366335344</v>
+      </c>
       <c r="CO30" t="inlineStr"/>
-      <c r="CP30" t="inlineStr"/>
-      <c r="CQ30" t="inlineStr"/>
-      <c r="CR30" t="inlineStr"/>
-      <c r="CS30" t="inlineStr"/>
+      <c r="CP30" t="n">
+        <v>0.01973185656702632</v>
+      </c>
+      <c r="CQ30" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR30" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS30" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT30" t="inlineStr"/>
       <c r="CU30" t="inlineStr"/>
       <c r="CV30" t="inlineStr"/>
       <c r="CW30" t="n">
         <v>0</v>
       </c>
-      <c r="CX30" t="n">
+      <c r="CX30" t="inlineStr"/>
+      <c r="CY30" t="n">
         <v>1.035684475293497</v>
       </c>
-      <c r="CY30" t="n">
+      <c r="CZ30" t="n">
         <v>0.973919830742411</v>
       </c>
-      <c r="CZ30" t="n">
+      <c r="DA30" t="n">
         <v>1.002319202088585</v>
       </c>
-      <c r="DA30" t="inlineStr">
+      <c r="DB30" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB30" t="n">
-        <v>0.6499837504062399</v>
       </c>
       <c r="DC30" t="n">
         <v>0.6499837504062399</v>
@@ -10044,23 +9856,7 @@
         <v>0.6499837504062399</v>
       </c>
       <c r="DF30" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG30" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH30" t="inlineStr"/>
-      <c r="DI30" t="n">
-        <v>0.01973185656702632</v>
-      </c>
-      <c r="DJ30" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK30" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL30" t="n">
-        <v>1.993203138117973</v>
+        <v>0.6499837504062399</v>
       </c>
     </row>
     <row r="31">
@@ -10328,35 +10124,47 @@
       <c r="CJ31" t="inlineStr"/>
       <c r="CK31" t="inlineStr"/>
       <c r="CL31" t="inlineStr"/>
-      <c r="CM31" t="inlineStr"/>
-      <c r="CN31" t="inlineStr"/>
-      <c r="CO31" t="inlineStr"/>
-      <c r="CP31" t="inlineStr"/>
-      <c r="CQ31" t="inlineStr"/>
-      <c r="CR31" t="inlineStr"/>
-      <c r="CS31" t="inlineStr"/>
+      <c r="CM31" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN31" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO31" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP31" t="n">
+        <v>0.06178671849733349</v>
+      </c>
+      <c r="CQ31" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR31" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS31" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT31" t="inlineStr"/>
       <c r="CU31" t="inlineStr"/>
       <c r="CV31" t="inlineStr"/>
       <c r="CW31" t="n">
         <v>3.8</v>
       </c>
-      <c r="CX31" t="n">
+      <c r="CX31" t="inlineStr"/>
+      <c r="CY31" t="n">
         <v>0.9993886379694573</v>
       </c>
-      <c r="CY31" t="n">
+      <c r="CZ31" t="n">
         <v>0.6019282542200509</v>
       </c>
-      <c r="CZ31" t="n">
+      <c r="DA31" t="n">
         <v>1.031366932185891</v>
       </c>
-      <c r="DA31" t="inlineStr">
+      <c r="DB31" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB31" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC31" t="n">
         <v>1.299826689774697</v>
@@ -10368,25 +10176,7 @@
         <v>1.299826689774697</v>
       </c>
       <c r="DF31" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG31" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH31" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DI31" t="n">
-        <v>0.06178671849733349</v>
-      </c>
-      <c r="DJ31" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK31" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL31" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="32">
@@ -10654,65 +10444,59 @@
       <c r="CJ32" t="inlineStr"/>
       <c r="CK32" t="inlineStr"/>
       <c r="CL32" t="inlineStr"/>
-      <c r="CM32" t="inlineStr"/>
-      <c r="CN32" t="inlineStr"/>
-      <c r="CO32" t="inlineStr"/>
-      <c r="CP32" t="inlineStr"/>
-      <c r="CQ32" t="inlineStr"/>
-      <c r="CR32" t="inlineStr"/>
-      <c r="CS32" t="inlineStr"/>
+      <c r="CM32" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN32" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="CO32" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="CP32" t="n">
+        <v>0.04096562911158437</v>
+      </c>
+      <c r="CQ32" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR32" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS32" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT32" t="inlineStr"/>
       <c r="CU32" t="inlineStr"/>
       <c r="CV32" t="inlineStr"/>
       <c r="CW32" t="n">
         <v>5.8</v>
       </c>
-      <c r="CX32" t="n">
+      <c r="CX32" t="inlineStr"/>
+      <c r="CY32" t="n">
         <v>1.001947011801571</v>
       </c>
-      <c r="CY32" t="n">
+      <c r="CZ32" t="n">
         <v>0.9694990787805623</v>
       </c>
-      <c r="CZ32" t="n">
+      <c r="DA32" t="n">
         <v>1.004404093620587</v>
       </c>
-      <c r="DA32" t="inlineStr">
+      <c r="DB32" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB32" t="n">
-        <v>0.6501246072163831</v>
       </c>
       <c r="DC32" t="n">
         <v>0.6501246072163831</v>
       </c>
       <c r="DD32" t="n">
-        <v>0.6499837504062399</v>
+        <v>0.6501246072163831</v>
       </c>
       <c r="DE32" t="n">
         <v>0.6499837504062399</v>
       </c>
       <c r="DF32" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG32" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH32" t="n">
-        <v>5.368376345338421</v>
-      </c>
-      <c r="DI32" t="n">
-        <v>0.04096562911158437</v>
-      </c>
-      <c r="DJ32" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK32" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL32" t="n">
-        <v>1.993203138117973</v>
+        <v>0.6499837504062399</v>
       </c>
     </row>
     <row r="33">
@@ -10972,63 +10756,57 @@
       <c r="CJ33" t="inlineStr"/>
       <c r="CK33" t="inlineStr"/>
       <c r="CL33" t="inlineStr"/>
-      <c r="CM33" t="inlineStr"/>
-      <c r="CN33" t="inlineStr"/>
+      <c r="CM33" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN33" t="n">
+        <v>3.066466366335344</v>
+      </c>
       <c r="CO33" t="inlineStr"/>
-      <c r="CP33" t="inlineStr"/>
-      <c r="CQ33" t="inlineStr"/>
-      <c r="CR33" t="inlineStr"/>
-      <c r="CS33" t="inlineStr"/>
+      <c r="CP33" t="n">
+        <v>0.03928688455443337</v>
+      </c>
+      <c r="CQ33" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR33" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS33" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT33" t="inlineStr"/>
       <c r="CU33" t="inlineStr"/>
       <c r="CV33" t="inlineStr"/>
       <c r="CW33" t="n">
         <v>5.8</v>
       </c>
-      <c r="CX33" t="n">
+      <c r="CX33" t="inlineStr"/>
+      <c r="CY33" t="n">
         <v>0.9900838225975505</v>
       </c>
-      <c r="CY33" t="n">
+      <c r="CZ33" t="n">
         <v>1.004517644894049</v>
       </c>
-      <c r="CZ33" t="n">
+      <c r="DA33" t="n">
         <v>1.013272637706423</v>
       </c>
-      <c r="DA33" t="inlineStr">
+      <c r="DB33" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB33" t="n">
-        <v>0.6501246072163831</v>
       </c>
       <c r="DC33" t="n">
         <v>0.6501246072163831</v>
       </c>
       <c r="DD33" t="n">
+        <v>0.6501246072163831</v>
+      </c>
+      <c r="DE33" t="n">
         <v>0.6506886454831363</v>
       </c>
-      <c r="DE33" t="n">
+      <c r="DF33" t="n">
         <v>0.6502655250894115</v>
-      </c>
-      <c r="DF33" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG33" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH33" t="inlineStr"/>
-      <c r="DI33" t="n">
-        <v>0.03928688455443337</v>
-      </c>
-      <c r="DJ33" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK33" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL33" t="n">
-        <v>1.993203138117973</v>
       </c>
     </row>
     <row r="34">
@@ -11288,35 +11066,45 @@
       <c r="CJ34" t="inlineStr"/>
       <c r="CK34" t="inlineStr"/>
       <c r="CL34" t="inlineStr"/>
-      <c r="CM34" t="inlineStr"/>
-      <c r="CN34" t="inlineStr"/>
+      <c r="CM34" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN34" t="n">
+        <v>3.066466366335344</v>
+      </c>
       <c r="CO34" t="inlineStr"/>
-      <c r="CP34" t="inlineStr"/>
-      <c r="CQ34" t="inlineStr"/>
-      <c r="CR34" t="inlineStr"/>
-      <c r="CS34" t="inlineStr"/>
+      <c r="CP34" t="n">
+        <v>0.01013229810217492</v>
+      </c>
+      <c r="CQ34" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR34" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS34" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT34" t="inlineStr"/>
       <c r="CU34" t="inlineStr"/>
       <c r="CV34" t="inlineStr"/>
       <c r="CW34" t="n">
         <v>0</v>
       </c>
-      <c r="CX34" t="n">
+      <c r="CX34" t="inlineStr"/>
+      <c r="CY34" t="n">
         <v>1.050675557659946</v>
       </c>
-      <c r="CY34" t="n">
+      <c r="CZ34" t="n">
         <v>0.9727398932970273</v>
       </c>
-      <c r="CZ34" t="n">
+      <c r="DA34" t="n">
         <v>1.005223990273701</v>
       </c>
-      <c r="DA34" t="inlineStr">
+      <c r="DB34" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB34" t="n">
-        <v>0.6499837504062399</v>
       </c>
       <c r="DC34" t="n">
         <v>0.6499837504062399</v>
@@ -11328,23 +11116,7 @@
         <v>0.6499837504062399</v>
       </c>
       <c r="DF34" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG34" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH34" t="inlineStr"/>
-      <c r="DI34" t="n">
-        <v>0.01013229810217492</v>
-      </c>
-      <c r="DJ34" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK34" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL34" t="n">
-        <v>1.993203138117973</v>
+        <v>0.6499837504062399</v>
       </c>
     </row>
     <row r="35">
@@ -11612,35 +11384,47 @@
       <c r="CJ35" t="inlineStr"/>
       <c r="CK35" t="inlineStr"/>
       <c r="CL35" t="inlineStr"/>
-      <c r="CM35" t="inlineStr"/>
-      <c r="CN35" t="inlineStr"/>
-      <c r="CO35" t="inlineStr"/>
-      <c r="CP35" t="inlineStr"/>
-      <c r="CQ35" t="inlineStr"/>
-      <c r="CR35" t="inlineStr"/>
-      <c r="CS35" t="inlineStr"/>
+      <c r="CM35" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN35" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO35" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP35" t="n">
+        <v>0.1133037354504893</v>
+      </c>
+      <c r="CQ35" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR35" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS35" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT35" t="inlineStr"/>
       <c r="CU35" t="inlineStr"/>
       <c r="CV35" t="inlineStr"/>
       <c r="CW35" t="n">
         <v>3.8</v>
       </c>
-      <c r="CX35" t="n">
+      <c r="CX35" t="inlineStr"/>
+      <c r="CY35" t="n">
         <v>0.9546863800892419</v>
       </c>
-      <c r="CY35" t="n">
+      <c r="CZ35" t="n">
         <v>0.6959003484633897</v>
       </c>
-      <c r="CZ35" t="n">
+      <c r="DA35" t="n">
         <v>1.005276593475788</v>
       </c>
-      <c r="DA35" t="inlineStr">
+      <c r="DB35" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB35" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC35" t="n">
         <v>1.299826689774697</v>
@@ -11652,25 +11436,7 @@
         <v>1.299826689774697</v>
       </c>
       <c r="DF35" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG35" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH35" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DI35" t="n">
-        <v>0.1133037354504893</v>
-      </c>
-      <c r="DJ35" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK35" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL35" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="36">
@@ -11930,35 +11696,45 @@
       <c r="CJ36" t="inlineStr"/>
       <c r="CK36" t="inlineStr"/>
       <c r="CL36" t="inlineStr"/>
-      <c r="CM36" t="inlineStr"/>
-      <c r="CN36" t="inlineStr"/>
+      <c r="CM36" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN36" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="CO36" t="inlineStr"/>
-      <c r="CP36" t="inlineStr"/>
-      <c r="CQ36" t="inlineStr"/>
-      <c r="CR36" t="inlineStr"/>
-      <c r="CS36" t="inlineStr"/>
+      <c r="CP36" t="n">
+        <v>0.1088331344550831</v>
+      </c>
+      <c r="CQ36" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR36" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS36" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT36" t="inlineStr"/>
       <c r="CU36" t="inlineStr"/>
       <c r="CV36" t="inlineStr"/>
       <c r="CW36" t="n">
         <v>0</v>
       </c>
-      <c r="CX36" t="n">
+      <c r="CX36" t="inlineStr"/>
+      <c r="CY36" t="n">
         <v>0.9873321705367474</v>
       </c>
-      <c r="CY36" t="n">
+      <c r="CZ36" t="n">
         <v>0.9879995515699611</v>
       </c>
-      <c r="CZ36" t="n">
+      <c r="DA36" t="n">
         <v>1.000711966559532</v>
       </c>
-      <c r="DA36" t="inlineStr">
+      <c r="DB36" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB36" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC36" t="n">
         <v>1.299826689774697</v>
@@ -11970,23 +11746,7 @@
         <v>1.299826689774697</v>
       </c>
       <c r="DF36" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG36" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH36" t="inlineStr"/>
-      <c r="DI36" t="n">
-        <v>0.1088331344550831</v>
-      </c>
-      <c r="DJ36" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK36" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL36" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="37">
@@ -12254,38 +12014,50 @@
       <c r="CJ37" t="inlineStr"/>
       <c r="CK37" t="inlineStr"/>
       <c r="CL37" t="inlineStr"/>
-      <c r="CM37" t="inlineStr"/>
-      <c r="CN37" t="inlineStr"/>
-      <c r="CO37" t="inlineStr"/>
-      <c r="CP37" t="inlineStr"/>
-      <c r="CQ37" t="inlineStr"/>
-      <c r="CR37" t="inlineStr"/>
-      <c r="CS37" t="inlineStr"/>
+      <c r="CM37" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN37" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="CO37" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="CP37" t="n">
+        <v>0.01252808972117762</v>
+      </c>
+      <c r="CQ37" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR37" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS37" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT37" t="inlineStr"/>
       <c r="CU37" t="inlineStr"/>
       <c r="CV37" t="inlineStr"/>
       <c r="CW37" t="n">
         <v>3.8</v>
       </c>
-      <c r="CX37" t="n">
+      <c r="CX37" t="inlineStr"/>
+      <c r="CY37" t="n">
         <v>1.076967236710759</v>
       </c>
-      <c r="CY37" t="n">
+      <c r="CZ37" t="n">
         <v>0.9350076791826907</v>
       </c>
-      <c r="CZ37" t="n">
+      <c r="DA37" t="n">
         <v>1.003671852066075</v>
       </c>
-      <c r="DA37" t="inlineStr">
+      <c r="DB37" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB37" t="n">
+      <c r="DC37" t="n">
         <v>0.6500541711809318</v>
-      </c>
-      <c r="DC37" t="n">
-        <v>0.6499837504062399</v>
       </c>
       <c r="DD37" t="n">
         <v>0.6499837504062399</v>
@@ -12294,25 +12066,7 @@
         <v>0.6499837504062399</v>
       </c>
       <c r="DF37" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG37" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH37" t="n">
-        <v>5.368376345338421</v>
-      </c>
-      <c r="DI37" t="n">
-        <v>0.01252808972117762</v>
-      </c>
-      <c r="DJ37" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK37" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL37" t="n">
-        <v>1.993203138117973</v>
+        <v>0.6499837504062399</v>
       </c>
     </row>
     <row r="38">
@@ -12580,35 +12334,47 @@
       <c r="CJ38" t="inlineStr"/>
       <c r="CK38" t="inlineStr"/>
       <c r="CL38" t="inlineStr"/>
-      <c r="CM38" t="inlineStr"/>
-      <c r="CN38" t="inlineStr"/>
-      <c r="CO38" t="inlineStr"/>
-      <c r="CP38" t="inlineStr"/>
-      <c r="CQ38" t="inlineStr"/>
-      <c r="CR38" t="inlineStr"/>
-      <c r="CS38" t="inlineStr"/>
+      <c r="CM38" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN38" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO38" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP38" t="n">
+        <v>0.1947558217758928</v>
+      </c>
+      <c r="CQ38" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR38" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS38" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT38" t="inlineStr"/>
       <c r="CU38" t="inlineStr"/>
       <c r="CV38" t="inlineStr"/>
       <c r="CW38" t="n">
         <v>5.8</v>
       </c>
-      <c r="CX38" t="n">
+      <c r="CX38" t="inlineStr"/>
+      <c r="CY38" t="n">
         <v>0.9439121155247246</v>
       </c>
-      <c r="CY38" t="n">
+      <c r="CZ38" t="n">
         <v>0.6850309107829227</v>
       </c>
-      <c r="CZ38" t="n">
+      <c r="DA38" t="n">
         <v>1.032962861134033</v>
       </c>
-      <c r="DA38" t="inlineStr">
+      <c r="DB38" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB38" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC38" t="n">
         <v>1.299826689774697</v>
@@ -12620,25 +12386,7 @@
         <v>1.299826689774697</v>
       </c>
       <c r="DF38" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG38" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH38" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DI38" t="n">
-        <v>0.1947558217758928</v>
-      </c>
-      <c r="DJ38" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK38" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL38" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="39">
@@ -12898,35 +12646,45 @@
       <c r="CJ39" t="inlineStr"/>
       <c r="CK39" t="inlineStr"/>
       <c r="CL39" t="inlineStr"/>
-      <c r="CM39" t="inlineStr"/>
-      <c r="CN39" t="inlineStr"/>
+      <c r="CM39" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN39" t="n">
+        <v>0.922850542145485</v>
+      </c>
       <c r="CO39" t="inlineStr"/>
-      <c r="CP39" t="inlineStr"/>
-      <c r="CQ39" t="inlineStr"/>
-      <c r="CR39" t="inlineStr"/>
-      <c r="CS39" t="inlineStr"/>
+      <c r="CP39" t="n">
+        <v>0.1381971447624315</v>
+      </c>
+      <c r="CQ39" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR39" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS39" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT39" t="inlineStr"/>
       <c r="CU39" t="inlineStr"/>
       <c r="CV39" t="inlineStr"/>
       <c r="CW39" t="n">
         <v>5.8</v>
       </c>
-      <c r="CX39" t="n">
+      <c r="CX39" t="inlineStr"/>
+      <c r="CY39" t="n">
         <v>1.007144305009835</v>
       </c>
-      <c r="CY39" t="n">
+      <c r="CZ39" t="n">
         <v>1.001446744042854</v>
       </c>
-      <c r="CZ39" t="n">
+      <c r="DA39" t="n">
         <v>1.02662651612981</v>
       </c>
-      <c r="DA39" t="inlineStr">
+      <c r="DB39" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB39" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC39" t="n">
         <v>1.299826689774697</v>
@@ -12938,23 +12696,7 @@
         <v>1.299826689774697</v>
       </c>
       <c r="DF39" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG39" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH39" t="inlineStr"/>
-      <c r="DI39" t="n">
-        <v>0.1381971447624315</v>
-      </c>
-      <c r="DJ39" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK39" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL39" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="40">
@@ -13222,35 +12964,47 @@
       <c r="CJ40" t="inlineStr"/>
       <c r="CK40" t="inlineStr"/>
       <c r="CL40" t="inlineStr"/>
-      <c r="CM40" t="inlineStr"/>
-      <c r="CN40" t="inlineStr"/>
-      <c r="CO40" t="inlineStr"/>
-      <c r="CP40" t="inlineStr"/>
-      <c r="CQ40" t="inlineStr"/>
-      <c r="CR40" t="inlineStr"/>
-      <c r="CS40" t="inlineStr"/>
+      <c r="CM40" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN40" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="CO40" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="CP40" t="n">
+        <v>0.03128820869973956</v>
+      </c>
+      <c r="CQ40" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR40" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS40" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT40" t="inlineStr"/>
       <c r="CU40" t="inlineStr"/>
       <c r="CV40" t="inlineStr"/>
       <c r="CW40" t="n">
         <v>3.8</v>
       </c>
-      <c r="CX40" t="n">
+      <c r="CX40" t="inlineStr"/>
+      <c r="CY40" t="n">
         <v>1.038855785172671</v>
       </c>
-      <c r="CY40" t="n">
+      <c r="CZ40" t="n">
         <v>0.9692653470850712</v>
       </c>
-      <c r="CZ40" t="n">
+      <c r="DA40" t="n">
         <v>0.9994864585626243</v>
       </c>
-      <c r="DA40" t="inlineStr">
+      <c r="DB40" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB40" t="n">
-        <v>0.6499837504062399</v>
       </c>
       <c r="DC40" t="n">
         <v>0.6499837504062399</v>
@@ -13262,25 +13016,7 @@
         <v>0.6499837504062399</v>
       </c>
       <c r="DF40" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG40" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH40" t="n">
-        <v>5.368376345338421</v>
-      </c>
-      <c r="DI40" t="n">
-        <v>0.03128820869973956</v>
-      </c>
-      <c r="DJ40" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK40" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL40" t="n">
-        <v>1.993203138117973</v>
+        <v>0.6499837504062399</v>
       </c>
     </row>
     <row r="41">
@@ -13548,35 +13284,47 @@
       <c r="CJ41" t="inlineStr"/>
       <c r="CK41" t="inlineStr"/>
       <c r="CL41" t="inlineStr"/>
-      <c r="CM41" t="inlineStr"/>
-      <c r="CN41" t="inlineStr"/>
-      <c r="CO41" t="inlineStr"/>
-      <c r="CP41" t="inlineStr"/>
-      <c r="CQ41" t="inlineStr"/>
-      <c r="CR41" t="inlineStr"/>
-      <c r="CS41" t="inlineStr"/>
+      <c r="CM41" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="CN41" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="CO41" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="CP41" t="n">
+        <v>0.1004127791821821</v>
+      </c>
+      <c r="CQ41" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="CR41" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="CS41" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="CT41" t="inlineStr"/>
       <c r="CU41" t="inlineStr"/>
       <c r="CV41" t="inlineStr"/>
       <c r="CW41" t="n">
         <v>5.8</v>
       </c>
-      <c r="CX41" t="n">
+      <c r="CX41" t="inlineStr"/>
+      <c r="CY41" t="n">
         <v>1.112204962588671</v>
       </c>
-      <c r="CY41" t="n">
+      <c r="CZ41" t="n">
         <v>0.7024103951713738</v>
       </c>
-      <c r="CZ41" t="n">
+      <c r="DA41" t="n">
         <v>1.002684043088939</v>
       </c>
-      <c r="DA41" t="inlineStr">
+      <c r="DB41" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB41" t="n">
-        <v>1.299826689774697</v>
       </c>
       <c r="DC41" t="n">
         <v>1.299826689774697</v>
@@ -13588,25 +13336,7 @@
         <v>1.299826689774697</v>
       </c>
       <c r="DF41" t="n">
-        <v>6.80845382890728</v>
-      </c>
-      <c r="DG41" t="n">
-        <v>0.922850542145485</v>
-      </c>
-      <c r="DH41" t="n">
-        <v>17.83814903173707</v>
-      </c>
-      <c r="DI41" t="n">
-        <v>0.1004127791821821</v>
-      </c>
-      <c r="DJ41" t="n">
-        <v>3.948903220766222</v>
-      </c>
-      <c r="DK41" t="n">
-        <v>0.9992571606462729</v>
-      </c>
-      <c r="DL41" t="n">
-        <v>1.19970570478913</v>
+        <v>1.299826689774697</v>
       </c>
     </row>
     <row r="42">
@@ -13866,35 +13596,45 @@
       <c r="CJ42" t="inlineStr"/>
       <c r="CK42" t="inlineStr"/>
       <c r="CL42" t="inlineStr"/>
-      <c r="CM42" t="inlineStr"/>
-      <c r="CN42" t="inlineStr"/>
+      <c r="CM42" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN42" t="n">
+        <v>3.066466366335344</v>
+      </c>
       <c r="CO42" t="inlineStr"/>
-      <c r="CP42" t="inlineStr"/>
-      <c r="CQ42" t="inlineStr"/>
-      <c r="CR42" t="inlineStr"/>
-      <c r="CS42" t="inlineStr"/>
+      <c r="CP42" t="n">
+        <v>0.02906504521321584</v>
+      </c>
+      <c r="CQ42" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR42" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS42" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT42" t="inlineStr"/>
       <c r="CU42" t="inlineStr"/>
       <c r="CV42" t="inlineStr"/>
       <c r="CW42" t="n">
         <v>0</v>
       </c>
-      <c r="CX42" t="n">
+      <c r="CX42" t="inlineStr"/>
+      <c r="CY42" t="n">
         <v>1.032928706432218</v>
       </c>
-      <c r="CY42" t="n">
+      <c r="CZ42" t="n">
         <v>0.9821967826360616</v>
       </c>
-      <c r="CZ42" t="n">
+      <c r="DA42" t="n">
         <v>0.9992322314944626</v>
       </c>
-      <c r="DA42" t="inlineStr">
+      <c r="DB42" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB42" t="n">
-        <v>0.6499837504062399</v>
       </c>
       <c r="DC42" t="n">
         <v>0.6499837504062399</v>
@@ -13906,23 +13646,7 @@
         <v>0.6499837504062399</v>
       </c>
       <c r="DF42" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG42" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH42" t="inlineStr"/>
-      <c r="DI42" t="n">
-        <v>0.02906504521321584</v>
-      </c>
-      <c r="DJ42" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK42" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL42" t="n">
-        <v>1.993203138117973</v>
+        <v>0.6499837504062399</v>
       </c>
     </row>
     <row r="43">
@@ -14182,63 +13906,57 @@
       <c r="CJ43" t="inlineStr"/>
       <c r="CK43" t="inlineStr"/>
       <c r="CL43" t="inlineStr"/>
-      <c r="CM43" t="inlineStr"/>
-      <c r="CN43" t="inlineStr"/>
+      <c r="CM43" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN43" t="n">
+        <v>3.066466366335344</v>
+      </c>
       <c r="CO43" t="inlineStr"/>
-      <c r="CP43" t="inlineStr"/>
-      <c r="CQ43" t="inlineStr"/>
-      <c r="CR43" t="inlineStr"/>
-      <c r="CS43" t="inlineStr"/>
+      <c r="CP43" t="n">
+        <v>0.02802005592461942</v>
+      </c>
+      <c r="CQ43" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR43" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS43" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT43" t="inlineStr"/>
       <c r="CU43" t="inlineStr"/>
       <c r="CV43" t="inlineStr"/>
       <c r="CW43" t="n">
         <v>5.8</v>
       </c>
-      <c r="CX43" t="n">
+      <c r="CX43" t="inlineStr"/>
+      <c r="CY43" t="n">
         <v>1.064495383364179</v>
       </c>
-      <c r="CY43" t="n">
+      <c r="CZ43" t="n">
         <v>0.9811418953926931</v>
       </c>
-      <c r="CZ43" t="n">
+      <c r="DA43" t="n">
         <v>0.8904893205450086</v>
       </c>
-      <c r="DA43" t="inlineStr">
+      <c r="DB43" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
-      </c>
-      <c r="DB43" t="n">
-        <v>0.6501246072163831</v>
       </c>
       <c r="DC43" t="n">
         <v>0.6501246072163831</v>
       </c>
       <c r="DD43" t="n">
-        <v>0.6502655250894115</v>
+        <v>0.6501246072163831</v>
       </c>
       <c r="DE43" t="n">
         <v>0.6502655250894115</v>
       </c>
       <c r="DF43" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG43" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH43" t="inlineStr"/>
-      <c r="DI43" t="n">
-        <v>0.02802005592461942</v>
-      </c>
-      <c r="DJ43" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK43" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL43" t="n">
-        <v>1.993203138117973</v>
+        <v>0.6502655250894115</v>
       </c>
     </row>
     <row r="44">
@@ -14506,65 +14224,59 @@
       <c r="CJ44" t="inlineStr"/>
       <c r="CK44" t="inlineStr"/>
       <c r="CL44" t="inlineStr"/>
-      <c r="CM44" t="inlineStr"/>
-      <c r="CN44" t="inlineStr"/>
-      <c r="CO44" t="inlineStr"/>
-      <c r="CP44" t="inlineStr"/>
-      <c r="CQ44" t="inlineStr"/>
-      <c r="CR44" t="inlineStr"/>
-      <c r="CS44" t="inlineStr"/>
+      <c r="CM44" t="n">
+        <v>2.048998605091</v>
+      </c>
+      <c r="CN44" t="n">
+        <v>3.066466366335344</v>
+      </c>
+      <c r="CO44" t="n">
+        <v>5.368376345338421</v>
+      </c>
+      <c r="CP44" t="n">
+        <v>0.03374577762668574</v>
+      </c>
+      <c r="CQ44" t="n">
+        <v>1.18841919095278</v>
+      </c>
+      <c r="CR44" t="n">
+        <v>0.8300879542525339</v>
+      </c>
+      <c r="CS44" t="n">
+        <v>1.993203138117973</v>
+      </c>
       <c r="CT44" t="inlineStr"/>
       <c r="CU44" t="inlineStr"/>
       <c r="CV44" t="inlineStr"/>
       <c r="CW44" t="n">
         <v>5.8</v>
       </c>
-      <c r="CX44" t="n">
+      <c r="CX44" t="inlineStr"/>
+      <c r="CY44" t="n">
         <v>1.009326342249142</v>
       </c>
-      <c r="CY44" t="n">
+      <c r="CZ44" t="n">
         <v>0.9663191783345513</v>
       </c>
-      <c r="CZ44" t="n">
+      <c r="DA44" t="n">
         <v>1.000837374856073</v>
       </c>
-      <c r="DA44" t="inlineStr">
+      <c r="DB44" t="inlineStr">
         <is>
           <t>PROCESSED-20251112-tett6roof</t>
         </is>
       </c>
-      <c r="DB44" t="n">
+      <c r="DC44" t="n">
         <v>0.6501950585175553</v>
       </c>
-      <c r="DC44" t="n">
+      <c r="DD44" t="n">
         <v>0.6501246072163831</v>
-      </c>
-      <c r="DD44" t="n">
-        <v>0.6499837504062399</v>
       </c>
       <c r="DE44" t="n">
         <v>0.6499837504062399</v>
       </c>
       <c r="DF44" t="n">
-        <v>2.048998605091</v>
-      </c>
-      <c r="DG44" t="n">
-        <v>3.066466366335344</v>
-      </c>
-      <c r="DH44" t="n">
-        <v>5.368376345338421</v>
-      </c>
-      <c r="DI44" t="n">
-        <v>0.03374577762668574</v>
-      </c>
-      <c r="DJ44" t="n">
-        <v>1.18841919095278</v>
-      </c>
-      <c r="DK44" t="n">
-        <v>0.8300879542525339</v>
-      </c>
-      <c r="DL44" t="n">
-        <v>1.993203138117973</v>
+        <v>0.6499837504062399</v>
       </c>
     </row>
   </sheetData>

--- a/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
+++ b/waveprocessed/PROCESSED-20251112-tett6roof/meta.xlsx
@@ -1580,7 +1580,7 @@
         <v>1.044162970336802</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.9696157709281857</v>
+        <v>0.969615770928186</v>
       </c>
       <c r="DA3" t="n">
         <v>1.003088565524012</v>
@@ -1957,7 +1957,7 @@
         <v>9.719999999999999</v>
       </c>
       <c r="BE5" t="n">
-        <v>7.462442189713257</v>
+        <v>7.462442189713259</v>
       </c>
       <c r="BF5" t="n">
         <v>7.394356342484373</v>
@@ -2077,7 +2077,7 @@
         <v>1.014358044141053</v>
       </c>
       <c r="DA5" t="n">
-        <v>1.036939680368307</v>
+        <v>1.036939680368306</v>
       </c>
       <c r="DB5" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>10.83500000000001</v>
       </c>
       <c r="AL7" t="n">
-        <v>9.14801157801171</v>
+        <v>9.148011578011708</v>
       </c>
       <c r="AM7" t="n">
         <v>9.179460294854394</v>
@@ -2701,10 +2701,10 @@
       </c>
       <c r="CX7" t="inlineStr"/>
       <c r="CY7" t="n">
-        <v>1.03709056210268</v>
+        <v>1.037090562102679</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.9673806146154074</v>
+        <v>0.9673806146154076</v>
       </c>
       <c r="DA7" t="n">
         <v>1.018331230674218</v>
@@ -3115,7 +3115,7 @@
         <v>5.805000000000007</v>
       </c>
       <c r="S9" t="n">
-        <v>4.447034070100692</v>
+        <v>4.44703407010069</v>
       </c>
       <c r="T9" t="n">
         <v>4.467840408626308</v>
@@ -3217,7 +3217,7 @@
         <v>8.639999999999986</v>
       </c>
       <c r="BE9" t="n">
-        <v>4.545460881105915</v>
+        <v>4.545460881105916</v>
       </c>
       <c r="BF9" t="n">
         <v>4.595381212169954</v>
@@ -3334,10 +3334,10 @@
         <v>1.019573777652404</v>
       </c>
       <c r="CZ9" t="n">
-        <v>1.002510224035701</v>
+        <v>1.002510224035702</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.9787999311488548</v>
+        <v>0.9787999311488547</v>
       </c>
       <c r="DB9" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>5.805000000000007</v>
       </c>
       <c r="S12" t="n">
-        <v>4.422158802810139</v>
+        <v>4.42215880281014</v>
       </c>
       <c r="T12" t="n">
         <v>4.483331558359191</v>
@@ -4218,7 +4218,7 @@
         <v>8.640000000000015</v>
       </c>
       <c r="BX12" t="n">
-        <v>4.553267299642018</v>
+        <v>4.553267299642019</v>
       </c>
       <c r="BY12" t="n">
         <v>4.620145247832278</v>
@@ -4287,7 +4287,7 @@
         <v>1.004577508931341</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.9921151426193191</v>
+        <v>0.9921151426193193</v>
       </c>
       <c r="DB12" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>9.669999999999987</v>
       </c>
       <c r="AL14" t="n">
-        <v>9.303608996729254</v>
+        <v>9.303608996729253</v>
       </c>
       <c r="AM14" t="n">
         <v>9.327362573040219</v>
@@ -4791,7 +4791,7 @@
         <v>9.455000000000013</v>
       </c>
       <c r="BE14" t="n">
-        <v>9.023349833359681</v>
+        <v>9.02334983335968</v>
       </c>
       <c r="BF14" t="n">
         <v>9.039026508540113</v>
@@ -4844,7 +4844,7 @@
         <v>9.460000000000008</v>
       </c>
       <c r="BX14" t="n">
-        <v>9.030586291021921</v>
+        <v>9.030586291021919</v>
       </c>
       <c r="BY14" t="n">
         <v>9.044213595703551</v>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="CX14" t="inlineStr"/>
       <c r="CY14" t="n">
-        <v>1.049993344681407</v>
+        <v>1.049993344681406</v>
       </c>
       <c r="CZ14" t="n">
         <v>0.9698762960193082</v>
@@ -5736,7 +5736,7 @@
         <v>1.018839537633315</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.9830592940078693</v>
+        <v>0.9830592940078697</v>
       </c>
       <c r="DA17" t="n">
         <v>1.005635066148295</v>
@@ -6198,7 +6198,7 @@
         <v>16.51999999999997</v>
       </c>
       <c r="AL19" t="n">
-        <v>8.923954467812148</v>
+        <v>8.92395446781215</v>
       </c>
       <c r="AM19" t="n">
         <v>8.954510461360522</v>
@@ -6363,10 +6363,10 @@
       </c>
       <c r="CX19" t="inlineStr"/>
       <c r="CY19" t="n">
-        <v>1.017665842415511</v>
+        <v>1.017665842415512</v>
       </c>
       <c r="CZ19" t="n">
-        <v>0.9589852054503312</v>
+        <v>0.9589852054503311</v>
       </c>
       <c r="DA19" t="n">
         <v>1.035713722053874</v>
@@ -6883,7 +6883,7 @@
         <v>5.074999999999989</v>
       </c>
       <c r="BE21" t="n">
-        <v>4.254206325236899</v>
+        <v>4.254206325236898</v>
       </c>
       <c r="BF21" t="n">
         <v>4.255337511664758</v>
@@ -6936,7 +6936,7 @@
         <v>5.159999999999997</v>
       </c>
       <c r="BX21" t="n">
-        <v>4.25061386197613</v>
+        <v>4.250613861976128</v>
       </c>
       <c r="BY21" t="n">
         <v>4.264233672603522</v>
@@ -7006,10 +7006,10 @@
         <v>1.014635490411201</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0.9202085928078108</v>
+        <v>0.9202085928078105</v>
       </c>
       <c r="DA21" t="n">
-        <v>0.9991555502986639</v>
+        <v>0.9991555502986637</v>
       </c>
       <c r="DB21" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>0.9683088860691933</v>
       </c>
       <c r="DA26" t="n">
-        <v>1.00335389898459</v>
+        <v>1.003353898984589</v>
       </c>
       <c r="DB26" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>10.11000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>8.792347874454222</v>
+        <v>8.792347874454221</v>
       </c>
       <c r="T29" t="n">
         <v>8.792841109601502</v>
@@ -9668,7 +9668,7 @@
         <v>9.629999999999995</v>
       </c>
       <c r="AL30" t="n">
-        <v>9.226775280960016</v>
+        <v>9.226775280960014</v>
       </c>
       <c r="AM30" t="n">
         <v>9.248298619679321</v>
@@ -9719,7 +9719,7 @@
         <v>9.45999999999998</v>
       </c>
       <c r="BE30" t="n">
-        <v>8.98613941993084</v>
+        <v>8.986139419930838</v>
       </c>
       <c r="BF30" t="n">
         <v>8.998321405849786</v>
@@ -10928,7 +10928,7 @@
         <v>4.944999999999965</v>
       </c>
       <c r="AL34" t="n">
-        <v>4.680198781131049</v>
+        <v>4.680198781131048</v>
       </c>
       <c r="AM34" t="n">
         <v>4.690887401888886</v>
@@ -10979,7 +10979,7 @@
         <v>4.734999999999985</v>
       </c>
       <c r="BE34" t="n">
-        <v>4.552616062966293</v>
+        <v>4.552616062966294</v>
       </c>
       <c r="BF34" t="n">
         <v>4.560105683179122</v>
@@ -11030,7 +11030,7 @@
         <v>4.900000000000006</v>
       </c>
       <c r="BX34" t="n">
-        <v>4.576398884999122</v>
+        <v>4.576398884999121</v>
       </c>
       <c r="BY34" t="n">
         <v>4.585062373667363</v>
@@ -11096,10 +11096,10 @@
         <v>1.050675557659946</v>
       </c>
       <c r="CZ34" t="n">
-        <v>0.9727398932970273</v>
+        <v>0.9727398932970276</v>
       </c>
       <c r="DA34" t="n">
-        <v>1.005223990273701</v>
+        <v>1.0052239902737</v>
       </c>
       <c r="DB34" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>6.114249999999988</v>
       </c>
       <c r="AL37" t="n">
-        <v>4.694313674073984</v>
+        <v>4.694313674073983</v>
       </c>
       <c r="AM37" t="n">
         <v>4.737793021313028</v>
@@ -12046,7 +12046,7 @@
         <v>1.076967236710759</v>
       </c>
       <c r="CZ37" t="n">
-        <v>0.9350076791826907</v>
+        <v>0.935007679182691</v>
       </c>
       <c r="DA37" t="n">
         <v>1.003671852066075</v>
@@ -12767,7 +12767,7 @@
         <v>14.82975000000002</v>
       </c>
       <c r="S40" t="n">
-        <v>13.19721520349957</v>
+        <v>13.19721520349956</v>
       </c>
       <c r="T40" t="n">
         <v>13.21677400229876</v>
@@ -13560,7 +13560,7 @@
         <v>14.56999999999999</v>
       </c>
       <c r="BX42" t="n">
-        <v>13.58162985680418</v>
+        <v>13.58162985680417</v>
       </c>
       <c r="BY42" t="n">
         <v>13.60023579250978</v>
@@ -13626,10 +13626,10 @@
         <v>1.032928706432218</v>
       </c>
       <c r="CZ42" t="n">
-        <v>0.9821967826360616</v>
+        <v>0.9821967826360612</v>
       </c>
       <c r="DA42" t="n">
-        <v>0.9992322314944626</v>
+        <v>0.9992322314944628</v>
       </c>
       <c r="DB42" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>9.724999999999994</v>
       </c>
       <c r="BX44" t="n">
-        <v>8.658321476792</v>
+        <v>8.658321476792004</v>
       </c>
       <c r="BY44" t="n">
         <v>8.69279915227564</v>
